--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MyNn\NeuralNetwork\ExternalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ZZZ\MyNn\NeuralNetwork\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0">
+    <comment ref="K69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Input</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -160,13 +158,162 @@
   </si>
   <si>
     <t>∂Et/∂out1 | ∂Et/∂out2 | ∂Et/∂out3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Softmax '</t>
+  </si>
+  <si>
+    <t>Crossentropy '</t>
+  </si>
+  <si>
+    <r>
+      <t>∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>kl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>kl</t>
+    </r>
+  </si>
+  <si>
+    <t>transposed =&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>kl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>jk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>jk</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -193,8 +340,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Titillium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Titillium"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -357,12 +521,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,60 +628,123 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,6 +762,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819149" y="2019300"/>
+          <a:ext cx="4234716" cy="1142999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="733426" y="3019426"/>
+          <a:ext cx="4210049" cy="1070028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>494264</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D65D6EA-526F-49E0-9D4C-813693FDD2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="942975" y="6296026"/>
+          <a:ext cx="4085189" cy="2228849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -856,59 +1308,54 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="F1" s="23" t="s">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1">
+      <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="S2" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
         <v>0.1</v>
@@ -955,22 +1402,13 @@
         <f>$I$4*K5+$J$4*K6+$K$4*K7+K8</f>
         <v>2.8230360327250636</v>
       </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="S3" s="59">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1023,22 +1461,10 @@
         <f>N3/($L$3+$M$3+$N$3)</f>
         <v>0.40793041026968591</v>
       </c>
-      <c r="O4" s="12">
-        <f>(-1)*(O3*LOG(L4) + (1-O3)*LOG(1-L4))</f>
-        <v>0.56897021031581985</v>
-      </c>
-      <c r="P4" s="13">
-        <f>(-1)*(P3*LOG(M4) + (1-P3)*LOG(1-M4))</f>
-        <v>0.16894786584889099</v>
-      </c>
-      <c r="Q4" s="14">
-        <f>(-1)*(Q3*LOG(N4) + (1-Q3)*LOG(1-N4))</f>
-        <v>0.22762724486545058</v>
-      </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1">
-      <c r="A5" s="24" t="s">
-        <v>17</v>
+      <c r="A5" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1073,18 +1499,9 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1537,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1157,10 +1574,10 @@
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -1193,334 +1610,744 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="N10" s="27">
+    <row r="10" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f>(-1)*(C11*LOG(L4) + (1-C11)*LOG(1-L4))</f>
+        <v>0.56897021031581985</v>
+      </c>
+      <c r="H11" s="13">
+        <f>(-1)*(D11*LOG(M4) + (1-D11)*LOG(1-M4))</f>
+        <v>0.16894786584889099</v>
+      </c>
+      <c r="I11" s="14">
+        <f>(-1)*(E11*LOG(N4) + (1-E11)*LOG(1-N4))</f>
+        <v>0.22762724486545058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="22" customFormat="1"/>
+    <row r="13" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H13" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="22" customFormat="1">
+      <c r="H14" s="44">
+        <f>(-1)*(C11*(1/L4)+(1-C11)*(1/(1-L4)))</f>
+        <v>-3.7065529644704216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="22" customFormat="1">
+      <c r="D15"/>
+      <c r="G15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="61">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="I15" s="48">
+        <f>(-1)*(D11*(1/M4)+(1-D11)*(1/(1-M4)))</f>
+        <v>-1.4755293951978394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H16" s="46">
+        <f>(-1)*(E11*(1/N4)+(1-E11)*(1/(1-N4)))</f>
+        <v>-1.6889906479667314</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" s="22" customFormat="1"/>
+    <row r="18" spans="5:15" s="22" customFormat="1"/>
+    <row r="19" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H19" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" s="22" customFormat="1">
+      <c r="H20" s="44">
+        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.15906572440211431</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" s="22" customFormat="1">
+      <c r="G21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="45">
+        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.20392775168086905</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H22" s="49">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I22" s="22">
         <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
         <v>0.24973763855303174</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
+    <row r="23" spans="5:15" s="22" customFormat="1"/>
+    <row r="24" spans="5:15" s="22" customFormat="1">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="5:15" s="22" customFormat="1">
+      <c r="G26"/>
+      <c r="H26" s="51">
+        <f>I4</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" ref="I26:J26" si="0">J4</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="J26" s="53">
+        <f t="shared" si="0"/>
+        <v>0.9820843048123673</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" s="22" customFormat="1" ht="15.75">
+      <c r="E27" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="54">
+        <f>H26</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" ref="I27:J27" si="1">I26</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="J27" s="55">
+        <f t="shared" si="1"/>
+        <v>0.9820843048123673</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G28"/>
+      <c r="H28" s="56">
+        <f>H27</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="I28" s="57">
+        <f t="shared" ref="I28" si="2">I27</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" ref="J28" si="3">J27</f>
+        <v>0.9820843048123673</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="5:15" s="22" customFormat="1">
+      <c r="G30"/>
+      <c r="H30" s="51">
+        <f>H26*$H20*$H14</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" ref="I30:J32" si="4">I26*$H20*$H14</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="J30" s="53">
+        <f t="shared" si="4"/>
+        <v>-0.57902269764406011</v>
+      </c>
+      <c r="M30" s="51">
+        <f>H30</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="N30" s="52">
+        <f>H31</f>
+        <v>-5.7627579975865102E-2</v>
+      </c>
+      <c r="O30" s="53">
+        <f>H32</f>
+        <v>-0.58432207324374486</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" s="22" customFormat="1" ht="15.75">
+      <c r="E31" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="54">
+        <f>H27*$H21*$H15</f>
+        <v>-5.7627579975865102E-2</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="4"/>
+        <v>-5.7728513548672616E-2</v>
+      </c>
+      <c r="J31" s="55">
+        <f t="shared" si="4"/>
+        <v>-6.028254751667806E-2</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="40"/>
+      <c r="M31" s="54">
+        <f>I30</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="N31" s="21">
+        <f>I31</f>
+        <v>-5.7728513548672616E-2</v>
+      </c>
+      <c r="O31" s="55">
+        <f>I32</f>
+        <v>-0.58534550186156087</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H32" s="56">
+        <f>H28*$H22*$H16</f>
+        <v>-0.58432207324374486</v>
+      </c>
+      <c r="I32" s="57">
+        <f t="shared" si="4"/>
+        <v>-0.58534550186156087</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="4"/>
+        <v>-0.61124244953739448</v>
+      </c>
+      <c r="M32" s="56">
+        <f>J30</f>
+        <v>-0.57902269764406011</v>
+      </c>
+      <c r="N32" s="57">
+        <f>J31</f>
+        <v>-6.028254751667806E-2</v>
+      </c>
+      <c r="O32" s="58">
+        <f>J32</f>
+        <v>-0.61124244953739448</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="34" spans="5:10" s="22" customFormat="1">
+      <c r="H34" s="51">
+        <f>I5-($S$3*M30)</f>
+        <v>0.1055352134557838</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" ref="I34:J34" si="5">J5-($S$3*N30)</f>
+        <v>0.40057627579975869</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="5"/>
+        <v>0.80584322073243753</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" s="22" customFormat="1" ht="15.75">
+      <c r="E35" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="54">
+        <f t="shared" ref="H35:H36" si="6">I6-($S$3*M31)</f>
+        <v>0.3055449082732753</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" ref="I35:I36" si="7">J6-($S$3*N31)</f>
+        <v>0.70057728513548667</v>
+      </c>
+      <c r="J35" s="55">
+        <f t="shared" ref="J35:J36" si="8">K6-($S$3*O31)</f>
+        <v>0.20585345501861563</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H36" s="56">
+        <f t="shared" si="6"/>
+        <v>0.5057902269764406</v>
+      </c>
+      <c r="I36" s="57">
+        <f t="shared" si="7"/>
+        <v>0.20060282547516678</v>
+      </c>
+      <c r="J36" s="58">
+        <f t="shared" si="8"/>
+        <v>0.90611242449537399</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" s="22" customFormat="1"/>
+    <row r="38" spans="5:10" s="22" customFormat="1"/>
+    <row r="39" spans="5:10" s="22" customFormat="1">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="5:10" s="22" customFormat="1"/>
+    <row r="41" spans="5:10" s="22" customFormat="1"/>
+    <row r="42" spans="5:10" s="22" customFormat="1"/>
+    <row r="43" spans="5:10" s="22" customFormat="1"/>
+    <row r="44" spans="5:10" s="22" customFormat="1"/>
+    <row r="45" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="46" spans="5:10" s="22" customFormat="1">
+      <c r="H46" s="44">
         <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
         <v>5.7427099367579122E-2</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" ref="J11:K11" si="0">1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
+    </row>
+    <row r="47" spans="5:10" s="22" customFormat="1">
+      <c r="G47" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="45">
+        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
         <v>5.5981215831597007E-2</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="48" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H48" s="46">
+        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
         <v>1.7594723053576653E-2</v>
       </c>
-      <c r="L11" s="2">
+    </row>
+    <row r="49" spans="2:14" s="22" customFormat="1"/>
+    <row r="50" spans="2:14" s="22" customFormat="1"/>
+    <row r="51" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1"/>
+    <row r="52" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="G52"/>
+      <c r="H52" s="51">
+        <f>F4</f>
+        <v>1.35</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" ref="I52:J52" si="9">G4</f>
+        <v>1.27</v>
+      </c>
+      <c r="J52" s="53">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" s="22" customFormat="1" ht="15.75">
+      <c r="E53" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="54">
+        <f>H52</f>
+        <v>1.35</v>
+      </c>
+      <c r="I53" s="21">
+        <f t="shared" ref="I53:I54" si="10">I52</f>
+        <v>1.27</v>
+      </c>
+      <c r="J53" s="55">
+        <f t="shared" ref="J53:J54" si="11">J52</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="G54"/>
+      <c r="H54" s="56">
+        <f>H53</f>
+        <v>1.35</v>
+      </c>
+      <c r="I54" s="57">
+        <f t="shared" si="10"/>
+        <v>1.27</v>
+      </c>
+      <c r="J54" s="58">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="56" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="57" spans="2:14" s="22" customFormat="1" ht="15.75">
+      <c r="E57" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="50"/>
+      <c r="G57" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="59" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="60" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="61" spans="2:14" s="22" customFormat="1"/>
+    <row r="62" spans="2:14" s="22" customFormat="1"/>
+    <row r="63" spans="2:14" s="22" customFormat="1">
+      <c r="N63" s="42">
+        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
+        <v>0.24973763855303174</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" s="2" customFormat="1">
+      <c r="B64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="2">
+        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
+        <v>5.7427099367579122E-2</v>
+      </c>
+      <c r="J64" s="2">
+        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
+        <v>5.5981215831597007E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
+        <v>1.7594723053576653E-2</v>
+      </c>
+      <c r="L64" s="2">
         <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
         <v>0.15906572440211431</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M64" s="2">
         <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
         <v>0.20392775168086905</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N64" s="24">
         <v>0.36849999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="38">
-        <f>SUM(L13:L15)</f>
+    <row r="65" spans="1:14" s="35" customFormat="1">
+      <c r="A65" s="37"/>
+      <c r="B65" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="35">
+        <f>SUM(L66:L68)</f>
         <v>-3.7065529644704216</v>
       </c>
-      <c r="M12" s="38">
-        <f>SUM(M13:M15)</f>
-        <v>-0.30099999999999999</v>
-      </c>
-      <c r="N12" s="38">
-        <f>SUM(N13:N15)</f>
+      <c r="M65" s="35">
+        <f>SUM(M66:M68)</f>
+        <v>-1.4755293951978394</v>
+      </c>
+      <c r="N65" s="35">
+        <f>SUM(N66:N68)</f>
         <v>-1.6889906479667314</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="3" t="s">
+    <row r="66" spans="1:14" s="3" customFormat="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="3">
+        <f>L66*L64*I69</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="L66" s="3">
+        <f>(-1)*(C11*(1/L4)+(1-C11)*(1/(1-L4)))</f>
+        <v>-3.7065529644704216</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="3" customFormat="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <f>(-1)*(D11*(1/M4)+(1-D11)*(1/(1-M4)))</f>
+        <v>-1.4755293951978394</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="3">
-        <f>L13*L11*I16</f>
-        <v>-0.55352134557837929</v>
-      </c>
-      <c r="L13" s="3">
-        <f>(-1)*(O3*(1/L4)+(1-O3)*(1/(1-L4)))</f>
-        <v>-3.7065529644704216</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <f>-0.301</f>
-        <v>-0.30099999999999999</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <f>(-1)*(Q3*(1/N4)+(1-Q3)*(1/(1-N4)))</f>
+      <c r="N68" s="3">
+        <f>(-1)*(E11*(1/N4)+(1-E11)*(1/(1-N4)))</f>
         <v>-1.6889906479667314</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
-      <c r="B16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="8">
+    <row r="69" spans="1:14" s="2" customFormat="1">
+      <c r="B69" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="8">
         <f>F$4</f>
         <v>1.35</v>
       </c>
-      <c r="G16" s="9">
-        <f>F16</f>
+      <c r="G69" s="9">
+        <f>F69</f>
         <v>1.35</v>
       </c>
-      <c r="H16" s="10">
-        <f>G16</f>
+      <c r="H69" s="10">
+        <f>G69</f>
         <v>1.35</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I69" s="8">
         <f>I$4</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="J16" s="9">
-        <f>I16</f>
+      <c r="J69" s="9">
+        <f>I69</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="K16" s="10">
-        <f>J16</f>
+      <c r="K69" s="10">
+        <f>J69</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="M16" s="27">
-        <f>(-1)*(P3*(1/M4)+(1-P3)*(1/(1-M4)))</f>
-        <v>-1.4755293951978394</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="2" customFormat="1">
-      <c r="B17" s="24"/>
-      <c r="F17" s="15">
+    </row>
+    <row r="70" spans="1:14" s="2" customFormat="1">
+      <c r="B70" s="38"/>
+      <c r="F70" s="15">
         <f>G$4</f>
         <v>1.27</v>
       </c>
-      <c r="G17" s="16">
-        <f t="shared" ref="G17:H17" si="1">F17</f>
+      <c r="G70" s="16">
+        <f t="shared" ref="G70:H70" si="12">F70</f>
         <v>1.27</v>
       </c>
-      <c r="H17" s="17">
-        <f t="shared" si="1"/>
+      <c r="H70" s="17">
+        <f t="shared" si="12"/>
         <v>1.27</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I70" s="15">
         <f>J$4</f>
         <v>0.94047563402349843</v>
       </c>
-      <c r="J17" s="16">
-        <f t="shared" ref="J17:K17" si="2">I17</f>
+      <c r="J70" s="16">
+        <f t="shared" ref="J70:K70" si="13">I70</f>
         <v>0.94047563402349843</v>
       </c>
-      <c r="K17" s="17">
-        <f t="shared" si="2"/>
+      <c r="K70" s="17">
+        <f t="shared" si="13"/>
         <v>0.94047563402349843</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B18" s="24"/>
-      <c r="F18" s="18">
+    <row r="71" spans="1:14" s="2" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B71" s="38"/>
+      <c r="F71" s="18">
         <f>H$4</f>
         <v>1.8</v>
       </c>
-      <c r="G18" s="19">
-        <f t="shared" ref="G18:H18" si="3">F18</f>
+      <c r="G71" s="19">
+        <f t="shared" ref="G71:H71" si="14">F71</f>
         <v>1.8</v>
       </c>
-      <c r="H18" s="20">
-        <f t="shared" si="3"/>
+      <c r="H71" s="20">
+        <f t="shared" si="14"/>
         <v>1.8</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I71" s="18">
         <f>K$4</f>
         <v>0.9820843048123673</v>
       </c>
-      <c r="J18" s="19">
-        <f t="shared" ref="J18:K18" si="4">I18</f>
+      <c r="J71" s="19">
+        <f t="shared" ref="J71:K71" si="15">I71</f>
         <v>0.9820843048123673</v>
       </c>
-      <c r="K18" s="20">
-        <f t="shared" si="4"/>
+      <c r="K71" s="20">
+        <f t="shared" si="15"/>
         <v>0.9820843048123673</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="28" customFormat="1"/>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="21" spans="2:11" s="28" customFormat="1">
-      <c r="B21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="29">
-        <f>I16*L$11*L$13</f>
+    <row r="72" spans="1:14" s="25" customFormat="1"/>
+    <row r="73" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="74" spans="1:14" s="25" customFormat="1">
+      <c r="B74" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="26">
+        <f>I69*L$64*L$66</f>
         <v>-0.55352134557837929</v>
       </c>
-      <c r="J21" s="30">
-        <f>J16*M$11*M$14</f>
-        <v>-5.7627579975865102E-2</v>
-      </c>
-      <c r="K21" s="31">
-        <f>K16*N$11*N$15</f>
+      <c r="J74" s="27">
+        <f>J69*M$64*M$67</f>
+        <v>-0.28249564195516064</v>
+      </c>
+      <c r="K74" s="28">
+        <f>K69*N$64*N$68</f>
         <v>-0.58432207324374486</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="28" customFormat="1">
-      <c r="B22" s="24"/>
-      <c r="I22" s="32">
-        <f>I17*L$11*L$13</f>
+    <row r="75" spans="1:14" s="25" customFormat="1">
+      <c r="B75" s="38"/>
+      <c r="I75" s="29">
+        <f>I70*L$64*L$66</f>
         <v>-0.55449082732753208</v>
       </c>
-      <c r="J22" s="33">
-        <f>J17*M$11*M$14</f>
-        <v>-5.7728513548672616E-2</v>
-      </c>
-      <c r="K22" s="34">
-        <f>K17*N$11*N$15</f>
+      <c r="J75" s="30">
+        <f>J70*M$64*M$67</f>
+        <v>-0.28299042751542586</v>
+      </c>
+      <c r="K75" s="31">
+        <f>K70*N$64*N$68</f>
         <v>-0.58534550186156087</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B23" s="24"/>
-      <c r="I23" s="35">
-        <f>I18*L$11*L$13</f>
+    <row r="76" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B76" s="38"/>
+      <c r="I76" s="32">
+        <f>I71*L$64*L$66</f>
         <v>-0.57902269764406011</v>
       </c>
-      <c r="J23" s="36">
-        <f>J18*M$11*M$14</f>
-        <v>-6.028254751667806E-2</v>
-      </c>
-      <c r="K23" s="37">
-        <f>K18*N$11*N$15</f>
+      <c r="J76" s="33">
+        <f>J71*M$64*M$67</f>
+        <v>-0.29551053447929898</v>
+      </c>
+      <c r="K76" s="34">
+        <f>K71*N$64*N$68</f>
         <v>-0.61124244953739448</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="25" spans="2:11" s="28" customFormat="1">
-      <c r="B25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="29">
-        <f>I5-$S$3*I21</f>
+    <row r="77" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="78" spans="1:14" s="25" customFormat="1">
+      <c r="B78" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="26">
+        <f>I5-$S$3*I74</f>
         <v>0.1055352134557838</v>
       </c>
-      <c r="J25" s="30">
-        <f>J5-$S$3*J21</f>
-        <v>0.40057627579975869</v>
-      </c>
-      <c r="K25" s="31">
-        <f>K5-$S$3*K21</f>
+      <c r="J78" s="27">
+        <f>J5-$S$3*J74</f>
+        <v>0.40282495641955163</v>
+      </c>
+      <c r="K78" s="28">
+        <f>K5-$S$3*K74</f>
         <v>0.80584322073243753</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="28" customFormat="1">
-      <c r="B26" s="24"/>
-      <c r="I26" s="32">
-        <f>I6-$S$3*I22</f>
+    <row r="79" spans="1:14" s="25" customFormat="1">
+      <c r="B79" s="38"/>
+      <c r="I79" s="29">
+        <f>I6-$S$3*I75</f>
         <v>0.3055449082732753</v>
       </c>
-      <c r="J26" s="33">
-        <f>J6-$S$3*J22</f>
-        <v>0.70057728513548667</v>
-      </c>
-      <c r="K26" s="34">
-        <f>K6-$S$3*K22</f>
+      <c r="J79" s="30">
+        <f>J6-$S$3*J75</f>
+        <v>0.70282990427515424</v>
+      </c>
+      <c r="K79" s="31">
+        <f>K6-$S$3*K75</f>
         <v>0.20585345501861563</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B27" s="24"/>
-      <c r="I27" s="35">
-        <f>I7-$S$3*I23</f>
+    <row r="80" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B80" s="38"/>
+      <c r="I80" s="32">
+        <f>I7-$S$3*I76</f>
         <v>0.5057902269764406</v>
       </c>
-      <c r="J27" s="36">
-        <f>J7-$S$3*J23</f>
-        <v>0.20060282547516678</v>
-      </c>
-      <c r="K27" s="37">
-        <f>K7-$S$3*K23</f>
+      <c r="J80" s="33">
+        <f>J7-$S$3*J76</f>
+        <v>0.202955105344793</v>
+      </c>
+      <c r="K80" s="34">
+        <f>K7-$S$3*K76</f>
         <v>0.90611242449537399</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="28" customFormat="1"/>
-    <row r="29" spans="2:11" s="28" customFormat="1"/>
-    <row r="30" spans="2:11" s="28" customFormat="1"/>
-    <row r="31" spans="2:11" s="28" customFormat="1">
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="28" customFormat="1"/>
-    <row r="33" s="28" customFormat="1"/>
-    <row r="34" s="28" customFormat="1"/>
-    <row r="35" s="28" customFormat="1"/>
-    <row r="36" s="28" customFormat="1"/>
-    <row r="37" s="28" customFormat="1"/>
-    <row r="38" s="28" customFormat="1"/>
-    <row r="39" s="28" customFormat="1"/>
-    <row r="40" s="28" customFormat="1"/>
-    <row r="41" s="28" customFormat="1"/>
-    <row r="42" s="28" customFormat="1"/>
-    <row r="43" s="28" customFormat="1"/>
-    <row r="44" s="28" customFormat="1"/>
-    <row r="45" s="28" customFormat="1"/>
+    <row r="81" spans="2:2" s="25" customFormat="1"/>
+    <row r="82" spans="2:2" s="25" customFormat="1"/>
+    <row r="83" spans="2:2" s="25" customFormat="1"/>
+    <row r="84" spans="2:2" s="25" customFormat="1">
+      <c r="B84" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" s="25" customFormat="1"/>
+    <row r="86" spans="2:2" s="25" customFormat="1"/>
+    <row r="87" spans="2:2" s="25" customFormat="1"/>
+    <row r="88" spans="2:2" s="25" customFormat="1"/>
+    <row r="89" spans="2:2" s="25" customFormat="1"/>
+    <row r="90" spans="2:2" s="25" customFormat="1"/>
+    <row r="91" spans="2:2" s="25" customFormat="1"/>
+    <row r="92" spans="2:2" s="25" customFormat="1"/>
+    <row r="93" spans="2:2" s="25" customFormat="1"/>
+    <row r="94" spans="2:2" s="25" customFormat="1"/>
+    <row r="95" spans="2:2" s="25" customFormat="1"/>
+    <row r="96" spans="2:2" s="25" customFormat="1"/>
+    <row r="97" s="25" customFormat="1"/>
+    <row r="98" s="25" customFormat="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="L1:N1"/>
+  <mergeCells count="17">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1531,10 +2358,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
-        <v>21</v>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +31,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H69" authorId="0" shapeId="0">
+    <comment ref="H139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K69" authorId="0" shapeId="0">
+    <comment ref="K139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Input</t>
   </si>
@@ -308,12 +307,336 @@
       <t>jk</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <r>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <t>http://matrixmultiplication.xyz/</t>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <t>Sigmoid'</t>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ΔW</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>kl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>kl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∂E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t xml:space="preserve"> / ∂H2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ΔW</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>jk</t>
+    </r>
+  </si>
+  <si>
+    <t>aici - cand schimbi de mana eroarea se schimba valorile doar pe ultima coloana - ceea ce e gresit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -351,8 +674,20 @@
       <color theme="1"/>
       <name val="Titillium"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Titillium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Titillium"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +727,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,77 +1027,173 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,15 +1218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>519965</xdr:colOff>
+      <xdr:colOff>510440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -807,7 +1256,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="819149" y="2019300"/>
+          <a:off x="809624" y="2019300"/>
           <a:ext cx="4234716" cy="1142999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -837,8 +1286,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31804</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,13 +1341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>494264</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -930,6 +1379,67 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="942975" y="6296026"/>
+          <a:ext cx="4085189" cy="2228849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399014</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1457325" y="10096500"/>
           <a:ext cx="4085189" cy="2228849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1295,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1309,44 +1819,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" thickBot="1">
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1">
-      <c r="C2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="C2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="S2" s="43" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="S2" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1402,7 +1912,7 @@
         <f>$I$4*K5+$J$4*K6+$K$4*K7+K8</f>
         <v>2.8230360327250636</v>
       </c>
-      <c r="S3" s="59">
+      <c r="S3" s="53">
         <v>0.01</v>
       </c>
     </row>
@@ -1463,7 +1973,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1501,7 +2011,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +2047,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1655,694 +2165,1759 @@
     </row>
     <row r="12" spans="1:19" s="22" customFormat="1"/>
     <row r="13" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H13" s="48" t="s">
+      <c r="K13" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="22" customFormat="1">
-      <c r="H14" s="44">
+      <c r="K14" s="45">
         <f>(-1)*(C11*(1/L4)+(1-C11)*(1/(1-L4)))</f>
         <v>-3.7065529644704216</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="22" customFormat="1">
+      <c r="L14" s="46">
+        <v>0</v>
+      </c>
+      <c r="M14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="22" customFormat="1" ht="15.75">
+      <c r="A15" s="63" t="s">
+        <v>44</v>
+      </c>
       <c r="D15"/>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="48">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54">
         <v>-0.30099999999999999</v>
       </c>
-      <c r="I15" s="48">
+      <c r="M15" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A16" s="64"/>
+      <c r="K16" s="50">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51">
+        <v>0</v>
+      </c>
+      <c r="M16" s="52">
+        <f>(-1)*(E11*(1/N4)+(1-E11)*(1/(1-N4)))</f>
+        <v>-1.6889906479667314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="22" customFormat="1">
+      <c r="L17" s="44">
         <f>(-1)*(D11*(1/M4)+(1-D11)*(1/(1-M4)))</f>
         <v>-1.4755293951978394</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H16" s="46">
+    <row r="18" spans="1:22" s="22" customFormat="1"/>
+    <row r="19" spans="1:22" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="K19" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="22" customFormat="1">
+      <c r="K20" s="45">
+        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.15906572440211431</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0</v>
+      </c>
+      <c r="M20" s="47">
+        <v>0</v>
+      </c>
+      <c r="P20" s="56"/>
+    </row>
+    <row r="21" spans="1:22" s="22" customFormat="1" ht="15.75">
+      <c r="A21" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="48">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.20392775168086905</v>
+      </c>
+      <c r="M21" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A22" s="64"/>
+      <c r="K22" s="50">
+        <v>0</v>
+      </c>
+      <c r="L22" s="51">
+        <v>0</v>
+      </c>
+      <c r="M22" s="82">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="N22" s="22">
+        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
+        <v>0.24973763855303174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="22" customFormat="1"/>
+    <row r="24" spans="1:22" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:22" s="56" customFormat="1">
+      <c r="G25"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="79">
+        <f>$K14*K$20+$L14*L$21+$M14*M$22</f>
+        <v>-0.58958553232829181</v>
+      </c>
+      <c r="O25" s="84">
+        <f>$K14*K$20+$L14*K$21+$M14*K$22</f>
+        <v>-0.58958553232829181</v>
+      </c>
+      <c r="P25" s="85">
+        <f>$K14*L$20+$L14*L$21+$M14*L$22</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="86">
+        <f>$K14*M$20+$L14*M$21+$M14*M$22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="56" customFormat="1" ht="15.75">
+      <c r="H26" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="80">
+        <f>$K15*K$20+$L15*L$21+$M15*M$22</f>
+        <v>-6.1382253255941578E-2</v>
+      </c>
+      <c r="O26" s="87">
+        <f>$K15*K$20+$L15*K$21+$M15*K$22</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="88">
+        <f>$K15*L$20+$L15*L$21+$M15*L$22</f>
+        <v>-6.1382253255941578E-2</v>
+      </c>
+      <c r="Q26" s="89">
+        <f>$K15*M$20+$L15*M$21+$M15*M$22</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="62"/>
+    </row>
+    <row r="27" spans="1:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="81">
+        <f>$K16*K$20+$L16*L$21+$M16*M$22</f>
+        <v>-0.6223930537757405</v>
+      </c>
+      <c r="O27" s="90">
+        <f>$K16*K$20+$L16*K$21+$M16*K$22</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="91">
+        <f>$K16*L$20+$L16*L$21+$M16*L$22</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="83">
+        <f>$K16*M$20+$L16*M$21+$M16*M$22</f>
+        <v>-0.6223930537757405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="56" customFormat="1"/>
+    <row r="29" spans="1:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:22" s="56" customFormat="1" ht="16.5" thickBot="1">
+      <c r="G30"/>
+      <c r="H30" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="67">
+        <f>I4</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="L30" s="68">
+        <f>J4</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="M30" s="69">
+        <f>K4</f>
+        <v>0.9820843048123673</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="56">
+        <f>I$4</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="R30" s="56">
+        <f>J$4</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="S30" s="56">
+        <f>K$4</f>
+        <v>0.9820843048123673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="56" customFormat="1" ht="15.75">
+      <c r="G31"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="57"/>
+      <c r="Q31" s="56">
+        <f>I$4</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="R31" s="56">
+        <f>J$4</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="S31" s="56">
+        <f>K$4</f>
+        <v>0.9820843048123673</v>
+      </c>
+      <c r="T31" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="62"/>
+    </row>
+    <row r="32" spans="1:22" s="56" customFormat="1">
+      <c r="G32"/>
+      <c r="Q32" s="56">
+        <f>I$4</f>
+        <v>0.9388312894865416</v>
+      </c>
+      <c r="R32" s="56">
+        <f>J$4</f>
+        <v>0.94047563402349843</v>
+      </c>
+      <c r="S32" s="56">
+        <f>K$4</f>
+        <v>0.9820843048123673</v>
+      </c>
+    </row>
+    <row r="33" spans="7:21" s="56" customFormat="1">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:21" s="56" customFormat="1">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:21" s="56" customFormat="1">
+      <c r="G36"/>
+      <c r="K36" s="71">
+        <f>$K25*K$30</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="L36" s="72">
+        <f>$K25*L$30</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="M36" s="73">
+        <f>$K25*M$30</f>
+        <v>-0.57902269764406</v>
+      </c>
+      <c r="O36" s="71">
+        <f>$O25*Q$30+$P25*Q$31+$Q25*Q$32</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="P36" s="72">
+        <f>$O25*R$30+$P25*R$31+$Q25*R$32</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="Q36" s="73">
+        <f>$O25*S$30+$P25*S$31+$Q25*S$32</f>
+        <v>-0.57902269764406</v>
+      </c>
+      <c r="S36" s="92">
+        <f>K36-O36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="92">
+        <f t="shared" ref="T36:U36" si="0">L36-P36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:21" s="56" customFormat="1" ht="15.75">
+      <c r="G37"/>
+      <c r="H37" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="62"/>
+      <c r="J37" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="58">
+        <f>$K26*K$30</f>
+        <v>-5.7627579975865095E-2</v>
+      </c>
+      <c r="L37" s="57">
+        <f>$K26*L$30</f>
+        <v>-5.7728513548672609E-2</v>
+      </c>
+      <c r="M37" s="74">
+        <f>$K26*M$30</f>
+        <v>-6.0282547516678053E-2</v>
+      </c>
+      <c r="O37" s="58">
+        <f>$O26*Q$30+$P26*Q$31+$Q26*Q$32</f>
+        <v>-5.7627579975865095E-2</v>
+      </c>
+      <c r="P37" s="57">
+        <f>$O26*R$30+$P26*R$31+$Q26*R$32</f>
+        <v>-5.7728513548672609E-2</v>
+      </c>
+      <c r="Q37" s="74">
+        <f>$O26*S$30+$P26*S$31+$Q26*S$32</f>
+        <v>-6.0282547516678053E-2</v>
+      </c>
+      <c r="S37" s="92">
+        <f t="shared" ref="S37:S38" si="1">K37-O37</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="92">
+        <f t="shared" ref="T37:T38" si="2">L37-P37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="92">
+        <f t="shared" ref="U37:U38" si="3">M37-Q37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G38"/>
+      <c r="K38" s="75">
+        <f>$K27*K$30</f>
+        <v>-0.58432207324374486</v>
+      </c>
+      <c r="L38" s="76">
+        <f>$K27*L$30</f>
+        <v>-0.58534550186156087</v>
+      </c>
+      <c r="M38" s="77">
+        <f>$K27*M$30</f>
+        <v>-0.61124244953739448</v>
+      </c>
+      <c r="O38" s="75">
+        <f>$O27*Q$30+$P27*Q$31+$Q27*Q$32</f>
+        <v>-0.58432207324374486</v>
+      </c>
+      <c r="P38" s="76">
+        <f>$O27*R$30+$P27*R$31+$Q27*R$32</f>
+        <v>-0.58534550186156087</v>
+      </c>
+      <c r="Q38" s="77">
+        <f>$O27*S$30+$P27*S$31+$Q27*S$32</f>
+        <v>-0.61124244953739448</v>
+      </c>
+      <c r="S38" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21" s="56" customFormat="1">
+      <c r="G39"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+    </row>
+    <row r="40" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G40"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="7:21" s="56" customFormat="1">
+      <c r="G41"/>
+      <c r="K41" s="45">
+        <f>K36*$S$3</f>
+        <v>-5.5352134557837933E-3</v>
+      </c>
+      <c r="L41" s="46">
+        <f>K37*$S$3</f>
+        <v>-5.7627579975865091E-4</v>
+      </c>
+      <c r="M41" s="47">
+        <f>K38*$S$3</f>
+        <v>-5.8432207324374489E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:21" s="56" customFormat="1" ht="15.75">
+      <c r="G42"/>
+      <c r="H42" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="48">
+        <f>L36*$S$3</f>
+        <v>-5.5449082732753211E-3</v>
+      </c>
+      <c r="L42" s="21">
+        <f>L37*$S$3</f>
+        <v>-5.7728513548672609E-4</v>
+      </c>
+      <c r="M42" s="49">
+        <f>L38*$S$3</f>
+        <v>-5.8534550186156087E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G43"/>
+      <c r="K43" s="50">
+        <f>M36*$S$3</f>
+        <v>-5.7902269764406001E-3</v>
+      </c>
+      <c r="L43" s="51">
+        <f>M37*$S$3</f>
+        <v>-6.0282547516678057E-4</v>
+      </c>
+      <c r="M43" s="52">
+        <f>M38*$S$3</f>
+        <v>-6.112424495373945E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" s="56" customFormat="1">
+      <c r="G44"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+    </row>
+    <row r="45" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G45"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+    </row>
+    <row r="46" spans="7:21" s="56" customFormat="1">
+      <c r="G46"/>
+      <c r="K46" s="71">
+        <f>I5-K41</f>
+        <v>0.1055352134557838</v>
+      </c>
+      <c r="L46" s="72">
+        <f t="shared" ref="L46:M46" si="4">J5-L41</f>
+        <v>0.40057627579975869</v>
+      </c>
+      <c r="M46" s="73">
+        <f t="shared" si="4"/>
+        <v>0.80584322073243753</v>
+      </c>
+    </row>
+    <row r="47" spans="7:21" s="56" customFormat="1" ht="15.75">
+      <c r="G47"/>
+      <c r="H47" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="78"/>
+      <c r="J47" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="58">
+        <f>I6-K42</f>
+        <v>0.3055449082732753</v>
+      </c>
+      <c r="L47" s="57">
+        <f>J6-L42</f>
+        <v>0.70057728513548667</v>
+      </c>
+      <c r="M47" s="74">
+        <f>K6-M42</f>
+        <v>0.20585345501861563</v>
+      </c>
+    </row>
+    <row r="48" spans="7:21" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G48"/>
+      <c r="K48" s="75">
+        <f>I7-K43</f>
+        <v>0.5057902269764406</v>
+      </c>
+      <c r="L48" s="76">
+        <f>J7-L43</f>
+        <v>0.20060282547516678</v>
+      </c>
+      <c r="M48" s="77">
+        <f>K7-M43</f>
+        <v>0.90611242449537399</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" s="56" customFormat="1">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:15" s="56" customFormat="1">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:15" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:15" s="56" customFormat="1">
+      <c r="G52"/>
+      <c r="K52" s="71">
+        <f>I5</f>
+        <v>0.1</v>
+      </c>
+      <c r="L52" s="72">
+        <f t="shared" ref="L52:M52" si="5">J5</f>
+        <v>0.4</v>
+      </c>
+      <c r="M52" s="73">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" s="56" customFormat="1" ht="15.75">
+      <c r="G53"/>
+      <c r="H53" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="62"/>
+      <c r="J53" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="58">
+        <f t="shared" ref="K53:K54" si="6">I6</f>
+        <v>0.3</v>
+      </c>
+      <c r="L53" s="57">
+        <f t="shared" ref="L53:L54" si="7">J6</f>
+        <v>0.7</v>
+      </c>
+      <c r="M53" s="74">
+        <f t="shared" ref="M53:M54" si="8">K6</f>
+        <v>0.2</v>
+      </c>
+      <c r="N53" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G54"/>
+      <c r="K54" s="75">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="76">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="M54" s="77">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" s="56" customFormat="1">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:15" s="56" customFormat="1">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:15" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:15" s="56" customFormat="1">
+      <c r="G58"/>
+      <c r="K58" s="71">
+        <f>$O25*K$52+$P25*K$53+$Q25*K$54</f>
+        <v>-5.8958553232829183E-2</v>
+      </c>
+      <c r="L58" s="72">
+        <f t="shared" ref="L58:M58" si="9">$O25*L$52+$P25*L$53+$Q25*L$54</f>
+        <v>-0.23583421293131673</v>
+      </c>
+      <c r="M58" s="73">
+        <f t="shared" si="9"/>
+        <v>-0.47166842586263347</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" s="56" customFormat="1" ht="15.75">
+      <c r="G59"/>
+      <c r="H59" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="62"/>
+      <c r="J59" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="58">
+        <f t="shared" ref="K59:M59" si="10">$O26*K$52+$P26*K$53+$Q26*K$54</f>
+        <v>-1.8414675976782473E-2</v>
+      </c>
+      <c r="L59" s="57">
+        <f t="shared" si="10"/>
+        <v>-4.2967577279159105E-2</v>
+      </c>
+      <c r="M59" s="74">
+        <f t="shared" si="10"/>
+        <v>-1.2276450651188316E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="7:15" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G60"/>
+      <c r="K60" s="75">
+        <f t="shared" ref="K60:M60" si="11">$O27*K$52+$P27*K$53+$Q27*K$54</f>
+        <v>-0.31119652688787025</v>
+      </c>
+      <c r="L60" s="76">
+        <f t="shared" si="11"/>
+        <v>-0.1244786107551481</v>
+      </c>
+      <c r="M60" s="77">
+        <f t="shared" si="11"/>
+        <v>-0.56015374839816645</v>
+      </c>
+    </row>
+    <row r="61" spans="7:15" s="56" customFormat="1">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:15" s="56" customFormat="1">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:15" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G63"/>
+      <c r="K63" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="7:15" s="56" customFormat="1">
+      <c r="G64"/>
+      <c r="K64" s="71">
+        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
+        <v>5.7427099367579122E-2</v>
+      </c>
+      <c r="L64" s="72">
+        <v>0</v>
+      </c>
+      <c r="M64" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:22" s="56" customFormat="1" ht="15.75">
+      <c r="G65"/>
+      <c r="H65" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="62"/>
+      <c r="J65" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="58">
+        <v>0</v>
+      </c>
+      <c r="L65" s="57">
+        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
+        <v>5.5981215831597007E-2</v>
+      </c>
+      <c r="M65" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G66"/>
+      <c r="K66" s="75">
+        <v>0</v>
+      </c>
+      <c r="L66" s="76">
+        <v>0</v>
+      </c>
+      <c r="M66" s="77">
+        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
+        <v>1.7594723053576653E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:22" s="56" customFormat="1">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:22" s="56" customFormat="1">
+      <c r="G69"/>
+      <c r="K69" s="71">
+        <f>$K58*K$64+$L58*K$65+$M58*K$66</f>
+        <v>-3.385818695070385E-3</v>
+      </c>
+      <c r="L69" s="72">
+        <f t="shared" ref="L69:M69" si="12">$K58*L$64+$L58*L$65+$M58*L$66</f>
+        <v>-1.3202285974582848E-2</v>
+      </c>
+      <c r="M69" s="73">
+        <f t="shared" si="12"/>
+        <v>-8.2988753261694879E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="7:22" s="56" customFormat="1" ht="15.75">
+      <c r="G70"/>
+      <c r="H70" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="62"/>
+      <c r="J70" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="58">
+        <f t="shared" ref="K70:M70" si="13">$K59*K$64+$L59*K$65+$M59*K$66</f>
+        <v>-1.0575014271404593E-3</v>
+      </c>
+      <c r="L70" s="57">
+        <f t="shared" si="13"/>
+        <v>-2.4053772174254294E-3</v>
+      </c>
+      <c r="M70" s="74">
+        <f t="shared" si="13"/>
+        <v>-2.160007492885592E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G71"/>
+      <c r="K71" s="75">
+        <f t="shared" ref="K71:M71" si="14">$K60*K$64+$L60*K$65+$M60*K$66</f>
+        <v>-1.7871113872435233E-2</v>
+      </c>
+      <c r="L71" s="76">
+        <f t="shared" si="14"/>
+        <v>-6.9684639751012986E-3</v>
+      </c>
+      <c r="M71" s="77">
+        <f t="shared" si="14"/>
+        <v>-9.8557500704885958E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="7:22" s="56" customFormat="1">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:22" s="56" customFormat="1" ht="16.5" thickBot="1">
+      <c r="G74"/>
+      <c r="H74" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="62"/>
+      <c r="J74" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="67">
+        <f>F4</f>
+        <v>1.35</v>
+      </c>
+      <c r="L74" s="68">
+        <f t="shared" ref="L74:M74" si="15">G4</f>
+        <v>1.27</v>
+      </c>
+      <c r="M74" s="69">
+        <f t="shared" si="15"/>
+        <v>1.8</v>
+      </c>
+      <c r="N74" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q74" s="71">
+        <f>F4</f>
+        <v>1.35</v>
+      </c>
+      <c r="R74" s="72">
+        <f t="shared" ref="R74:S74" si="16">G4</f>
+        <v>1.27</v>
+      </c>
+      <c r="S74" s="73">
+        <f t="shared" si="16"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="75" spans="7:22" s="56" customFormat="1" ht="15.75">
+      <c r="G75"/>
+      <c r="Q75" s="58">
+        <f>Q74</f>
+        <v>1.35</v>
+      </c>
+      <c r="R75" s="57">
+        <f t="shared" ref="R75:S75" si="17">R74</f>
+        <v>1.27</v>
+      </c>
+      <c r="S75" s="74">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="T75" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U75" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="V75" s="62"/>
+    </row>
+    <row r="76" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G76"/>
+      <c r="Q76" s="75">
+        <f>Q75</f>
+        <v>1.35</v>
+      </c>
+      <c r="R76" s="76">
+        <f t="shared" ref="R76" si="18">R75</f>
+        <v>1.27</v>
+      </c>
+      <c r="S76" s="77">
+        <f t="shared" ref="S76" si="19">S75</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="77" spans="7:22" s="56" customFormat="1">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="7:22" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="7:22" s="56" customFormat="1">
+      <c r="G79"/>
+      <c r="K79" s="71">
+        <f>$K69*Q$74+$L69*Q$75+$M69*Q$76</f>
+        <v>-3.3597422994360679E-2</v>
+      </c>
+      <c r="L79" s="72">
+        <f t="shared" ref="L79:M79" si="20">$K69*R$74+$L69*R$75+$M69*R$76</f>
+        <v>-3.1606464594694857E-2</v>
+      </c>
+      <c r="M79" s="73">
+        <f t="shared" si="20"/>
+        <v>-4.4796563992480901E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:22" s="56" customFormat="1" ht="15.75">
+      <c r="G80"/>
+      <c r="H80" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="62"/>
+      <c r="J80" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="58">
+        <f t="shared" ref="K80:K81" si="21">$K70*Q$74+$L70*Q$75+$M70*Q$76</f>
+        <v>-4.966487181703505E-3</v>
+      </c>
+      <c r="L80" s="57">
+        <f t="shared" ref="L80:L81" si="22">$K70*R$74+$L70*R$75+$M70*R$76</f>
+        <v>-4.6721768301951488E-3</v>
+      </c>
+      <c r="M80" s="74">
+        <f t="shared" ref="M80:M81" si="23">$K70*S$74+$L70*S$75+$M70*S$76</f>
+        <v>-6.6219829089380067E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G81"/>
+      <c r="K81" s="75">
+        <f t="shared" si="21"/>
+        <v>-4.6838692689333931E-2</v>
+      </c>
+      <c r="L81" s="76">
+        <f t="shared" si="22"/>
+        <v>-4.4063066455891912E-2</v>
+      </c>
+      <c r="M81" s="77">
+        <f t="shared" si="23"/>
+        <v>-6.2451590252445233E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" s="56" customFormat="1">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:25" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="2:25" s="56" customFormat="1">
+      <c r="G84"/>
+      <c r="K84" s="45">
+        <f>K79*$S$3</f>
+        <v>-3.359742299436068E-4</v>
+      </c>
+      <c r="L84" s="46">
+        <f>K80*$S$3</f>
+        <v>-4.9664871817035052E-5</v>
+      </c>
+      <c r="M84" s="47">
+        <f>K81*$S$3</f>
+        <v>-4.6838692689333931E-4</v>
+      </c>
+      <c r="O84" s="55">
+        <v>-3.359742299436068E-4</v>
+      </c>
+      <c r="P84" s="55">
+        <v>-4.9664871817035052E-5</v>
+      </c>
+      <c r="Q84" s="55">
+        <v>-4.6838692689333931E-4</v>
+      </c>
+      <c r="S84" s="56">
+        <f>K84-O84</f>
+        <v>0</v>
+      </c>
+      <c r="T84" s="56">
+        <f t="shared" ref="T84:U84" si="24">L84-P84</f>
+        <v>0</v>
+      </c>
+      <c r="U84" s="56">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" s="56" customFormat="1" ht="15.75">
+      <c r="G85"/>
+      <c r="H85" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="60"/>
+      <c r="J85" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="48">
+        <f>L79*$S$3</f>
+        <v>-3.1606464594694856E-4</v>
+      </c>
+      <c r="L85" s="21">
+        <f>L80*$S$3</f>
+        <v>-4.6721768301951487E-5</v>
+      </c>
+      <c r="M85" s="49">
+        <f>L81*$S$3</f>
+        <v>-4.4063066455891914E-4</v>
+      </c>
+      <c r="O85" s="55">
+        <v>-3.1606464594694856E-4</v>
+      </c>
+      <c r="P85" s="55">
+        <v>-4.6721768301951487E-5</v>
+      </c>
+      <c r="Q85" s="55">
+        <v>-4.4063066455891914E-4</v>
+      </c>
+      <c r="S85" s="56">
+        <f t="shared" ref="S85:S86" si="25">K85-O85</f>
+        <v>0</v>
+      </c>
+      <c r="T85" s="56">
+        <f t="shared" ref="T85:T86" si="26">L85-P85</f>
+        <v>0</v>
+      </c>
+      <c r="U85" s="56">
+        <f t="shared" ref="U85:U86" si="27">M85-Q85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" s="56" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G86"/>
+      <c r="K86" s="50">
+        <f>M79*$S$3</f>
+        <v>-4.4796563992480904E-4</v>
+      </c>
+      <c r="L86" s="51">
+        <f>M80*$S$3</f>
+        <v>-6.6219829089380074E-5</v>
+      </c>
+      <c r="M86" s="52">
+        <f>M81*$S$3</f>
+        <v>-6.2451590252445238E-4</v>
+      </c>
+      <c r="O86" s="55">
+        <v>-4.4796563992480904E-4</v>
+      </c>
+      <c r="P86" s="55">
+        <v>-6.6219829089380074E-5</v>
+      </c>
+      <c r="Q86" s="55">
+        <v>-6.2451590252445238E-4</v>
+      </c>
+      <c r="S86" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="56">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" s="56" customFormat="1">
+      <c r="G87"/>
+      <c r="K87" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" s="56" customFormat="1">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="2:25" s="56" customFormat="1">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="2:25" s="56" customFormat="1">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="2:25" s="56" customFormat="1">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="2:25" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="2:25" s="22" customFormat="1">
+      <c r="G93"/>
+      <c r="H93" s="45">
+        <f>$K20*I$4</f>
+        <v>0.14933587915354782</v>
+      </c>
+      <c r="I93" s="46">
+        <f>$K20*J$4</f>
+        <v>0.14959743800848552</v>
+      </c>
+      <c r="J93" s="47">
+        <f>$K20*K$4</f>
+        <v>0.15621595136892605</v>
+      </c>
+      <c r="X93" s="56"/>
+      <c r="Y93" s="56"/>
+    </row>
+    <row r="94" spans="2:25" s="22" customFormat="1" ht="15.75">
+      <c r="B94" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="62"/>
+      <c r="G94" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="48">
+        <f>$L21*I$4</f>
+        <v>0.19145375407264154</v>
+      </c>
+      <c r="I94" s="21">
+        <f>$L21*J$4</f>
+        <v>0.19178908155705188</v>
+      </c>
+      <c r="J94" s="49">
+        <f>$L21*K$4</f>
+        <v>0.20027424424145535</v>
+      </c>
+      <c r="K94" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L94" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="M94" s="66"/>
+      <c r="S94" s="43"/>
+      <c r="W94" s="56"/>
+      <c r="X94" s="56"/>
+      <c r="Y94" s="56"/>
+    </row>
+    <row r="95" spans="2:25" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G95"/>
+      <c r="H95" s="50">
+        <f>$M22*I$4</f>
+        <v>0.34595933017579056</v>
+      </c>
+      <c r="I95" s="51">
+        <f>$M22*J$4</f>
+        <v>0.34656527113765917</v>
+      </c>
+      <c r="J95" s="52">
+        <f>$M22*K$4</f>
+        <v>0.36189806632335736</v>
+      </c>
+      <c r="W95" s="56"/>
+      <c r="X95" s="56"/>
+      <c r="Y95" s="56"/>
+    </row>
+    <row r="96" spans="2:25" s="56" customFormat="1">
+      <c r="G96"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+    </row>
+    <row r="97" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="5:15" s="22" customFormat="1">
+      <c r="G98"/>
+      <c r="H98" s="45">
+        <f>$K14*H$93+$L14*H$94+$M14*H$95</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="I98" s="46">
+        <f>$K14*I$93+$L14*I$94+$M14*I$95</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="J98" s="47">
+        <f>$K14*J$93+$L14*J$94+$M14*J$95</f>
+        <v>-0.57902269764406011</v>
+      </c>
+      <c r="M98" s="45">
+        <f>H98</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="N98" s="46">
+        <f>H99</f>
+        <v>-5.7627579975865102E-2</v>
+      </c>
+      <c r="O98" s="47">
+        <f>H100</f>
+        <v>-0.58432207324374486</v>
+      </c>
+    </row>
+    <row r="99" spans="5:15" s="22" customFormat="1" ht="15.75">
+      <c r="E99" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="62"/>
+      <c r="G99" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="48">
+        <f>$K15*H$93+$L15*H$94+$M15*H$95</f>
+        <v>-5.7627579975865102E-2</v>
+      </c>
+      <c r="I99" s="21">
+        <f>$K15*I$93+$L15*I$94+$M15*I$95</f>
+        <v>-5.7728513548672616E-2</v>
+      </c>
+      <c r="J99" s="49">
+        <f>$K15*J$93+$L15*J$94+$M15*J$95</f>
+        <v>-6.028254751667806E-2</v>
+      </c>
+      <c r="K99" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="60"/>
+      <c r="M99" s="48">
+        <f>I98</f>
+        <v>-0.55449082732753208</v>
+      </c>
+      <c r="N99" s="21">
+        <f>I99</f>
+        <v>-5.7728513548672616E-2</v>
+      </c>
+      <c r="O99" s="49">
+        <f>I100</f>
+        <v>-0.58534550186156087</v>
+      </c>
+    </row>
+    <row r="100" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H100" s="50">
+        <f>$K16*H$93+$L16*H$94+$M16*H$95</f>
+        <v>-0.58432207324374486</v>
+      </c>
+      <c r="I100" s="51">
+        <f>$K16*I$93+$L16*I$94+$M16*I$95</f>
+        <v>-0.58534550186156087</v>
+      </c>
+      <c r="J100" s="52">
+        <f>$K16*J$93+$L16*J$94+$M16*J$95</f>
+        <v>-0.61124244953739448</v>
+      </c>
+      <c r="M100" s="50">
+        <f>J98</f>
+        <v>-0.57902269764406011</v>
+      </c>
+      <c r="N100" s="51">
+        <f>J99</f>
+        <v>-6.028254751667806E-2</v>
+      </c>
+      <c r="O100" s="52">
+        <f>J100</f>
+        <v>-0.61124244953739448</v>
+      </c>
+    </row>
+    <row r="101" spans="5:15" s="22" customFormat="1"/>
+    <row r="102" spans="5:15" s="56" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="103" spans="5:15" s="22" customFormat="1">
+      <c r="H103" s="45">
+        <f>I5-($S$3*M98)</f>
+        <v>0.1055352134557838</v>
+      </c>
+      <c r="I103" s="46">
+        <f>J5-($S$3*N98)</f>
+        <v>0.40057627579975869</v>
+      </c>
+      <c r="J103" s="47">
+        <f>K5-($S$3*O98)</f>
+        <v>0.80584322073243753</v>
+      </c>
+    </row>
+    <row r="104" spans="5:15" s="22" customFormat="1" ht="15.75">
+      <c r="E104" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="62"/>
+      <c r="G104" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="48">
+        <f>I6-($S$3*M99)</f>
+        <v>0.3055449082732753</v>
+      </c>
+      <c r="I104" s="21">
+        <f>J6-($S$3*N99)</f>
+        <v>0.70057728513548667</v>
+      </c>
+      <c r="J104" s="49">
+        <f>K6-($S$3*O99)</f>
+        <v>0.20585345501861563</v>
+      </c>
+    </row>
+    <row r="105" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H105" s="50">
+        <f>I7-($S$3*M100)</f>
+        <v>0.5057902269764406</v>
+      </c>
+      <c r="I105" s="51">
+        <f>J7-($S$3*N100)</f>
+        <v>0.20060282547516678</v>
+      </c>
+      <c r="J105" s="52">
+        <f>K7-($S$3*O100)</f>
+        <v>0.90611242449537399</v>
+      </c>
+    </row>
+    <row r="106" spans="5:15" s="22" customFormat="1"/>
+    <row r="107" spans="5:15" s="22" customFormat="1"/>
+    <row r="108" spans="5:15" s="22" customFormat="1">
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="5:15" s="22" customFormat="1"/>
+    <row r="110" spans="5:15" s="22" customFormat="1"/>
+    <row r="111" spans="5:15" s="22" customFormat="1"/>
+    <row r="112" spans="5:15" s="22" customFormat="1"/>
+    <row r="113" spans="5:10" s="22" customFormat="1"/>
+    <row r="114" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H114" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" s="22" customFormat="1">
+      <c r="H115" s="40">
+        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
+        <v>5.7427099367579122E-2</v>
+      </c>
+      <c r="J115" s="56"/>
+    </row>
+    <row r="116" spans="5:10" s="22" customFormat="1">
+      <c r="G116" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="41">
+        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
+        <v>5.5981215831597007E-2</v>
+      </c>
+      <c r="J116" s="56"/>
+    </row>
+    <row r="117" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="H117" s="42">
+        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
+        <v>1.7594723053576653E-2</v>
+      </c>
+      <c r="J117" s="56"/>
+    </row>
+    <row r="118" spans="5:10" s="22" customFormat="1"/>
+    <row r="119" spans="5:10" s="22" customFormat="1"/>
+    <row r="120" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1"/>
+    <row r="121" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="G121"/>
+      <c r="H121" s="45">
+        <f>$K20*F$4</f>
+        <v>0.21473872794285434</v>
+      </c>
+      <c r="I121" s="46">
+        <f>$K20*G$4</f>
+        <v>0.20201346999068517</v>
+      </c>
+      <c r="J121" s="47">
+        <f>$K20*H$4</f>
+        <v>0.28631830392380575</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10" s="22" customFormat="1" ht="15.75">
+      <c r="E122" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="62"/>
+      <c r="G122" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" s="48">
+        <f>$L21*F$4</f>
+        <v>0.27530246476917325</v>
+      </c>
+      <c r="I122" s="21">
+        <f>$L21*G$4</f>
+        <v>0.25898824463470371</v>
+      </c>
+      <c r="J122" s="49">
+        <f>$L21*H$4</f>
+        <v>0.36706995302556428</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="G123"/>
+      <c r="H123" s="50">
+        <f>$M22*F$4</f>
+        <v>0.497475</v>
+      </c>
+      <c r="I123" s="51">
+        <f>$M22*G$4</f>
+        <v>0.46799499999999999</v>
+      </c>
+      <c r="J123" s="52">
+        <f>$M22*H$4</f>
+        <v>0.6633</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="125" spans="5:10" s="56" customFormat="1" ht="12" customHeight="1"/>
+    <row r="126" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="127" spans="5:10" s="22" customFormat="1" ht="15.75">
+      <c r="E127" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="62"/>
+      <c r="G127" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="129" spans="1:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="130" spans="1:14" s="22" customFormat="1" ht="12" customHeight="1"/>
+    <row r="131" spans="1:14" s="22" customFormat="1"/>
+    <row r="132" spans="1:14" s="22" customFormat="1"/>
+    <row r="133" spans="1:14" s="22" customFormat="1">
+      <c r="N133" s="38">
+        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
+        <v>0.24973763855303174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="2" customFormat="1">
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" s="2">
+        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
+        <v>5.7427099367579122E-2</v>
+      </c>
+      <c r="J134" s="2">
+        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
+        <v>5.5981215831597007E-2</v>
+      </c>
+      <c r="K134" s="2">
+        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
+        <v>1.7594723053576653E-2</v>
+      </c>
+      <c r="L134" s="2">
+        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.15906572440211431</v>
+      </c>
+      <c r="M134" s="2">
+        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
+        <v>0.20392775168086905</v>
+      </c>
+      <c r="N134" s="24">
+        <v>0.36849999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="35" customFormat="1">
+      <c r="A135" s="37"/>
+      <c r="B135" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" s="35">
+        <f>SUM(L136:L138)</f>
+        <v>-3.7065529644704216</v>
+      </c>
+      <c r="M135" s="35">
+        <f>SUM(M136:M138)</f>
+        <v>-1.4755293951978394</v>
+      </c>
+      <c r="N135" s="35">
+        <f>SUM(N136:N138)</f>
+        <v>-1.6889906479667314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="3" customFormat="1">
+      <c r="A136" s="36"/>
+      <c r="B136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I136" s="3">
+        <f>L136*L134*I139</f>
+        <v>-0.55352134557837929</v>
+      </c>
+      <c r="L136" s="3">
+        <f>(-1)*(C11*(1/L4)+(1-C11)*(1/(1-L4)))</f>
+        <v>-3.7065529644704216</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0</v>
+      </c>
+      <c r="N136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="3" customFormat="1">
+      <c r="A137" s="36"/>
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <f>(-1)*(D11*(1/M4)+(1-D11)*(1/(1-M4)))</f>
+        <v>-1.4755293951978394</v>
+      </c>
+      <c r="N137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A138" s="36"/>
+      <c r="B138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L138" s="3">
+        <v>0</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0</v>
+      </c>
+      <c r="N138" s="3">
         <f>(-1)*(E11*(1/N4)+(1-E11)*(1/(1-N4)))</f>
         <v>-1.6889906479667314</v>
       </c>
     </row>
-    <row r="17" spans="5:15" s="22" customFormat="1"/>
-    <row r="18" spans="5:15" s="22" customFormat="1"/>
-    <row r="19" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H19" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" s="22" customFormat="1">
-      <c r="H20" s="44">
-        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.15906572440211431</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15" s="22" customFormat="1">
-      <c r="G21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="45">
-        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.20392775168086905</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H22" s="49">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="I22" s="22">
-        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
-        <v>0.24973763855303174</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" s="22" customFormat="1"/>
-    <row r="24" spans="5:15" s="22" customFormat="1">
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="5:15" s="22" customFormat="1">
-      <c r="G26"/>
-      <c r="H26" s="51">
-        <f>I4</f>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="I26" s="52">
-        <f t="shared" ref="I26:J26" si="0">J4</f>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="J26" s="53">
-        <f t="shared" si="0"/>
-        <v>0.9820843048123673</v>
-      </c>
-    </row>
-    <row r="27" spans="5:15" s="22" customFormat="1" ht="15.75">
-      <c r="E27" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="54">
-        <f>H26</f>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="I27" s="21">
-        <f t="shared" ref="I27:J27" si="1">I26</f>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="J27" s="55">
-        <f t="shared" si="1"/>
-        <v>0.9820843048123673</v>
-      </c>
-    </row>
-    <row r="28" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G28"/>
-      <c r="H28" s="56">
-        <f>H27</f>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="I28" s="57">
-        <f t="shared" ref="I28" si="2">I27</f>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="J28" s="58">
-        <f t="shared" ref="J28" si="3">J27</f>
-        <v>0.9820843048123673</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="5:15" s="22" customFormat="1">
-      <c r="G30"/>
-      <c r="H30" s="51">
-        <f>H26*$H20*$H14</f>
-        <v>-0.55352134557837929</v>
-      </c>
-      <c r="I30" s="52">
-        <f t="shared" ref="I30:J32" si="4">I26*$H20*$H14</f>
-        <v>-0.55449082732753208</v>
-      </c>
-      <c r="J30" s="53">
-        <f t="shared" si="4"/>
-        <v>-0.57902269764406011</v>
-      </c>
-      <c r="M30" s="51">
-        <f>H30</f>
-        <v>-0.55352134557837929</v>
-      </c>
-      <c r="N30" s="52">
-        <f>H31</f>
-        <v>-5.7627579975865102E-2</v>
-      </c>
-      <c r="O30" s="53">
-        <f>H32</f>
-        <v>-0.58432207324374486</v>
-      </c>
-    </row>
-    <row r="31" spans="5:15" s="22" customFormat="1" ht="15.75">
-      <c r="E31" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="54">
-        <f>H27*$H21*$H15</f>
-        <v>-5.7627579975865102E-2</v>
-      </c>
-      <c r="I31" s="21">
-        <f t="shared" si="4"/>
-        <v>-5.7728513548672616E-2</v>
-      </c>
-      <c r="J31" s="55">
-        <f t="shared" si="4"/>
-        <v>-6.028254751667806E-2</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="54">
-        <f>I30</f>
-        <v>-0.55449082732753208</v>
-      </c>
-      <c r="N31" s="21">
-        <f>I31</f>
-        <v>-5.7728513548672616E-2</v>
-      </c>
-      <c r="O31" s="55">
-        <f>I32</f>
-        <v>-0.58534550186156087</v>
-      </c>
-    </row>
-    <row r="32" spans="5:15" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H32" s="56">
-        <f>H28*$H22*$H16</f>
-        <v>-0.58432207324374486</v>
-      </c>
-      <c r="I32" s="57">
-        <f t="shared" si="4"/>
-        <v>-0.58534550186156087</v>
-      </c>
-      <c r="J32" s="58">
-        <f t="shared" si="4"/>
-        <v>-0.61124244953739448</v>
-      </c>
-      <c r="M32" s="56">
-        <f>J30</f>
-        <v>-0.57902269764406011</v>
-      </c>
-      <c r="N32" s="57">
-        <f>J31</f>
-        <v>-6.028254751667806E-2</v>
-      </c>
-      <c r="O32" s="58">
-        <f>J32</f>
-        <v>-0.61124244953739448</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="34" spans="5:10" s="22" customFormat="1">
-      <c r="H34" s="51">
-        <f>I5-($S$3*M30)</f>
-        <v>0.1055352134557838</v>
-      </c>
-      <c r="I34" s="52">
-        <f t="shared" ref="I34:J34" si="5">J5-($S$3*N30)</f>
-        <v>0.40057627579975869</v>
-      </c>
-      <c r="J34" s="53">
-        <f t="shared" si="5"/>
-        <v>0.80584322073243753</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" s="22" customFormat="1" ht="15.75">
-      <c r="E35" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="54">
-        <f t="shared" ref="H35:H36" si="6">I6-($S$3*M31)</f>
-        <v>0.3055449082732753</v>
-      </c>
-      <c r="I35" s="21">
-        <f t="shared" ref="I35:I36" si="7">J6-($S$3*N31)</f>
-        <v>0.70057728513548667</v>
-      </c>
-      <c r="J35" s="55">
-        <f t="shared" ref="J35:J36" si="8">K6-($S$3*O31)</f>
-        <v>0.20585345501861563</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H36" s="56">
-        <f t="shared" si="6"/>
-        <v>0.5057902269764406</v>
-      </c>
-      <c r="I36" s="57">
-        <f t="shared" si="7"/>
-        <v>0.20060282547516678</v>
-      </c>
-      <c r="J36" s="58">
-        <f t="shared" si="8"/>
-        <v>0.90611242449537399</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" s="22" customFormat="1"/>
-    <row r="38" spans="5:10" s="22" customFormat="1"/>
-    <row r="39" spans="5:10" s="22" customFormat="1">
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="5:10" s="22" customFormat="1"/>
-    <row r="41" spans="5:10" s="22" customFormat="1"/>
-    <row r="42" spans="5:10" s="22" customFormat="1"/>
-    <row r="43" spans="5:10" s="22" customFormat="1"/>
-    <row r="44" spans="5:10" s="22" customFormat="1"/>
-    <row r="45" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="46" spans="5:10" s="22" customFormat="1">
-      <c r="H46" s="44">
-        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
-        <v>5.7427099367579122E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10" s="22" customFormat="1">
-      <c r="G47" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="45">
-        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
-        <v>5.5981215831597007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="H48" s="46">
-        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
-        <v>1.7594723053576653E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" s="22" customFormat="1"/>
-    <row r="50" spans="2:14" s="22" customFormat="1"/>
-    <row r="51" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1"/>
-    <row r="52" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="G52"/>
-      <c r="H52" s="51">
-        <f>F4</f>
-        <v>1.35</v>
-      </c>
-      <c r="I52" s="52">
-        <f t="shared" ref="I52:J52" si="9">G4</f>
-        <v>1.27</v>
-      </c>
-      <c r="J52" s="53">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" s="22" customFormat="1" ht="15.75">
-      <c r="E53" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="54">
-        <f>H52</f>
-        <v>1.35</v>
-      </c>
-      <c r="I53" s="21">
-        <f t="shared" ref="I53:I54" si="10">I52</f>
-        <v>1.27</v>
-      </c>
-      <c r="J53" s="55">
-        <f t="shared" ref="J53:J54" si="11">J52</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="G54"/>
-      <c r="H54" s="56">
-        <f>H53</f>
-        <v>1.35</v>
-      </c>
-      <c r="I54" s="57">
-        <f t="shared" si="10"/>
-        <v>1.27</v>
-      </c>
-      <c r="J54" s="58">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
-    <row r="56" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
-    <row r="57" spans="2:14" s="22" customFormat="1" ht="15.75">
-      <c r="E57" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
-    <row r="59" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
-    <row r="60" spans="2:14" s="22" customFormat="1" ht="12" customHeight="1"/>
-    <row r="61" spans="2:14" s="22" customFormat="1"/>
-    <row r="62" spans="2:14" s="22" customFormat="1"/>
-    <row r="63" spans="2:14" s="22" customFormat="1">
-      <c r="N63" s="42">
-        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
-        <v>0.24973763855303174</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" s="2" customFormat="1">
-      <c r="B64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="2">
-        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
-        <v>5.7427099367579122E-2</v>
-      </c>
-      <c r="J64" s="2">
-        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
-        <v>5.5981215831597007E-2</v>
-      </c>
-      <c r="K64" s="2">
-        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
-        <v>1.7594723053576653E-2</v>
-      </c>
-      <c r="L64" s="2">
-        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.15906572440211431</v>
-      </c>
-      <c r="M64" s="2">
-        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.20392775168086905</v>
-      </c>
-      <c r="N64" s="24">
-        <v>0.36849999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="35" customFormat="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="35">
-        <f>SUM(L66:L68)</f>
-        <v>-3.7065529644704216</v>
-      </c>
-      <c r="M65" s="35">
-        <f>SUM(M66:M68)</f>
-        <v>-1.4755293951978394</v>
-      </c>
-      <c r="N65" s="35">
-        <f>SUM(N66:N68)</f>
-        <v>-1.6889906479667314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="3" customFormat="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="3">
-        <f>L66*L64*I69</f>
-        <v>-0.55352134557837929</v>
-      </c>
-      <c r="L66" s="3">
-        <f>(-1)*(C11*(1/L4)+(1-C11)*(1/(1-L4)))</f>
-        <v>-3.7065529644704216</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="3" customFormat="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="3">
-        <v>0</v>
-      </c>
-      <c r="M67" s="3">
-        <f>(-1)*(D11*(1/M4)+(1-D11)*(1/(1-M4)))</f>
-        <v>-1.4755293951978394</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L68" s="3">
-        <v>0</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3">
-        <f>(-1)*(E11*(1/N4)+(1-E11)*(1/(1-N4)))</f>
-        <v>-1.6889906479667314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1">
-      <c r="B69" s="38" t="s">
+    <row r="139" spans="1:14" s="2" customFormat="1">
+      <c r="B139" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F139" s="8">
         <f>F$4</f>
         <v>1.35</v>
       </c>
-      <c r="G69" s="9">
-        <f>F69</f>
+      <c r="G139" s="9">
+        <f t="shared" ref="G139:H141" si="28">F139</f>
         <v>1.35</v>
       </c>
-      <c r="H69" s="10">
-        <f>G69</f>
+      <c r="H139" s="10">
+        <f t="shared" si="28"/>
         <v>1.35</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I139" s="8">
         <f>I$4</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="J69" s="9">
-        <f>I69</f>
+      <c r="J139" s="9">
+        <f t="shared" ref="J139:K141" si="29">I139</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="K69" s="10">
-        <f>J69</f>
+      <c r="K139" s="10">
+        <f t="shared" si="29"/>
         <v>0.9388312894865416</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="2" customFormat="1">
-      <c r="B70" s="38"/>
-      <c r="F70" s="15">
+    <row r="140" spans="1:14" s="2" customFormat="1">
+      <c r="B140" s="59"/>
+      <c r="F140" s="15">
         <f>G$4</f>
         <v>1.27</v>
       </c>
-      <c r="G70" s="16">
-        <f t="shared" ref="G70:H70" si="12">F70</f>
+      <c r="G140" s="16">
+        <f t="shared" si="28"/>
         <v>1.27</v>
       </c>
-      <c r="H70" s="17">
-        <f t="shared" si="12"/>
+      <c r="H140" s="17">
+        <f t="shared" si="28"/>
         <v>1.27</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I140" s="15">
         <f>J$4</f>
         <v>0.94047563402349843</v>
       </c>
-      <c r="J70" s="16">
-        <f t="shared" ref="J70:K70" si="13">I70</f>
+      <c r="J140" s="16">
+        <f t="shared" si="29"/>
         <v>0.94047563402349843</v>
       </c>
-      <c r="K70" s="17">
-        <f t="shared" si="13"/>
+      <c r="K140" s="17">
+        <f t="shared" si="29"/>
         <v>0.94047563402349843</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B71" s="38"/>
-      <c r="F71" s="18">
+    <row r="141" spans="1:14" s="2" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B141" s="59"/>
+      <c r="F141" s="18">
         <f>H$4</f>
         <v>1.8</v>
       </c>
-      <c r="G71" s="19">
-        <f t="shared" ref="G71:H71" si="14">F71</f>
+      <c r="G141" s="19">
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
-      <c r="H71" s="20">
-        <f t="shared" si="14"/>
+      <c r="H141" s="20">
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I141" s="18">
         <f>K$4</f>
         <v>0.9820843048123673</v>
       </c>
-      <c r="J71" s="19">
-        <f t="shared" ref="J71:K71" si="15">I71</f>
+      <c r="J141" s="19">
+        <f t="shared" si="29"/>
         <v>0.9820843048123673</v>
       </c>
-      <c r="K71" s="20">
-        <f t="shared" si="15"/>
+      <c r="K141" s="20">
+        <f t="shared" si="29"/>
         <v>0.9820843048123673</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="25" customFormat="1"/>
-    <row r="73" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="74" spans="1:14" s="25" customFormat="1">
-      <c r="B74" s="38" t="s">
+    <row r="142" spans="1:14" s="25" customFormat="1"/>
+    <row r="143" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="144" spans="1:14" s="25" customFormat="1">
+      <c r="B144" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="26">
-        <f>I69*L$64*L$66</f>
+      <c r="I144" s="26">
+        <f>I139*L$134*L$136</f>
         <v>-0.55352134557837929</v>
       </c>
-      <c r="J74" s="27">
-        <f>J69*M$64*M$67</f>
+      <c r="J144" s="27">
+        <f>J139*M$134*M$137</f>
         <v>-0.28249564195516064</v>
       </c>
-      <c r="K74" s="28">
-        <f>K69*N$64*N$68</f>
+      <c r="K144" s="28">
+        <f>K139*N$134*N$138</f>
         <v>-0.58432207324374486</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="25" customFormat="1">
-      <c r="B75" s="38"/>
-      <c r="I75" s="29">
-        <f>I70*L$64*L$66</f>
+    <row r="145" spans="2:11" s="25" customFormat="1">
+      <c r="B145" s="59"/>
+      <c r="I145" s="29">
+        <f>I140*L$134*L$136</f>
         <v>-0.55449082732753208</v>
       </c>
-      <c r="J75" s="30">
-        <f>J70*M$64*M$67</f>
+      <c r="J145" s="30">
+        <f>J140*M$134*M$137</f>
         <v>-0.28299042751542586</v>
       </c>
-      <c r="K75" s="31">
-        <f>K70*N$64*N$68</f>
+      <c r="K145" s="31">
+        <f>K140*N$134*N$138</f>
         <v>-0.58534550186156087</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B76" s="38"/>
-      <c r="I76" s="32">
-        <f>I71*L$64*L$66</f>
+    <row r="146" spans="2:11" s="25" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B146" s="59"/>
+      <c r="I146" s="32">
+        <f>I141*L$134*L$136</f>
         <v>-0.57902269764406011</v>
       </c>
-      <c r="J76" s="33">
-        <f>J71*M$64*M$67</f>
+      <c r="J146" s="33">
+        <f>J141*M$134*M$137</f>
         <v>-0.29551053447929898</v>
       </c>
-      <c r="K76" s="34">
-        <f>K71*N$64*N$68</f>
+      <c r="K146" s="34">
+        <f>K141*N$134*N$138</f>
         <v>-0.61124244953739448</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="78" spans="1:14" s="25" customFormat="1">
-      <c r="B78" s="38" t="s">
+    <row r="147" spans="2:11" s="25" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="148" spans="2:11" s="25" customFormat="1">
+      <c r="B148" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I78" s="26">
-        <f>I5-$S$3*I74</f>
+      <c r="I148" s="26">
+        <f>I5-$S$3*I144</f>
         <v>0.1055352134557838</v>
       </c>
-      <c r="J78" s="27">
-        <f>J5-$S$3*J74</f>
+      <c r="J148" s="27">
+        <f>J5-$S$3*J144</f>
         <v>0.40282495641955163</v>
       </c>
-      <c r="K78" s="28">
-        <f>K5-$S$3*K74</f>
+      <c r="K148" s="28">
+        <f>K5-$S$3*K144</f>
         <v>0.80584322073243753</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="25" customFormat="1">
-      <c r="B79" s="38"/>
-      <c r="I79" s="29">
-        <f>I6-$S$3*I75</f>
+    <row r="149" spans="2:11" s="25" customFormat="1">
+      <c r="B149" s="59"/>
+      <c r="I149" s="29">
+        <f>I6-$S$3*I145</f>
         <v>0.3055449082732753</v>
       </c>
-      <c r="J79" s="30">
-        <f>J6-$S$3*J75</f>
+      <c r="J149" s="30">
+        <f>J6-$S$3*J145</f>
         <v>0.70282990427515424</v>
       </c>
-      <c r="K79" s="31">
-        <f>K6-$S$3*K75</f>
+      <c r="K149" s="31">
+        <f>K6-$S$3*K145</f>
         <v>0.20585345501861563</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="25" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B80" s="38"/>
-      <c r="I80" s="32">
-        <f>I7-$S$3*I76</f>
+    <row r="150" spans="2:11" s="25" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B150" s="59"/>
+      <c r="I150" s="32">
+        <f>I7-$S$3*I146</f>
         <v>0.5057902269764406</v>
       </c>
-      <c r="J80" s="33">
-        <f>J7-$S$3*J76</f>
+      <c r="J150" s="33">
+        <f>J7-$S$3*J146</f>
         <v>0.202955105344793</v>
       </c>
-      <c r="K80" s="34">
-        <f>K7-$S$3*K76</f>
+      <c r="K150" s="34">
+        <f>K7-$S$3*K146</f>
         <v>0.90611242449537399</v>
       </c>
     </row>
-    <row r="81" spans="2:2" s="25" customFormat="1"/>
-    <row r="82" spans="2:2" s="25" customFormat="1"/>
-    <row r="83" spans="2:2" s="25" customFormat="1"/>
-    <row r="84" spans="2:2" s="25" customFormat="1">
-      <c r="B84" s="3" t="s">
+    <row r="151" spans="2:11" s="25" customFormat="1"/>
+    <row r="152" spans="2:11" s="25" customFormat="1"/>
+    <row r="153" spans="2:11" s="25" customFormat="1"/>
+    <row r="154" spans="2:11" s="25" customFormat="1">
+      <c r="B154" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:2" s="25" customFormat="1"/>
-    <row r="86" spans="2:2" s="25" customFormat="1"/>
-    <row r="87" spans="2:2" s="25" customFormat="1"/>
-    <row r="88" spans="2:2" s="25" customFormat="1"/>
-    <row r="89" spans="2:2" s="25" customFormat="1"/>
-    <row r="90" spans="2:2" s="25" customFormat="1"/>
-    <row r="91" spans="2:2" s="25" customFormat="1"/>
-    <row r="92" spans="2:2" s="25" customFormat="1"/>
-    <row r="93" spans="2:2" s="25" customFormat="1"/>
-    <row r="94" spans="2:2" s="25" customFormat="1"/>
-    <row r="95" spans="2:2" s="25" customFormat="1"/>
-    <row r="96" spans="2:2" s="25" customFormat="1"/>
-    <row r="97" s="25" customFormat="1"/>
-    <row r="98" s="25" customFormat="1"/>
+    <row r="155" spans="2:11" s="25" customFormat="1"/>
+    <row r="156" spans="2:11" s="25" customFormat="1"/>
+    <row r="157" spans="2:11" s="25" customFormat="1"/>
+    <row r="158" spans="2:11" s="25" customFormat="1"/>
+    <row r="159" spans="2:11" s="25" customFormat="1"/>
+    <row r="160" spans="2:11" s="25" customFormat="1"/>
+    <row r="161" s="25" customFormat="1"/>
+    <row r="162" s="25" customFormat="1"/>
+    <row r="163" s="25" customFormat="1"/>
+    <row r="164" s="25" customFormat="1"/>
+    <row r="165" s="25" customFormat="1"/>
+    <row r="166" s="25" customFormat="1"/>
+    <row r="167" s="25" customFormat="1"/>
+    <row r="168" s="25" customFormat="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E127:F127"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L94:M94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2353,22 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2378,9 +3941,15 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ZZZ\MyNn\NeuralNetwork\ExternalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MyNn\NeuralNetwork\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -951,7 +950,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -1223,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,13 +1357,228 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1376,243 +1590,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1661,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1722,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1783,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,56 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="3" spans="6:8">
-      <c r="F3">
-        <v>1.8657999999999999</v>
-      </c>
-      <c r="G3">
-        <v>2.2292000000000001</v>
-      </c>
-      <c r="H3">
-        <v>2.8203999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8">
-      <c r="F4">
-        <f>EXP(F3)/SUM(EXP($F$3)+EXP($G$3)+EXP($H$3))</f>
-        <v>0.19857651019773825</v>
-      </c>
-      <c r="G4">
-        <f>EXP(G3)/SUM(EXP($F$3)+EXP($G$3)+EXP($H$3))</f>
-        <v>0.28559492698949396</v>
-      </c>
-      <c r="H4">
-        <f>EXP(H3)/SUM(EXP($F$3)+EXP($G$3)+EXP($H$3))</f>
-        <v>0.5158285628127679</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="G8">
-        <f>LOG(0.2698)</f>
-        <v>-0.56895805466411453</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2180,44 +2142,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1">
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53" t="s">
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="S2" s="131" t="s">
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="S2" s="120" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2237,19 +2199,19 @@
       <c r="E3" s="7">
         <v>0.7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f>$C$4*C5+$D$4*C6+$E$4*C7+C8</f>
         <v>1.35</v>
       </c>
-      <c r="G3" s="9">
-        <f>$C$4*D5+$D$4*D6+$E$4*D7+D8</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:H3" si="0">$C$4*D5+$D$4*D6+$E$4*D7+D8</f>
         <v>1.27</v>
       </c>
-      <c r="H3" s="9">
-        <f>$C$4*E5+$D$4*E6+$E$4*E7+E8</f>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <f>$F$4*F5+$G$4*F6+$H$4*F7+F8</f>
         <v>2.7309999999999999</v>
       </c>
@@ -2273,7 +2235,7 @@
         <f>$I$4*K5+$J$4*K6+$K$4*K7+K8</f>
         <v>2.8230360327250636</v>
       </c>
-      <c r="S3" s="132">
+      <c r="S3" s="121">
         <v>0.01</v>
       </c>
     </row>
@@ -2296,15 +2258,15 @@
         <f>E3</f>
         <v>0.7</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="133">
         <f>MAX(0,F3)</f>
         <v>1.35</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="134">
         <f>MAX(0,G3)</f>
         <v>1.27</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="135">
         <f>MAX(0,H3)</f>
         <v>1.8</v>
       </c>
@@ -2321,20 +2283,20 @@
         <v>0.9820843048123673</v>
       </c>
       <c r="L4" s="12">
-        <f>L3/($L$3+$M$3+$N$3)</f>
-        <v>0.2697924485595139</v>
+        <f>EXP(L3)/(EXP($L$3)+EXP($M$3)+EXP($N$3))</f>
+        <v>0.19844689423273101</v>
       </c>
       <c r="M4" s="13">
-        <f>M3/($L$3+$M$3+$N$3)</f>
-        <v>0.32227714117080014</v>
+        <f t="shared" ref="M4:N4" si="1">EXP(M3)/(EXP($L$3)+EXP($M$3)+EXP($N$3))</f>
+        <v>0.28535553042500489</v>
       </c>
       <c r="N4" s="14">
-        <f>N3/($L$3+$M$3+$N$3)</f>
-        <v>0.40793041026968591</v>
+        <f t="shared" si="1"/>
+        <v>0.51619757534226418</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2372,7 +2334,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2370,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="51"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2482,22 +2444,22 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1">
-      <c r="A9" s="106"/>
-      <c r="C9" s="107" t="s">
+      <c r="A9" s="96"/>
+      <c r="C9" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107" t="s">
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107" t="s">
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -2520,6 +2482,10 @@
       </c>
       <c r="I11" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="P11" s="22">
+        <f>EXP(2)</f>
+        <v>7.3890560989306504</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -2541,15 +2507,15 @@
       </c>
       <c r="G12" s="12">
         <f>(-1)*(C12*LOG(L4) + (1-C12)*LOG(1-L4))</f>
-        <v>0.56897021031581985</v>
+        <v>0.70235569357285044</v>
       </c>
       <c r="H12" s="13">
         <f>(-1)*(D12*LOG(M4) + (1-D12)*LOG(1-M4))</f>
-        <v>0.16894786584889099</v>
+        <v>0.14590996281852558</v>
       </c>
       <c r="I12" s="14">
         <f>(-1)*(E12*LOG(N4) + (1-E12)*LOG(1-N4))</f>
-        <v>0.22762724486545058</v>
+        <v>0.31533195942838366</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -2581,11 +2547,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="36">
-        <f t="shared" ref="L14:M14" si="0">J8</f>
+        <f t="shared" ref="L14:M14" si="2">J8</f>
         <v>1</v>
       </c>
       <c r="M14" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P14" s="32"/>
@@ -2604,63 +2570,63 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
-      <c r="T16" s="82">
+      <c r="T16" s="74">
         <f>(-1)*(C12*(1/L4)+(1-C12)*(1/(1-L4)))</f>
-        <v>-3.7065529644704216</v>
-      </c>
-      <c r="U16" s="83">
+        <v>-5.039131521137528</v>
+      </c>
+      <c r="U16" s="75">
         <v>0</v>
       </c>
-      <c r="V16" s="84">
+      <c r="V16" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="122" t="s">
         <v>33</v>
       </c>
       <c r="D17"/>
       <c r="G17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="47" t="s">
+      <c r="Q17" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="47"/>
+      <c r="R17" s="125"/>
       <c r="S17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T17" s="85">
+      <c r="T17" s="77">
         <v>0</v>
       </c>
-      <c r="U17" s="105">
+      <c r="U17" s="95">
         <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
-        <v>-1.4755293951978394</v>
-      </c>
-      <c r="V17" s="86">
+        <v>-1.3992971926232187</v>
+      </c>
+      <c r="V17" s="78">
         <v>0</v>
       </c>
-      <c r="W17" s="108">
+      <c r="W17" s="97">
         <v>-0.30099999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="50"/>
-      <c r="T18" s="87">
+      <c r="A18" s="123"/>
+      <c r="T18" s="79">
         <v>0</v>
       </c>
-      <c r="U18" s="88">
+      <c r="U18" s="80">
         <v>0</v>
       </c>
-      <c r="V18" s="89">
+      <c r="V18" s="81">
         <f>(-1)*(E12*(1/N4)+(1-E12)*(1/(1-N4)))</f>
-        <v>-1.6889906479667314</v>
+        <v>-2.066959463271492</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="22" customFormat="1">
       <c r="U19" s="26">
         <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
-        <v>-1.4755293951978394</v>
+        <v>-1.3992971926232187</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="22" customFormat="1"/>
@@ -2670,102 +2636,102 @@
       </c>
     </row>
     <row r="22" spans="1:27" s="22" customFormat="1">
-      <c r="K22" s="74">
+      <c r="K22" s="66">
         <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
         <v>0.15906572440211431</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="67">
         <v>0</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="68">
         <v>0</v>
       </c>
-      <c r="T22" s="118">
-        <f>$T16*K$22+$U16*K$23+$V16*K$24</f>
-        <v>-0.58958553232829181</v>
-      </c>
-      <c r="U22" s="119">
-        <f>$T16*L$22+$U16*L$23+$V16*L$24</f>
+      <c r="T22" s="107">
+        <f t="shared" ref="T22:V24" si="3">$T16*K$22+$U16*K$23+$V16*K$24</f>
+        <v>-0.80155310576726913</v>
+      </c>
+      <c r="U22" s="108">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V22" s="120">
-        <f>$T16*M$22+$U16*M$23+$V16*M$24</f>
+      <c r="V22" s="109">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="122" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="125"/>
       <c r="J23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="69">
         <v>0</v>
       </c>
       <c r="L23" s="27">
         <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
         <v>0.20392775168086905</v>
       </c>
-      <c r="M23" s="78">
+      <c r="M23" s="70">
         <v>0</v>
       </c>
       <c r="P23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="47" t="s">
+      <c r="Q23" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="47"/>
+      <c r="R23" s="125"/>
       <c r="S23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="121">
-        <f>$T17*K$22+$U17*K$23+$V17*K$24</f>
+      <c r="T23" s="110">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U23" s="122">
-        <f>$T17*L$22+$U17*L$23+$V17*L$24</f>
-        <v>-0.30090139210172789</v>
-      </c>
-      <c r="V23" s="123">
-        <f>$T17*M$22+$U17*M$23+$V17*M$24</f>
+      <c r="U23" s="111">
+        <f t="shared" si="3"/>
+        <v>-0.28535553042500494</v>
+      </c>
+      <c r="V23" s="112">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="50"/>
-      <c r="K24" s="79">
+      <c r="A24" s="123"/>
+      <c r="K24" s="71">
         <v>0</v>
       </c>
-      <c r="L24" s="80">
+      <c r="L24" s="72">
         <v>0</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="85">
         <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
         <v>0.24973763855303174</v>
       </c>
-      <c r="N24" s="108">
+      <c r="N24" s="97">
         <v>0.36849999999999999</v>
       </c>
-      <c r="T24" s="124">
-        <f>$T18*K$22+$U18*K$23+$V18*K$24</f>
+      <c r="T24" s="113">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U24" s="125">
-        <f>$T18*L$22+$U18*L$23+$V18*L$24</f>
+      <c r="U24" s="114">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V24" s="126">
-        <f>$T18*M$22+$U18*M$23+$V18*M$24</f>
-        <v>-0.42180453596136641</v>
+      <c r="V24" s="115">
+        <f t="shared" si="3"/>
+        <v>-0.5161975753422644</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="22" customFormat="1" ht="16.5" thickBot="1">
@@ -2773,42 +2739,42 @@
         <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
         <v>0.24973763855303174</v>
       </c>
-      <c r="Q25" s="47" t="s">
+      <c r="Q25" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="R25" s="47"/>
+      <c r="R25" s="125"/>
       <c r="S25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T25" s="81">
+      <c r="T25" s="73">
         <f>SUM(T22:T24)</f>
-        <v>-0.58958553232829181</v>
-      </c>
-      <c r="U25" s="81">
-        <f t="shared" ref="U25" si="1">SUM(U22:U24)</f>
-        <v>-0.30090139210172789</v>
-      </c>
-      <c r="V25" s="81">
-        <f t="shared" ref="V25" si="2">SUM(V22:V24)</f>
-        <v>-0.42180453596136641</v>
+        <v>-0.80155310576726913</v>
+      </c>
+      <c r="U25" s="73">
+        <f t="shared" ref="U25" si="4">SUM(U22:U24)</f>
+        <v>-0.28535553042500494</v>
+      </c>
+      <c r="V25" s="73">
+        <f t="shared" ref="V25" si="5">SUM(V22:V24)</f>
+        <v>-0.5161975753422644</v>
       </c>
       <c r="W25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X25" s="130" t="s">
+      <c r="X25" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="127">
+      <c r="Y25" s="116">
         <f>K14-$S$3*T25</f>
-        <v>1.0058958553232829</v>
-      </c>
-      <c r="Z25" s="128">
-        <f t="shared" ref="Z25" si="3">L14-$S$3*U25</f>
-        <v>1.0030090139210173</v>
-      </c>
-      <c r="AA25" s="129">
-        <f t="shared" ref="AA25" si="4">M14-$S$3*V25</f>
-        <v>1.0042180453596137</v>
+        <v>1.0080155310576726</v>
+      </c>
+      <c r="Z25" s="117">
+        <f t="shared" ref="Z25" si="6">L14-$S$3*U25</f>
+        <v>1.0028535553042501</v>
+      </c>
+      <c r="AA25" s="118">
+        <f t="shared" ref="AA25" si="7">M14-$S$3*V25</f>
+        <v>1.0051619757534227</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
@@ -2816,16 +2782,16 @@
     </row>
     <row r="27" spans="1:27" s="29" customFormat="1" ht="15.75">
       <c r="G27"/>
-      <c r="K27" s="56">
-        <f>I$4</f>
+      <c r="K27" s="48">
+        <f t="shared" ref="K27:M29" si="8">I$4</f>
         <v>0.9388312894865416</v>
       </c>
-      <c r="L27" s="57">
-        <f>J$4</f>
+      <c r="L27" s="49">
+        <f t="shared" si="8"/>
         <v>0.94047563402349843</v>
       </c>
-      <c r="M27" s="58">
-        <f>K$4</f>
+      <c r="M27" s="50">
+        <f t="shared" si="8"/>
         <v>0.9820843048123673</v>
       </c>
       <c r="N27" s="25" t="s">
@@ -2835,36 +2801,36 @@
         <v>35</v>
       </c>
       <c r="T27" s="38">
-        <f>$T22*K$27+$U22*K$28+$V22*K$29</f>
-        <v>-0.55352134557837929</v>
+        <f t="shared" ref="T27:V29" si="9">$T22*K$27+$U22*K$28+$V22*K$29</f>
+        <v>-0.75252313587942754</v>
       </c>
       <c r="U27" s="39">
-        <f>$T22*L$27+$U22*L$28+$V22*L$29</f>
-        <v>-0.55449082732753208</v>
+        <f t="shared" si="9"/>
+        <v>-0.75384116534997669</v>
       </c>
       <c r="V27" s="40">
-        <f>$T22*M$27+$U22*M$28+$V22*M$29</f>
-        <v>-0.57902269764406</v>
+        <f t="shared" si="9"/>
+        <v>-0.78719272464764245</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="29" customFormat="1" ht="15.75">
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="125"/>
       <c r="J28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="59">
-        <f>I$4</f>
+      <c r="K28" s="51">
+        <f t="shared" si="8"/>
         <v>0.9388312894865416</v>
       </c>
-      <c r="L28" s="60">
-        <f>J$4</f>
+      <c r="L28" s="52">
+        <f t="shared" si="8"/>
         <v>0.94047563402349843</v>
       </c>
-      <c r="M28" s="61">
-        <f>K$4</f>
+      <c r="M28" s="53">
+        <f t="shared" si="8"/>
         <v>0.9820843048123673</v>
       </c>
       <c r="N28" s="34" t="s">
@@ -2876,37 +2842,37 @@
       <c r="P28" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="47" t="s">
+      <c r="Q28" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="R28" s="47"/>
+      <c r="R28" s="125"/>
       <c r="S28" s="25" t="s">
         <v>25</v>
       </c>
       <c r="T28" s="31">
-        <f>$T23*K$27+$U23*K$28+$V23*K$29</f>
-        <v>-0.28249564195516064</v>
+        <f t="shared" si="9"/>
+        <v>-0.26790070059102344</v>
       </c>
       <c r="U28" s="33">
-        <f>$T23*L$27+$U23*L$28+$V23*L$29</f>
-        <v>-0.28299042751542586</v>
+        <f t="shared" si="9"/>
+        <v>-0.26836992339856824</v>
       </c>
       <c r="V28" s="41">
-        <f>$T23*M$27+$U23*M$28+$V23*M$29</f>
-        <v>-0.29551053447929898</v>
+        <f t="shared" si="9"/>
+        <v>-0.28024318772180529</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="K29" s="62">
-        <f>I$4</f>
+      <c r="K29" s="54">
+        <f t="shared" si="8"/>
         <v>0.9388312894865416</v>
       </c>
-      <c r="L29" s="63">
-        <f>J$4</f>
+      <c r="L29" s="55">
+        <f t="shared" si="8"/>
         <v>0.94047563402349843</v>
       </c>
-      <c r="M29" s="64">
-        <f>K$4</f>
+      <c r="M29" s="56">
+        <f t="shared" si="8"/>
         <v>0.9820843048123673</v>
       </c>
       <c r="N29" s="34" t="s">
@@ -2916,16 +2882,16 @@
         <v>35</v>
       </c>
       <c r="T29" s="42">
-        <f>$T24*K$27+$U24*K$28+$V24*K$29</f>
-        <v>-0.39600329640788196</v>
+        <f t="shared" si="9"/>
+        <v>-0.48462243528840432</v>
       </c>
       <c r="U29" s="43">
-        <f>$T24*L$27+$U24*L$28+$V24*L$29</f>
-        <v>-0.39669688839225364</v>
+        <f t="shared" si="9"/>
+        <v>-0.48547124195140873</v>
       </c>
       <c r="V29" s="44">
-        <f>$T24*M$27+$U24*M$28+$V24*M$29</f>
-        <v>-0.41424761446632169</v>
+        <f t="shared" si="9"/>
+        <v>-0.50694953692583733</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="29" customFormat="1"/>
@@ -2934,111 +2900,111 @@
     </row>
     <row r="32" spans="1:27" s="29" customFormat="1">
       <c r="G32"/>
-      <c r="K32" s="65">
+      <c r="K32" s="57">
         <f>T27*$S$3</f>
-        <v>-5.5352134557837933E-3</v>
-      </c>
-      <c r="L32" s="66">
+        <v>-7.5252313587942758E-3</v>
+      </c>
+      <c r="L32" s="58">
         <f>T28*$S$3</f>
-        <v>-2.8249564195516066E-3</v>
-      </c>
-      <c r="M32" s="67">
+        <v>-2.6790070059102343E-3</v>
+      </c>
+      <c r="M32" s="59">
         <f>T29*$S$3</f>
-        <v>-3.9600329640788199E-3</v>
+        <v>-4.8462243528840437E-3</v>
       </c>
       <c r="P32" s="25"/>
-      <c r="T32" s="82">
-        <f>K39-K32</f>
-        <v>0.1055352134557838</v>
-      </c>
-      <c r="U32" s="83">
-        <f>L39-L32</f>
-        <v>0.40282495641955163</v>
-      </c>
-      <c r="V32" s="84">
-        <f>M39-M32</f>
-        <v>0.80396003296407892</v>
+      <c r="T32" s="74">
+        <f t="shared" ref="T32:V34" si="10">K39-K32</f>
+        <v>0.10752523135879428</v>
+      </c>
+      <c r="U32" s="75">
+        <f t="shared" si="10"/>
+        <v>0.40267900700591025</v>
+      </c>
+      <c r="V32" s="76">
+        <f t="shared" si="10"/>
+        <v>0.80484622435288411</v>
       </c>
     </row>
     <row r="33" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G33"/>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="91"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="68">
+      <c r="K33" s="60">
         <f>U27*$S$3</f>
-        <v>-5.5449082732753211E-3</v>
-      </c>
-      <c r="L33" s="69">
+        <v>-7.5384116534997674E-3</v>
+      </c>
+      <c r="L33" s="61">
         <f>U28*$S$3</f>
-        <v>-2.8299042751542586E-3</v>
-      </c>
-      <c r="M33" s="70">
+        <v>-2.6836992339856823E-3</v>
+      </c>
+      <c r="M33" s="62">
         <f>U29*$S$3</f>
-        <v>-3.9669688839225363E-3</v>
+        <v>-4.8547124195140873E-3</v>
       </c>
       <c r="P33" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="90" t="s">
+      <c r="Q33" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="R33" s="90"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T33" s="85">
-        <f>K40-K33</f>
-        <v>0.3055449082732753</v>
+      <c r="T33" s="77">
+        <f t="shared" si="10"/>
+        <v>0.30753841165349977</v>
       </c>
       <c r="U33" s="28">
-        <f>L40-L33</f>
-        <v>0.70282990427515424</v>
-      </c>
-      <c r="V33" s="86">
-        <f>M40-M33</f>
-        <v>0.20396696888392254</v>
+        <f t="shared" si="10"/>
+        <v>0.70268369923398566</v>
+      </c>
+      <c r="V33" s="78">
+        <f t="shared" si="10"/>
+        <v>0.20485471241951408</v>
       </c>
     </row>
     <row r="34" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G34"/>
-      <c r="K34" s="71">
+      <c r="K34" s="63">
         <f>V27*$S$3</f>
-        <v>-5.7902269764406001E-3</v>
-      </c>
-      <c r="L34" s="72">
+        <v>-7.8719272464764251E-3</v>
+      </c>
+      <c r="L34" s="64">
         <f>V28*$S$3</f>
-        <v>-2.9551053447929897E-3</v>
-      </c>
-      <c r="M34" s="73">
+        <v>-2.8024318772180527E-3</v>
+      </c>
+      <c r="M34" s="65">
         <f>V29*$S$3</f>
-        <v>-4.1424761446632171E-3</v>
-      </c>
-      <c r="T34" s="87">
-        <f>K41-K34</f>
-        <v>0.5057902269764406</v>
-      </c>
-      <c r="U34" s="88">
-        <f>L41-L34</f>
-        <v>0.202955105344793</v>
-      </c>
-      <c r="V34" s="89">
-        <f>M41-M34</f>
-        <v>0.90414247614466325</v>
-      </c>
-    </row>
-    <row r="35" spans="7:27" s="93" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G35" s="94"/>
+        <v>-5.0694953692583733E-3</v>
+      </c>
+      <c r="T34" s="79">
+        <f t="shared" si="10"/>
+        <v>0.50787192724647645</v>
+      </c>
+      <c r="U34" s="80">
+        <f t="shared" si="10"/>
+        <v>0.20280243187721805</v>
+      </c>
+      <c r="V34" s="81">
+        <f t="shared" si="10"/>
+        <v>0.9050694953692584</v>
+      </c>
+    </row>
+    <row r="35" spans="7:27" s="83" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G35" s="84"/>
     </row>
     <row r="36" spans="7:27" s="33" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G36" s="92"/>
+      <c r="G36" s="82"/>
     </row>
     <row r="37" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G37" s="92"/>
+      <c r="G37" s="82"/>
       <c r="I37" s="33" t="s">
         <v>72</v>
       </c>
@@ -3050,11 +3016,11 @@
         <v>1</v>
       </c>
       <c r="L37" s="36">
-        <f t="shared" ref="L37:M37" si="5">G8</f>
+        <f t="shared" ref="L37:M37" si="11">G8</f>
         <v>1</v>
       </c>
       <c r="M37" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3063,50 +3029,50 @@
     </row>
     <row r="39" spans="7:27" s="29" customFormat="1">
       <c r="G39"/>
-      <c r="K39" s="96">
-        <f>I5</f>
+      <c r="K39" s="86">
+        <f t="shared" ref="K39:M41" si="12">I5</f>
         <v>0.1</v>
       </c>
-      <c r="L39" s="97">
-        <f>J5</f>
+      <c r="L39" s="87">
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="M39" s="98">
-        <f>K5</f>
+      <c r="M39" s="88">
+        <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
-      <c r="T39" s="82">
-        <f>$T22*K$39+$U22*K$40+$V22*K$41</f>
-        <v>-5.8958553232829183E-2</v>
-      </c>
-      <c r="U39" s="83">
-        <f>$T22*L$39+$U22*L$40+$V22*L$41</f>
-        <v>-0.23583421293131673</v>
-      </c>
-      <c r="V39" s="84">
-        <f>$T22*M$39+$U22*M$40+$V22*M$41</f>
-        <v>-0.47166842586263347</v>
+      <c r="T39" s="74">
+        <f t="shared" ref="T39:V41" si="13">$T22*K$39+$U22*K$40+$V22*K$41</f>
+        <v>-8.0155310576726924E-2</v>
+      </c>
+      <c r="U39" s="75">
+        <f t="shared" si="13"/>
+        <v>-0.32062124230690769</v>
+      </c>
+      <c r="V39" s="76">
+        <f t="shared" si="13"/>
+        <v>-0.64124248461381539</v>
       </c>
     </row>
     <row r="40" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G40"/>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="125"/>
       <c r="J40" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="99">
-        <f>I6</f>
+      <c r="K40" s="89">
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
-      <c r="L40" s="100">
-        <f>J6</f>
+      <c r="L40" s="90">
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
-      <c r="M40" s="101">
-        <f>K6</f>
+      <c r="M40" s="91">
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="N40" s="25" t="s">
@@ -3118,64 +3084,64 @@
       <c r="P40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="R40" s="47"/>
+      <c r="R40" s="125"/>
       <c r="S40" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T40" s="85">
-        <f>$T23*K$39+$U23*K$40+$V23*K$41</f>
-        <v>-9.0270417630518365E-2</v>
+      <c r="T40" s="77">
+        <f t="shared" si="13"/>
+        <v>-8.5606659127501483E-2</v>
       </c>
       <c r="U40" s="28">
-        <f>$T23*L$39+$U23*L$40+$V23*L$41</f>
-        <v>-0.21063097447120951</v>
-      </c>
-      <c r="V40" s="86">
-        <f>$T23*M$39+$U23*M$40+$V23*M$41</f>
-        <v>-6.0180278420345582E-2</v>
+        <f t="shared" si="13"/>
+        <v>-0.19974887129750346</v>
+      </c>
+      <c r="V40" s="78">
+        <f t="shared" si="13"/>
+        <v>-5.7071106085000989E-2</v>
       </c>
       <c r="W40" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X40" s="54" t="s">
+      <c r="X40" s="46" t="s">
         <v>39</v>
       </c>
       <c r="Y40" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z40" s="55" t="s">
+      <c r="Z40" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AA40" s="55"/>
+      <c r="AA40" s="47"/>
     </row>
     <row r="41" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G41"/>
-      <c r="K41" s="102">
-        <f>I7</f>
+      <c r="K41" s="92">
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L41" s="103">
-        <f>J7</f>
+      <c r="L41" s="93">
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="M41" s="104">
-        <f>K7</f>
+      <c r="M41" s="94">
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="T41" s="87">
-        <f>$T24*K$39+$U24*K$40+$V24*K$41</f>
-        <v>-0.21090226798068321</v>
-      </c>
-      <c r="U41" s="88">
-        <f>$T24*L$39+$U24*L$40+$V24*L$41</f>
-        <v>-8.4360907192273293E-2</v>
-      </c>
-      <c r="V41" s="89">
-        <f>$T24*M$39+$U24*M$40+$V24*M$41</f>
-        <v>-0.37962408236522976</v>
+      <c r="T41" s="79">
+        <f t="shared" si="13"/>
+        <v>-0.2580987876711322</v>
+      </c>
+      <c r="U41" s="80">
+        <f t="shared" si="13"/>
+        <v>-0.10323951506845289</v>
+      </c>
+      <c r="V41" s="81">
+        <f t="shared" si="13"/>
+        <v>-0.46457781780803797</v>
       </c>
     </row>
     <row r="42" spans="7:27" s="29" customFormat="1">
@@ -3192,147 +3158,147 @@
     </row>
     <row r="45" spans="7:27" s="29" customFormat="1">
       <c r="G45"/>
-      <c r="K45" s="74">
+      <c r="K45" s="66">
         <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
         <v>5.7427099367579122E-2</v>
       </c>
-      <c r="L45" s="75">
+      <c r="L45" s="67">
         <v>0</v>
       </c>
-      <c r="M45" s="76">
+      <c r="M45" s="68">
         <v>0</v>
       </c>
-      <c r="T45" s="118">
-        <f>$T39*K$45+$U39*K$46+$V39*K$47</f>
-        <v>-3.385818695070385E-3</v>
-      </c>
-      <c r="U45" s="119">
-        <f>$T39*L$45+$U39*L$46+$V39*L$47</f>
-        <v>-1.3202285974582848E-2</v>
-      </c>
-      <c r="V45" s="120">
-        <f>$T39*M$45+$U39*M$46+$V39*M$47</f>
-        <v>-8.2988753261694879E-3</v>
+      <c r="T45" s="107">
+        <f t="shared" ref="T45:V47" si="14">$T39*K$45+$U39*K$46+$V39*K$47</f>
+        <v>-4.6030869853288629E-3</v>
+      </c>
+      <c r="U45" s="108">
+        <f t="shared" si="14"/>
+        <v>-1.7948766965777761E-2</v>
+      </c>
+      <c r="V45" s="109">
+        <f t="shared" si="14"/>
+        <v>-1.1282483926967469E-2</v>
       </c>
     </row>
     <row r="46" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G46"/>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="47"/>
+      <c r="I46" s="125"/>
       <c r="J46" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="77">
+      <c r="K46" s="69">
         <v>0</v>
       </c>
       <c r="L46" s="27">
         <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
         <v>5.5981215831597007E-2</v>
       </c>
-      <c r="M46" s="78">
+      <c r="M46" s="70">
         <v>0</v>
       </c>
       <c r="P46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q46" s="47" t="s">
+      <c r="Q46" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="47"/>
+      <c r="R46" s="125"/>
       <c r="S46" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T46" s="121">
-        <f>$T40*K$45+$U40*K$46+$V40*K$47</f>
-        <v>-5.1839682432206447E-3</v>
-      </c>
-      <c r="U46" s="122">
-        <f>$T40*L$45+$U40*L$46+$V40*L$47</f>
-        <v>-1.1791378042692379E-2</v>
-      </c>
-      <c r="V46" s="123">
-        <f>$T40*M$45+$U40*M$46+$V40*M$47</f>
-        <v>-1.0588553320931161E-3</v>
+      <c r="T46" s="110">
+        <f t="shared" si="14"/>
+        <v>-4.9161421202415017E-3</v>
+      </c>
+      <c r="U46" s="111">
+        <f t="shared" si="14"/>
+        <v>-1.1182184676223434E-2</v>
+      </c>
+      <c r="V46" s="112">
+        <f t="shared" si="14"/>
+        <v>-1.0041503059268857E-3</v>
       </c>
       <c r="W46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X46" s="54" t="s">
+      <c r="X46" s="46" t="s">
         <v>47</v>
       </c>
       <c r="Y46" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z46" s="55" t="s">
+      <c r="Z46" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AA46" s="55"/>
+      <c r="AA46" s="47"/>
     </row>
     <row r="47" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G47"/>
-      <c r="K47" s="79">
+      <c r="K47" s="71">
         <v>0</v>
       </c>
-      <c r="L47" s="80">
+      <c r="L47" s="72">
         <v>0</v>
       </c>
       <c r="M47" s="45">
         <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
         <v>1.7594723053576653E-2</v>
       </c>
-      <c r="T47" s="124">
-        <f>$T41*K$45+$U41*K$46+$V41*K$47</f>
-        <v>-1.2111505500174495E-2</v>
-      </c>
-      <c r="U47" s="125">
-        <f>$T41*L$45+$U41*L$46+$V41*L$47</f>
-        <v>-4.7226261532799753E-3</v>
-      </c>
-      <c r="V47" s="126">
-        <f>$T41*M$45+$U41*M$46+$V41*M$47</f>
-        <v>-6.6793805936843902E-3</v>
+      <c r="T47" s="113">
+        <f t="shared" si="14"/>
+        <v>-1.4821864726241814E-2</v>
+      </c>
+      <c r="U47" s="114">
+        <f t="shared" si="14"/>
+        <v>-5.7794735753964729E-3</v>
+      </c>
+      <c r="V47" s="115">
+        <f t="shared" si="14"/>
+        <v>-8.1741180411674195E-3</v>
       </c>
     </row>
     <row r="48" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
       <c r="G48"/>
-      <c r="Q48" s="47" t="s">
+      <c r="Q48" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="R48" s="47"/>
+      <c r="R48" s="125"/>
       <c r="S48" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T48" s="81">
+      <c r="T48" s="73">
         <f>SUM(T45:T47)</f>
-        <v>-2.0681292438465525E-2</v>
-      </c>
-      <c r="U48" s="81">
-        <f t="shared" ref="U48:V48" si="6">SUM(U45:U47)</f>
-        <v>-2.9716290170555205E-2</v>
-      </c>
-      <c r="V48" s="81">
-        <f t="shared" si="6"/>
-        <v>-1.6037111251946994E-2</v>
+        <v>-2.4341093831812179E-2</v>
+      </c>
+      <c r="U48" s="73">
+        <f t="shared" ref="U48:V48" si="15">SUM(U45:U47)</f>
+        <v>-3.4910425217397671E-2</v>
+      </c>
+      <c r="V48" s="73">
+        <f t="shared" si="15"/>
+        <v>-2.0460752274061772E-2</v>
       </c>
       <c r="W48" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X48" s="130" t="s">
+      <c r="X48" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="Y48" s="127">
+      <c r="Y48" s="116">
         <f>K37-$S$3*T48</f>
-        <v>1.0002068129243846</v>
-      </c>
-      <c r="Z48" s="128">
-        <f t="shared" ref="Z48" si="7">L37-$S$3*U48</f>
-        <v>1.0002971629017055</v>
-      </c>
-      <c r="AA48" s="129">
-        <f t="shared" ref="AA48" si="8">M37-$S$3*V48</f>
-        <v>1.0001603711125195</v>
+        <v>1.000243410938318</v>
+      </c>
+      <c r="Z48" s="117">
+        <f t="shared" ref="Z48" si="16">L37-$S$3*U48</f>
+        <v>1.0003491042521739</v>
+      </c>
+      <c r="AA48" s="118">
+        <f t="shared" ref="AA48" si="17">M37-$S$3*V48</f>
+        <v>1.0002046075227407</v>
       </c>
     </row>
     <row r="49" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
@@ -3340,15 +3306,15 @@
     </row>
     <row r="50" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G50"/>
-      <c r="K50" s="56">
+      <c r="K50" s="48">
         <f>F4</f>
         <v>1.35</v>
       </c>
-      <c r="L50" s="57">
+      <c r="L50" s="49">
         <f>G4</f>
         <v>1.27</v>
       </c>
-      <c r="M50" s="58">
+      <c r="M50" s="50">
         <f>H4</f>
         <v>1.8</v>
       </c>
@@ -3360,36 +3326,36 @@
       </c>
       <c r="T50" s="38">
         <f>$T45*K$50+$U45*K$51+$V45*K$52</f>
-        <v>-3.3597422994360679E-2</v>
+        <v>-4.5676356135400026E-2</v>
       </c>
       <c r="U50" s="39">
-        <f t="shared" ref="U50:V52" si="9">$T45*L$50+$U45*L$51+$V45*L$52</f>
-        <v>-3.1606464594694857E-2</v>
+        <f t="shared" ref="U50:V52" si="18">$T45*L$50+$U45*L$51+$V45*L$52</f>
+        <v>-4.29696091051541E-2</v>
       </c>
       <c r="V50" s="40">
-        <f t="shared" si="9"/>
-        <v>-4.4796563992480901E-2</v>
+        <f t="shared" si="18"/>
+        <v>-6.0901808180533368E-2</v>
       </c>
     </row>
     <row r="51" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G51"/>
-      <c r="H51" s="47" t="s">
+      <c r="H51" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="47"/>
+      <c r="I51" s="125"/>
       <c r="J51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="59">
+      <c r="K51" s="51">
         <f>K50</f>
         <v>1.35</v>
       </c>
-      <c r="L51" s="60">
-        <f t="shared" ref="L51:M51" si="10">L50</f>
+      <c r="L51" s="52">
+        <f t="shared" ref="L51:M51" si="19">L50</f>
         <v>1.27</v>
       </c>
-      <c r="M51" s="61">
-        <f t="shared" si="10"/>
+      <c r="M51" s="53">
+        <f t="shared" si="19"/>
         <v>1.8</v>
       </c>
       <c r="N51" s="34" t="s">
@@ -3401,38 +3367,38 @@
       <c r="P51" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q51" s="47" t="s">
+      <c r="Q51" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="R51" s="47"/>
+      <c r="R51" s="125"/>
       <c r="S51" s="25" t="s">
         <v>25</v>
       </c>
       <c r="T51" s="31">
-        <f t="shared" ref="T51:T52" si="11">$T46*K$50+$U46*K$51+$V46*K$52</f>
-        <v>-2.434617218430829E-2</v>
+        <f t="shared" ref="T51:T52" si="20">$T46*K$50+$U46*K$51+$V46*K$52</f>
+        <v>-2.3088344088228963E-2</v>
       </c>
       <c r="U51" s="33">
-        <f t="shared" si="9"/>
-        <v>-2.2903436054867797E-2</v>
+        <f t="shared" si="18"/>
+        <v>-2.1720145920037615E-2</v>
       </c>
       <c r="V51" s="41">
-        <f t="shared" si="9"/>
-        <v>-3.2461562912411049E-2</v>
+        <f t="shared" si="18"/>
+        <v>-3.0784458784305281E-2</v>
       </c>
     </row>
     <row r="52" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
       <c r="G52"/>
-      <c r="K52" s="62">
+      <c r="K52" s="54">
         <f>K51</f>
         <v>1.35</v>
       </c>
-      <c r="L52" s="63">
-        <f t="shared" ref="L52" si="12">L51</f>
+      <c r="L52" s="55">
+        <f t="shared" ref="L52" si="21">L51</f>
         <v>1.27</v>
       </c>
-      <c r="M52" s="64">
-        <f t="shared" ref="M52" si="13">M51</f>
+      <c r="M52" s="56">
+        <f t="shared" ref="M52" si="22">M51</f>
         <v>1.8</v>
       </c>
       <c r="N52" s="34" t="s">
@@ -3442,16 +3408,16 @@
         <v>45</v>
       </c>
       <c r="T52" s="42">
-        <f t="shared" si="11"/>
-        <v>-3.1743241533637459E-2</v>
+        <f t="shared" si="20"/>
+        <v>-3.8846866062787699E-2</v>
       </c>
       <c r="U52" s="43">
-        <f t="shared" si="9"/>
-        <v>-2.9862160553866354E-2</v>
+        <f t="shared" si="18"/>
+        <v>-3.6544829555363249E-2</v>
       </c>
       <c r="V52" s="44">
-        <f t="shared" si="9"/>
-        <v>-4.2324322044849955E-2</v>
+        <f t="shared" si="18"/>
+        <v>-5.1795821417050275E-2</v>
       </c>
     </row>
     <row r="53" spans="7:27" s="29" customFormat="1">
@@ -3462,118 +3428,118 @@
     </row>
     <row r="55" spans="7:27" s="29" customFormat="1">
       <c r="G55"/>
-      <c r="K55" s="65">
+      <c r="K55" s="57">
         <f>T50*$S$3</f>
-        <v>-3.359742299436068E-4</v>
-      </c>
-      <c r="L55" s="66">
+        <v>-4.5676356135400029E-4</v>
+      </c>
+      <c r="L55" s="58">
         <f>T51*$S$3</f>
-        <v>-2.4346172184308291E-4</v>
-      </c>
-      <c r="M55" s="67">
+        <v>-2.3088344088228964E-4</v>
+      </c>
+      <c r="M55" s="59">
         <f>T52*$S$3</f>
-        <v>-3.1743241533637459E-4</v>
+        <v>-3.88468660627877E-4</v>
       </c>
       <c r="P55" s="34"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="38">
-        <f>K62-K55</f>
-        <v>0.20033597422994362</v>
+        <f t="shared" ref="T55:V57" si="23">K62-K55</f>
+        <v>0.200456763561354</v>
       </c>
       <c r="U55" s="39">
-        <f>L62-L55</f>
-        <v>0.30024346172184307</v>
+        <f t="shared" si="23"/>
+        <v>0.30023088344088228</v>
       </c>
       <c r="V55" s="40">
-        <f>M62-M55</f>
-        <v>0.50031743241533633</v>
+        <f t="shared" si="23"/>
+        <v>0.50038846866062792</v>
       </c>
     </row>
     <row r="56" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G56"/>
-      <c r="H56" s="91" t="s">
+      <c r="H56" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="I56" s="91"/>
+      <c r="I56" s="126"/>
       <c r="J56" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="68">
+      <c r="K56" s="60">
         <f>U50*$S$3</f>
-        <v>-3.1606464594694856E-4</v>
-      </c>
-      <c r="L56" s="69">
+        <v>-4.2969609105154101E-4</v>
+      </c>
+      <c r="L56" s="61">
         <f>U51*$S$3</f>
-        <v>-2.2903436054867797E-4</v>
-      </c>
-      <c r="M56" s="70">
+        <v>-2.1720145920037617E-4</v>
+      </c>
+      <c r="M56" s="62">
         <f>U52*$S$3</f>
-        <v>-2.9862160553866354E-4</v>
+        <v>-3.654482955536325E-4</v>
       </c>
       <c r="P56" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q56" s="90" t="s">
+      <c r="Q56" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="R56" s="90"/>
+      <c r="R56" s="127"/>
       <c r="S56" s="34" t="s">
         <v>25</v>
       </c>
       <c r="T56" s="31">
-        <f>K63-K56</f>
-        <v>0.30031606464594696</v>
+        <f t="shared" si="23"/>
+        <v>0.30042969609105152</v>
       </c>
       <c r="U56" s="33">
-        <f>L63-L56</f>
-        <v>0.50022903436054866</v>
+        <f t="shared" si="23"/>
+        <v>0.50021720145920034</v>
       </c>
       <c r="V56" s="41">
-        <f>M63-M56</f>
-        <v>0.70029862160553857</v>
+        <f t="shared" si="23"/>
+        <v>0.70036544829555358</v>
       </c>
     </row>
     <row r="57" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G57"/>
-      <c r="K57" s="71">
+      <c r="K57" s="63">
         <f>V50*$S$3</f>
-        <v>-4.4796563992480904E-4</v>
-      </c>
-      <c r="L57" s="72">
+        <v>-6.0901808180533368E-4</v>
+      </c>
+      <c r="L57" s="64">
         <f>V51*$S$3</f>
-        <v>-3.246156291241105E-4</v>
-      </c>
-      <c r="M57" s="73">
+        <v>-3.0784458784305282E-4</v>
+      </c>
+      <c r="M57" s="65">
         <f>V52*$S$3</f>
-        <v>-4.2324322044849953E-4</v>
+        <v>-5.1795821417050273E-4</v>
       </c>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
       <c r="T57" s="42">
-        <f>K64-K57</f>
-        <v>0.60044796563992475</v>
+        <f t="shared" si="23"/>
+        <v>0.60060901808180533</v>
       </c>
       <c r="U57" s="43">
-        <f>L64-L57</f>
-        <v>0.40032461562912414</v>
+        <f t="shared" si="23"/>
+        <v>0.40030784458784308</v>
       </c>
       <c r="V57" s="44">
-        <f>M64-M57</f>
-        <v>0.80042324322044855</v>
-      </c>
-    </row>
-    <row r="58" spans="7:27" s="93" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G58" s="94"/>
+        <f t="shared" si="23"/>
+        <v>0.8005179582141706</v>
+      </c>
+    </row>
+    <row r="58" spans="7:27" s="83" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G58" s="84"/>
     </row>
     <row r="59" spans="7:27" s="33" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G59" s="92"/>
+      <c r="G59" s="82"/>
     </row>
     <row r="60" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G60" s="92"/>
+      <c r="G60" s="82"/>
       <c r="I60" s="33" t="s">
         <v>71</v>
       </c>
@@ -3585,11 +3551,11 @@
         <v>1</v>
       </c>
       <c r="L60" s="36">
-        <f t="shared" ref="L60:M60" si="14">D8</f>
+        <f t="shared" ref="L60:M60" si="24">D8</f>
         <v>1</v>
       </c>
       <c r="M60" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -3602,16 +3568,16 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="96">
-        <f>F5</f>
+      <c r="K62" s="86">
+        <f t="shared" ref="K62:M64" si="25">F5</f>
         <v>0.2</v>
       </c>
-      <c r="L62" s="97">
-        <f>G5</f>
+      <c r="L62" s="87">
+        <f t="shared" si="25"/>
         <v>0.3</v>
       </c>
-      <c r="M62" s="98">
-        <f>H5</f>
+      <c r="M62" s="88">
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="N62" s="32"/>
@@ -3619,17 +3585,17 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
-      <c r="T62" s="82">
-        <f>$T45*K$62+$U45*K$63+$V45*K$64</f>
-        <v>-9.617174727090623E-3</v>
-      </c>
-      <c r="U62" s="83">
-        <f>$T45*L$62+$U45*L$63+$V45*L$64</f>
-        <v>-1.0936438726280334E-2</v>
-      </c>
-      <c r="V62" s="84">
-        <f>$T45*M$62+$U45*M$63+$V45*M$64</f>
-        <v>-1.7573609790678776E-2</v>
+      <c r="T62" s="74">
+        <f t="shared" ref="T62:V64" si="26">$T45*K$62+$U45*K$63+$V45*K$64</f>
+        <v>-1.3074737842979581E-2</v>
+      </c>
+      <c r="U62" s="75">
+        <f t="shared" si="26"/>
+        <v>-1.4868303149274526E-2</v>
+      </c>
+      <c r="V62" s="76">
+        <f t="shared" si="26"/>
+        <v>-2.3891667510282839E-2</v>
       </c>
       <c r="W62" s="32"/>
       <c r="X62" s="32"/>
@@ -3639,23 +3605,23 @@
     </row>
     <row r="63" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G63"/>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="47"/>
+      <c r="I63" s="125"/>
       <c r="J63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="99">
-        <f>F6</f>
+      <c r="K63" s="89">
+        <f t="shared" si="25"/>
         <v>0.3</v>
       </c>
-      <c r="L63" s="100">
-        <f>G6</f>
+      <c r="L63" s="90">
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="M63" s="101">
-        <f>H6</f>
+      <c r="M63" s="91">
+        <f t="shared" si="25"/>
         <v>0.7</v>
       </c>
       <c r="N63" s="34" t="s">
@@ -3667,54 +3633,54 @@
       <c r="P63" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q63" s="47" t="s">
+      <c r="Q63" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="R63" s="47"/>
+      <c r="R63" s="125"/>
       <c r="S63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T63" s="85">
-        <f>$T46*K$62+$U46*K$63+$V46*K$64</f>
-        <v>-5.209520260707712E-3</v>
+      <c r="T63" s="77">
+        <f t="shared" si="26"/>
+        <v>-4.9403740104714614E-3</v>
       </c>
       <c r="U63" s="28">
-        <f>$T46*L$62+$U46*L$63+$V46*L$64</f>
-        <v>-7.8744216271496303E-3</v>
-      </c>
-      <c r="V63" s="86">
-        <f>$T46*M$62+$U46*M$63+$V46*M$64</f>
-        <v>-1.169303301716948E-2</v>
+        <f t="shared" si="26"/>
+        <v>-7.4675950965549217E-3</v>
+      </c>
+      <c r="V63" s="78">
+        <f t="shared" si="26"/>
+        <v>-1.1088920578218663E-2</v>
       </c>
       <c r="W63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X63" s="54" t="s">
+      <c r="X63" s="46" t="s">
         <v>46</v>
       </c>
       <c r="Y63" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z63" s="55" t="s">
+      <c r="Z63" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AA63" s="55"/>
+      <c r="AA63" s="47"/>
     </row>
     <row r="64" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G64"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
-      <c r="K64" s="102">
-        <f>F7</f>
+      <c r="K64" s="92">
+        <f t="shared" si="25"/>
         <v>0.6</v>
       </c>
-      <c r="L64" s="103">
-        <f>G7</f>
+      <c r="L64" s="93">
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="M64" s="104">
-        <f>H7</f>
+      <c r="M64" s="94">
+        <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
       <c r="N64" s="32"/>
@@ -3722,17 +3688,17 @@
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
-      <c r="T64" s="87">
-        <f>$T47*K$62+$U47*K$63+$V47*K$64</f>
-        <v>-7.8467173022295257E-3</v>
-      </c>
-      <c r="U64" s="88">
-        <f>$T47*L$62+$U47*L$63+$V47*L$64</f>
-        <v>-8.6665169641660933E-3</v>
-      </c>
-      <c r="V64" s="89">
-        <f>$T47*M$62+$U47*M$63+$V47*M$64</f>
-        <v>-1.4705095532330743E-2</v>
+      <c r="T64" s="79">
+        <f t="shared" si="26"/>
+        <v>-9.6026858425677566E-3</v>
+      </c>
+      <c r="U64" s="80">
+        <f t="shared" si="26"/>
+        <v>-1.0605943422037748E-2</v>
+      </c>
+      <c r="V64" s="81">
+        <f t="shared" si="26"/>
+        <v>-1.7995858298832372E-2</v>
       </c>
       <c r="W64" s="32"/>
       <c r="X64" s="32"/>
@@ -3761,31 +3727,31 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="74">
+      <c r="K68" s="66">
         <f>F4/F3</f>
         <v>1</v>
       </c>
-      <c r="L68" s="75">
+      <c r="L68" s="67">
         <v>0</v>
       </c>
-      <c r="M68" s="76">
+      <c r="M68" s="68">
         <v>0</v>
       </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="109">
-        <f>$T62*K$68+$U62*K$69+$V62*K$70</f>
-        <v>-9.617174727090623E-3</v>
-      </c>
-      <c r="U68" s="110">
-        <f>$T62*L$68+$U62*L$69+$V62*L$70</f>
-        <v>-1.0936438726280334E-2</v>
-      </c>
-      <c r="V68" s="111">
-        <f>$T62*M$68+$U62*M$69+$V62*M$70</f>
-        <v>-1.7573609790678776E-2</v>
+      <c r="T68" s="98">
+        <f t="shared" ref="T68:V70" si="27">$T62*K$68+$U62*K$69+$V62*K$70</f>
+        <v>-1.3074737842979581E-2</v>
+      </c>
+      <c r="U68" s="99">
+        <f t="shared" si="27"/>
+        <v>-1.4868303149274526E-2</v>
+      </c>
+      <c r="V68" s="100">
+        <f t="shared" si="27"/>
+        <v>-2.3891667510282839E-2</v>
       </c>
       <c r="W68" s="32"/>
       <c r="X68" s="32"/>
@@ -3794,67 +3760,67 @@
       <c r="AA68" s="32"/>
     </row>
     <row r="69" spans="7:27" ht="15.75">
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="I69" s="47"/>
+      <c r="I69" s="125"/>
       <c r="J69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="77">
+      <c r="K69" s="69">
         <v>0</v>
       </c>
       <c r="L69" s="27">
         <f>G4/G3</f>
         <v>1</v>
       </c>
-      <c r="M69" s="78">
+      <c r="M69" s="70">
         <v>0</v>
       </c>
       <c r="P69" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q69" s="47" t="s">
+      <c r="Q69" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="R69" s="47"/>
+      <c r="R69" s="125"/>
       <c r="S69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T69" s="112">
-        <f>$T63*K$68+$U63*K$69+$V63*K$70</f>
-        <v>-5.209520260707712E-3</v>
-      </c>
-      <c r="U69" s="113">
-        <f>$T63*L$68+$U63*L$69+$V63*L$70</f>
-        <v>-7.8744216271496303E-3</v>
-      </c>
-      <c r="V69" s="114">
-        <f>$T63*M$68+$U63*M$69+$V63*M$70</f>
-        <v>-1.169303301716948E-2</v>
+      <c r="T69" s="101">
+        <f t="shared" si="27"/>
+        <v>-4.9403740104714614E-3</v>
+      </c>
+      <c r="U69" s="102">
+        <f t="shared" si="27"/>
+        <v>-7.4675950965549217E-3</v>
+      </c>
+      <c r="V69" s="103">
+        <f t="shared" si="27"/>
+        <v>-1.1088920578218663E-2</v>
       </c>
       <c r="W69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="46" t="s">
         <v>52</v>
       </c>
       <c r="Y69" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z69" s="55" t="s">
+      <c r="Z69" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AA69" s="55"/>
+      <c r="AA69" s="47"/>
     </row>
     <row r="70" spans="7:27" ht="13.5" thickBot="1">
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="79">
+      <c r="K70" s="71">
         <v>0</v>
       </c>
-      <c r="L70" s="80">
+      <c r="L70" s="72">
         <v>0</v>
       </c>
       <c r="M70" s="45">
@@ -3865,17 +3831,17 @@
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
-      <c r="T70" s="115">
-        <f>$T64*K$68+$U64*K$69+$V64*K$70</f>
-        <v>-7.8467173022295257E-3</v>
-      </c>
-      <c r="U70" s="116">
-        <f>$T64*L$68+$U64*L$69+$V64*L$70</f>
-        <v>-8.6665169641660933E-3</v>
-      </c>
-      <c r="V70" s="117">
-        <f>$T64*M$68+$U64*M$69+$V64*M$70</f>
-        <v>-1.4705095532330743E-2</v>
+      <c r="T70" s="104">
+        <f t="shared" si="27"/>
+        <v>-9.6026858425677566E-3</v>
+      </c>
+      <c r="U70" s="105">
+        <f t="shared" si="27"/>
+        <v>-1.0605943422037748E-2</v>
+      </c>
+      <c r="V70" s="106">
+        <f t="shared" si="27"/>
+        <v>-1.7995858298832372E-2</v>
       </c>
       <c r="W70" s="32"/>
       <c r="X70" s="32"/>
@@ -3884,42 +3850,42 @@
       <c r="AA70" s="32"/>
     </row>
     <row r="71" spans="7:27" ht="16.5" thickBot="1">
-      <c r="Q71" s="47" t="s">
+      <c r="Q71" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="R71" s="47"/>
+      <c r="R71" s="125"/>
       <c r="S71" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T71" s="81">
+      <c r="T71" s="73">
         <f>SUM(T68:T70)</f>
-        <v>-2.267341229002786E-2</v>
-      </c>
-      <c r="U71" s="81">
-        <f t="shared" ref="U71" si="15">SUM(U68:U70)</f>
-        <v>-2.7477377317596058E-2</v>
-      </c>
-      <c r="V71" s="81">
-        <f t="shared" ref="V71" si="16">SUM(V68:V70)</f>
-        <v>-4.3971738340178999E-2</v>
+        <v>-2.7617797696018798E-2</v>
+      </c>
+      <c r="U71" s="73">
+        <f t="shared" ref="U71" si="28">SUM(U68:U70)</f>
+        <v>-3.2941841667867192E-2</v>
+      </c>
+      <c r="V71" s="73">
+        <f t="shared" ref="V71" si="29">SUM(V68:V70)</f>
+        <v>-5.2976446387333877E-2</v>
       </c>
       <c r="W71" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X71" s="130" t="s">
+      <c r="X71" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="Y71" s="127">
+      <c r="Y71" s="116">
         <f>K60-$S$3*T71</f>
-        <v>1.0002267341229003</v>
-      </c>
-      <c r="Z71" s="128">
-        <f t="shared" ref="Z71:AA71" si="17">L60-$S$3*U71</f>
-        <v>1.0002747737731759</v>
-      </c>
-      <c r="AA71" s="129">
-        <f t="shared" si="17"/>
-        <v>1.0004397173834019</v>
+        <v>1.0002761779769602</v>
+      </c>
+      <c r="Z71" s="117">
+        <f t="shared" ref="Z71:AA71" si="30">L60-$S$3*U71</f>
+        <v>1.0003294184166787</v>
+      </c>
+      <c r="AA71" s="118">
+        <f t="shared" si="30"/>
+        <v>1.0005297644638733</v>
       </c>
     </row>
     <row r="72" spans="7:27" ht="13.5" thickBot="1"/>
@@ -3927,16 +3893,16 @@
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
-      <c r="K73" s="56">
+      <c r="K73" s="48">
         <f>C4</f>
         <v>0.1</v>
       </c>
-      <c r="L73" s="57">
-        <f t="shared" ref="L73:M73" si="18">D4</f>
+      <c r="L73" s="49">
+        <f t="shared" ref="L73:M73" si="31">D4</f>
         <v>0.2</v>
       </c>
-      <c r="M73" s="58">
-        <f t="shared" si="18"/>
+      <c r="M73" s="50">
+        <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
       <c r="N73" s="34" t="s">
@@ -3951,35 +3917,35 @@
       <c r="S73" s="32"/>
       <c r="T73" s="38">
         <f>$T68*K$73+$U68*K$74+$V68*K$75</f>
-        <v>-3.8127223244049735E-3</v>
+        <v>-5.1834708502536946E-3</v>
       </c>
       <c r="U73" s="39">
-        <f t="shared" ref="U73:V73" si="19">$T68*L$73+$U68*L$74+$V68*L$75</f>
-        <v>-7.6254446488099471E-3</v>
+        <f t="shared" ref="U73:V73" si="32">$T68*L$73+$U68*L$74+$V68*L$75</f>
+        <v>-1.0366941700507389E-2</v>
       </c>
       <c r="V73" s="40">
-        <f t="shared" si="19"/>
-        <v>-2.6689056270834812E-2</v>
+        <f t="shared" si="32"/>
+        <v>-3.6284295951775861E-2</v>
       </c>
     </row>
     <row r="74" spans="7:27" ht="15.75">
-      <c r="H74" s="47" t="s">
+      <c r="H74" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I74" s="47"/>
+      <c r="I74" s="125"/>
       <c r="J74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="59">
+      <c r="K74" s="51">
         <f>K73</f>
         <v>0.1</v>
       </c>
-      <c r="L74" s="60">
-        <f t="shared" ref="L74:M75" si="20">L73</f>
+      <c r="L74" s="52">
+        <f t="shared" ref="L74:M75" si="33">L73</f>
         <v>0.2</v>
       </c>
-      <c r="M74" s="61">
-        <f t="shared" si="20"/>
+      <c r="M74" s="53">
+        <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
       <c r="N74" s="34" t="s">
@@ -3991,40 +3957,40 @@
       <c r="P74" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q74" s="47" t="s">
+      <c r="Q74" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="R74" s="47"/>
+      <c r="R74" s="125"/>
       <c r="S74" s="34" t="s">
         <v>25</v>
       </c>
       <c r="T74" s="31">
-        <f t="shared" ref="T74:T75" si="21">$T69*K$73+$U69*K$74+$V69*K$75</f>
-        <v>-2.4776974905026824E-3</v>
+        <f t="shared" ref="T74:T75" si="34">$T69*K$73+$U69*K$74+$V69*K$75</f>
+        <v>-2.3496889685245045E-3</v>
       </c>
       <c r="U74" s="33">
-        <f t="shared" ref="U74:U75" si="22">$T69*L$73+$U69*L$74+$V69*L$75</f>
-        <v>-4.9553949810053647E-3</v>
+        <f t="shared" ref="U74:U75" si="35">$T69*L$73+$U69*L$74+$V69*L$75</f>
+        <v>-4.6993779370490089E-3</v>
       </c>
       <c r="V74" s="41">
-        <f t="shared" ref="V74:V75" si="23">$T69*M$73+$U69*M$74+$V69*M$75</f>
-        <v>-1.7343882433518774E-2</v>
+        <f t="shared" ref="V74:V75" si="36">$T69*M$73+$U69*M$74+$V69*M$75</f>
+        <v>-1.644782277967153E-2</v>
       </c>
     </row>
     <row r="75" spans="7:27" ht="16.5" thickBot="1">
       <c r="H75" s="32"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
-      <c r="K75" s="62">
+      <c r="K75" s="54">
         <f>K74</f>
         <v>0.1</v>
       </c>
-      <c r="L75" s="63">
-        <f t="shared" si="20"/>
+      <c r="L75" s="55">
+        <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="M75" s="64">
-        <f t="shared" si="20"/>
+      <c r="M75" s="56">
+        <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
       <c r="N75" s="34" t="s">
@@ -4038,16 +4004,16 @@
       <c r="R75" s="32"/>
       <c r="S75" s="32"/>
       <c r="T75" s="42">
-        <f t="shared" si="21"/>
-        <v>-3.1218329798726363E-3</v>
+        <f t="shared" si="34"/>
+        <v>-3.8204487563437877E-3</v>
       </c>
       <c r="U75" s="43">
-        <f t="shared" si="22"/>
-        <v>-6.2436659597452726E-3</v>
+        <f t="shared" si="35"/>
+        <v>-7.6408975126875753E-3</v>
       </c>
       <c r="V75" s="44">
-        <f t="shared" si="23"/>
-        <v>-2.1852830859108451E-2</v>
+        <f t="shared" si="36"/>
+        <v>-2.6743141294406511E-2</v>
       </c>
     </row>
     <row r="77" spans="7:27" ht="13.5" thickBot="1"/>
@@ -4055,17 +4021,17 @@
       <c r="H78" s="32"/>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
-      <c r="K78" s="65">
+      <c r="K78" s="57">
         <f>T73*$S$3</f>
-        <v>-3.8127223244049734E-5</v>
-      </c>
-      <c r="L78" s="66">
+        <v>-5.1834708502536945E-5</v>
+      </c>
+      <c r="L78" s="58">
         <f>T74*$S$3</f>
-        <v>-2.4776974905026826E-5</v>
-      </c>
-      <c r="M78" s="67">
+        <v>-2.3496889685245045E-5</v>
+      </c>
+      <c r="M78" s="59">
         <f>T75*$S$3</f>
-        <v>-3.1218329798726365E-5</v>
+        <v>-3.8204487563437874E-5</v>
       </c>
       <c r="P78" s="34"/>
       <c r="Q78" s="32"/>
@@ -4073,132 +4039,132 @@
       <c r="S78" s="32"/>
       <c r="T78" s="38">
         <f>K83-K78</f>
-        <v>0.10003812722324405</v>
+        <v>0.10005183470850254</v>
       </c>
       <c r="U78" s="39">
-        <f t="shared" ref="U78:V78" si="24">L83-L78</f>
-        <v>0.20002477697490503</v>
+        <f t="shared" ref="U78:V78" si="37">L83-L78</f>
+        <v>0.20002349688968526</v>
       </c>
       <c r="V78" s="40">
-        <f t="shared" si="24"/>
-        <v>0.30003121832979873</v>
+        <f t="shared" si="37"/>
+        <v>0.30003820448756341</v>
       </c>
     </row>
     <row r="79" spans="7:27" ht="15.75">
-      <c r="H79" s="91" t="s">
+      <c r="H79" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="91"/>
+      <c r="I79" s="126"/>
       <c r="J79" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="68">
+      <c r="K79" s="60">
         <f>U73*$S$3</f>
-        <v>-7.6254446488099468E-5</v>
-      </c>
-      <c r="L79" s="69">
+        <v>-1.0366941700507389E-4</v>
+      </c>
+      <c r="L79" s="61">
         <f>U74*$S$3</f>
-        <v>-4.9553949810053651E-5</v>
-      </c>
-      <c r="M79" s="70">
+        <v>-4.699377937049009E-5</v>
+      </c>
+      <c r="M79" s="62">
         <f>U75*$S$3</f>
-        <v>-6.243665959745273E-5</v>
+        <v>-7.6408975126875749E-5</v>
       </c>
       <c r="P79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q79" s="90" t="s">
+      <c r="Q79" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="R79" s="90"/>
+      <c r="R79" s="127"/>
       <c r="S79" s="34" t="s">
         <v>25</v>
       </c>
       <c r="T79" s="31">
-        <f t="shared" ref="T79:T80" si="25">K84-K79</f>
-        <v>0.30007625444648811</v>
+        <f t="shared" ref="T79:T80" si="38">K84-K79</f>
+        <v>0.30010366941700506</v>
       </c>
       <c r="U79" s="33">
-        <f t="shared" ref="U79:U80" si="26">L84-L79</f>
-        <v>0.20004955394981006</v>
+        <f t="shared" ref="U79:U80" si="39">L84-L79</f>
+        <v>0.20004699377937049</v>
       </c>
       <c r="V79" s="41">
-        <f t="shared" ref="V79:V80" si="27">M84-M79</f>
-        <v>0.70006243665959744</v>
+        <f t="shared" ref="V79:V80" si="40">M84-M79</f>
+        <v>0.7000764089751268</v>
       </c>
     </row>
     <row r="80" spans="7:27" ht="13.5" thickBot="1">
       <c r="H80" s="32"/>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
-      <c r="K80" s="71">
+      <c r="K80" s="63">
         <f>V73*$S$3</f>
-        <v>-2.6689056270834811E-4</v>
-      </c>
-      <c r="L80" s="72">
+        <v>-3.6284295951775859E-4</v>
+      </c>
+      <c r="L80" s="64">
         <f>V74*$S$3</f>
-        <v>-1.7343882433518775E-4</v>
-      </c>
-      <c r="M80" s="73">
+        <v>-1.6447822779671529E-4</v>
+      </c>
+      <c r="M80" s="65">
         <f>V75*$S$3</f>
-        <v>-2.1852830859108452E-4</v>
+        <v>-2.6743141294406511E-4</v>
       </c>
       <c r="P80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
       <c r="T80" s="42">
-        <f t="shared" si="25"/>
-        <v>0.40026689056270837</v>
+        <f t="shared" si="38"/>
+        <v>0.4003628429595178</v>
       </c>
       <c r="U80" s="43">
-        <f t="shared" si="26"/>
-        <v>0.30017343882433517</v>
+        <f t="shared" si="39"/>
+        <v>0.30016447822779668</v>
       </c>
       <c r="V80" s="44">
-        <f t="shared" si="27"/>
-        <v>0.90021852830859106</v>
-      </c>
-    </row>
-    <row r="81" spans="8:15" s="93" customFormat="1" ht="13.5" thickBot="1"/>
+        <f t="shared" si="40"/>
+        <v>0.90026743141294407</v>
+      </c>
+    </row>
+    <row r="81" spans="8:15" s="83" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="82" spans="8:15" ht="13.5" thickBot="1"/>
     <row r="83" spans="8:15">
       <c r="H83" s="32"/>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
-      <c r="K83" s="96">
+      <c r="K83" s="86">
         <f>C5</f>
         <v>0.1</v>
       </c>
-      <c r="L83" s="97">
-        <f t="shared" ref="L83:M83" si="28">D5</f>
+      <c r="L83" s="87">
+        <f t="shared" ref="L83:M83" si="41">D5</f>
         <v>0.2</v>
       </c>
-      <c r="M83" s="98">
-        <f t="shared" si="28"/>
+      <c r="M83" s="88">
+        <f t="shared" si="41"/>
         <v>0.3</v>
       </c>
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
     </row>
     <row r="84" spans="8:15" ht="15.75">
-      <c r="H84" s="47" t="s">
+      <c r="H84" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="I84" s="47"/>
+      <c r="I84" s="125"/>
       <c r="J84" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="99">
-        <f t="shared" ref="K84:K85" si="29">C6</f>
+      <c r="K84" s="89">
+        <f t="shared" ref="K84:K85" si="42">C6</f>
         <v>0.3</v>
       </c>
-      <c r="L84" s="100">
-        <f t="shared" ref="L84:L85" si="30">D6</f>
+      <c r="L84" s="90">
+        <f t="shared" ref="L84:L85" si="43">D6</f>
         <v>0.2</v>
       </c>
-      <c r="M84" s="101">
-        <f t="shared" ref="M84:M85" si="31">E6</f>
+      <c r="M84" s="91">
+        <f t="shared" ref="M84:M85" si="44">E6</f>
         <v>0.7</v>
       </c>
       <c r="N84" s="34" t="s">
@@ -4212,16 +4178,16 @@
       <c r="H85" s="32"/>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
-      <c r="K85" s="102">
-        <f t="shared" si="29"/>
+      <c r="K85" s="92">
+        <f t="shared" si="42"/>
         <v>0.4</v>
       </c>
-      <c r="L85" s="103">
-        <f t="shared" si="30"/>
+      <c r="L85" s="93">
+        <f t="shared" si="43"/>
         <v>0.3</v>
       </c>
-      <c r="M85" s="104">
-        <f t="shared" si="31"/>
+      <c r="M85" s="94">
+        <f t="shared" si="44"/>
         <v>0.9</v>
       </c>
       <c r="N85" s="32"/>
@@ -4235,15 +4201,17 @@
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="Q74:R74"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q28:R28"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="L1:N1"/>
@@ -4251,8 +4219,6 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q28:R28"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A5:A7"/>
@@ -4276,11 +4242,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>Input</t>
   </si>
@@ -945,6 +945,9 @@
       </rPr>
       <t xml:space="preserve"> =</t>
     </r>
+  </si>
+  <si>
+    <t>??? - de ce exista doar crossentropy prim si nu exista si neprim?</t>
   </si>
 </sst>
 </file>
@@ -1581,6 +1584,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,39 +1625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1661,7 +1664,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1725,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,22 +1771,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113264</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>589514</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1809,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1457325" y="10096500"/>
+          <a:off x="714375" y="7019925"/>
           <a:ext cx="4085189" cy="2228849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2128,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2142,43 +2145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1">
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129" t="s">
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129" t="s">
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="S2" s="120" t="s">
         <v>21</v>
       </c>
@@ -2258,15 +2261,15 @@
         <f>E3</f>
         <v>0.7</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="122">
         <f>MAX(0,F3)</f>
         <v>1.35</v>
       </c>
-      <c r="G4" s="134">
+      <c r="G4" s="123">
         <f>MAX(0,G3)</f>
         <v>1.27</v>
       </c>
-      <c r="H4" s="135">
+      <c r="H4" s="124">
         <f>MAX(0,H3)</f>
         <v>1.8</v>
       </c>
@@ -2296,7 +2299,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="135" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2334,7 +2337,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1">
-      <c r="A6" s="124"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="124"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2445,21 +2448,21 @@
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1">
       <c r="A9" s="96"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -2531,9 +2534,18 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="21">
+        <f>(-1)*(C12*(1/L4)+(1-C12)*(1/(1-L4)))</f>
+        <v>-5.039131521137528</v>
+      </c>
+      <c r="H13" s="21">
+        <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
+        <v>-1.3992971926232187</v>
+      </c>
+      <c r="I13" s="21">
+        <f>(-1)*(E12*(1/N4)+(1-E12)*(1/(1-N4)))</f>
+        <v>-2.066959463271492</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1" ht="16.5" thickBot="1">
       <c r="I14" s="33" t="s">
@@ -2557,7 +2569,9 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
-      <c r="T14" s="32"/>
+      <c r="T14" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="X14" s="32"/>
@@ -2582,7 +2596,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="133" t="s">
         <v>33</v>
       </c>
       <c r="D17"/>
@@ -2611,7 +2625,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="123"/>
+      <c r="A18" s="134"/>
       <c r="T18" s="79">
         <v>0</v>
       </c>
@@ -2660,13 +2674,13 @@
       </c>
     </row>
     <row r="23" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="133" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="132" t="s">
+      <c r="H23" s="129" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="125"/>
@@ -2707,7 +2721,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="123"/>
+      <c r="A24" s="134"/>
       <c r="K24" s="71">
         <v>0</v>
       </c>
@@ -3042,11 +3056,11 @@
         <v>0.8</v>
       </c>
       <c r="T39" s="74">
-        <f t="shared" ref="T39:V41" si="13">$T22*K$39+$U22*K$40+$V22*K$41</f>
+        <f>$T22*K$39+$U22*K$40+$V22*K$41</f>
         <v>-8.0155310576726924E-2</v>
       </c>
       <c r="U39" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="T39:V41" si="13">$T22*L$39+$U22*L$40+$V22*L$41</f>
         <v>-0.32062124230690769</v>
       </c>
       <c r="V39" s="76">
@@ -4195,30 +4209,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A5:A7"/>
@@ -4235,6 +4225,30 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="Q74:R74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Input</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Softmax '</t>
   </si>
   <si>
-    <t>Crossentropy '</t>
-  </si>
-  <si>
     <r>
       <t>∂O</t>
     </r>
@@ -947,7 +944,10 @@
     </r>
   </si>
   <si>
-    <t>??? - de ce exista doar crossentropy prim si nu exista si neprim?</t>
+    <t>Logaritmic</t>
+  </si>
+  <si>
+    <t>Crossentropy</t>
   </si>
 </sst>
 </file>
@@ -1593,30 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,6 +1601,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1786,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2145,43 +2145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1">
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1">
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131" t="s">
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
       <c r="S2" s="120" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="127" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2337,7 +2337,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1">
-      <c r="A6" s="135"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="135"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2448,21 +2448,21 @@
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1">
       <c r="A9" s="96"/>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128" t="s">
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -2519,6 +2519,9 @@
       <c r="I12" s="14">
         <f>(-1)*(E12*LOG(N4) + (1-E12)*LOG(1-N4))</f>
         <v>0.31533195942838366</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -2546,10 +2549,13 @@
         <f>(-1)*(E12*(1/N4)+(1-E12)*(1/(1-N4)))</f>
         <v>-2.066959463271492</v>
       </c>
+      <c r="J13" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1" ht="16.5" thickBot="1">
       <c r="I14" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>25</v>
@@ -2569,9 +2575,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
-      <c r="T14" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="T14" s="32"/>
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="X14" s="32"/>
@@ -2580,7 +2584,7 @@
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="T15" s="26" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
@@ -2596,17 +2600,17 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="133" t="s">
-        <v>33</v>
+      <c r="A17" s="125" t="s">
+        <v>32</v>
       </c>
       <c r="D17"/>
       <c r="G17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="125"/>
+      <c r="Q17" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="128"/>
       <c r="S17" s="25" t="s">
         <v>25</v>
       </c>
@@ -2625,7 +2629,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="134"/>
+      <c r="A18" s="126"/>
       <c r="T18" s="79">
         <v>0</v>
       </c>
@@ -2674,16 +2678,16 @@
       </c>
     </row>
     <row r="23" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A23" s="133" t="s">
-        <v>34</v>
+      <c r="A23" s="125" t="s">
+        <v>33</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="125"/>
+      <c r="H23" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="128"/>
       <c r="J23" s="25" t="s">
         <v>25</v>
       </c>
@@ -2698,12 +2702,12 @@
         <v>0</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q23" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="128"/>
       <c r="S23" s="25" t="s">
         <v>25</v>
       </c>
@@ -2721,7 +2725,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="134"/>
+      <c r="A24" s="126"/>
       <c r="K24" s="71">
         <v>0</v>
       </c>
@@ -2753,10 +2757,10 @@
         <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
         <v>0.24973763855303174</v>
       </c>
-      <c r="Q25" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="R25" s="125"/>
+      <c r="Q25" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="128"/>
       <c r="S25" s="34" t="s">
         <v>25</v>
       </c>
@@ -2773,10 +2777,10 @@
         <v>-0.5161975753422644</v>
       </c>
       <c r="W25" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X25" s="119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y25" s="116">
         <f>K14-$S$3*T25</f>
@@ -2812,7 +2816,7 @@
         <v>25</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T27" s="38">
         <f t="shared" ref="T27:V29" si="9">$T22*K$27+$U22*K$28+$V22*K$29</f>
@@ -2828,10 +2832,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" s="29" customFormat="1" ht="15.75">
-      <c r="H28" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="125"/>
+      <c r="H28" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="128"/>
       <c r="J28" s="25" t="s">
         <v>25</v>
       </c>
@@ -2851,15 +2855,15 @@
         <v>25</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="125" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q28" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="128"/>
       <c r="S28" s="25" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T29" s="42">
         <f t="shared" si="9"/>
@@ -2942,10 +2946,10 @@
     </row>
     <row r="33" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G33"/>
-      <c r="H33" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="126"/>
+      <c r="H33" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="129"/>
       <c r="J33" s="25" t="s">
         <v>25</v>
       </c>
@@ -2962,12 +2966,12 @@
         <v>-4.8547124195140873E-3</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="127"/>
+        <v>49</v>
+      </c>
+      <c r="Q33" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="130"/>
       <c r="S33" s="25" t="s">
         <v>25</v>
       </c>
@@ -3020,7 +3024,7 @@
     <row r="37" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="G37" s="82"/>
       <c r="I37" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>25</v>
@@ -3070,10 +3074,10 @@
     </row>
     <row r="40" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G40"/>
-      <c r="H40" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="125"/>
+      <c r="H40" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="128"/>
       <c r="J40" s="25" t="s">
         <v>25</v>
       </c>
@@ -3093,15 +3097,15 @@
         <v>25</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q40" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="R40" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q40" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="128"/>
       <c r="S40" s="25" t="s">
         <v>25</v>
       </c>
@@ -3121,13 +3125,13 @@
         <v>25</v>
       </c>
       <c r="X40" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y40" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z40" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA40" s="47"/>
     </row>
@@ -3167,7 +3171,7 @@
     <row r="44" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
       <c r="G44"/>
       <c r="K44" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="7:27" s="29" customFormat="1">
@@ -3197,10 +3201,10 @@
     </row>
     <row r="46" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G46"/>
-      <c r="H46" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="125"/>
+      <c r="H46" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="128"/>
       <c r="J46" s="25" t="s">
         <v>25</v>
       </c>
@@ -3215,12 +3219,12 @@
         <v>0</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="R46" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q46" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" s="128"/>
       <c r="S46" s="25" t="s">
         <v>25</v>
       </c>
@@ -3240,13 +3244,13 @@
         <v>25</v>
       </c>
       <c r="X46" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y46" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z46" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA46" s="47"/>
     </row>
@@ -3277,10 +3281,10 @@
     </row>
     <row r="48" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
       <c r="G48"/>
-      <c r="Q48" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="R48" s="125"/>
+      <c r="Q48" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" s="128"/>
       <c r="S48" s="34" t="s">
         <v>25</v>
       </c>
@@ -3297,10 +3301,10 @@
         <v>-2.0460752274061772E-2</v>
       </c>
       <c r="W48" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X48" s="119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y48" s="116">
         <f>K37-$S$3*T48</f>
@@ -3336,7 +3340,7 @@
         <v>25</v>
       </c>
       <c r="O50" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T50" s="38">
         <f>$T45*K$50+$U45*K$51+$V45*K$52</f>
@@ -3353,10 +3357,10 @@
     </row>
     <row r="51" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G51"/>
-      <c r="H51" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="125"/>
+      <c r="H51" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="128"/>
       <c r="J51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3376,15 +3380,15 @@
         <v>25</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q51" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="128"/>
       <c r="S51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T52" s="42">
         <f t="shared" si="20"/>
@@ -3473,10 +3477,10 @@
     </row>
     <row r="56" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G56"/>
-      <c r="H56" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="126"/>
+      <c r="H56" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="129"/>
       <c r="J56" s="25" t="s">
         <v>25</v>
       </c>
@@ -3493,12 +3497,12 @@
         <v>-3.654482955536325E-4</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="R56" s="127"/>
+        <v>49</v>
+      </c>
+      <c r="Q56" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56" s="130"/>
       <c r="S56" s="34" t="s">
         <v>25</v>
       </c>
@@ -3555,7 +3559,7 @@
     <row r="60" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="G60" s="82"/>
       <c r="I60" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J60" s="34" t="s">
         <v>25</v>
@@ -3619,10 +3623,10 @@
     </row>
     <row r="63" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G63"/>
-      <c r="H63" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="125"/>
+      <c r="H63" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="128"/>
       <c r="J63" s="34" t="s">
         <v>25</v>
       </c>
@@ -3642,15 +3646,15 @@
         <v>25</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="R63" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q63" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="R63" s="128"/>
       <c r="S63" s="34" t="s">
         <v>25</v>
       </c>
@@ -3670,13 +3674,13 @@
         <v>25</v>
       </c>
       <c r="X63" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y63" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z63" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA63" s="47"/>
     </row>
@@ -3732,7 +3736,7 @@
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L67" s="32"/>
       <c r="M67" s="32"/>
@@ -3774,10 +3778,10 @@
       <c r="AA68" s="32"/>
     </row>
     <row r="69" spans="7:27" ht="15.75">
-      <c r="H69" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="125"/>
+      <c r="H69" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="128"/>
       <c r="J69" s="34" t="s">
         <v>25</v>
       </c>
@@ -3792,12 +3796,12 @@
         <v>0</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q69" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="R69" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="Q69" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="R69" s="128"/>
       <c r="S69" s="34" t="s">
         <v>25</v>
       </c>
@@ -3817,13 +3821,13 @@
         <v>25</v>
       </c>
       <c r="X69" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y69" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z69" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA69" s="47"/>
     </row>
@@ -3864,10 +3868,10 @@
       <c r="AA70" s="32"/>
     </row>
     <row r="71" spans="7:27" ht="16.5" thickBot="1">
-      <c r="Q71" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="R71" s="125"/>
+      <c r="Q71" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="R71" s="128"/>
       <c r="S71" s="34" t="s">
         <v>25</v>
       </c>
@@ -3884,10 +3888,10 @@
         <v>-5.2976446387333877E-2</v>
       </c>
       <c r="W71" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X71" s="119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y71" s="116">
         <f>K60-$S$3*T71</f>
@@ -3923,7 +3927,7 @@
         <v>25</v>
       </c>
       <c r="O73" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P73" s="32"/>
       <c r="Q73" s="32"/>
@@ -3943,10 +3947,10 @@
       </c>
     </row>
     <row r="74" spans="7:27" ht="15.75">
-      <c r="H74" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="I74" s="125"/>
+      <c r="H74" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="128"/>
       <c r="J74" s="34" t="s">
         <v>25</v>
       </c>
@@ -3966,15 +3970,15 @@
         <v>25</v>
       </c>
       <c r="O74" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q74" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="P74" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q74" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="R74" s="125"/>
+      <c r="R74" s="128"/>
       <c r="S74" s="34" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>25</v>
       </c>
       <c r="O75" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P75" s="32"/>
       <c r="Q75" s="32"/>
@@ -4065,10 +4069,10 @@
       </c>
     </row>
     <row r="79" spans="7:27" ht="15.75">
-      <c r="H79" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="I79" s="126"/>
+      <c r="H79" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" s="129"/>
       <c r="J79" s="34" t="s">
         <v>25</v>
       </c>
@@ -4085,12 +4089,12 @@
         <v>-7.6408975126875749E-5</v>
       </c>
       <c r="P79" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q79" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="R79" s="127"/>
+        <v>49</v>
+      </c>
+      <c r="Q79" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="R79" s="130"/>
       <c r="S79" s="34" t="s">
         <v>25</v>
       </c>
@@ -4162,10 +4166,10 @@
       <c r="O83" s="32"/>
     </row>
     <row r="84" spans="8:15" ht="15.75">
-      <c r="H84" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="I84" s="125"/>
+      <c r="H84" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" s="128"/>
       <c r="J84" s="34" t="s">
         <v>25</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>25</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="8:15" ht="13.5" thickBot="1">
@@ -4209,6 +4213,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A5:A7"/>
@@ -4225,30 +4253,6 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="Q74:R74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4260,9 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -4273,7 +4275,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -1593,6 +1593,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,30 +1625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1786,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2145,43 +2145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1">
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132" t="s">
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132" t="s">
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="S2" s="120" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="135" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2337,7 +2337,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1">
-      <c r="A6" s="127"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2448,21 +2448,21 @@
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1">
       <c r="A9" s="96"/>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -2600,17 +2600,17 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="133" t="s">
         <v>32</v>
       </c>
       <c r="D17"/>
       <c r="G17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="128" t="s">
+      <c r="Q17" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="128"/>
+      <c r="R17" s="125"/>
       <c r="S17" s="25" t="s">
         <v>25</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="134"/>
       <c r="T18" s="79">
         <v>0</v>
       </c>
@@ -2665,11 +2665,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="107">
-        <f t="shared" ref="T22:V24" si="3">$T16*K$22+$U16*K$23+$V16*K$24</f>
+        <f>$T16*K$22+$U16*K$23+$V16*K$24</f>
         <v>-0.80155310576726913</v>
       </c>
       <c r="U22" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T22:V24" si="3">$T16*L$22+$U16*L$23+$V16*L$24</f>
         <v>0</v>
       </c>
       <c r="V22" s="109">
@@ -2678,16 +2678,16 @@
       </c>
     </row>
     <row r="23" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="133" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="135" t="s">
+      <c r="H23" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="125"/>
       <c r="J23" s="25" t="s">
         <v>25</v>
       </c>
@@ -2704,10 +2704,10 @@
       <c r="P23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="128" t="s">
+      <c r="Q23" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="128"/>
+      <c r="R23" s="125"/>
       <c r="S23" s="25" t="s">
         <v>25</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="126"/>
+      <c r="A24" s="134"/>
       <c r="K24" s="71">
         <v>0</v>
       </c>
@@ -2757,10 +2757,10 @@
         <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
         <v>0.24973763855303174</v>
       </c>
-      <c r="Q25" s="128" t="s">
+      <c r="Q25" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="128"/>
+      <c r="R25" s="125"/>
       <c r="S25" s="34" t="s">
         <v>25</v>
       </c>
@@ -2832,10 +2832,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" s="29" customFormat="1" ht="15.75">
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="125"/>
       <c r="J28" s="25" t="s">
         <v>25</v>
       </c>
@@ -2860,10 +2860,10 @@
       <c r="P28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="128" t="s">
+      <c r="Q28" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="128"/>
+      <c r="R28" s="125"/>
       <c r="S28" s="25" t="s">
         <v>25</v>
       </c>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="33" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G33"/>
-      <c r="H33" s="129" t="s">
+      <c r="H33" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="129"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="25" t="s">
         <v>25</v>
       </c>
@@ -2968,10 +2968,10 @@
       <c r="P33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" s="130" t="s">
+      <c r="Q33" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="R33" s="130"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="25" t="s">
         <v>25</v>
       </c>
@@ -3048,11 +3048,11 @@
     <row r="39" spans="7:27" s="29" customFormat="1">
       <c r="G39"/>
       <c r="K39" s="86">
-        <f t="shared" ref="K39:M41" si="12">I5</f>
+        <f>I5</f>
         <v>0.1</v>
       </c>
       <c r="L39" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K39:M41" si="12">J5</f>
         <v>0.4</v>
       </c>
       <c r="M39" s="88">
@@ -3074,10 +3074,10 @@
     </row>
     <row r="40" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G40"/>
-      <c r="H40" s="128" t="s">
+      <c r="H40" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="128"/>
+      <c r="I40" s="125"/>
       <c r="J40" s="25" t="s">
         <v>25</v>
       </c>
@@ -3102,10 +3102,10 @@
       <c r="P40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q40" s="128" t="s">
+      <c r="Q40" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="128"/>
+      <c r="R40" s="125"/>
       <c r="S40" s="25" t="s">
         <v>25</v>
       </c>
@@ -3173,6 +3173,10 @@
       <c r="K44" s="29" t="s">
         <v>37</v>
       </c>
+      <c r="L44" s="29">
+        <f>I3</f>
+        <v>2.7309999999999999</v>
+      </c>
     </row>
     <row r="45" spans="7:27" s="29" customFormat="1">
       <c r="G45"/>
@@ -3201,10 +3205,10 @@
     </row>
     <row r="46" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G46"/>
-      <c r="H46" s="128" t="s">
+      <c r="H46" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="128"/>
+      <c r="I46" s="125"/>
       <c r="J46" s="25" t="s">
         <v>25</v>
       </c>
@@ -3221,10 +3225,10 @@
       <c r="P46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q46" s="128" t="s">
+      <c r="Q46" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="128"/>
+      <c r="R46" s="125"/>
       <c r="S46" s="25" t="s">
         <v>25</v>
       </c>
@@ -3281,10 +3285,10 @@
     </row>
     <row r="48" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
       <c r="G48"/>
-      <c r="Q48" s="128" t="s">
+      <c r="Q48" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="R48" s="128"/>
+      <c r="R48" s="125"/>
       <c r="S48" s="34" t="s">
         <v>25</v>
       </c>
@@ -3357,10 +3361,10 @@
     </row>
     <row r="51" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G51"/>
-      <c r="H51" s="128" t="s">
+      <c r="H51" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="128"/>
+      <c r="I51" s="125"/>
       <c r="J51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3385,10 +3389,10 @@
       <c r="P51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q51" s="128" t="s">
+      <c r="Q51" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="R51" s="128"/>
+      <c r="R51" s="125"/>
       <c r="S51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3477,10 +3481,10 @@
     </row>
     <row r="56" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G56"/>
-      <c r="H56" s="129" t="s">
+      <c r="H56" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I56" s="129"/>
+      <c r="I56" s="126"/>
       <c r="J56" s="25" t="s">
         <v>25</v>
       </c>
@@ -3499,10 +3503,10 @@
       <c r="P56" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q56" s="130" t="s">
+      <c r="Q56" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="R56" s="130"/>
+      <c r="R56" s="127"/>
       <c r="S56" s="34" t="s">
         <v>25</v>
       </c>
@@ -3623,10 +3627,10 @@
     </row>
     <row r="63" spans="7:27" s="29" customFormat="1" ht="15.75">
       <c r="G63"/>
-      <c r="H63" s="128" t="s">
+      <c r="H63" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="128"/>
+      <c r="I63" s="125"/>
       <c r="J63" s="34" t="s">
         <v>25</v>
       </c>
@@ -3651,10 +3655,10 @@
       <c r="P63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q63" s="128" t="s">
+      <c r="Q63" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="R63" s="128"/>
+      <c r="R63" s="125"/>
       <c r="S63" s="34" t="s">
         <v>25</v>
       </c>
@@ -3778,10 +3782,10 @@
       <c r="AA68" s="32"/>
     </row>
     <row r="69" spans="7:27" ht="15.75">
-      <c r="H69" s="128" t="s">
+      <c r="H69" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="128"/>
+      <c r="I69" s="125"/>
       <c r="J69" s="34" t="s">
         <v>25</v>
       </c>
@@ -3798,10 +3802,10 @@
       <c r="P69" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="128" t="s">
+      <c r="Q69" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="R69" s="128"/>
+      <c r="R69" s="125"/>
       <c r="S69" s="34" t="s">
         <v>25</v>
       </c>
@@ -3868,10 +3872,10 @@
       <c r="AA70" s="32"/>
     </row>
     <row r="71" spans="7:27" ht="16.5" thickBot="1">
-      <c r="Q71" s="128" t="s">
+      <c r="Q71" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="R71" s="128"/>
+      <c r="R71" s="125"/>
       <c r="S71" s="34" t="s">
         <v>25</v>
       </c>
@@ -3947,10 +3951,10 @@
       </c>
     </row>
     <row r="74" spans="7:27" ht="15.75">
-      <c r="H74" s="128" t="s">
+      <c r="H74" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="128"/>
+      <c r="I74" s="125"/>
       <c r="J74" s="34" t="s">
         <v>25</v>
       </c>
@@ -3975,10 +3979,10 @@
       <c r="P74" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q74" s="128" t="s">
+      <c r="Q74" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="R74" s="128"/>
+      <c r="R74" s="125"/>
       <c r="S74" s="34" t="s">
         <v>25</v>
       </c>
@@ -4069,10 +4073,10 @@
       </c>
     </row>
     <row r="79" spans="7:27" ht="15.75">
-      <c r="H79" s="129" t="s">
+      <c r="H79" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="I79" s="129"/>
+      <c r="I79" s="126"/>
       <c r="J79" s="34" t="s">
         <v>25</v>
       </c>
@@ -4091,10 +4095,10 @@
       <c r="P79" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q79" s="130" t="s">
+      <c r="Q79" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="R79" s="130"/>
+      <c r="R79" s="127"/>
       <c r="S79" s="34" t="s">
         <v>25</v>
       </c>
@@ -4166,10 +4170,10 @@
       <c r="O83" s="32"/>
     </row>
     <row r="84" spans="8:15" ht="15.75">
-      <c r="H84" s="128" t="s">
+      <c r="H84" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="128"/>
+      <c r="I84" s="125"/>
       <c r="J84" s="34" t="s">
         <v>25</v>
       </c>
@@ -4213,30 +4217,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A5:A7"/>
@@ -4253,6 +4233,30 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="Q74:R74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4264,7 +4268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>Input</t>
   </si>
@@ -837,6 +837,46 @@
   </si>
   <si>
     <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Titillium"/>
+      </rPr>
+      <t>jk</t>
+    </r>
+  </si>
+  <si>
+    <t>Logaritmic</t>
+  </si>
+  <si>
+    <t>Crossentropy</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <r>
       <t>new B</t>
     </r>
     <r>
@@ -846,115 +886,15 @@
         <color theme="1"/>
         <rFont val="Titillium"/>
       </rPr>
-      <t>ij</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t>ij</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t>jk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
       <t>kl</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>new B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t>jk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>new B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t>kl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Titillium"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <t>Logaritmic</t>
-  </si>
-  <si>
-    <t>Crossentropy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -994,6 +934,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Titillium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Titillium"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Titillium"/>
       <family val="2"/>
     </font>
@@ -1060,7 +1011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1220,12 +1171,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1473,9 +1450,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,9 +1475,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1569,12 +1540,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,13 +1549,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1625,6 +1599,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1654,10 +1688,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>224690</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300890</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,10 +1749,10 @@
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>108004</xdr:rowOff>
+      <xdr:rowOff>50854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,10 +1810,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>589514</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56114</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2129,2134 +2163,2702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="10" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="4" style="123" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="11" width="9.140625" style="123"/>
+    <col min="12" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" thickBot="1">
-      <c r="F1" s="132" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132" t="s">
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="S1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132" t="s">
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="X1" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" thickBot="1">
-      <c r="C2" s="130" t="s">
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" thickBot="1">
+      <c r="A2" s="117">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131" t="s">
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="S2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131" t="s">
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="X2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="S2" s="120" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
+      <c r="E3" s="6">
         <v>0.1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F3" s="7">
         <v>0.2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="11">
         <v>0.7</v>
       </c>
-      <c r="F3" s="6">
-        <f>$C$4*C5+$D$4*C6+$E$4*C7+C8</f>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="7">
+        <f>$E$4*E5+$F$4*E6+$G$4*E7+E8</f>
         <v>1.35</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:H3" si="0">$C$4*D5+$D$4*D6+$E$4*D7+D8</f>
+      <c r="M3" s="7">
+        <f>$E$4*F5+$F$4*F6+$G$4*F7+F8</f>
         <v>1.27</v>
       </c>
-      <c r="H3" s="11">
-        <f t="shared" si="0"/>
+      <c r="N3" s="11">
+        <f>$E$4*G5+$F$4*G6+$G$4*G7+G8</f>
         <v>1.8</v>
       </c>
-      <c r="I3" s="7">
-        <f>$F$4*F5+$G$4*F6+$H$4*F7+F8</f>
-        <v>2.7309999999999999</v>
-      </c>
-      <c r="J3" s="7">
-        <f>$F$4*G5+$G$4*G6+$H$4*G7+G8</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="K3" s="7">
-        <f>$F$4*H5+$G$4*H6+$H$4*H7+H8</f>
-        <v>4.0040000000000004</v>
-      </c>
-      <c r="L3" s="8">
-        <f>$I$4*I5+$J$4*I6+$K$4*I7+I8</f>
-        <v>1.8670679715618874</v>
-      </c>
-      <c r="M3" s="9">
-        <f>$I$4*J5+$J$4*J6+$K$4*J7+J8</f>
-        <v>2.2302823205735391</v>
-      </c>
-      <c r="N3" s="10">
-        <f>$I$4*K5+$J$4*K6+$K$4*K7+K8</f>
-        <v>2.8230360327250636</v>
-      </c>
-      <c r="S3" s="121">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
-        <f>C3</f>
+      <c r="C4" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="12">
+        <f>E3</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="13">
-        <f>D3</f>
+      <c r="F4" s="13">
+        <f>F3</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="13">
-        <f>E3</f>
+      <c r="G4" s="14">
+        <f>G3</f>
         <v>0.7</v>
       </c>
-      <c r="F4" s="122">
-        <f>MAX(0,F3)</f>
+      <c r="H4" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="137"/>
+      <c r="J4" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="118">
+        <f>MAX(0,L3)</f>
         <v>1.35</v>
       </c>
-      <c r="G4" s="123">
-        <f>MAX(0,G3)</f>
+      <c r="M4" s="118">
+        <f>MAX(0,M3)</f>
         <v>1.27</v>
       </c>
-      <c r="H4" s="124">
-        <f>MAX(0,H3)</f>
+      <c r="N4" s="119">
+        <f>MAX(0,N3)</f>
         <v>1.8</v>
       </c>
-      <c r="I4" s="12">
-        <f>1/(1+EXP(-I3))</f>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="J4" s="13">
-        <f>1/(1+EXP(-J3))</f>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="K4" s="13">
-        <f>1/(1+EXP(-K3))</f>
-        <v>0.9820843048123673</v>
-      </c>
-      <c r="L4" s="12">
-        <f>EXP(L3)/(EXP($L$3)+EXP($M$3)+EXP($N$3))</f>
-        <v>0.19844689423273101</v>
-      </c>
-      <c r="M4" s="13">
-        <f t="shared" ref="M4:N4" si="1">EXP(M3)/(EXP($L$3)+EXP($M$3)+EXP($N$3))</f>
-        <v>0.28535553042500489</v>
-      </c>
-      <c r="N4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.51619757534226418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1">
-      <c r="A5" s="135" t="s">
+      <c r="O4" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="147"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1">
+      <c r="A5" s="134" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="15">
         <v>0.1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="17">
+        <f>C5</f>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="G5" s="10">
         <v>0.3</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="141">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15">
+        <f>E5*$D$5+F5*$D$6+G5*$D$7+H5</f>
+        <v>1.26</v>
+      </c>
+      <c r="K5" s="17">
+        <f>MAX(0,J5)</f>
+        <v>1.26</v>
+      </c>
+      <c r="L5" s="16">
         <v>0.2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="M5" s="16">
         <v>0.3</v>
       </c>
-      <c r="H5" s="17">
+      <c r="N5" s="17">
         <v>0.5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="O5" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>L5*$K$5+M5*$K$6+N5*$K$7+O5</f>
+        <v>2.585</v>
+      </c>
+      <c r="R5" s="17">
+        <f>1/(1+EXP(-Q5))</f>
+        <v>0.92988994377858192</v>
+      </c>
+      <c r="S5" s="15">
         <v>0.1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="T5" s="16">
         <v>0.4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="U5" s="17">
         <v>0.8</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1">
-      <c r="A6" s="135"/>
+      <c r="V5" s="141">
+        <v>1</v>
+      </c>
+      <c r="X5" s="15">
+        <f>S5*$R$5+T5*$R$6+U5*$R$7+V5</f>
+        <v>2.2615454738463878</v>
+      </c>
+      <c r="Y5" s="143">
+        <f>EXP(X5)/(EXP($X$5)+EXP($X$6)+EXP($X$7))</f>
+        <v>0.31116075436366425</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="16"/>
+    </row>
+    <row r="6" spans="1:32" s="2" customFormat="1">
+      <c r="A6" s="134"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="0">C6</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="15">
         <v>0.3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="F6" s="16">
         <v>0.2</v>
       </c>
-      <c r="E6" s="17">
+      <c r="G6" s="17">
         <v>0.7</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="141">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J7" si="1">E6*$D$5+F6*$D$6+G6*$D$7+H6</f>
+        <v>1.56</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" ref="K6:K7" si="2">MAX(0,J6)</f>
+        <v>1.56</v>
+      </c>
+      <c r="L6" s="16">
         <v>0.3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="M6" s="16">
         <v>0.5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="N6" s="17">
         <v>0.7</v>
       </c>
-      <c r="I6" s="15">
+      <c r="O6" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" ref="Q6:Q7" si="3">L6*$K$5+M6*$K$6+N6*$K$7+O6</f>
+        <v>3.3689999999999998</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" ref="R6:R7" si="4">1/(1+EXP(-Q6))</f>
+        <v>0.96672153516248671</v>
+      </c>
+      <c r="S6" s="15">
         <v>0.3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="T6" s="16">
         <v>0.7</v>
       </c>
-      <c r="K6" s="17">
+      <c r="U6" s="17">
         <v>0.2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="135"/>
+      <c r="V6" s="141">
+        <v>1</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" ref="X6:X7" si="5">S6*$R$5+T6*$R$6+U6*$R$7+V6</f>
+        <v>2.1511390240981987</v>
+      </c>
+      <c r="Y6" s="143">
+        <f t="shared" ref="Y6:Y7" si="6">EXP(X6)/(EXP($X$5)+EXP($X$6)+EXP($X$7))</f>
+        <v>0.2786351511180033</v>
+      </c>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="16"/>
+    </row>
+    <row r="7" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A7" s="134"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.4</v>
       </c>
-      <c r="D7" s="19">
+      <c r="F7" s="19">
         <v>0.3</v>
       </c>
-      <c r="E7" s="20">
+      <c r="G7" s="20">
         <v>0.9</v>
       </c>
-      <c r="F7" s="18">
+      <c r="H7" s="142">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.73</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="2"/>
+        <v>1.73</v>
+      </c>
+      <c r="L7" s="19">
         <v>0.6</v>
       </c>
-      <c r="G7" s="19">
+      <c r="M7" s="19">
         <v>0.4</v>
       </c>
-      <c r="H7" s="20">
+      <c r="N7" s="20">
         <v>0.8</v>
       </c>
-      <c r="I7" s="18">
+      <c r="O7" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="3"/>
+        <v>3.7640000000000002</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="4"/>
+        <v>0.97733483175441849</v>
+      </c>
+      <c r="S7" s="18">
         <v>0.5</v>
       </c>
-      <c r="J7" s="19">
+      <c r="T7" s="19">
         <v>0.2</v>
       </c>
-      <c r="K7" s="20">
+      <c r="U7" s="20">
         <v>0.9</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="V7" s="142">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <f t="shared" si="5"/>
+        <v>2.5378906275007651</v>
+      </c>
+      <c r="Y7" s="119">
+        <f t="shared" si="6"/>
+        <v>0.41020409451833256</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="14">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="M8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="14">
+      <c r="N8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+    </row>
+    <row r="9" spans="1:32" s="24" customFormat="1">
+      <c r="A9" s="94"/>
+      <c r="E9" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="S10" s="1">
+        <f>Q32-AD32</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="123">
+        <f t="shared" ref="T10:U10" si="7">R32-AE32</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+    </row>
+    <row r="11" spans="1:32" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="123">
+        <f t="shared" ref="S11:S12" si="8">Q33-AD33</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="123">
+        <f t="shared" ref="T11:T12" si="9">R33-AE33</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="123">
+        <f t="shared" ref="U11:U12" si="10">S33-AF33</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+    </row>
+    <row r="12" spans="1:32" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="13">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="M12" s="12">
+        <f>(-1)*(E12*LOG(Y5) + (1-E12)*LOG(1-Y5))</f>
+        <v>0.50701518429839965</v>
+      </c>
+      <c r="N12" s="13">
+        <f>(-1)*(F12*LOG(Y6) + (1-F12)*LOG(1-Y6))</f>
+        <v>0.1418450240754871</v>
+      </c>
+      <c r="O12" s="14">
+        <f>(-1)*(G12*LOG(Y7) + (1-G12)*LOG(1-Y7))</f>
+        <v>0.22929824676029789</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+    </row>
+    <row r="13" spans="1:32" s="32" customFormat="1">
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="M13" s="21">
+        <f>(-1)*(E12*(1/Y5)+(1-E12)*(1/(1-Y5)))</f>
+        <v>-3.2137729002651332</v>
+      </c>
+      <c r="N13" s="21">
+        <f>(-1)*(F12*(1/Y6)+(1-F12)*(1/(1-Y6)))</f>
+        <v>-1.3862610599197402</v>
+      </c>
+      <c r="O13" s="21">
+        <f>(-1)*(G12*(1/Y7)+(1-G12)*(1/(1-Y7)))</f>
+        <v>-1.6955017671466062</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="22" customFormat="1">
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+    </row>
+    <row r="15" spans="1:32" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="Z15" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="22" customFormat="1">
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="Z16" s="74">
+        <f>(-1)*(E12*(1/Y5)+(1-E12)*(1/(1-Y5)))</f>
+        <v>-3.2137729002651332</v>
+      </c>
+      <c r="AA16" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="22" customFormat="1" ht="15.75">
+      <c r="A17" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="F17"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="M17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z17" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="144">
+        <f>(-1)*(F12*(1/Y6)+(1-F12)*(1/(1-Y6)))</f>
+        <v>-1.3862610599197402</v>
+      </c>
+      <c r="AB17" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="95"/>
+    </row>
+    <row r="18" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A18" s="133"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="Z18" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="81">
+        <f>(-1)*(G12*(1/Y7)+(1-G12)*(1/(1-Y7)))</f>
+        <v>-1.6955017671466062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="22" customFormat="1">
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="AA19" s="26"/>
+    </row>
+    <row r="20" spans="1:33" s="22" customFormat="1">
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+    </row>
+    <row r="21" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="Q21" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="22" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="Q22" s="66">
+        <f>(EXP(X5)*(EXP(X6)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
+        <v>0.21433973930749969</v>
+      </c>
+      <c r="R22" s="67">
+        <v>0</v>
+      </c>
+      <c r="S22" s="68">
+        <v>0</v>
+      </c>
+      <c r="T22" s="123">
+        <f>(EXP(X5)*(EXP(X6)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
+        <v>0.21433973930749969</v>
+      </c>
+      <c r="Z22" s="105">
+        <f>$Z16*Q$22+$AA16*Q$23+$AB16*Q$24</f>
+        <v>-0.68883924563633581</v>
+      </c>
+      <c r="AA22" s="106">
+        <f>$Z16*R$22+$AA16*R$23+$AB16*R$24</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="107">
+        <f t="shared" ref="AB22:AB24" si="11">$Z16*S$22+$AA16*S$23+$AB16*S$24</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="22" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A23" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="M23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="124"/>
+      <c r="P23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="69">
+        <v>0</v>
+      </c>
+      <c r="R23" s="27">
+        <f>(EXP(X6)*(EXP(X5)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
+        <v>0.2009976036794508</v>
+      </c>
+      <c r="S23" s="70">
+        <v>0</v>
+      </c>
+      <c r="T23" s="123">
+        <f>(EXP(X6)*(EXP(X5)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
+        <v>0.2009976036794508</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z23" s="108">
+        <f>$Z17*Q$22+$AA17*Q$23+$AB17*Q$24</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="109">
+        <f>$Z17*R$22+$AA17*R$23+$AB17*R$24</f>
+        <v>-0.27863515111800335</v>
+      </c>
+      <c r="AB23" s="110">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="22">
+        <f>Z25</f>
+        <v>-0.68883924563633581</v>
+      </c>
+      <c r="AE23" s="114">
+        <f>V5-$A$2*AD23</f>
+        <v>1.0068883924563634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A24" s="133"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="Q24" s="71">
+        <v>0</v>
+      </c>
+      <c r="R24" s="72">
+        <v>0</v>
+      </c>
+      <c r="S24" s="145">
+        <f>EXP(X7)*(EXP(X5)+EXP(X6))/(EXP(X5)+EXP(X6)+EXP(X7))^2</f>
+        <v>0.24193669535872747</v>
+      </c>
+      <c r="T24" s="154">
+        <f>EXP(X7)*(EXP(X5)+EXP(X6))/(EXP(X5)+EXP(X6)+EXP(X7))^2</f>
+        <v>0.24193669535872747</v>
+      </c>
+      <c r="Z24" s="111">
+        <f>$Z18*Q$22+$AA18*Q$23+$AB18*Q$24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="112">
+        <f>$Z18*R$22+$AA18*R$23+$AB18*R$24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="113">
+        <f t="shared" si="11"/>
+        <v>-0.41020409451833256</v>
+      </c>
+      <c r="AD24" s="22">
+        <f>AA25</f>
+        <v>-0.27863515111800335</v>
+      </c>
+      <c r="AE24" s="114">
+        <f>V6-$A$2*AD24</f>
+        <v>1.0027863515111801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="22" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="W25" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="73">
+        <f>SUM(Z22:Z24)</f>
+        <v>-0.68883924563633581</v>
+      </c>
+      <c r="AA25" s="73">
+        <f t="shared" ref="AA25" si="12">SUM(AA22:AA24)</f>
+        <v>-0.27863515111800335</v>
+      </c>
+      <c r="AB25" s="73">
+        <f t="shared" ref="AB25" si="13">SUM(AB22:AB24)</f>
+        <v>-0.41020409451833256</v>
+      </c>
+      <c r="AC25" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD25" s="22">
+        <f>AB25</f>
+        <v>-0.41020409451833256</v>
+      </c>
+      <c r="AE25" s="114">
+        <f>V7-$A$2*AD25</f>
+        <v>1.0041020409451833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:33" s="29" customFormat="1" ht="15.75">
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="M27"/>
+      <c r="Q27" s="48">
+        <f>R$5</f>
+        <v>0.92988994377858192</v>
+      </c>
+      <c r="R27" s="49">
+        <f>R$6</f>
+        <v>0.96672153516248671</v>
+      </c>
+      <c r="S27" s="50">
+        <f>R$7</f>
+        <v>0.97733483175441849</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="38">
+        <f t="shared" ref="Z27:AB29" si="14">$Z22*Q$27+$AA22*Q$28+$AB22*Q$29</f>
+        <v>-0.64054468739725312</v>
+      </c>
+      <c r="AA27" s="39">
+        <f t="shared" si="14"/>
+        <v>-0.6659157330217278</v>
+      </c>
+      <c r="AB27" s="40">
+        <f t="shared" si="14"/>
+        <v>-0.67322658823982884</v>
+      </c>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+    </row>
+    <row r="28" spans="1:33" s="29" customFormat="1" ht="15.75">
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="N28" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="124"/>
+      <c r="P28" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="51">
+        <f t="shared" ref="Q28:Q29" si="15">R$5</f>
+        <v>0.92988994377858192</v>
+      </c>
+      <c r="R28" s="52">
+        <f t="shared" ref="R28:R29" si="16">R$6</f>
+        <v>0.96672153516248671</v>
+      </c>
+      <c r="S28" s="53">
+        <f t="shared" ref="S28:S29" si="17">R$7</f>
+        <v>0.97733483175441849</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W28" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="31">
+        <f t="shared" si="14"/>
+        <v>-0.25910002500785684</v>
+      </c>
+      <c r="AA28" s="33">
+        <f t="shared" si="14"/>
+        <v>-0.2693626010390277</v>
+      </c>
+      <c r="AB28" s="41">
+        <f t="shared" si="14"/>
+        <v>-0.27231983853878078</v>
+      </c>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+    </row>
+    <row r="29" spans="1:33" s="29" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="Q29" s="54">
+        <f t="shared" si="15"/>
+        <v>0.92988994377858192</v>
+      </c>
+      <c r="R29" s="55">
+        <f t="shared" si="16"/>
+        <v>0.96672153516248671</v>
+      </c>
+      <c r="S29" s="56">
+        <f t="shared" si="17"/>
+        <v>0.97733483175441849</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" s="42">
+        <f t="shared" si="14"/>
+        <v>-0.38144466238939639</v>
+      </c>
+      <c r="AA29" s="43">
+        <f t="shared" si="14"/>
+        <v>-0.39655313198270026</v>
+      </c>
+      <c r="AB29" s="44">
+        <f t="shared" si="14"/>
+        <v>-0.40090674970104812</v>
+      </c>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+    </row>
+    <row r="30" spans="1:33" s="29" customFormat="1">
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+    </row>
+    <row r="31" spans="1:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:33" s="29" customFormat="1">
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="M32"/>
+      <c r="Q32" s="57">
+        <f>Z27*$A$2</f>
+        <v>-6.405446873972531E-3</v>
+      </c>
+      <c r="R32" s="58">
+        <f>Z28*$A$2</f>
+        <v>-2.5910002500785685E-3</v>
+      </c>
+      <c r="S32" s="59">
+        <f>Z29*$A$2</f>
+        <v>-3.8144466238939638E-3</v>
+      </c>
+      <c r="V32" s="25"/>
+      <c r="Z32" s="74">
+        <f t="shared" ref="Z32:AB34" si="18">Q39-Q32</f>
+        <v>0.10640544687397253</v>
+      </c>
+      <c r="AA32" s="75">
+        <f t="shared" si="18"/>
+        <v>0.4025910002500786</v>
+      </c>
+      <c r="AB32" s="76">
+        <f t="shared" si="18"/>
+        <v>0.80381444662389401</v>
+      </c>
+      <c r="AD32" s="29">
+        <v>-6.405446873972531E-3</v>
+      </c>
+      <c r="AE32" s="29">
+        <v>-2.5910002500785685E-3</v>
+      </c>
+      <c r="AF32" s="29">
+        <v>-3.8144466238939638E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="M33"/>
+      <c r="N33" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="125"/>
+      <c r="P33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="60">
+        <f>AA27*$A$2</f>
+        <v>-6.6591573302172778E-3</v>
+      </c>
+      <c r="R33" s="61">
+        <f>AA28*$A$2</f>
+        <v>-2.6936260103902769E-3</v>
+      </c>
+      <c r="S33" s="62">
+        <f>AA29*$A$2</f>
+        <v>-3.965531319827003E-3</v>
+      </c>
+      <c r="V33" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W33" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z33" s="77">
+        <f t="shared" si="18"/>
+        <v>0.30665915733021726</v>
+      </c>
+      <c r="AA33" s="28">
+        <f t="shared" si="18"/>
+        <v>0.7026936260103902</v>
+      </c>
+      <c r="AB33" s="78">
+        <f t="shared" si="18"/>
+        <v>0.203965531319827</v>
+      </c>
+      <c r="AD33" s="29">
+        <v>-6.6591573302172778E-3</v>
+      </c>
+      <c r="AE33" s="29">
+        <v>-2.6936260103902769E-3</v>
+      </c>
+      <c r="AF33" s="29">
+        <v>-3.965531319827003E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="M34"/>
+      <c r="Q34" s="63">
+        <f>AB27*$A$2</f>
+        <v>-6.7322658823982884E-3</v>
+      </c>
+      <c r="R34" s="64">
+        <f>AB28*$A$2</f>
+        <v>-2.7231983853878076E-3</v>
+      </c>
+      <c r="S34" s="65">
+        <f>AB29*$A$2</f>
+        <v>-4.0090674970104812E-3</v>
+      </c>
+      <c r="Z34" s="79">
+        <f t="shared" si="18"/>
+        <v>0.50673226588239828</v>
+      </c>
+      <c r="AA34" s="80">
+        <f t="shared" si="18"/>
+        <v>0.20272319838538783</v>
+      </c>
+      <c r="AB34" s="81">
+        <f t="shared" si="18"/>
+        <v>0.90400906749701049</v>
+      </c>
+      <c r="AD34" s="29">
+        <v>-6.7322658823982884E-3</v>
+      </c>
+      <c r="AE34" s="29">
+        <v>-2.7231983853878076E-3</v>
+      </c>
+      <c r="AF34" s="29">
+        <v>-4.0090674970104812E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33" s="83" customFormat="1" ht="13.5" thickBot="1">
+      <c r="M35" s="84"/>
+    </row>
+    <row r="36" spans="3:33" s="33" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="M36" s="82"/>
+    </row>
+    <row r="37" spans="3:33" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="M37" s="82"/>
+      <c r="O37" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="35">
+        <f>L8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="14">
+      <c r="R37" s="36">
+        <f t="shared" ref="R37:S37" si="19">M8</f>
         <v>1</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:26" s="24" customFormat="1">
-      <c r="A9" s="96"/>
-      <c r="C9" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="22">
-        <f>EXP(2)</f>
-        <v>7.3890560989306504</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-    </row>
-    <row r="12" spans="1:26" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="C12" s="6">
+      <c r="S37" s="37">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+    </row>
+    <row r="38" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="3:33" s="29" customFormat="1">
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="M39"/>
+      <c r="Q39" s="85">
+        <f>S5</f>
+        <v>0.1</v>
+      </c>
+      <c r="R39" s="86">
+        <f>T5</f>
+        <v>0.4</v>
+      </c>
+      <c r="S39" s="87">
+        <f>U5</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z39" s="74">
+        <f>$Z22*Q$39+$AA22*Q$40+$AB22*Q$41</f>
+        <v>-6.8883924563633583E-2</v>
+      </c>
+      <c r="AA39" s="75">
+        <f t="shared" ref="Z39:AB41" si="20">$Z22*R$39+$AA22*R$40+$AB22*R$41</f>
+        <v>-0.27553569825453433</v>
+      </c>
+      <c r="AB39" s="76">
+        <f t="shared" si="20"/>
+        <v>-0.55107139650906867</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="M40"/>
+      <c r="N40" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="124"/>
+      <c r="P40" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="88">
+        <f>S6</f>
+        <v>0.3</v>
+      </c>
+      <c r="R40" s="89">
+        <f>T6</f>
+        <v>0.7</v>
+      </c>
+      <c r="S40" s="90">
+        <f>U6</f>
+        <v>0.2</v>
+      </c>
+      <c r="T40" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z40" s="77">
+        <f t="shared" si="20"/>
+        <v>-8.3590545335401001E-2</v>
+      </c>
+      <c r="AA40" s="28">
+        <f t="shared" si="20"/>
+        <v>-0.19504460578260233</v>
+      </c>
+      <c r="AB40" s="78">
+        <f t="shared" si="20"/>
+        <v>-5.5727030223600676E-2</v>
+      </c>
+      <c r="AC40" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE40" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF40" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG40" s="47"/>
+    </row>
+    <row r="41" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="M41"/>
+      <c r="Q41" s="91">
+        <f>S7</f>
+        <v>0.5</v>
+      </c>
+      <c r="R41" s="92">
+        <f>T7</f>
+        <v>0.2</v>
+      </c>
+      <c r="S41" s="93">
+        <f>U7</f>
+        <v>0.9</v>
+      </c>
+      <c r="Z41" s="79">
+        <f t="shared" si="20"/>
+        <v>-0.20510204725916628</v>
+      </c>
+      <c r="AA41" s="80">
+        <f t="shared" si="20"/>
+        <v>-8.2040818903666518E-2</v>
+      </c>
+      <c r="AB41" s="81">
+        <f t="shared" si="20"/>
+        <v>-0.36918368506649929</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" s="29" customFormat="1">
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="3:33" s="29" customFormat="1">
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="M44"/>
+      <c r="Q44" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" s="29">
+        <f>S3</f>
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+    </row>
+    <row r="45" spans="3:33" s="29" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="M45"/>
+      <c r="Q45" s="66">
+        <f>1/(1+EXP(S3))*(1-1/(1+EXP(S3)))</f>
+        <v>0.25</v>
+      </c>
+      <c r="R45" s="67">
         <v>0</v>
       </c>
-      <c r="G12" s="12">
-        <f>(-1)*(C12*LOG(L4) + (1-C12)*LOG(1-L4))</f>
-        <v>0.70235569357285044</v>
-      </c>
-      <c r="H12" s="13">
-        <f>(-1)*(D12*LOG(M4) + (1-D12)*LOG(1-M4))</f>
-        <v>0.14590996281852558</v>
-      </c>
-      <c r="I12" s="14">
-        <f>(-1)*(E12*LOG(N4) + (1-E12)*LOG(1-N4))</f>
-        <v>0.31533195942838366</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="S45" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="105">
+        <f t="shared" ref="Z45:AB47" si="21">$Z39*Q$45+$AA39*Q$46+$AB39*Q$47</f>
+        <v>-1.7220981140908396E-2</v>
+      </c>
+      <c r="AA45" s="106">
+        <f t="shared" si="21"/>
+        <v>-6.8883924563633583E-2</v>
+      </c>
+      <c r="AB45" s="107">
+        <f t="shared" si="21"/>
+        <v>-0.13776784912726717</v>
+      </c>
+      <c r="AD45" s="123"/>
+      <c r="AE45" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-    </row>
-    <row r="13" spans="1:26" s="32" customFormat="1" ht="13.5" thickBot="1">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="G13" s="21">
-        <f>(-1)*(C12*(1/L4)+(1-C12)*(1/(1-L4)))</f>
-        <v>-5.039131521137528</v>
-      </c>
-      <c r="H13" s="21">
-        <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
-        <v>-1.3992971926232187</v>
-      </c>
-      <c r="I13" s="21">
-        <f>(-1)*(E12*(1/N4)+(1-E12)*(1/(1-N4)))</f>
-        <v>-2.066959463271492</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" ht="16.5" thickBot="1">
-      <c r="I14" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="34" t="s">
+    </row>
+    <row r="46" spans="3:33" s="29" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="M46"/>
+      <c r="N46" s="124" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" s="124"/>
+      <c r="P46" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="35">
-        <f>I8</f>
+      <c r="Q46" s="69">
+        <v>0</v>
+      </c>
+      <c r="R46" s="27">
+        <f>1/(1+EXP(T3))*(1-1/(1+EXP(T3)))</f>
+        <v>0.25</v>
+      </c>
+      <c r="S46" s="70">
+        <v>0</v>
+      </c>
+      <c r="V46" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="X46" s="124"/>
+      <c r="Y46" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="108">
+        <f t="shared" si="21"/>
+        <v>-2.089763633385025E-2</v>
+      </c>
+      <c r="AA46" s="109">
+        <f t="shared" si="21"/>
+        <v>-4.8761151445650582E-2</v>
+      </c>
+      <c r="AB46" s="110">
+        <f t="shared" si="21"/>
+        <v>-1.3931757555900169E-2</v>
+      </c>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="123">
+        <f>Z48</f>
+        <v>-8.9394129289550206E-2</v>
+      </c>
+      <c r="AE46" s="114">
+        <f>O5-$A$2*AD46</f>
+        <v>1.0008939412928954</v>
+      </c>
+      <c r="AF46" s="152"/>
+      <c r="AG46" s="152"/>
+    </row>
+    <row r="47" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="M47"/>
+      <c r="Q47" s="71">
+        <v>0</v>
+      </c>
+      <c r="R47" s="72">
+        <v>0</v>
+      </c>
+      <c r="S47" s="45">
+        <f>1/(1+EXP(U3))*(1-1/(1+EXP(U3)))</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z47" s="111">
+        <f t="shared" si="21"/>
+        <v>-5.127551181479157E-2</v>
+      </c>
+      <c r="AA47" s="112">
+        <f t="shared" si="21"/>
+        <v>-2.051020472591663E-2</v>
+      </c>
+      <c r="AB47" s="113">
+        <f t="shared" si="21"/>
+        <v>-9.2295921266624822E-2</v>
+      </c>
+      <c r="AD47" s="123">
+        <f>AA48</f>
+        <v>-0.13815528073520081</v>
+      </c>
+      <c r="AE47" s="114">
+        <f t="shared" ref="AE47:AE48" si="22">O6-$A$2*AD47</f>
+        <v>1.001381552807352</v>
+      </c>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+    </row>
+    <row r="48" spans="3:33" s="29" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="M48"/>
+      <c r="W48" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z48" s="73">
+        <f>SUM(Z45:Z47)</f>
+        <v>-8.9394129289550206E-2</v>
+      </c>
+      <c r="AA48" s="73">
+        <f t="shared" ref="AA48:AB48" si="23">SUM(AA45:AA47)</f>
+        <v>-0.13815528073520081</v>
+      </c>
+      <c r="AB48" s="73">
+        <f t="shared" si="23"/>
+        <v>-0.24399552794979218</v>
+      </c>
+      <c r="AC48" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD48" s="123">
+        <f>AB48</f>
+        <v>-0.24399552794979218</v>
+      </c>
+      <c r="AE48" s="114">
+        <f t="shared" si="22"/>
+        <v>1.002439955279498</v>
+      </c>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+    </row>
+    <row r="49" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="M49"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+    </row>
+    <row r="50" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="M50"/>
+      <c r="Q50" s="48">
+        <f>L4</f>
+        <v>1.35</v>
+      </c>
+      <c r="R50" s="49">
+        <f>M4</f>
+        <v>1.27</v>
+      </c>
+      <c r="S50" s="50">
+        <f>N4</f>
+        <v>1.8</v>
+      </c>
+      <c r="T50" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z50" s="38">
+        <f>$Z45*Q$50+$AA45*Q$51+$AB45*Q$52</f>
+        <v>-0.30222821902294239</v>
+      </c>
+      <c r="AA50" s="39">
+        <f t="shared" ref="AA50:AB52" si="24">$Z45*R$50+$AA45*R$51+$AB45*R$52</f>
+        <v>-0.28431839863639763</v>
+      </c>
+      <c r="AB50" s="40">
+        <f t="shared" si="24"/>
+        <v>-0.40297095869725646</v>
+      </c>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+    </row>
+    <row r="51" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="M51"/>
+      <c r="N51" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="124"/>
+      <c r="P51" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="51">
+        <f>Q50</f>
+        <v>1.35</v>
+      </c>
+      <c r="R51" s="52">
+        <f t="shared" ref="R51:S51" si="25">R50</f>
+        <v>1.27</v>
+      </c>
+      <c r="S51" s="53">
+        <f t="shared" si="25"/>
+        <v>1.8</v>
+      </c>
+      <c r="T51" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V51" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="X51" s="124"/>
+      <c r="Y51" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z51" s="31">
+        <f t="shared" ref="Z51:Z52" si="26">$Z46*Q$50+$AA46*Q$51+$AB46*Q$52</f>
+        <v>-0.11284723620279136</v>
+      </c>
+      <c r="AA51" s="33">
+        <f t="shared" si="24"/>
+        <v>-0.10615999257595927</v>
+      </c>
+      <c r="AB51" s="41">
+        <f t="shared" si="24"/>
+        <v>-0.15046298160372182</v>
+      </c>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+    </row>
+    <row r="52" spans="3:33" s="29" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="M52"/>
+      <c r="Q52" s="54">
+        <f>Q51</f>
+        <v>1.35</v>
+      </c>
+      <c r="R52" s="55">
+        <f t="shared" ref="R52" si="27">R51</f>
+        <v>1.27</v>
+      </c>
+      <c r="S52" s="56">
+        <f t="shared" ref="S52" si="28">S51</f>
+        <v>1.8</v>
+      </c>
+      <c r="T52" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z52" s="42">
+        <f t="shared" si="26"/>
+        <v>-0.2215102110398996</v>
+      </c>
+      <c r="AA52" s="43">
+        <f t="shared" si="24"/>
+        <v>-0.20838368001531293</v>
+      </c>
+      <c r="AB52" s="44">
+        <f t="shared" si="24"/>
+        <v>-0.29534694805319944</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" s="29" customFormat="1">
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="3:33" s="29" customFormat="1">
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="M55"/>
+      <c r="Q55" s="57">
+        <f>Z50*$A$2</f>
+        <v>-3.0222821902294241E-3</v>
+      </c>
+      <c r="R55" s="58">
+        <f>Z51*$A$2</f>
+        <v>-1.1284723620279137E-3</v>
+      </c>
+      <c r="S55" s="59">
+        <f>Z52*$A$2</f>
+        <v>-2.215102110398996E-3</v>
+      </c>
+      <c r="V55" s="34"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="38">
+        <f t="shared" ref="Z55:AB57" si="29">Q62-Q55</f>
+        <v>0.20302228219022944</v>
+      </c>
+      <c r="AA55" s="39">
+        <f t="shared" si="29"/>
+        <v>0.30112847236202789</v>
+      </c>
+      <c r="AB55" s="40">
+        <f t="shared" si="29"/>
+        <v>0.50221510211039899</v>
+      </c>
+    </row>
+    <row r="56" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="M56"/>
+      <c r="N56" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="125"/>
+      <c r="P56" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="60">
+        <f>AA50*$A$2</f>
+        <v>-2.8431839863639762E-3</v>
+      </c>
+      <c r="R56" s="61">
+        <f>AA51*$A$2</f>
+        <v>-1.0615999257595928E-3</v>
+      </c>
+      <c r="S56" s="62">
+        <f>AA52*$A$2</f>
+        <v>-2.0838368001531295E-3</v>
+      </c>
+      <c r="V56" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W56" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="X56" s="126"/>
+      <c r="Y56" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z56" s="31">
+        <f t="shared" si="29"/>
+        <v>0.30284318398636395</v>
+      </c>
+      <c r="AA56" s="33">
+        <f t="shared" si="29"/>
+        <v>0.5010615999257596</v>
+      </c>
+      <c r="AB56" s="41">
+        <f t="shared" si="29"/>
+        <v>0.70208383680015307</v>
+      </c>
+    </row>
+    <row r="57" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="M57"/>
+      <c r="Q57" s="63">
+        <f>AB50*$A$2</f>
+        <v>-4.0297095869725645E-3</v>
+      </c>
+      <c r="R57" s="64">
+        <f>AB51*$A$2</f>
+        <v>-1.5046298160372182E-3</v>
+      </c>
+      <c r="S57" s="65">
+        <f>AB52*$A$2</f>
+        <v>-2.9534694805319946E-3</v>
+      </c>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="42">
+        <f t="shared" si="29"/>
+        <v>0.60402970958697255</v>
+      </c>
+      <c r="AA57" s="43">
+        <f t="shared" si="29"/>
+        <v>0.40150462981603724</v>
+      </c>
+      <c r="AB57" s="44">
+        <f t="shared" si="29"/>
+        <v>0.80295346948053203</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" s="83" customFormat="1" ht="13.5" thickBot="1">
+      <c r="M58" s="84"/>
+    </row>
+    <row r="59" spans="3:33" s="33" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="M59" s="82"/>
+    </row>
+    <row r="60" spans="3:33" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="M60" s="82"/>
+      <c r="O60" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="35">
+        <f>E8</f>
         <v>1</v>
       </c>
-      <c r="L14" s="36">
-        <f t="shared" ref="L14:M14" si="2">J8</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="T15" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="22" customFormat="1">
-      <c r="T16" s="74">
-        <f>(-1)*(C12*(1/L4)+(1-C12)*(1/(1-L4)))</f>
-        <v>-5.039131521137528</v>
-      </c>
-      <c r="U16" s="75">
-        <v>0</v>
-      </c>
-      <c r="V16" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17"/>
-      <c r="G17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="125"/>
-      <c r="S17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="77">
-        <v>0</v>
-      </c>
-      <c r="U17" s="95">
-        <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
-        <v>-1.3992971926232187</v>
-      </c>
-      <c r="V17" s="78">
-        <v>0</v>
-      </c>
-      <c r="W17" s="97">
-        <v>-0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="134"/>
-      <c r="T18" s="79">
-        <v>0</v>
-      </c>
-      <c r="U18" s="80">
-        <v>0</v>
-      </c>
-      <c r="V18" s="81">
-        <f>(-1)*(E12*(1/N4)+(1-E12)*(1/(1-N4)))</f>
-        <v>-2.066959463271492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="22" customFormat="1">
-      <c r="U19" s="26">
-        <f>(-1)*(D12*(1/M4)+(1-D12)*(1/(1-M4)))</f>
-        <v>-1.3992971926232187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="22" customFormat="1"/>
-    <row r="21" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="K21" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="22" customFormat="1">
-      <c r="K22" s="66">
-        <f>(EXP(L3)*(EXP(M3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.15906572440211431</v>
-      </c>
-      <c r="L22" s="67">
-        <v>0</v>
-      </c>
-      <c r="M22" s="68">
-        <v>0</v>
-      </c>
-      <c r="T22" s="107">
-        <f>$T16*K$22+$U16*K$23+$V16*K$24</f>
-        <v>-0.80155310576726913</v>
-      </c>
-      <c r="U22" s="108">
-        <f t="shared" ref="T22:V24" si="3">$T16*L$22+$U16*L$23+$V16*L$24</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" s="22" customFormat="1" ht="15.75">
-      <c r="A23" s="133" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="69">
-        <v>0</v>
-      </c>
-      <c r="L23" s="27">
-        <f>(EXP(M3)*(EXP(L3)+EXP(N3)))/(EXP($L$3)+EXP($M$3)+EXP($N$3))^2</f>
-        <v>0.20392775168086905</v>
-      </c>
-      <c r="M23" s="70">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" s="125"/>
-      <c r="S23" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T23" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="111">
-        <f t="shared" si="3"/>
-        <v>-0.28535553042500494</v>
-      </c>
-      <c r="V23" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="134"/>
-      <c r="K24" s="71">
-        <v>0</v>
-      </c>
-      <c r="L24" s="72">
-        <v>0</v>
-      </c>
-      <c r="M24" s="85">
-        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
-        <v>0.24973763855303174</v>
-      </c>
-      <c r="N24" s="97">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="T24" s="113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="115">
-        <f t="shared" si="3"/>
-        <v>-0.5161975753422644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="22" customFormat="1" ht="16.5" thickBot="1">
-      <c r="M25" s="22">
-        <f>EXP(N3)*(EXP(L3)+EXP(M3))/(EXP(L3)+EXP(M3)+EXP(N3))^2</f>
-        <v>0.24973763855303174</v>
-      </c>
-      <c r="Q25" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="125"/>
-      <c r="S25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" s="73">
-        <f>SUM(T22:T24)</f>
-        <v>-0.80155310576726913</v>
-      </c>
-      <c r="U25" s="73">
-        <f t="shared" ref="U25" si="4">SUM(U22:U24)</f>
-        <v>-0.28535553042500494</v>
-      </c>
-      <c r="V25" s="73">
-        <f t="shared" ref="V25" si="5">SUM(V22:V24)</f>
-        <v>-0.5161975753422644</v>
-      </c>
-      <c r="W25" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="X25" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y25" s="116">
-        <f>K14-$S$3*T25</f>
-        <v>1.0080155310576726</v>
-      </c>
-      <c r="Z25" s="117">
-        <f t="shared" ref="Z25" si="6">L14-$S$3*U25</f>
-        <v>1.0028535553042501</v>
-      </c>
-      <c r="AA25" s="118">
-        <f t="shared" ref="AA25" si="7">M14-$S$3*V25</f>
-        <v>1.0051619757534227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:27" s="29" customFormat="1" ht="15.75">
-      <c r="G27"/>
-      <c r="K27" s="48">
-        <f t="shared" ref="K27:M29" si="8">I$4</f>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="L27" s="49">
-        <f t="shared" si="8"/>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="M27" s="50">
-        <f t="shared" si="8"/>
-        <v>0.9820843048123673</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="38">
-        <f t="shared" ref="T27:V29" si="9">$T22*K$27+$U22*K$28+$V22*K$29</f>
-        <v>-0.75252313587942754</v>
-      </c>
-      <c r="U27" s="39">
-        <f t="shared" si="9"/>
-        <v>-0.75384116534997669</v>
-      </c>
-      <c r="V27" s="40">
-        <f t="shared" si="9"/>
-        <v>-0.78719272464764245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="29" customFormat="1" ht="15.75">
-      <c r="H28" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="51">
-        <f t="shared" si="8"/>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="L28" s="52">
-        <f t="shared" si="8"/>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="M28" s="53">
-        <f t="shared" si="8"/>
-        <v>0.9820843048123673</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="125"/>
-      <c r="S28" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" s="31">
-        <f t="shared" si="9"/>
-        <v>-0.26790070059102344</v>
-      </c>
-      <c r="U28" s="33">
-        <f t="shared" si="9"/>
-        <v>-0.26836992339856824</v>
-      </c>
-      <c r="V28" s="41">
-        <f t="shared" si="9"/>
-        <v>-0.28024318772180529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="K29" s="54">
-        <f t="shared" si="8"/>
-        <v>0.9388312894865416</v>
-      </c>
-      <c r="L29" s="55">
-        <f t="shared" si="8"/>
-        <v>0.94047563402349843</v>
-      </c>
-      <c r="M29" s="56">
-        <f t="shared" si="8"/>
-        <v>0.9820843048123673</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="42">
-        <f t="shared" si="9"/>
-        <v>-0.48462243528840432</v>
-      </c>
-      <c r="U29" s="43">
-        <f t="shared" si="9"/>
-        <v>-0.48547124195140873</v>
-      </c>
-      <c r="V29" s="44">
-        <f t="shared" si="9"/>
-        <v>-0.50694953692583733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="29" customFormat="1"/>
-    <row r="31" spans="1:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:27" s="29" customFormat="1">
-      <c r="G32"/>
-      <c r="K32" s="57">
-        <f>T27*$S$3</f>
-        <v>-7.5252313587942758E-3</v>
-      </c>
-      <c r="L32" s="58">
-        <f>T28*$S$3</f>
-        <v>-2.6790070059102343E-3</v>
-      </c>
-      <c r="M32" s="59">
-        <f>T29*$S$3</f>
-        <v>-4.8462243528840437E-3</v>
-      </c>
-      <c r="P32" s="25"/>
-      <c r="T32" s="74">
-        <f t="shared" ref="T32:V34" si="10">K39-K32</f>
-        <v>0.10752523135879428</v>
-      </c>
-      <c r="U32" s="75">
-        <f t="shared" si="10"/>
-        <v>0.40267900700591025</v>
-      </c>
-      <c r="V32" s="76">
-        <f t="shared" si="10"/>
-        <v>0.80484622435288411</v>
-      </c>
-    </row>
-    <row r="33" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G33"/>
-      <c r="H33" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="60">
-        <f>U27*$S$3</f>
-        <v>-7.5384116534997674E-3</v>
-      </c>
-      <c r="L33" s="61">
-        <f>U28*$S$3</f>
-        <v>-2.6836992339856823E-3</v>
-      </c>
-      <c r="M33" s="62">
-        <f>U29*$S$3</f>
-        <v>-4.8547124195140873E-3</v>
-      </c>
-      <c r="P33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="127"/>
-      <c r="S33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" s="77">
-        <f t="shared" si="10"/>
-        <v>0.30753841165349977</v>
-      </c>
-      <c r="U33" s="28">
-        <f t="shared" si="10"/>
-        <v>0.70268369923398566</v>
-      </c>
-      <c r="V33" s="78">
-        <f t="shared" si="10"/>
-        <v>0.20485471241951408</v>
-      </c>
-    </row>
-    <row r="34" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G34"/>
-      <c r="K34" s="63">
-        <f>V27*$S$3</f>
-        <v>-7.8719272464764251E-3</v>
-      </c>
-      <c r="L34" s="64">
-        <f>V28*$S$3</f>
-        <v>-2.8024318772180527E-3</v>
-      </c>
-      <c r="M34" s="65">
-        <f>V29*$S$3</f>
-        <v>-5.0694953692583733E-3</v>
-      </c>
-      <c r="T34" s="79">
-        <f t="shared" si="10"/>
-        <v>0.50787192724647645</v>
-      </c>
-      <c r="U34" s="80">
-        <f t="shared" si="10"/>
-        <v>0.20280243187721805</v>
-      </c>
-      <c r="V34" s="81">
-        <f t="shared" si="10"/>
-        <v>0.9050694953692584</v>
-      </c>
-    </row>
-    <row r="35" spans="7:27" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G35" s="84"/>
-    </row>
-    <row r="36" spans="7:27" s="33" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G36" s="82"/>
-    </row>
-    <row r="37" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G37" s="82"/>
-      <c r="I37" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="35">
+      <c r="R60" s="36">
         <f>F8</f>
         <v>1</v>
       </c>
-      <c r="L37" s="36">
-        <f t="shared" ref="L37:M37" si="11">G8</f>
+      <c r="S60" s="37">
+        <f>G8</f>
         <v>1</v>
       </c>
-      <c r="M37" s="37">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="7:27" s="29" customFormat="1">
-      <c r="G39"/>
-      <c r="K39" s="86">
-        <f>I5</f>
-        <v>0.1</v>
-      </c>
-      <c r="L39" s="87">
-        <f t="shared" ref="K39:M41" si="12">J5</f>
-        <v>0.4</v>
-      </c>
-      <c r="M39" s="88">
-        <f t="shared" si="12"/>
-        <v>0.8</v>
-      </c>
-      <c r="T39" s="74">
-        <f>$T22*K$39+$U22*K$40+$V22*K$41</f>
-        <v>-8.0155310576726924E-2</v>
-      </c>
-      <c r="U39" s="75">
-        <f t="shared" ref="T39:V41" si="13">$T22*L$39+$U22*L$40+$V22*L$41</f>
-        <v>-0.32062124230690769</v>
-      </c>
-      <c r="V39" s="76">
-        <f t="shared" si="13"/>
-        <v>-0.64124248461381539</v>
-      </c>
-    </row>
-    <row r="40" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G40"/>
-      <c r="H40" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="125"/>
-      <c r="J40" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="89">
-        <f t="shared" si="12"/>
-        <v>0.3</v>
-      </c>
-      <c r="L40" s="90">
-        <f t="shared" si="12"/>
-        <v>0.7</v>
-      </c>
-      <c r="M40" s="91">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="P40" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q40" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="R40" s="125"/>
-      <c r="S40" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T40" s="77">
-        <f t="shared" si="13"/>
-        <v>-8.5606659127501483E-2</v>
-      </c>
-      <c r="U40" s="28">
-        <f t="shared" si="13"/>
-        <v>-0.19974887129750346</v>
-      </c>
-      <c r="V40" s="78">
-        <f t="shared" si="13"/>
-        <v>-5.7071106085000989E-2</v>
-      </c>
-      <c r="W40" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="X40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y40" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z40" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA40" s="47"/>
-    </row>
-    <row r="41" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G41"/>
-      <c r="K41" s="92">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="93">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="M41" s="94">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="T41" s="79">
-        <f t="shared" si="13"/>
-        <v>-0.2580987876711322</v>
-      </c>
-      <c r="U41" s="80">
-        <f t="shared" si="13"/>
-        <v>-0.10323951506845289</v>
-      </c>
-      <c r="V41" s="81">
-        <f t="shared" si="13"/>
-        <v>-0.46457781780803797</v>
-      </c>
-    </row>
-    <row r="42" spans="7:27" s="29" customFormat="1">
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="7:27" s="29" customFormat="1">
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G44"/>
-      <c r="K44" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" s="29">
-        <f>I3</f>
-        <v>2.7309999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="7:27" s="29" customFormat="1">
-      <c r="G45"/>
-      <c r="K45" s="66">
-        <f>1/(1+EXP(I3))*(1-1/(1+EXP(I3)))</f>
-        <v>5.7427099367579122E-2</v>
-      </c>
-      <c r="L45" s="67">
-        <v>0</v>
-      </c>
-      <c r="M45" s="68">
-        <v>0</v>
-      </c>
-      <c r="T45" s="107">
-        <f t="shared" ref="T45:V47" si="14">$T39*K$45+$U39*K$46+$V39*K$47</f>
-        <v>-4.6030869853288629E-3</v>
-      </c>
-      <c r="U45" s="108">
-        <f t="shared" si="14"/>
-        <v>-1.7948766965777761E-2</v>
-      </c>
-      <c r="V45" s="109">
-        <f t="shared" si="14"/>
-        <v>-1.1282483926967469E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G46"/>
-      <c r="H46" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="125"/>
-      <c r="J46" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="69">
-        <v>0</v>
-      </c>
-      <c r="L46" s="27">
-        <f>1/(1+EXP(J3))*(1-1/(1+EXP(J3)))</f>
-        <v>5.5981215831597007E-2</v>
-      </c>
-      <c r="M46" s="70">
-        <v>0</v>
-      </c>
-      <c r="P46" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" s="125"/>
-      <c r="S46" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T46" s="110">
-        <f t="shared" si="14"/>
-        <v>-4.9161421202415017E-3</v>
-      </c>
-      <c r="U46" s="111">
-        <f t="shared" si="14"/>
-        <v>-1.1182184676223434E-2</v>
-      </c>
-      <c r="V46" s="112">
-        <f t="shared" si="14"/>
-        <v>-1.0041503059268857E-3</v>
-      </c>
-      <c r="W46" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="X46" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z46" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA46" s="47"/>
-    </row>
-    <row r="47" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G47"/>
-      <c r="K47" s="71">
-        <v>0</v>
-      </c>
-      <c r="L47" s="72">
-        <v>0</v>
-      </c>
-      <c r="M47" s="45">
-        <f>1/(1+EXP(K3))*(1-1/(1+EXP(K3)))</f>
-        <v>1.7594723053576653E-2</v>
-      </c>
-      <c r="T47" s="113">
-        <f t="shared" si="14"/>
-        <v>-1.4821864726241814E-2</v>
-      </c>
-      <c r="U47" s="114">
-        <f t="shared" si="14"/>
-        <v>-5.7794735753964729E-3</v>
-      </c>
-      <c r="V47" s="115">
-        <f t="shared" si="14"/>
-        <v>-8.1741180411674195E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G48"/>
-      <c r="Q48" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="R48" s="125"/>
-      <c r="S48" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T48" s="73">
-        <f>SUM(T45:T47)</f>
-        <v>-2.4341093831812179E-2</v>
-      </c>
-      <c r="U48" s="73">
-        <f t="shared" ref="U48:V48" si="15">SUM(U45:U47)</f>
-        <v>-3.4910425217397671E-2</v>
-      </c>
-      <c r="V48" s="73">
-        <f t="shared" si="15"/>
-        <v>-2.0460752274061772E-2</v>
-      </c>
-      <c r="W48" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="X48" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y48" s="116">
-        <f>K37-$S$3*T48</f>
-        <v>1.000243410938318</v>
-      </c>
-      <c r="Z48" s="117">
-        <f t="shared" ref="Z48" si="16">L37-$S$3*U48</f>
-        <v>1.0003491042521739</v>
-      </c>
-      <c r="AA48" s="118">
-        <f t="shared" ref="AA48" si="17">M37-$S$3*V48</f>
-        <v>1.0002046075227407</v>
-      </c>
-    </row>
-    <row r="49" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G50"/>
-      <c r="K50" s="48">
-        <f>F4</f>
-        <v>1.35</v>
-      </c>
-      <c r="L50" s="49">
-        <f>G4</f>
-        <v>1.27</v>
-      </c>
-      <c r="M50" s="50">
-        <f>H4</f>
-        <v>1.8</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="T50" s="38">
-        <f>$T45*K$50+$U45*K$51+$V45*K$52</f>
-        <v>-4.5676356135400026E-2</v>
-      </c>
-      <c r="U50" s="39">
-        <f t="shared" ref="U50:V52" si="18">$T45*L$50+$U45*L$51+$V45*L$52</f>
-        <v>-4.29696091051541E-2</v>
-      </c>
-      <c r="V50" s="40">
-        <f t="shared" si="18"/>
-        <v>-6.0901808180533368E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G51"/>
-      <c r="H51" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="125"/>
-      <c r="J51" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="51">
-        <f>K50</f>
-        <v>1.35</v>
-      </c>
-      <c r="L51" s="52">
-        <f t="shared" ref="L51:M51" si="19">L50</f>
-        <v>1.27</v>
-      </c>
-      <c r="M51" s="53">
-        <f t="shared" si="19"/>
-        <v>1.8</v>
-      </c>
-      <c r="N51" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P51" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q51" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="R51" s="125"/>
-      <c r="S51" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" s="31">
-        <f t="shared" ref="T51:T52" si="20">$T46*K$50+$U46*K$51+$V46*K$52</f>
-        <v>-2.3088344088228963E-2</v>
-      </c>
-      <c r="U51" s="33">
-        <f t="shared" si="18"/>
-        <v>-2.1720145920037615E-2</v>
-      </c>
-      <c r="V51" s="41">
-        <f t="shared" si="18"/>
-        <v>-3.0784458784305281E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="7:27" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G52"/>
-      <c r="K52" s="54">
-        <f>K51</f>
-        <v>1.35</v>
-      </c>
-      <c r="L52" s="55">
-        <f t="shared" ref="L52" si="21">L51</f>
-        <v>1.27</v>
-      </c>
-      <c r="M52" s="56">
-        <f t="shared" ref="M52" si="22">M51</f>
-        <v>1.8</v>
-      </c>
-      <c r="N52" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="T52" s="42">
-        <f t="shared" si="20"/>
-        <v>-3.8846866062787699E-2</v>
-      </c>
-      <c r="U52" s="43">
-        <f t="shared" si="18"/>
-        <v>-3.6544829555363249E-2</v>
-      </c>
-      <c r="V52" s="44">
-        <f t="shared" si="18"/>
-        <v>-5.1795821417050275E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="7:27" s="29" customFormat="1">
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="7:27" s="29" customFormat="1">
-      <c r="G55"/>
-      <c r="K55" s="57">
-        <f>T50*$S$3</f>
-        <v>-4.5676356135400029E-4</v>
-      </c>
-      <c r="L55" s="58">
-        <f>T51*$S$3</f>
-        <v>-2.3088344088228964E-4</v>
-      </c>
-      <c r="M55" s="59">
-        <f>T52*$S$3</f>
-        <v>-3.88468660627877E-4</v>
-      </c>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="38">
-        <f t="shared" ref="T55:V57" si="23">K62-K55</f>
-        <v>0.200456763561354</v>
-      </c>
-      <c r="U55" s="39">
-        <f t="shared" si="23"/>
-        <v>0.30023088344088228</v>
-      </c>
-      <c r="V55" s="40">
-        <f t="shared" si="23"/>
-        <v>0.50038846866062792</v>
-      </c>
-    </row>
-    <row r="56" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G56"/>
-      <c r="H56" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="126"/>
-      <c r="J56" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="60">
-        <f>U50*$S$3</f>
-        <v>-4.2969609105154101E-4</v>
-      </c>
-      <c r="L56" s="61">
-        <f>U51*$S$3</f>
-        <v>-2.1720145920037617E-4</v>
-      </c>
-      <c r="M56" s="62">
-        <f>U52*$S$3</f>
-        <v>-3.654482955536325E-4</v>
-      </c>
-      <c r="P56" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q56" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="R56" s="127"/>
-      <c r="S56" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T56" s="31">
-        <f t="shared" si="23"/>
-        <v>0.30042969609105152</v>
-      </c>
-      <c r="U56" s="33">
-        <f t="shared" si="23"/>
-        <v>0.50021720145920034</v>
-      </c>
-      <c r="V56" s="41">
-        <f t="shared" si="23"/>
-        <v>0.70036544829555358</v>
-      </c>
-    </row>
-    <row r="57" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G57"/>
-      <c r="K57" s="63">
-        <f>V50*$S$3</f>
-        <v>-6.0901808180533368E-4</v>
-      </c>
-      <c r="L57" s="64">
-        <f>V51*$S$3</f>
-        <v>-3.0784458784305282E-4</v>
-      </c>
-      <c r="M57" s="65">
-        <f>V52*$S$3</f>
-        <v>-5.1795821417050273E-4</v>
-      </c>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="42">
-        <f t="shared" si="23"/>
-        <v>0.60060901808180533</v>
-      </c>
-      <c r="U57" s="43">
-        <f t="shared" si="23"/>
-        <v>0.40030784458784308</v>
-      </c>
-      <c r="V57" s="44">
-        <f t="shared" si="23"/>
-        <v>0.8005179582141706</v>
-      </c>
-    </row>
-    <row r="58" spans="7:27" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G58" s="84"/>
-    </row>
-    <row r="59" spans="7:27" s="33" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G59" s="82"/>
-    </row>
-    <row r="60" spans="7:27" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="G60" s="82"/>
-      <c r="I60" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="35">
-        <f>C8</f>
-        <v>1</v>
-      </c>
-      <c r="L60" s="36">
-        <f t="shared" ref="L60:M60" si="24">D8</f>
-        <v>1</v>
-      </c>
-      <c r="M60" s="37">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G61"/>
-      <c r="O61" s="28"/>
-    </row>
-    <row r="62" spans="7:27" s="29" customFormat="1">
-      <c r="G62"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="86">
-        <f t="shared" ref="K62:M64" si="25">F5</f>
-        <v>0.2</v>
-      </c>
-      <c r="L62" s="87">
-        <f t="shared" si="25"/>
-        <v>0.3</v>
-      </c>
-      <c r="M62" s="88">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
-      </c>
+    </row>
+    <row r="61" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="M61"/>
+      <c r="U61" s="28"/>
+    </row>
+    <row r="62" spans="3:33" s="29" customFormat="1">
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="123"/>
+      <c r="M62"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="74">
-        <f t="shared" ref="T62:V64" si="26">$T45*K$62+$U45*K$63+$V45*K$64</f>
-        <v>-1.3074737842979581E-2</v>
-      </c>
-      <c r="U62" s="75">
-        <f t="shared" si="26"/>
-        <v>-1.4868303149274526E-2</v>
-      </c>
-      <c r="V62" s="76">
-        <f t="shared" si="26"/>
-        <v>-2.3891667510282839E-2</v>
-      </c>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="85">
+        <f t="shared" ref="Q62:S64" si="30">L5</f>
+        <v>0.2</v>
+      </c>
+      <c r="R62" s="86">
+        <f t="shared" si="30"/>
+        <v>0.3</v>
+      </c>
+      <c r="S62" s="87">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
       <c r="W62" s="32"/>
       <c r="X62" s="32"/>
       <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-    </row>
-    <row r="63" spans="7:27" s="29" customFormat="1" ht="15.75">
-      <c r="G63"/>
-      <c r="H63" s="125" t="s">
+      <c r="Z62" s="74">
+        <f t="shared" ref="Z62:AB64" si="31">$Z45*Q$62+$AA45*Q$63+$AB45*Q$64</f>
+        <v>-0.10677008307363205</v>
+      </c>
+      <c r="AA62" s="75">
+        <f t="shared" si="31"/>
+        <v>-9.4715396274996172E-2</v>
+      </c>
+      <c r="AB62" s="76">
+        <f t="shared" si="31"/>
+        <v>-0.16704351706681145</v>
+      </c>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="32"/>
+      <c r="AF62" s="32"/>
+      <c r="AG62" s="32"/>
+    </row>
+    <row r="63" spans="3:33" s="29" customFormat="1" ht="15.75">
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="M63"/>
+      <c r="N63" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="125"/>
-      <c r="J63" s="34" t="s">
+      <c r="O63" s="124"/>
+      <c r="P63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="89">
-        <f t="shared" si="25"/>
+      <c r="Q63" s="88">
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="L63" s="90">
-        <f t="shared" si="25"/>
+      <c r="R63" s="89">
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
-      <c r="M63" s="91">
-        <f t="shared" si="25"/>
+      <c r="S63" s="90">
+        <f t="shared" si="30"/>
         <v>0.7</v>
       </c>
-      <c r="N63" s="34" t="s">
+      <c r="T63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O63" s="32" t="s">
+      <c r="U63" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="P63" s="34" t="s">
+      <c r="V63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q63" s="125" t="s">
+      <c r="W63" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="R63" s="125"/>
-      <c r="S63" s="34" t="s">
+      <c r="X63" s="124"/>
+      <c r="Y63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T63" s="77">
-        <f t="shared" si="26"/>
-        <v>-4.9403740104714614E-3</v>
-      </c>
-      <c r="U63" s="28">
-        <f t="shared" si="26"/>
-        <v>-7.4675950965549217E-3</v>
-      </c>
-      <c r="V63" s="78">
-        <f t="shared" si="26"/>
-        <v>-1.1088920578218663E-2</v>
-      </c>
-      <c r="W63" s="34" t="s">
+      <c r="Z63" s="77">
+        <f t="shared" si="31"/>
+        <v>-2.7166927234005323E-2</v>
+      </c>
+      <c r="AA63" s="28">
+        <f t="shared" si="31"/>
+        <v>-3.6222569645340437E-2</v>
+      </c>
+      <c r="AB63" s="78">
+        <f t="shared" si="31"/>
+        <v>-5.5727030223600663E-2</v>
+      </c>
+      <c r="AC63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X63" s="46" t="s">
+      <c r="AD63" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="Y63" s="33" t="s">
+      <c r="AE63" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Z63" s="47" t="s">
+      <c r="AF63" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AA63" s="47"/>
-    </row>
-    <row r="64" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G64"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="92">
-        <f t="shared" si="25"/>
-        <v>0.6</v>
-      </c>
-      <c r="L64" s="93">
-        <f t="shared" si="25"/>
-        <v>0.4</v>
-      </c>
-      <c r="M64" s="94">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
-      </c>
+      <c r="AG63" s="47"/>
+    </row>
+    <row r="64" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="123"/>
+      <c r="M64"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="79">
-        <f t="shared" si="26"/>
-        <v>-9.6026858425677566E-3</v>
-      </c>
-      <c r="U64" s="80">
-        <f t="shared" si="26"/>
-        <v>-1.0605943422037748E-2</v>
-      </c>
-      <c r="V64" s="81">
-        <f t="shared" si="26"/>
-        <v>-1.7995858298832372E-2</v>
-      </c>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="91">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="R64" s="92">
+        <f t="shared" si="30"/>
+        <v>0.4</v>
+      </c>
+      <c r="S64" s="93">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
       <c r="W64" s="32"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-    </row>
-    <row r="65" spans="7:27" s="29" customFormat="1">
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="7:27" s="29" customFormat="1">
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="7:27" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="G67"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32" t="s">
+      <c r="Z64" s="79">
+        <f t="shared" si="31"/>
+        <v>-7.17857165407082E-2</v>
+      </c>
+      <c r="AA64" s="80">
+        <f t="shared" si="31"/>
+        <v>-6.2556124414045719E-2</v>
+      </c>
+      <c r="AB64" s="81">
+        <f t="shared" si="31"/>
+        <v>-0.11383163622883728</v>
+      </c>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+    </row>
+    <row r="65" spans="3:33" s="29" customFormat="1">
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="123"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="3:33" s="29" customFormat="1">
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="3:33" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="123"/>
+      <c r="M67"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-    </row>
-    <row r="68" spans="7:27">
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="66">
-        <f>F4/F3</f>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" spans="3:33" ht="16.5" thickBot="1">
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="66">
+        <f>L4/L3</f>
         <v>1</v>
       </c>
-      <c r="L68" s="67">
+      <c r="R68" s="67">
         <v>0</v>
       </c>
-      <c r="M68" s="68">
+      <c r="S68" s="68">
         <v>0</v>
       </c>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="98">
-        <f t="shared" ref="T68:V70" si="27">$T62*K$68+$U62*K$69+$V62*K$70</f>
-        <v>-1.3074737842979581E-2</v>
-      </c>
-      <c r="U68" s="99">
-        <f t="shared" si="27"/>
-        <v>-1.4868303149274526E-2</v>
-      </c>
-      <c r="V68" s="100">
-        <f t="shared" si="27"/>
-        <v>-2.3891667510282839E-2</v>
-      </c>
+      <c r="V68" s="32"/>
       <c r="W68" s="32"/>
       <c r="X68" s="32"/>
       <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-    </row>
-    <row r="69" spans="7:27" ht="15.75">
-      <c r="H69" s="125" t="s">
+      <c r="Z68" s="96">
+        <f t="shared" ref="Z68:AB70" si="32">$Z62*Q$68+$AA62*Q$69+$AB62*Q$70</f>
+        <v>-0.10677008307363205</v>
+      </c>
+      <c r="AA68" s="97">
+        <f t="shared" si="32"/>
+        <v>-9.4715396274996172E-2</v>
+      </c>
+      <c r="AB68" s="98">
+        <f t="shared" si="32"/>
+        <v>-0.16704351706681145</v>
+      </c>
+      <c r="AC68" s="32"/>
+      <c r="AD68" s="123"/>
+      <c r="AE68" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF68" s="32"/>
+      <c r="AG68" s="32"/>
+    </row>
+    <row r="69" spans="3:33" ht="16.5" thickBot="1">
+      <c r="N69" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="125"/>
-      <c r="J69" s="34" t="s">
+      <c r="O69" s="124"/>
+      <c r="P69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="69">
+      <c r="Q69" s="69">
         <v>0</v>
       </c>
-      <c r="L69" s="27">
-        <f>G4/G3</f>
+      <c r="R69" s="27">
+        <f>M4/M3</f>
         <v>1</v>
       </c>
-      <c r="M69" s="70">
+      <c r="S69" s="70">
         <v>0</v>
       </c>
-      <c r="P69" s="34" t="s">
+      <c r="V69" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="125" t="s">
+      <c r="W69" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="R69" s="125"/>
-      <c r="S69" s="34" t="s">
+      <c r="X69" s="124"/>
+      <c r="Y69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T69" s="101">
-        <f t="shared" si="27"/>
-        <v>-4.9403740104714614E-3</v>
-      </c>
-      <c r="U69" s="102">
-        <f t="shared" si="27"/>
-        <v>-7.4675950965549217E-3</v>
-      </c>
-      <c r="V69" s="103">
-        <f t="shared" si="27"/>
-        <v>-1.1088920578218663E-2</v>
-      </c>
-      <c r="W69" s="34" t="s">
+      <c r="Z69" s="99">
+        <f t="shared" si="32"/>
+        <v>-2.7166927234005323E-2</v>
+      </c>
+      <c r="AA69" s="100">
+        <f t="shared" si="32"/>
+        <v>-3.6222569645340437E-2</v>
+      </c>
+      <c r="AB69" s="101">
+        <f t="shared" si="32"/>
+        <v>-5.5727030223600663E-2</v>
+      </c>
+      <c r="AC69" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X69" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y69" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z69" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA69" s="47"/>
-    </row>
-    <row r="70" spans="7:27" ht="13.5" thickBot="1">
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="71">
+      <c r="AD69" s="123">
+        <f>Z71</f>
+        <v>-0.20572272684834558</v>
+      </c>
+      <c r="AE69" s="114">
+        <f>H5-$A$2*AD69</f>
+        <v>1.0020572272684836</v>
+      </c>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+    </row>
+    <row r="70" spans="3:33" ht="13.5" thickBot="1">
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="71">
         <v>0</v>
       </c>
-      <c r="L70" s="72">
+      <c r="R70" s="72">
         <v>0</v>
       </c>
-      <c r="M70" s="45">
-        <f>H4/H3</f>
+      <c r="S70" s="45">
+        <f>N4/N3</f>
         <v>1</v>
       </c>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="104">
-        <f t="shared" si="27"/>
-        <v>-9.6026858425677566E-3</v>
-      </c>
-      <c r="U70" s="105">
-        <f t="shared" si="27"/>
-        <v>-1.0605943422037748E-2</v>
-      </c>
-      <c r="V70" s="106">
-        <f t="shared" si="27"/>
-        <v>-1.7995858298832372E-2</v>
-      </c>
+      <c r="V70" s="32"/>
       <c r="W70" s="32"/>
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-    </row>
-    <row r="71" spans="7:27" ht="16.5" thickBot="1">
-      <c r="Q71" s="125" t="s">
+      <c r="Z70" s="102">
+        <f t="shared" si="32"/>
+        <v>-7.17857165407082E-2</v>
+      </c>
+      <c r="AA70" s="103">
+        <f t="shared" si="32"/>
+        <v>-6.2556124414045719E-2</v>
+      </c>
+      <c r="AB70" s="104">
+        <f t="shared" si="32"/>
+        <v>-0.11383163622883728</v>
+      </c>
+      <c r="AC70" s="32"/>
+      <c r="AD70" s="123">
+        <f>AA71</f>
+        <v>-0.19349409033438231</v>
+      </c>
+      <c r="AE70" s="114">
+        <f t="shared" ref="AE70:AE71" si="33">H6-$A$2*AD70</f>
+        <v>1.0019349409033438</v>
+      </c>
+      <c r="AF70" s="28"/>
+      <c r="AG70" s="28"/>
+    </row>
+    <row r="71" spans="3:33" ht="16.5" thickBot="1">
+      <c r="W71" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="R71" s="125"/>
-      <c r="S71" s="34" t="s">
+      <c r="X71" s="124"/>
+      <c r="Y71" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T71" s="73">
-        <f>SUM(T68:T70)</f>
-        <v>-2.7617797696018798E-2</v>
-      </c>
-      <c r="U71" s="73">
-        <f t="shared" ref="U71" si="28">SUM(U68:U70)</f>
-        <v>-3.2941841667867192E-2</v>
-      </c>
-      <c r="V71" s="73">
-        <f t="shared" ref="V71" si="29">SUM(V68:V70)</f>
-        <v>-5.2976446387333877E-2</v>
-      </c>
-      <c r="W71" s="34" t="s">
+      <c r="Z71" s="73">
+        <f>SUM(Z68:Z70)</f>
+        <v>-0.20572272684834558</v>
+      </c>
+      <c r="AA71" s="73">
+        <f t="shared" ref="AA71" si="34">SUM(AA68:AA70)</f>
+        <v>-0.19349409033438231</v>
+      </c>
+      <c r="AB71" s="73">
+        <f t="shared" ref="AB71" si="35">SUM(AB68:AB70)</f>
+        <v>-0.33660218351924942</v>
+      </c>
+      <c r="AC71" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="X71" s="119" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y71" s="116">
-        <f>K60-$S$3*T71</f>
-        <v>1.0002761779769602</v>
-      </c>
-      <c r="Z71" s="117">
-        <f t="shared" ref="Z71:AA71" si="30">L60-$S$3*U71</f>
-        <v>1.0003294184166787</v>
-      </c>
-      <c r="AA71" s="118">
-        <f t="shared" si="30"/>
-        <v>1.0005297644638733</v>
-      </c>
-    </row>
-    <row r="72" spans="7:27" ht="13.5" thickBot="1"/>
-    <row r="73" spans="7:27" ht="15.75">
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="48">
-        <f>C4</f>
+      <c r="AD71" s="123">
+        <f>AB71</f>
+        <v>-0.33660218351924942</v>
+      </c>
+      <c r="AE71" s="114">
+        <f t="shared" si="33"/>
+        <v>1.0033660218351925</v>
+      </c>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="28"/>
+    </row>
+    <row r="72" spans="3:33" ht="13.5" thickBot="1">
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+    </row>
+    <row r="73" spans="3:33" ht="15.75">
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="48">
+        <f>E4</f>
         <v>0.1</v>
       </c>
-      <c r="L73" s="49">
-        <f t="shared" ref="L73:M73" si="31">D4</f>
+      <c r="R73" s="49">
+        <f>F4</f>
         <v>0.2</v>
       </c>
-      <c r="M73" s="50">
-        <f t="shared" si="31"/>
+      <c r="S73" s="50">
+        <f>G4</f>
         <v>0.7</v>
       </c>
-      <c r="N73" s="34" t="s">
+      <c r="T73" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O73" s="33" t="s">
+      <c r="U73" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="38">
-        <f>$T68*K$73+$U68*K$74+$V68*K$75</f>
-        <v>-5.1834708502536946E-3</v>
-      </c>
-      <c r="U73" s="39">
-        <f t="shared" ref="U73:V73" si="32">$T68*L$73+$U68*L$74+$V68*L$75</f>
-        <v>-1.0366941700507389E-2</v>
-      </c>
-      <c r="V73" s="40">
-        <f t="shared" si="32"/>
-        <v>-3.6284295951775861E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="7:27" ht="15.75">
-      <c r="H74" s="125" t="s">
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="32"/>
+      <c r="Z73" s="38">
+        <f>$Z68*Q$73+$AA68*Q$74+$AB68*Q$75</f>
+        <v>-3.6852899641543965E-2</v>
+      </c>
+      <c r="AA73" s="39">
+        <f t="shared" ref="AA73:AB73" si="36">$Z68*R$73+$AA68*R$74+$AB68*R$75</f>
+        <v>-7.370579928308793E-2</v>
+      </c>
+      <c r="AB73" s="40">
+        <f t="shared" si="36"/>
+        <v>-0.2579702974908078</v>
+      </c>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+    </row>
+    <row r="74" spans="3:33" ht="15.75">
+      <c r="N74" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="125"/>
-      <c r="J74" s="34" t="s">
+      <c r="O74" s="124"/>
+      <c r="P74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="51">
-        <f>K73</f>
+      <c r="Q74" s="51">
+        <f>Q73</f>
         <v>0.1</v>
       </c>
-      <c r="L74" s="52">
-        <f t="shared" ref="L74:M75" si="33">L73</f>
+      <c r="R74" s="52">
+        <f t="shared" ref="R74:S75" si="37">R73</f>
         <v>0.2</v>
       </c>
-      <c r="M74" s="53">
-        <f t="shared" si="33"/>
+      <c r="S74" s="53">
+        <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
-      <c r="N74" s="34" t="s">
+      <c r="T74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O74" s="33" t="s">
+      <c r="U74" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="34" t="s">
+      <c r="V74" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q74" s="125" t="s">
+      <c r="W74" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="R74" s="125"/>
-      <c r="S74" s="34" t="s">
+      <c r="X74" s="124"/>
+      <c r="Y74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T74" s="31">
-        <f t="shared" ref="T74:T75" si="34">$T69*K$73+$U69*K$74+$V69*K$75</f>
-        <v>-2.3496889685245045E-3</v>
-      </c>
-      <c r="U74" s="33">
-        <f t="shared" ref="U74:U75" si="35">$T69*L$73+$U69*L$74+$V69*L$75</f>
-        <v>-4.6993779370490089E-3</v>
-      </c>
-      <c r="V74" s="41">
-        <f t="shared" ref="V74:V75" si="36">$T69*M$73+$U69*M$74+$V69*M$75</f>
-        <v>-1.644782277967153E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="7:27" ht="16.5" thickBot="1">
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="54">
-        <f>K74</f>
+      <c r="Z74" s="31">
+        <f t="shared" ref="Z74:Z75" si="38">$Z69*Q$73+$AA69*Q$74+$AB69*Q$75</f>
+        <v>-1.1911652710294643E-2</v>
+      </c>
+      <c r="AA74" s="33">
+        <f t="shared" ref="AA74:AA75" si="39">$Z69*R$73+$AA69*R$74+$AB69*R$75</f>
+        <v>-2.3823305420589285E-2</v>
+      </c>
+      <c r="AB74" s="41">
+        <f t="shared" ref="AB74:AB75" si="40">$Z69*S$73+$AA69*S$74+$AB69*S$75</f>
+        <v>-8.3381568972062489E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:33" ht="16.5" thickBot="1">
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="54">
+        <f>Q74</f>
         <v>0.1</v>
       </c>
-      <c r="L75" s="55">
-        <f t="shared" si="33"/>
+      <c r="R75" s="55">
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="M75" s="56">
-        <f t="shared" si="33"/>
+      <c r="S75" s="56">
+        <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
-      <c r="N75" s="34" t="s">
+      <c r="T75" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O75" s="33" t="s">
+      <c r="U75" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="42">
-        <f t="shared" si="34"/>
-        <v>-3.8204487563437877E-3</v>
-      </c>
-      <c r="U75" s="43">
-        <f t="shared" si="35"/>
-        <v>-7.6408975126875753E-3</v>
-      </c>
-      <c r="V75" s="44">
-        <f t="shared" si="36"/>
-        <v>-2.6743141294406511E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="7:27" ht="13.5" thickBot="1"/>
-    <row r="78" spans="7:27">
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="57">
-        <f>T73*$S$3</f>
-        <v>-5.1834708502536945E-5</v>
-      </c>
-      <c r="L78" s="58">
-        <f>T74*$S$3</f>
-        <v>-2.3496889685245045E-5</v>
-      </c>
-      <c r="M78" s="59">
-        <f>T75*$S$3</f>
-        <v>-3.8204487563437874E-5</v>
-      </c>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="38">
-        <f>K83-K78</f>
-        <v>0.10005183470850254</v>
-      </c>
-      <c r="U78" s="39">
-        <f t="shared" ref="U78:V78" si="37">L83-L78</f>
-        <v>0.20002349688968526</v>
-      </c>
-      <c r="V78" s="40">
-        <f t="shared" si="37"/>
-        <v>0.30003820448756341</v>
-      </c>
-    </row>
-    <row r="79" spans="7:27" ht="15.75">
-      <c r="H79" s="126" t="s">
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="42">
+        <f t="shared" si="38"/>
+        <v>-2.4817347718359122E-2</v>
+      </c>
+      <c r="AA75" s="43">
+        <f t="shared" si="39"/>
+        <v>-4.9634695436718244E-2</v>
+      </c>
+      <c r="AB75" s="44">
+        <f t="shared" si="40"/>
+        <v>-0.17372143402851384</v>
+      </c>
+    </row>
+    <row r="77" spans="3:33" ht="13.5" thickBot="1"/>
+    <row r="78" spans="3:33">
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="57">
+        <f>Z73*$A$2</f>
+        <v>-3.6852899641543965E-4</v>
+      </c>
+      <c r="R78" s="58">
+        <f>Z74*$A$2</f>
+        <v>-1.1911652710294643E-4</v>
+      </c>
+      <c r="S78" s="59">
+        <f>Z75*$A$2</f>
+        <v>-2.4817347718359122E-4</v>
+      </c>
+      <c r="V78" s="34"/>
+      <c r="W78" s="32"/>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="32"/>
+      <c r="Z78" s="38">
+        <f>Q83-Q78</f>
+        <v>0.10036852899641545</v>
+      </c>
+      <c r="AA78" s="39">
+        <f t="shared" ref="AA78:AB78" si="41">R83-R78</f>
+        <v>0.20011911652710296</v>
+      </c>
+      <c r="AB78" s="40">
+        <f t="shared" si="41"/>
+        <v>0.30024817347718358</v>
+      </c>
+    </row>
+    <row r="79" spans="3:33" ht="15.75">
+      <c r="N79" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I79" s="126"/>
-      <c r="J79" s="34" t="s">
+      <c r="O79" s="125"/>
+      <c r="P79" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="60">
-        <f>U73*$S$3</f>
-        <v>-1.0366941700507389E-4</v>
-      </c>
-      <c r="L79" s="61">
-        <f>U74*$S$3</f>
-        <v>-4.699377937049009E-5</v>
-      </c>
-      <c r="M79" s="62">
-        <f>U75*$S$3</f>
-        <v>-7.6408975126875749E-5</v>
-      </c>
-      <c r="P79" s="34" t="s">
+      <c r="Q79" s="60">
+        <f>AA73*$A$2</f>
+        <v>-7.370579928308793E-4</v>
+      </c>
+      <c r="R79" s="61">
+        <f>AA74*$A$2</f>
+        <v>-2.3823305420589286E-4</v>
+      </c>
+      <c r="S79" s="62">
+        <f>AA75*$A$2</f>
+        <v>-4.9634695436718244E-4</v>
+      </c>
+      <c r="V79" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q79" s="127" t="s">
+      <c r="W79" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="R79" s="127"/>
-      <c r="S79" s="34" t="s">
+      <c r="X79" s="126"/>
+      <c r="Y79" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T79" s="31">
-        <f t="shared" ref="T79:T80" si="38">K84-K79</f>
-        <v>0.30010366941700506</v>
-      </c>
-      <c r="U79" s="33">
-        <f t="shared" ref="U79:U80" si="39">L84-L79</f>
-        <v>0.20004699377937049</v>
-      </c>
-      <c r="V79" s="41">
-        <f t="shared" ref="V79:V80" si="40">M84-M79</f>
-        <v>0.7000764089751268</v>
-      </c>
-    </row>
-    <row r="80" spans="7:27" ht="13.5" thickBot="1">
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="63">
-        <f>V73*$S$3</f>
-        <v>-3.6284295951775859E-4</v>
-      </c>
-      <c r="L80" s="64">
-        <f>V74*$S$3</f>
-        <v>-1.6447822779671529E-4</v>
-      </c>
-      <c r="M80" s="65">
-        <f>V75*$S$3</f>
-        <v>-2.6743141294406511E-4</v>
-      </c>
+      <c r="Z79" s="31">
+        <f t="shared" ref="Z79:Z80" si="42">Q84-Q79</f>
+        <v>0.30073705799283085</v>
+      </c>
+      <c r="AA79" s="33">
+        <f t="shared" ref="AA79:AA80" si="43">R84-R79</f>
+        <v>0.20023823305420591</v>
+      </c>
+      <c r="AB79" s="41">
+        <f t="shared" ref="AB79:AB80" si="44">S84-S79</f>
+        <v>0.70049634695436713</v>
+      </c>
+    </row>
+    <row r="80" spans="3:33" ht="13.5" thickBot="1">
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
       <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="42">
-        <f t="shared" si="38"/>
-        <v>0.4003628429595178</v>
-      </c>
-      <c r="U80" s="43">
-        <f t="shared" si="39"/>
-        <v>0.30016447822779668</v>
-      </c>
-      <c r="V80" s="44">
-        <f t="shared" si="40"/>
-        <v>0.90026743141294407</v>
-      </c>
-    </row>
-    <row r="81" spans="8:15" s="83" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="82" spans="8:15" ht="13.5" thickBot="1"/>
-    <row r="83" spans="8:15">
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="86">
-        <f>C5</f>
-        <v>0.1</v>
-      </c>
-      <c r="L83" s="87">
-        <f t="shared" ref="L83:M83" si="41">D5</f>
-        <v>0.2</v>
-      </c>
-      <c r="M83" s="88">
-        <f t="shared" si="41"/>
-        <v>0.3</v>
-      </c>
+      <c r="Q80" s="63">
+        <f>AB73*$A$2</f>
+        <v>-2.579702974908078E-3</v>
+      </c>
+      <c r="R80" s="64">
+        <f>AB74*$A$2</f>
+        <v>-8.3381568972062492E-4</v>
+      </c>
+      <c r="S80" s="65">
+        <f>AB75*$A$2</f>
+        <v>-1.7372143402851383E-3</v>
+      </c>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="42">
+        <f t="shared" si="42"/>
+        <v>0.40257970297490808</v>
+      </c>
+      <c r="AA80" s="43">
+        <f t="shared" si="43"/>
+        <v>0.30083381568972062</v>
+      </c>
+      <c r="AB80" s="44">
+        <f t="shared" si="44"/>
+        <v>0.9017372143402852</v>
+      </c>
+    </row>
+    <row r="81" spans="14:21" s="83" customFormat="1" ht="13.5" thickBot="1"/>
+    <row r="82" spans="14:21" ht="13.5" thickBot="1"/>
+    <row r="83" spans="14:21">
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
-    </row>
-    <row r="84" spans="8:15" ht="15.75">
-      <c r="H84" s="125" t="s">
+      <c r="P83" s="32"/>
+      <c r="Q83" s="85">
+        <f>E5</f>
+        <v>0.1</v>
+      </c>
+      <c r="R83" s="86">
+        <f t="shared" ref="R83:S83" si="45">F5</f>
+        <v>0.2</v>
+      </c>
+      <c r="S83" s="87">
+        <f t="shared" si="45"/>
+        <v>0.3</v>
+      </c>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+    </row>
+    <row r="84" spans="14:21" ht="15.75">
+      <c r="N84" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="125"/>
-      <c r="J84" s="34" t="s">
+      <c r="O84" s="124"/>
+      <c r="P84" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="89">
-        <f t="shared" ref="K84:K85" si="42">C6</f>
+      <c r="Q84" s="88">
+        <f t="shared" ref="Q84:Q85" si="46">E6</f>
         <v>0.3</v>
       </c>
-      <c r="L84" s="90">
-        <f t="shared" ref="L84:L85" si="43">D6</f>
+      <c r="R84" s="89">
+        <f t="shared" ref="R84:R85" si="47">F6</f>
         <v>0.2</v>
       </c>
-      <c r="M84" s="91">
-        <f t="shared" ref="M84:M85" si="44">E6</f>
+      <c r="S84" s="90">
+        <f t="shared" ref="S84:S85" si="48">G6</f>
         <v>0.7</v>
       </c>
-      <c r="N84" s="34" t="s">
+      <c r="T84" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O84" s="32" t="s">
+      <c r="U84" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="8:15" ht="13.5" thickBot="1">
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="92">
-        <f t="shared" si="42"/>
-        <v>0.4</v>
-      </c>
-      <c r="L85" s="93">
-        <f t="shared" si="43"/>
-        <v>0.3</v>
-      </c>
-      <c r="M85" s="94">
-        <f t="shared" si="44"/>
-        <v>0.9</v>
-      </c>
+    <row r="85" spans="14:21" ht="13.5" thickBot="1">
       <c r="N85" s="32"/>
       <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="91">
+        <f t="shared" si="46"/>
+        <v>0.4</v>
+      </c>
+      <c r="R85" s="92">
+        <f t="shared" si="47"/>
+        <v>0.3</v>
+      </c>
+      <c r="S85" s="93">
+        <f t="shared" si="48"/>
+        <v>0.9</v>
+      </c>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="S2:U2"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="W79:X79"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="W74:X74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4268,9 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ZZZ\MyNn\NeuralNetwork\ExternalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MyNn\NeuralNetwork\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Who made it complicated" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="2 x 6 x 3 x 2 Relu" sheetId="10" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -143,7 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -157,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -181,7 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -195,7 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -219,7 +219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -233,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Calculated directly</t>
         </r>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="120">
   <si>
     <t>Input</t>
   </si>
@@ -1809,26 +1809,14 @@
     <t>Times</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>ApplyDeltas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1914,6 +1902,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Titillium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Titillium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2609,48 +2609,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2666,15 +2624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2695,12 +2644,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2711,51 +2654,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2781,6 +2682,105 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2908,7 +2908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,7 +2969,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3030,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3096,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49483D2-8491-468E-8051-E561E393549D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49483D2-8491-468E-8051-E561E393549D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +3149,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2C7AE4-19E6-4D7E-BD49-9D131661BFA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD2C7AE4-19E6-4D7E-BD49-9D131661BFA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3202,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066B8A49-E5C9-4154-86B7-DEDD1EF442AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{066B8A49-E5C9-4154-86B7-DEDD1EF442AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3255,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E369F2F7-A185-4CA9-B9C8-F4AD78BD8A9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E369F2F7-A185-4CA9-B9C8-F4AD78BD8A9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3313,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A883792F-E26C-47DF-A750-322CABFA4DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A883792F-E26C-47DF-A750-322CABFA4DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3366,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A344596-05AB-4782-9CCE-1B2D2DC2A716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A344596-05AB-4782-9CCE-1B2D2DC2A716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3424,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BD5781-818F-4BE6-8BB6-A227E3931492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BD5781-818F-4BE6-8BB6-A227E3931492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3477,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F33090-AA06-42D6-B343-BE538C5BC4E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F33090-AA06-42D6-B343-BE538C5BC4E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3530,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C22F34-DA05-48A4-9CE5-211A137233AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C22F34-DA05-48A4-9CE5-211A137233AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3583,7 @@
         <xdr:cNvPr id="38" name="Freeform: Shape 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115C3E6B-EC26-46A9-839A-5A775C57B274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{115C3E6B-EC26-46A9-839A-5A775C57B274}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3689,7 @@
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AF4F7E-6FFE-4BC8-B15F-526CF2D86D35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0AF4F7E-6FFE-4BC8-B15F-526CF2D86D35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3742,7 @@
         <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374EF5ED-A10B-4954-99D1-D2EEB6CD8264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{374EF5ED-A10B-4954-99D1-D2EEB6CD8264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3800,7 +3800,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26283505-B7AC-45CB-965E-D904EF3A0BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26283505-B7AC-45CB-965E-D904EF3A0BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3858,7 +3858,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1C844-EE5B-4E8E-8E89-4DFB56506CDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1C844-EE5B-4E8E-8E89-4DFB56506CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3916,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A695AE2F-25C7-418F-B2D6-296740E3B299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A695AE2F-25C7-418F-B2D6-296740E3B299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +3969,7 @@
         <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB205AAB-C679-4BAE-AC68-E8DB1B63B71F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB205AAB-C679-4BAE-AC68-E8DB1B63B71F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,7 +4022,7 @@
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7240DF4D-7680-4B0A-ABFB-FFD9C947C50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7240DF4D-7680-4B0A-ABFB-FFD9C947C50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,7 +4075,7 @@
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3587DD-81FA-41A1-8EB6-275F0B4E6646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C3587DD-81FA-41A1-8EB6-275F0B4E6646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4133,7 @@
         <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C54B22-F951-481D-99B6-4B2BB7207A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24C54B22-F951-481D-99B6-4B2BB7207A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4186,7 @@
         <xdr:cNvPr id="63" name="Freeform: Shape 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3091220D-4E53-4EDE-8759-51BD75256F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3091220D-4E53-4EDE-8759-51BD75256F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4292,7 @@
         <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2407920C-3CAC-486C-9D42-5AC6763FB00B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2407920C-3CAC-486C-9D42-5AC6763FB00B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4345,7 @@
         <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B23C62-0294-407C-884F-7B3415C22154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52B23C62-0294-407C-884F-7B3415C22154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4403,7 @@
         <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5425C7-4411-4946-B8B0-0623DD88FA7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E5425C7-4411-4946-B8B0-0623DD88FA7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,7 +4461,7 @@
         <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AE5B9C-CA03-493F-897F-9975AB58F5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28AE5B9C-CA03-493F-897F-9975AB58F5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4514,7 @@
         <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A964F3-2225-47D5-850D-8EAD1C4B5AAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87A964F3-2225-47D5-850D-8EAD1C4B5AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4572,7 +4572,7 @@
         <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D14CC56-8074-4D81-9328-892B2B33BC3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D14CC56-8074-4D81-9328-892B2B33BC3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,7 +4625,7 @@
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44E2220-B943-409F-8DE6-9F1199DE19B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D44E2220-B943-409F-8DE6-9F1199DE19B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4678,7 +4678,7 @@
         <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A151640-66A2-4F92-849D-40380C29B531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A151640-66A2-4F92-849D-40380C29B531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4731,7 @@
         <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F945EB0F-8B15-4C69-8F4E-FD0988FCBAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F945EB0F-8B15-4C69-8F4E-FD0988FCBAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4789,7 @@
         <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BD3BCF-7FB2-48EF-8650-F976B7905607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0BD3BCF-7FB2-48EF-8650-F976B7905607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4842,7 +4842,7 @@
         <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E910DEA3-EE12-4CA7-AF7D-BA15BFC92143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E910DEA3-EE12-4CA7-AF7D-BA15BFC92143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +4895,7 @@
         <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F20CD4D-654F-4554-BB34-DA6C324D28A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F20CD4D-654F-4554-BB34-DA6C324D28A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4953,7 +4953,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77369B73-2D84-4ED4-BE43-F24F67CBA5F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77369B73-2D84-4ED4-BE43-F24F67CBA5F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5021,7 +5021,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C17B964-16D1-4A48-B268-85FE00F3C09B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C17B964-16D1-4A48-B268-85FE00F3C09B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5089,7 +5089,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A5D407-AF70-4291-9CC3-401357B8060D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61A5D407-AF70-4291-9CC3-401357B8060D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5157,7 +5157,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4692AF0-4F9E-4A25-9B6A-9A379BAEBAB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4692AF0-4F9E-4A25-9B6A-9A379BAEBAB3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5225,7 +5225,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D0F94B-0533-4F15-AF29-244B1DCAE923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54D0F94B-0533-4F15-AF29-244B1DCAE923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5278,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC8F940-2DD3-446E-A1AB-7ABE97C44A9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC8F940-2DD3-446E-A1AB-7ABE97C44A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5331,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1901C3FB-912E-4289-A061-846C2EBA79E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1901C3FB-912E-4289-A061-846C2EBA79E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5384,7 +5384,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EC2E0B-A468-4675-BCE5-0965ADE125AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4EC2E0B-A468-4675-BCE5-0965ADE125AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +5442,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D930AB89-D5AC-4158-BC33-0FD2355E58D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D930AB89-D5AC-4158-BC33-0FD2355E58D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +5495,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A1783-725A-4CAE-AFBE-6A88BFF5C38C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A5A1783-725A-4CAE-AFBE-6A88BFF5C38C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5553,7 +5553,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE3CE67-7AA3-41D2-83EE-4EDFF44DF681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE3CE67-7AA3-41D2-83EE-4EDFF44DF681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374AFBEC-AFC1-472D-B158-6795EA447A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{374AFBEC-AFC1-472D-B158-6795EA447A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5659,7 +5659,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513EDD78-93F0-4520-8589-56905824BC74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{513EDD78-93F0-4520-8589-56905824BC74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5712,7 +5712,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2BE3D7-7381-4567-BD5C-297BD884B62B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2BE3D7-7381-4567-BD5C-297BD884B62B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5818,7 +5818,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D41B5-97C7-49DA-86D0-F6333F261B5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D2D41B5-97C7-49DA-86D0-F6333F261B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,7 +5871,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C8E9A1-CBE5-4B7B-AF53-F7AC2C9B7A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0C8E9A1-CBE5-4B7B-AF53-F7AC2C9B7A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5929,7 +5929,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1E088B-9B3D-4850-AADC-2B908D241A67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E1E088B-9B3D-4850-AADC-2B908D241A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,7 +5987,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4D953B-8A6A-4D3C-A145-BD5015D84EE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4D953B-8A6A-4D3C-A145-BD5015D84EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6045,7 +6045,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84CD902-2CE3-4BE3-9595-47CAED1D45F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84CD902-2CE3-4BE3-9595-47CAED1D45F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,7 +6098,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91924667-D0CB-4890-9CB1-5662570585C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91924667-D0CB-4890-9CB1-5662570585C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6151,7 +6151,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8DF0EF-D6CF-484F-8C73-B826C4AE4882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF8DF0EF-D6CF-484F-8C73-B826C4AE4882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6204,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6198A9E-454E-4CF3-B526-4A6C371F0E68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6198A9E-454E-4CF3-B526-4A6C371F0E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6262,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AE2418-1BCF-490C-9A00-D166E72148AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03AE2418-1BCF-490C-9A00-D166E72148AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6315,7 +6315,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA780348-ED73-4F12-928A-E641525FFC7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA780348-ED73-4F12-928A-E641525FFC7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6421,7 +6421,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A03826-19D6-4EE3-AABD-AE418780D0DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A03826-19D6-4EE3-AABD-AE418780D0DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6474,7 +6474,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E60961-B898-4CA0-BA4C-E5E32A49CF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7E60961-B898-4CA0-BA4C-E5E32A49CF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6532,7 +6532,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D0B42E-6D56-48FB-B6F2-E72D0C7619E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5D0B42E-6D56-48FB-B6F2-E72D0C7619E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6590,7 +6590,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12F0D2B-CAFB-4CDA-BB4F-66858ABD4A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E12F0D2B-CAFB-4CDA-BB4F-66858ABD4A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6643,7 +6643,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C636886B-1EBF-4140-AB2F-A4304CC380BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C636886B-1EBF-4140-AB2F-A4304CC380BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6701,7 +6701,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE91539-BAB2-403E-8EBB-4026F4811773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FE91539-BAB2-403E-8EBB-4026F4811773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6754,7 +6754,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20139760-213B-461B-823E-748594DFC24E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20139760-213B-461B-823E-748594DFC24E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6807,7 +6807,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C3771B-A6C5-4867-A1C4-26B80C1FF971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20C3771B-A6C5-4867-A1C4-26B80C1FF971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6860,7 +6860,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB48AF83-EEEC-49EC-B527-36A20F27B4DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB48AF83-EEEC-49EC-B527-36A20F27B4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6918,7 +6918,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB872F5-858F-4A30-83FC-BDA0790DF2B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CB872F5-858F-4A30-83FC-BDA0790DF2B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6971,7 +6971,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFDF4EE-BE46-44D9-BE91-48479EFFE5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEFDF4EE-BE46-44D9-BE91-48479EFFE5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7024,7 +7024,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C7C395-D4A8-4B34-9706-2354BDB0166F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91C7C395-D4A8-4B34-9706-2354BDB0166F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7082,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5515553E-BF3B-468B-A26C-D9027FBBA180}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5515553E-BF3B-468B-A26C-D9027FBBA180}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7150,7 +7150,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAC3027-5276-4369-94BB-6DE9B8AD00AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DAC3027-5276-4369-94BB-6DE9B8AD00AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7218,7 +7218,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644EE44A-837D-4A38-AE17-9EBB67B5F47F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644EE44A-837D-4A38-AE17-9EBB67B5F47F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7286,7 +7286,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45F2C1F-10A2-4C55-9982-F175D9773AA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45F2C1F-10A2-4C55-9982-F175D9773AA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7354,7 +7354,7 @@
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB854A77-656D-4E8B-91D6-594F5F1BE64F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB854A77-656D-4E8B-91D6-594F5F1BE64F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7422,7 +7422,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD4461A-6FAB-40D7-8EAD-CC577EE236DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BD4461A-6FAB-40D7-8EAD-CC577EE236DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,7 +7475,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384522E4-9D2C-4FC6-A0E0-BC2F309C3019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{384522E4-9D2C-4FC6-A0E0-BC2F309C3019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7528,7 +7528,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFA38FC-5BD4-43A5-9106-94D1BD9BAA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EFA38FC-5BD4-43A5-9106-94D1BD9BAA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7581,7 +7581,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D90C4DA-8E44-4F77-B3AA-AEEAFBCE273F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D90C4DA-8E44-4F77-B3AA-AEEAFBCE273F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7639,7 +7639,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F8228-8AF2-4D6E-A52A-D33758F2E8B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{879F8228-8AF2-4D6E-A52A-D33758F2E8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7692,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3ACCFB-D9C8-4EBB-A537-1279CCFECD3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3ACCFB-D9C8-4EBB-A537-1279CCFECD3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7750,7 +7750,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3DE4E0-79C9-4653-8EE3-73A5DF158181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3DE4E0-79C9-4653-8EE3-73A5DF158181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7803,7 +7803,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284BC98F-7550-4DF4-AB16-EE980AEC6253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{284BC98F-7550-4DF4-AB16-EE980AEC6253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +7856,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605D35A5-9B6D-423A-B53B-D99DA37E2750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{605D35A5-9B6D-423A-B53B-D99DA37E2750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7909,7 +7909,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FBA5BE-E7EC-4B29-A68A-2E3BB8C76ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FBA5BE-E7EC-4B29-A68A-2E3BB8C76ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8015,7 +8015,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576BA8DA-FBF5-4F0F-BFC8-191B07CEB431}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8DA-FBF5-4F0F-BFC8-191B07CEB431}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8068,7 +8068,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696B246F-2E6C-488E-BB83-9D65161772E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696B246F-2E6C-488E-BB83-9D65161772E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8126,7 +8126,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471F7E6-52CF-43E6-8C0B-2ABF68449331}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3471F7E6-52CF-43E6-8C0B-2ABF68449331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8184,7 +8184,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDF974-697F-41C5-A990-0A73283112F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86FDF974-697F-41C5-A990-0A73283112F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8242,7 +8242,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A7B2DE-1E02-4826-8658-4ECA70112E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A7B2DE-1E02-4826-8658-4ECA70112E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8295,7 +8295,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9036A644-7ABF-4C92-AAEE-6198DC0BC480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9036A644-7ABF-4C92-AAEE-6198DC0BC480}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8348,7 +8348,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD03C09-39DD-4F67-9950-279DE69593A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CD03C09-39DD-4F67-9950-279DE69593A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8401,7 +8401,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D621F8D3-3730-4F71-A8C6-2797795D514B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D621F8D3-3730-4F71-A8C6-2797795D514B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8459,7 +8459,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA454BA0-DECA-40DE-912D-8A2CF872D3B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA454BA0-DECA-40DE-912D-8A2CF872D3B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8512,7 +8512,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE226952-6438-4380-BBE8-A9125A069C84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE226952-6438-4380-BBE8-A9125A069C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8618,7 +8618,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FC9A40-078D-4D24-A1E7-C513BF2F65ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70FC9A40-078D-4D24-A1E7-C513BF2F65ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8671,7 +8671,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A2B67A-A625-450A-9119-E3AE4F231700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A2B67A-A625-450A-9119-E3AE4F231700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8729,7 +8729,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7001814-6484-4C7F-93E8-67F44034DB30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7001814-6484-4C7F-93E8-67F44034DB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8787,7 +8787,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE11241E-77FC-4BCF-918F-1BDF44ABE379}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE11241E-77FC-4BCF-918F-1BDF44ABE379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8840,7 +8840,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE31FB3-5BEF-4673-AAC6-FE75C46CE890}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE31FB3-5BEF-4673-AAC6-FE75C46CE890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8898,7 +8898,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1375B1D8-A078-44D7-8014-45CBACDB9FB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1375B1D8-A078-44D7-8014-45CBACDB9FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8951,7 +8951,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FD90FC-980E-4067-96A6-6DF7F660A277}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78FD90FC-980E-4067-96A6-6DF7F660A277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9004,7 +9004,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C01CF0-1A2A-4615-AF6F-13642F56439C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0C01CF0-1A2A-4615-AF6F-13642F56439C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9057,7 +9057,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A854694-0810-4840-888D-43D1978337D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A854694-0810-4840-888D-43D1978337D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,7 +9115,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEABF853-0B6A-4C69-B802-66338B03EAAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEABF853-0B6A-4C69-B802-66338B03EAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9168,7 +9168,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F72CFE-69DB-4733-9DB5-7AE8AFA1AB95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F72CFE-69DB-4733-9DB5-7AE8AFA1AB95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9221,7 +9221,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9917D65A-B6E3-4473-8C1D-48D63EFF3344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9917D65A-B6E3-4473-8C1D-48D63EFF3344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9279,7 +9279,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C380E87E-1965-45D2-81A4-31C8B5B3CBA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C380E87E-1965-45D2-81A4-31C8B5B3CBA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9347,7 +9347,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29283DC-D9C5-4271-B1FB-F64E2D85E073}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A29283DC-D9C5-4271-B1FB-F64E2D85E073}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9415,7 +9415,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A429EB4-D3C6-46FC-873C-68F1C5D893E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A429EB4-D3C6-46FC-873C-68F1C5D893E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9483,7 +9483,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB2BEE-F122-42DD-9CFC-18EBCA59E9C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CB2BEE-F122-42DD-9CFC-18EBCA59E9C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9551,7 +9551,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92105CA6-8498-40DD-9C0F-0EE4D0D50DAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92105CA6-8498-40DD-9C0F-0EE4D0D50DAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9614,7 +9614,7 @@
         <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B5CA20-7E6A-4450-9418-3D3E1E48DCE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B5CA20-7E6A-4450-9418-3D3E1E48DCE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9672,7 +9672,7 @@
         <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BC43C8-E6E8-49C1-A912-B9ECA9DF4D4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53BC43C8-E6E8-49C1-A912-B9ECA9DF4D4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9735,7 +9735,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C008221F-C1E6-4792-904E-E691FE1856B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C008221F-C1E6-4792-904E-E691FE1856B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9788,7 +9788,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D59915-A4D5-43FC-BA5D-88E07CCCD951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D59915-A4D5-43FC-BA5D-88E07CCCD951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,7 +9841,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B519CE-04D7-4923-AA54-0FEEC6CBAE8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B519CE-04D7-4923-AA54-0FEEC6CBAE8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9894,7 +9894,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBF4D00-72D8-425E-9723-700BF69784AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBF4D00-72D8-425E-9723-700BF69784AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,7 +9952,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D44EF9-B356-4625-A86E-24387F2DFDBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08D44EF9-B356-4625-A86E-24387F2DFDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10005,7 +10005,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3BDE20-B2BF-4308-870B-9E885993664D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A3BDE20-B2BF-4308-870B-9E885993664D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10063,7 +10063,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B73538-480F-47CD-A2AE-09196CE27A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41B73538-480F-47CD-A2AE-09196CE27A87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10116,7 +10116,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC137CD-B588-4F1A-BAC8-7506086F4BF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EC137CD-B588-4F1A-BAC8-7506086F4BF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10169,7 +10169,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9305038C-0BEC-4391-A659-7CFC34072841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9305038C-0BEC-4391-A659-7CFC34072841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10222,7 +10222,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BAB3F1-A965-47E3-8619-F4695DD86C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82BAB3F1-A965-47E3-8619-F4695DD86C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10328,7 +10328,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1CCD03-461B-4F73-9F04-B869313FB994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB1CCD03-461B-4F73-9F04-B869313FB994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10381,7 +10381,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8525B888-037A-437B-883C-EEFCAC8FB069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8525B888-037A-437B-883C-EEFCAC8FB069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10439,7 +10439,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AFBB69-68BD-4C46-A9A6-67CAABF18951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8AFBB69-68BD-4C46-A9A6-67CAABF18951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10497,7 +10497,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194EA784-6AEC-4FBE-A861-50C0B4CCD48D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{194EA784-6AEC-4FBE-A861-50C0B4CCD48D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10555,7 +10555,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0FE70B-3BEB-4394-8956-D071C31AE069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B0FE70B-3BEB-4394-8956-D071C31AE069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10608,7 +10608,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E16C663-B48D-4C97-AB24-DF46EA5720CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E16C663-B48D-4C97-AB24-DF46EA5720CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10661,7 +10661,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4F888A-FC60-4378-85EC-1AB4BF6DA3DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA4F888A-FC60-4378-85EC-1AB4BF6DA3DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10714,7 +10714,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E35282-7FB3-4760-B529-C37711BF5882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48E35282-7FB3-4760-B529-C37711BF5882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10772,7 +10772,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF5A99-27E4-4F54-99F2-38405EAB2052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFFF5A99-27E4-4F54-99F2-38405EAB2052}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10825,7 +10825,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B76120-AE3E-43A5-9CC0-EFF146C09914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08B76120-AE3E-43A5-9CC0-EFF146C09914}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10931,7 +10931,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58EB11-B38E-4C8B-A07B-41FEC855B6BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B58EB11-B38E-4C8B-A07B-41FEC855B6BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10984,7 +10984,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D84A4D-3401-4427-B8C6-10DD88F2CCD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41D84A4D-3401-4427-B8C6-10DD88F2CCD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11042,7 +11042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08E1328-1AA5-46B6-8212-5927FDD01405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E08E1328-1AA5-46B6-8212-5927FDD01405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11100,7 +11100,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D28A26-C201-4351-9DF5-50C39DE35D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67D28A26-C201-4351-9DF5-50C39DE35D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11153,7 +11153,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD428719-D533-4618-B56A-C7E994B564B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD428719-D533-4618-B56A-C7E994B564B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11211,7 +11211,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCD6ACB-5855-46EA-A1A5-417A5E2F1FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BCD6ACB-5855-46EA-A1A5-417A5E2F1FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11264,7 +11264,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18938DA-13B9-4FF4-8137-C5D9BE53672E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B18938DA-13B9-4FF4-8137-C5D9BE53672E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11317,7 +11317,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985979E6-0003-4719-B387-2A6FC4A2D1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985979E6-0003-4719-B387-2A6FC4A2D1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11370,7 +11370,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B781993C-472C-4810-AA9D-A912BC3710FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B781993C-472C-4810-AA9D-A912BC3710FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11428,7 +11428,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992BC8F8-7F27-4177-AC63-3EE7FE6A1ED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992BC8F8-7F27-4177-AC63-3EE7FE6A1ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,7 +11481,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5F580C-E1E1-4152-BAD9-A31C6D4DEAA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5F580C-E1E1-4152-BAD9-A31C6D4DEAA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11534,7 +11534,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD0FB9A-8F8E-4D34-AAF7-75820DFE5C39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AD0FB9A-8F8E-4D34-AAF7-75820DFE5C39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11592,7 +11592,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20915AED-13CC-43CF-9AD5-831F857F1403}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20915AED-13CC-43CF-9AD5-831F857F1403}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11660,7 +11660,7 @@
                   <a14:compatExt spid="_x0000_s7170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E15DD4-777F-47E8-90E7-D90B4C690F73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5E15DD4-777F-47E8-90E7-D90B4C690F73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11728,7 +11728,7 @@
                   <a14:compatExt spid="_x0000_s7171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F32E9-BD5E-447C-9AA8-B5F1028E17B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E5F32E9-BD5E-447C-9AA8-B5F1028E17B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11796,7 +11796,7 @@
                   <a14:compatExt spid="_x0000_s7172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B3F79F-8725-4E28-ADE0-6562D5F6E366}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B3F79F-8725-4E28-ADE0-6562D5F6E366}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11864,7 +11864,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394301D6-74B3-4702-9EF7-3549894FAADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{394301D6-74B3-4702-9EF7-3549894FAADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11917,7 +11917,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC1CDF8-BCD4-4562-8A1F-F915B7BE1FDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BC1CDF8-BCD4-4562-8A1F-F915B7BE1FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11970,7 +11970,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF40A95D-9E3E-4253-8921-77850CB196A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF40A95D-9E3E-4253-8921-77850CB196A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12023,7 +12023,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AAEF9D-146C-4F63-A2AF-7B3BDED512C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2AAEF9D-146C-4F63-A2AF-7B3BDED512C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12081,7 +12081,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35225AF-BC8D-49C6-929C-A0AED6AF73EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F35225AF-BC8D-49C6-929C-A0AED6AF73EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12134,7 +12134,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3974A77F-FCE5-43B9-86C8-E4BEE360B773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3974A77F-FCE5-43B9-86C8-E4BEE360B773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12192,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59906F24-322A-41BA-BE2B-A262AC52E612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59906F24-322A-41BA-BE2B-A262AC52E612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12245,7 +12245,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4749EB99-D5B7-47DB-8427-3D749B5447D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4749EB99-D5B7-47DB-8427-3D749B5447D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12298,7 +12298,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F13A76F-972D-4EC3-9960-E38DF8D342B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F13A76F-972D-4EC3-9960-E38DF8D342B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12351,7 +12351,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB58EF0-DB36-4782-807F-611903A27B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB58EF0-DB36-4782-807F-611903A27B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12457,7 +12457,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E611CF10-8D43-4810-90EC-8FD961CC6D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E611CF10-8D43-4810-90EC-8FD961CC6D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12510,7 +12510,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42B53AE-604B-46AF-AF97-84D2C29CE34F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A42B53AE-604B-46AF-AF97-84D2C29CE34F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12568,7 +12568,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71736C38-9D07-4451-A701-DEAF12158EA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71736C38-9D07-4451-A701-DEAF12158EA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12626,7 +12626,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BD16F6-4528-4A5E-98BA-D15433C44FFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5BD16F6-4528-4A5E-98BA-D15433C44FFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12684,7 +12684,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC609A-6BA7-493F-9461-99318800FBC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4DC609A-6BA7-493F-9461-99318800FBC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12737,7 +12737,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73839A-F26E-4904-B1CA-53FA06248D70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB73839A-F26E-4904-B1CA-53FA06248D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12790,7 +12790,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE7BBD-B6B2-4C9D-9C55-198ADE8B4EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37EE7BBD-B6B2-4C9D-9C55-198ADE8B4EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12843,7 +12843,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB24216D-6543-41CD-84AF-B77BAE02FA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB24216D-6543-41CD-84AF-B77BAE02FA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12901,7 +12901,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A9D053-4CC5-431F-A34F-B7F03F8052A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A9D053-4CC5-431F-A34F-B7F03F8052A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12954,7 +12954,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0611F1DD-0487-455F-9905-30409E53FC2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0611F1DD-0487-455F-9905-30409E53FC2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13060,7 +13060,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D2095E-16DF-4AC7-8312-64CFA5041A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59D2095E-16DF-4AC7-8312-64CFA5041A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13113,7 +13113,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC8661B-05A2-4515-B218-0B4507301463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDC8661B-05A2-4515-B218-0B4507301463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13171,7 +13171,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC6F592-AADE-4A9E-BC68-DC7DDD87D8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFC6F592-AADE-4A9E-BC68-DC7DDD87D8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13229,7 +13229,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E83AAE-118E-49A4-96F7-6C665C954E8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85E83AAE-118E-49A4-96F7-6C665C954E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13282,7 +13282,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D28F6C-F31F-4DE3-8537-84DB0791234D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11D28F6C-F31F-4DE3-8537-84DB0791234D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13340,7 +13340,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEEA7E1-8C31-4358-8053-2B28C3C4EE1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FEEA7E1-8C31-4358-8053-2B28C3C4EE1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13393,7 +13393,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5BB328-A68E-4EA6-B84E-703073762AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5BB328-A68E-4EA6-B84E-703073762AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13446,7 +13446,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E43F4D3-9FE1-41B2-B257-EC65FE7A26E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E43F4D3-9FE1-41B2-B257-EC65FE7A26E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13499,7 +13499,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9DE3D9-EC7F-49FD-8D06-D138CD353960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A9DE3D9-EC7F-49FD-8D06-D138CD353960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13557,7 +13557,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6971ACA-7972-483A-BFAA-9A431EF98D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6971ACA-7972-483A-BFAA-9A431EF98D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13610,7 +13610,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75A137E-4DC3-46E6-8B24-8469C9C323BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75A137E-4DC3-46E6-8B24-8469C9C323BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13663,7 +13663,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C147E0FA-2A61-497A-A454-93526FFAFB28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C147E0FA-2A61-497A-A454-93526FFAFB28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13721,7 +13721,7 @@
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE902920-230C-445D-A2ED-6E3BA6117F2E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE902920-230C-445D-A2ED-6E3BA6117F2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13789,7 +13789,7 @@
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3765A18-82FE-4483-9D32-10F0CE3AABCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3765A18-82FE-4483-9D32-10F0CE3AABCC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13857,7 +13857,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CC42FE-B4A9-473E-A8E4-70EDF8303177}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14CC42FE-B4A9-473E-A8E4-70EDF8303177}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13925,7 +13925,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0C41AF-2C0A-4CED-90EE-62A9C8BAAFC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE0C41AF-2C0A-4CED-90EE-62A9C8BAAFC5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14295,50 +14295,50 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="154" t="s">
+      <c r="L1" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="S1" s="154" t="s">
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="S1" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="X1" s="154" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="X1" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" thickBot="1">
       <c r="A2" s="117">
         <v>0.01</v>
       </c>
-      <c r="E2" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="E2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="153" t="s">
+      <c r="L2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="S2" s="153" t="s">
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="S2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="X2" s="153" t="s">
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="X2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -14376,7 +14376,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="4" spans="1:32" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -14432,11 +14432,11 @@
       <c r="R4" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="143" t="s">
+      <c r="S4" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="145"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="181"/>
       <c r="V4" s="139" t="s">
         <v>17</v>
       </c>
@@ -14446,14 +14446,14 @@
       <c r="Y4" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="160" t="s">
+      <c r="AA4" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="157"/>
+      <c r="AB4" s="143"/>
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:32" s="2" customFormat="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="184" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -14527,7 +14527,7 @@
         <f>EXP(X5)/(EXP($X$5)+EXP($X$6)+EXP($X$7))</f>
         <v>0.31116075436366425</v>
       </c>
-      <c r="AA5" s="158">
+      <c r="AA5" s="144">
         <f>(-1)*(E12*(1/Y5)+(1-E12)*(1/(1-Y5)))</f>
         <v>-3.2137729002651332</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:32" s="2" customFormat="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0.2786351511180033</v>
       </c>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="158">
+      <c r="AA6" s="144">
         <f t="shared" ref="AA6:AA7" si="7">(-1)*(E13*(1/Y6)+(1-E13)*(1/(1-Y6)))</f>
         <v>-1.3862610599197402</v>
       </c>
@@ -14616,7 +14616,7 @@
       <c r="AC6" s="16"/>
     </row>
     <row r="7" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="148"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>0.41020409451833256</v>
       </c>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="159">
+      <c r="AA7" s="145">
         <f t="shared" si="7"/>
         <v>-1.6955017671466062</v>
       </c>
@@ -14736,32 +14736,32 @@
     </row>
     <row r="9" spans="1:32" s="24" customFormat="1" ht="14.25">
       <c r="A9" s="94"/>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
-      <c r="L9" s="155" t="s">
+      <c r="L9" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155" t="s">
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="X9" s="160" t="s">
+      <c r="X9" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="157"/>
+      <c r="Y9" s="143"/>
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -14769,7 +14769,7 @@
     <row r="10" spans="1:32">
       <c r="T10" s="123"/>
       <c r="U10" s="123"/>
-      <c r="X10" s="162">
+      <c r="X10" s="148">
         <f>(EXP(X5)*(EXP(X6)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
         <v>0.21433973930749969</v>
       </c>
@@ -14806,7 +14806,7 @@
       <c r="T11" s="123"/>
       <c r="U11" s="123"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="162">
+      <c r="X11" s="148">
         <f>(EXP(X6)*(EXP(X5)+EXP(X7)))/(EXP($X$5)+EXP($X$6)+EXP($X$7))^2</f>
         <v>0.2009976036794508</v>
       </c>
@@ -14852,7 +14852,7 @@
       <c r="U12" s="123"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="163">
+      <c r="X12" s="149">
         <f>EXP(X7)*(EXP(X5)+EXP(X6))/(EXP(X5)+EXP(X6)+EXP(X7))^2</f>
         <v>0.24193669535872747</v>
       </c>
@@ -14946,7 +14946,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="182" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="123"/>
@@ -14959,10 +14959,10 @@
       <c r="M17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="149" t="s">
+      <c r="W17" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="149"/>
+      <c r="X17" s="171"/>
       <c r="Y17" s="25" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +14979,7 @@
       <c r="AC17" s="95"/>
     </row>
     <row r="18" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="147"/>
+      <c r="A18" s="183"/>
       <c r="C18" s="123"/>
       <c r="D18" s="123"/>
       <c r="H18" s="123"/>
@@ -15063,7 +15063,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" s="22" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="182" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="123"/>
@@ -15075,10 +15075,10 @@
       <c r="M23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="156" t="s">
+      <c r="N23" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="149"/>
+      <c r="O23" s="171"/>
       <c r="P23" s="25" t="s">
         <v>25</v>
       </c>
@@ -15099,10 +15099,10 @@
       <c r="V23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W23" s="149" t="s">
+      <c r="W23" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="X23" s="149"/>
+      <c r="X23" s="171"/>
       <c r="Y23" s="25" t="s">
         <v>25</v>
       </c>
@@ -15128,7 +15128,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="147"/>
+      <c r="A24" s="183"/>
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="H24" s="123"/>
@@ -15177,10 +15177,10 @@
       <c r="I25" s="123"/>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
-      <c r="W25" s="149" t="s">
+      <c r="W25" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="X25" s="149"/>
+      <c r="X25" s="171"/>
       <c r="Y25" s="34" t="s">
         <v>25</v>
       </c>
@@ -15265,10 +15265,10 @@
       <c r="I28" s="123"/>
       <c r="J28" s="123"/>
       <c r="K28" s="123"/>
-      <c r="N28" s="149" t="s">
+      <c r="N28" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="149"/>
+      <c r="O28" s="171"/>
       <c r="P28" s="25" t="s">
         <v>25</v>
       </c>
@@ -15293,10 +15293,10 @@
       <c r="V28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="149" t="s">
+      <c r="W28" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="X28" s="149"/>
+      <c r="X28" s="171"/>
       <c r="Y28" s="25" t="s">
         <v>25</v>
       </c>
@@ -15423,10 +15423,10 @@
       <c r="J33" s="123"/>
       <c r="K33" s="123"/>
       <c r="M33"/>
-      <c r="N33" s="150" t="s">
+      <c r="N33" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="150"/>
+      <c r="O33" s="173"/>
       <c r="P33" s="25" t="s">
         <v>25</v>
       </c>
@@ -15445,10 +15445,10 @@
       <c r="V33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W33" s="151" t="s">
+      <c r="W33" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="X33" s="151"/>
+      <c r="X33" s="174"/>
       <c r="Y33" s="25" t="s">
         <v>25</v>
       </c>
@@ -15605,10 +15605,10 @@
       <c r="J40" s="123"/>
       <c r="K40" s="123"/>
       <c r="M40"/>
-      <c r="N40" s="149" t="s">
+      <c r="N40" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="149"/>
+      <c r="O40" s="171"/>
       <c r="P40" s="25" t="s">
         <v>25</v>
       </c>
@@ -15633,10 +15633,10 @@
       <c r="V40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W40" s="149" t="s">
+      <c r="W40" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="149"/>
+      <c r="X40" s="171"/>
       <c r="Y40" s="25" t="s">
         <v>25</v>
       </c>
@@ -15776,10 +15776,10 @@
       <c r="J46" s="123"/>
       <c r="K46" s="123"/>
       <c r="M46"/>
-      <c r="N46" s="149" t="s">
+      <c r="N46" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="149"/>
+      <c r="O46" s="171"/>
       <c r="P46" s="25" t="s">
         <v>25</v>
       </c>
@@ -15796,10 +15796,10 @@
       <c r="V46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W46" s="149" t="s">
+      <c r="W46" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="X46" s="149"/>
+      <c r="X46" s="171"/>
       <c r="Y46" s="25" t="s">
         <v>25</v>
       </c>
@@ -15876,10 +15876,10 @@
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
       <c r="M48"/>
-      <c r="W48" s="149" t="s">
+      <c r="W48" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="X48" s="149"/>
+      <c r="X48" s="171"/>
       <c r="Y48" s="34" t="s">
         <v>25</v>
       </c>
@@ -15969,10 +15969,10 @@
       <c r="J51" s="123"/>
       <c r="K51" s="123"/>
       <c r="M51"/>
-      <c r="N51" s="149" t="s">
+      <c r="N51" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="O51" s="149"/>
+      <c r="O51" s="171"/>
       <c r="P51" s="25" t="s">
         <v>25</v>
       </c>
@@ -15997,10 +15997,10 @@
       <c r="V51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W51" s="149" t="s">
+      <c r="W51" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="X51" s="149"/>
+      <c r="X51" s="171"/>
       <c r="Y51" s="25" t="s">
         <v>25</v>
       </c>
@@ -16121,10 +16121,10 @@
       <c r="J56" s="123"/>
       <c r="K56" s="123"/>
       <c r="M56"/>
-      <c r="N56" s="150" t="s">
+      <c r="N56" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="150"/>
+      <c r="O56" s="173"/>
       <c r="P56" s="25" t="s">
         <v>25</v>
       </c>
@@ -16143,10 +16143,10 @@
       <c r="V56" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W56" s="151" t="s">
+      <c r="W56" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="X56" s="151"/>
+      <c r="X56" s="174"/>
       <c r="Y56" s="34" t="s">
         <v>25</v>
       </c>
@@ -16303,10 +16303,10 @@
       <c r="J63" s="123"/>
       <c r="K63" s="123"/>
       <c r="M63"/>
-      <c r="N63" s="149" t="s">
+      <c r="N63" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="O63" s="149"/>
+      <c r="O63" s="171"/>
       <c r="P63" s="34" t="s">
         <v>25</v>
       </c>
@@ -16331,10 +16331,10 @@
       <c r="V63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W63" s="149" t="s">
+      <c r="W63" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="X63" s="149"/>
+      <c r="X63" s="171"/>
       <c r="Y63" s="34" t="s">
         <v>25</v>
       </c>
@@ -16484,10 +16484,10 @@
       <c r="AG68" s="32"/>
     </row>
     <row r="69" spans="3:33" ht="16.5" thickBot="1">
-      <c r="N69" s="149" t="s">
+      <c r="N69" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="O69" s="149"/>
+      <c r="O69" s="171"/>
       <c r="P69" s="34" t="s">
         <v>25</v>
       </c>
@@ -16504,10 +16504,10 @@
       <c r="V69" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W69" s="149" t="s">
+      <c r="W69" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="X69" s="149"/>
+      <c r="X69" s="171"/>
       <c r="Y69" s="34" t="s">
         <v>25</v>
       </c>
@@ -16580,10 +16580,10 @@
       <c r="AG70" s="28"/>
     </row>
     <row r="71" spans="3:33" ht="16.5" thickBot="1">
-      <c r="W71" s="149" t="s">
+      <c r="W71" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="X71" s="149"/>
+      <c r="X71" s="171"/>
       <c r="Y71" s="34" t="s">
         <v>25</v>
       </c>
@@ -16659,10 +16659,10 @@
       <c r="AG73" s="28"/>
     </row>
     <row r="74" spans="3:33" ht="15.75">
-      <c r="N74" s="149" t="s">
+      <c r="N74" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="149"/>
+      <c r="O74" s="171"/>
       <c r="P74" s="34" t="s">
         <v>25</v>
       </c>
@@ -16687,10 +16687,10 @@
       <c r="V74" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W74" s="149" t="s">
+      <c r="W74" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="X74" s="149"/>
+      <c r="X74" s="171"/>
       <c r="Y74" s="34" t="s">
         <v>25</v>
       </c>
@@ -16781,10 +16781,10 @@
       </c>
     </row>
     <row r="79" spans="3:33" ht="15.75">
-      <c r="N79" s="150" t="s">
+      <c r="N79" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="O79" s="150"/>
+      <c r="O79" s="173"/>
       <c r="P79" s="34" t="s">
         <v>25</v>
       </c>
@@ -16803,10 +16803,10 @@
       <c r="V79" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W79" s="151" t="s">
+      <c r="W79" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="X79" s="151"/>
+      <c r="X79" s="174"/>
       <c r="Y79" s="34" t="s">
         <v>25</v>
       </c>
@@ -16878,10 +16878,10 @@
       <c r="U83" s="32"/>
     </row>
     <row r="84" spans="14:21" ht="15.75">
-      <c r="N84" s="149" t="s">
+      <c r="N84" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="O84" s="149"/>
+      <c r="O84" s="171"/>
       <c r="P84" s="34" t="s">
         <v>25</v>
       </c>
@@ -16925,6 +16925,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="W63:X63"/>
     <mergeCell ref="N23:O23"/>
@@ -16941,31 +16966,6 @@
     <mergeCell ref="W74:X74"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="W56:X56"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W23:X23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16979,8 +16979,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17001,118 +17001,118 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="R1" s="174" t="s">
+      <c r="I1" s="202"/>
+      <c r="R1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="Y1" s="174" t="s">
+      <c r="S1" s="202"/>
+      <c r="Y1" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="174"/>
+      <c r="Z1" s="202"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="201"/>
+      <c r="H2" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="R2" s="164" t="s">
+      <c r="I2" s="201"/>
+      <c r="R2" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="201"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="164"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="161" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="161" t="s">
+      <c r="R3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="161" t="s">
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="161" t="s">
+      <c r="X3" s="159"/>
+      <c r="Y3" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="175" t="s">
+      <c r="Z3" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AB3" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="162">
+      <c r="B4" s="148">
         <v>1</v>
       </c>
       <c r="C4" s="31">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="150">
         <v>0.1</v>
       </c>
-      <c r="E4" s="168">
+      <c r="E4" s="151">
         <v>0.2</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="154">
         <v>0.1</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="148">
         <f>D4*$B$4+E4*$B$5+F4</f>
         <v>0.2</v>
       </c>
@@ -17138,14 +17138,14 @@
       <c r="O4" s="41">
         <v>0.4</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="148">
         <v>0.1</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="148">
         <f>J4*$I$4+K4*$I$5+L4*$I$6+M4*$I$7+N4*$I$8+O4*$I$9+P4</f>
         <v>1.5900000000000003</v>
       </c>
-      <c r="S4" s="176">
+      <c r="S4" s="157">
         <f>1/(1+EXP(-R4))</f>
         <v>0.83061610306598133</v>
       </c>
@@ -17158,22 +17158,22 @@
       <c r="V4" s="41">
         <v>0.2</v>
       </c>
-      <c r="W4" s="162">
+      <c r="W4" s="148">
         <v>0.1</v>
       </c>
-      <c r="Y4" s="162">
+      <c r="Y4" s="148">
         <f>T4*$S$4+U4*$S$5+V4*$S$6+W4</f>
         <v>0.53473386538044942</v>
       </c>
-      <c r="Z4" s="176">
+      <c r="Z4" s="157">
         <f>EXP(Y4)/(EXP($Y$4)+EXP($Y$5))</f>
         <v>0.24007444302067488</v>
       </c>
       <c r="AA4" s="95"/>
-      <c r="AB4" s="162">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="162">
+      <c r="AB4" s="148">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="148">
         <f>Z4-AB4</f>
         <v>0.24007444302067488</v>
       </c>
@@ -17183,23 +17183,23 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" thickBot="1">
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="150">
         <v>0.3</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="151">
         <v>0.3</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="154">
         <v>0.2</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="148">
         <f t="shared" ref="H5:H9" si="0">D5*$B$4+E5*$B$5+F5</f>
         <v>0.5</v>
       </c>
@@ -17225,14 +17225,14 @@
       <c r="O5" s="41">
         <v>0.2</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="148">
         <v>0.2</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="148">
         <f t="shared" ref="R5:R6" si="2">J5*$I$4+K5*$I$5+L5*$I$6+M5*$I$7+N5*$I$8+O5*$I$9+P5</f>
         <v>1.83</v>
       </c>
-      <c r="S5" s="176">
+      <c r="S5" s="157">
         <f t="shared" ref="S5:S6" si="3">1/(1+EXP(-R5))</f>
         <v>0.86176172682750596</v>
       </c>
@@ -17245,37 +17245,37 @@
       <c r="V5" s="44">
         <v>0.9</v>
       </c>
-      <c r="W5" s="163">
+      <c r="W5" s="149">
         <v>0.2</v>
       </c>
-      <c r="Y5" s="163">
+      <c r="Y5" s="149">
         <f>T5*$S$4+U5*$S$5+V5*$S$6+W5</f>
         <v>1.6870052880211228</v>
       </c>
-      <c r="Z5" s="177">
+      <c r="Z5" s="158">
         <f>EXP(Y5)/(EXP($Y$4)+EXP($Y$5))</f>
         <v>0.75992555697932507</v>
       </c>
       <c r="AA5" s="95"/>
-      <c r="AB5" s="163">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="162">
+      <c r="AB5" s="149">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="148">
         <f>Z5-AB5</f>
         <v>0.75992555697932507</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D6" s="167">
+      <c r="D6" s="150">
         <v>0.2</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="151">
         <v>0.5</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="154">
         <v>0.3</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="148">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -17301,84 +17301,84 @@
       <c r="O6" s="44">
         <v>0.6</v>
       </c>
-      <c r="P6" s="163">
+      <c r="P6" s="149">
         <v>0.3</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="149">
         <f t="shared" si="2"/>
         <v>2.16</v>
       </c>
-      <c r="S6" s="177">
+      <c r="S6" s="158">
         <f t="shared" si="3"/>
         <v>0.89659954854175039</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="D7" s="167">
+      <c r="D7" s="150">
         <v>0.7</v>
       </c>
-      <c r="E7" s="168">
+      <c r="E7" s="151">
         <v>0.8</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="154">
         <v>0.4</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="148">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="162">
+      <c r="I7" s="148">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="X7" s="124"/>
       <c r="Y7" s="124"/>
-      <c r="AA7" s="196" t="s">
+      <c r="AA7" s="163" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="D8" s="167">
+      <c r="D8" s="150">
         <v>0.2</v>
       </c>
-      <c r="E8" s="168">
+      <c r="E8" s="151">
         <v>0.3</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="154">
         <v>0.5</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="148">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I8" s="162">
+      <c r="I8" s="148">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AA8" s="197">
+      <c r="AA8" s="164">
         <f>AB4*LOG10(Z4)+(1-AB4)*LOG10(1-Z4)</f>
         <v>-0.11922894953051345</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D9" s="169">
+      <c r="D9" s="152">
         <v>0.5</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="153">
         <v>0.7</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="155">
         <v>0.6</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="149">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="163">
+      <c r="I9" s="149">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA9" s="198">
+      <c r="AA9" s="165">
         <f>AB5*LOG10(Z5)+(1-AB5)*LOG10(1-Z5)</f>
         <v>-0.61965407003816741</v>
       </c>
@@ -17391,44 +17391,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="165" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="173" t="s">
+      <c r="I12" s="191"/>
+      <c r="J12" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="166"/>
-      <c r="R12" s="185" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="R12" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="165" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="166"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="165" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="191"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="166"/>
-      <c r="AB12" s="165" t="s">
+      <c r="Z12" s="191"/>
+      <c r="AB12" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="166"/>
+      <c r="AC12" s="191"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -17439,11 +17439,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="179">
+      <c r="H13" s="185">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="180"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.2</v>
@@ -17468,11 +17468,11 @@
         <f>I9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R13" s="192">
+      <c r="R13" s="197">
         <f>S4*(1-S4)</f>
         <v>0.14069299239346442</v>
       </c>
-      <c r="S13" s="184"/>
+      <c r="S13" s="198"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.83061610306598133</v>
@@ -17485,11 +17485,11 @@
         <f>S6</f>
         <v>0.89659954854175039</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="185">
         <f>EXP(Z4)*EXP(Z5)/(EXP(Z4)+EXP(Z5))^2</f>
         <v>0.23384229765803455</v>
       </c>
-      <c r="Z13" s="180"/>
+      <c r="Z13" s="186"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>0.24007444302067488</v>
@@ -17499,21 +17499,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="179">
-        <f t="shared" ref="H14:H21" si="4">IF(H5&lt;=0,0,1)</f>
+      <c r="H14" s="185">
+        <f t="shared" ref="H14:H18" si="4">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="180"/>
-      <c r="R14" s="192">
+      <c r="I14" s="186"/>
+      <c r="R14" s="197">
         <f t="shared" ref="R14:R15" si="5">S5*(1-S5)</f>
         <v>0.11912845300278095</v>
       </c>
-      <c r="S14" s="184"/>
-      <c r="Y14" s="181">
+      <c r="S14" s="198"/>
+      <c r="Y14" s="187">
         <f>EXP(Z4)*EXP(Z5)/(EXP(Z4)+EXP(Z5))^2</f>
         <v>0.23384229765803455</v>
       </c>
-      <c r="Z14" s="182"/>
+      <c r="Z14" s="188"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -17524,100 +17524,100 @@
     </row>
     <row r="15" spans="1:30" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="179">
+      <c r="H15" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I15" s="180"/>
-      <c r="R15" s="193">
+      <c r="I15" s="186"/>
+      <c r="R15" s="199">
         <f t="shared" si="5"/>
         <v>9.2708798096479778E-2</v>
       </c>
-      <c r="S15" s="194"/>
+      <c r="S15" s="200"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="179">
+      <c r="H16" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I16" s="180"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="191" t="s">
+      <c r="E17" s="193"/>
+      <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="179">
+      <c r="H17" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="188" t="s">
+      <c r="I17" s="186"/>
+      <c r="J17" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="191" t="s">
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="191" t="s">
+      <c r="U17" s="194"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="4:28" ht="13.5" thickBot="1">
       <c r="D18" s="31">
-        <f>$H22*B$13*$A$2</f>
+        <f t="shared" ref="D18:E23" si="6">$H22*B$13*$A$2</f>
         <v>1.7100175521381961E-3</v>
       </c>
       <c r="E18" s="41">
-        <f>$H22*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="176">
-        <f>H22*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="157">
+        <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>1.7100175521381961E-3</v>
       </c>
-      <c r="H18" s="181">
+      <c r="H18" s="187">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="182"/>
+      <c r="I18" s="188"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>1.6580606523922386E-4</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:O18" si="6">K$13*$R20*$A$2</f>
+        <f t="shared" ref="K18:O18" si="8">K$13*$R20*$A$2</f>
         <v>4.1451516309805959E-4</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1451516309805959E-4</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1193335881573122E-4</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.803212283372834E-4</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1193335881573122E-4</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P18" s="148">
         <f>R20*$A$2</f>
         <v>8.2903032619611918E-4</v>
       </c>
@@ -17626,257 +17626,257 @@
         <v>4.6630422027537409E-3</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" ref="U18:V19" si="7">U$13*$Z20*$A$2</f>
+        <f t="shared" ref="U18:V19" si="9">U$13*$Z20*$A$2</f>
         <v>4.8378923621655223E-3</v>
       </c>
       <c r="V18" s="78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0334703581926803E-3</v>
       </c>
-      <c r="W18" s="162">
+      <c r="W18" s="148">
         <f>Z20*$A$2</f>
         <v>5.6139559364927517E-3</v>
       </c>
     </row>
     <row r="19" spans="4:28" ht="15" thickBot="1">
       <c r="D19" s="31">
-        <f>$H23*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>1.3966434723906053E-3</v>
       </c>
       <c r="E19" s="41">
-        <f>$H23*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="176">
-        <f>H23*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="157">
+        <f t="shared" si="7"/>
         <v>1.3966434723906053E-3</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" ref="J19:O19" si="8">J$13*$R21*$A$2</f>
+        <f t="shared" ref="J19:O19" si="10">J$13*$R21*$A$2</f>
         <v>2.3844579850976528E-4</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9611449627441318E-4</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9611449627441318E-4</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3114518918037092E-3</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3456029478417833E-4</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3114518918037092E-3</v>
       </c>
-      <c r="P19" s="162">
+      <c r="P19" s="148">
         <f>R21*$A$2</f>
         <v>1.1922289925488264E-3</v>
       </c>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="166"/>
+      <c r="S19" s="191"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>1.4760275598517451E-2</v>
       </c>
       <c r="U19" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.531374186134443E-2</v>
       </c>
       <c r="V19" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5932819492823259E-2</v>
       </c>
-      <c r="W19" s="163">
+      <c r="W19" s="149">
         <f>Z21*$A$2</f>
         <v>1.7770273829310703E-2</v>
       </c>
-      <c r="Z19" s="185" t="s">
+      <c r="Z19" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="186"/>
+      <c r="AA19" s="196"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
-        <f>$H24*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>1.5561736139716516E-3</v>
       </c>
       <c r="E20" s="41">
-        <f>$H24*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="176">
-        <f>H24*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="157">
+        <f t="shared" si="7"/>
         <v>1.5561736139716516E-3</v>
       </c>
       <c r="J20" s="79">
-        <f t="shared" ref="J20:O20" si="9">J$13*$R22*$A$2</f>
+        <f t="shared" ref="J20:O20" si="11">J$13*$R22*$A$2</f>
         <v>3.1736145543848407E-4</v>
       </c>
       <c r="K20" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.9340363859621013E-4</v>
       </c>
       <c r="L20" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.9340363859621013E-4</v>
       </c>
       <c r="M20" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7454880049116623E-3</v>
       </c>
       <c r="N20" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1107650940346942E-3</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7454880049116623E-3</v>
       </c>
-      <c r="P20" s="163">
+      <c r="P20" s="149">
         <f>R22*$A$2</f>
         <v>1.5868072771924203E-3</v>
       </c>
-      <c r="R20" s="179">
+      <c r="R20" s="185">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>8.2903032619611912E-3</v>
       </c>
-      <c r="S20" s="180"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="Z20" s="192">
+      <c r="S20" s="186"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="Z20" s="197">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>5.613955936492751E-2</v>
       </c>
-      <c r="AA20" s="184"/>
+      <c r="AA20" s="198"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
-        <f>$H25*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>1.0500874878368322E-3</v>
       </c>
       <c r="E21" s="41">
-        <f>$H25*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="176">
-        <f>H25*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="157">
+        <f t="shared" si="7"/>
         <v>1.0500874878368322E-3</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="R21" s="179">
+      <c r="I21" s="191"/>
+      <c r="R21" s="185">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>1.1922289925488263E-2</v>
       </c>
-      <c r="S21" s="180"/>
-      <c r="Z21" s="193">
+      <c r="S21" s="186"/>
+      <c r="Z21" s="199">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>0.17770273829310704</v>
       </c>
-      <c r="AA21" s="194"/>
+      <c r="AA21" s="200"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
-        <f>$H26*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>2.117407377716274E-3</v>
       </c>
       <c r="E22" s="41">
-        <f>$H26*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="176">
-        <f>H26*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="157">
+        <f t="shared" si="7"/>
         <v>2.117407377716274E-3</v>
       </c>
-      <c r="H22" s="179">
+      <c r="H22" s="185">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>1.7100175521381961E-2</v>
       </c>
-      <c r="I22" s="180"/>
-      <c r="R22" s="181">
+      <c r="I22" s="186"/>
+      <c r="R22" s="187">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>1.5868072771924202E-2</v>
       </c>
-      <c r="S22" s="182"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
-        <f>$H27*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>1.522142295303665E-3</v>
       </c>
       <c r="E23" s="44">
-        <f>$H27*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="177">
-        <f>H27*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="158">
+        <f t="shared" si="7"/>
         <v>1.522142295303665E-3</v>
       </c>
-      <c r="H23" s="179">
-        <f t="shared" ref="H23:H27" si="10">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
+      <c r="H23" s="185">
+        <f t="shared" ref="H23:H27" si="12">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>1.3966434723906051E-2</v>
       </c>
-      <c r="I23" s="180"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="179">
-        <f t="shared" si="10"/>
+      <c r="H24" s="185">
+        <f t="shared" si="12"/>
         <v>1.5561736139716516E-2</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="186"/>
+      <c r="J24" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="166"/>
-      <c r="T24" s="165" t="s">
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="191"/>
+      <c r="T24" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="179">
-        <f t="shared" si="10"/>
+      <c r="H25" s="185">
+        <f t="shared" si="12"/>
         <v>1.0500874878368323E-2</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.1</v>
       </c>
       <c r="K25" s="124">
-        <f t="shared" ref="K25:O25" si="11">K4</f>
+        <f t="shared" ref="K25:O25" si="13">K4</f>
         <v>0.2</v>
       </c>
       <c r="L25" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="M25" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="N25" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="T25" s="31">
@@ -17884,42 +17884,42 @@
         <v>0.1</v>
       </c>
       <c r="U25" s="124">
-        <f t="shared" ref="U25:V26" si="12">U4</f>
+        <f t="shared" ref="U25:V26" si="14">U4</f>
         <v>0.2</v>
       </c>
       <c r="V25" s="41">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" ht="13.5" thickBot="1">
+      <c r="H26" s="185">
         <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="179">
-        <f t="shared" si="10"/>
         <v>2.1174073777162739E-2</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="124">
-        <f t="shared" ref="J26:O26" si="13">J5</f>
+        <f t="shared" ref="J26:O26" si="15">J5</f>
         <v>0.3</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="L26" s="124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="M26" s="124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
       <c r="N26" s="124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
       <c r="T26" s="42">
@@ -17927,55 +17927,55 @@
         <v>0.3</v>
       </c>
       <c r="U26" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="V26" s="44">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="181">
-        <f t="shared" si="10"/>
-        <v>1.522142295303665E-2</v>
-      </c>
-      <c r="I27" s="182"/>
-      <c r="J27" s="43">
-        <f t="shared" ref="J27:O27" si="14">J6</f>
-        <v>0.8</v>
-      </c>
-      <c r="K27" s="43">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="L27" s="43">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="43">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="N27" s="43">
         <f t="shared" si="14"/>
         <v>0.9</v>
       </c>
+    </row>
+    <row r="27" spans="4:28" ht="15.75" thickBot="1">
+      <c r="H27" s="187">
+        <f t="shared" si="12"/>
+        <v>1.522142295303665E-2</v>
+      </c>
+      <c r="I27" s="188"/>
+      <c r="J27" s="43">
+        <f t="shared" ref="J27:O27" si="16">J6</f>
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="43">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="43">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="43">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
       <c r="O27" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
-      <c r="Z27" s="165" t="s">
+      <c r="Z27" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="166"/>
+      <c r="AA27" s="191"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="173"/>
-      <c r="S28" s="166"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="191"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>5.613955936492751E-2</v>
@@ -18001,19 +18001,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="166"/>
-      <c r="T31" s="165" t="s">
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="T31" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="173"/>
-      <c r="V31" s="166"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -18021,23 +18021,23 @@
         <v>1.7100175521381961E-2</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" ref="K32:O33" si="15">K$25*$Q29+K$26*$R29+K$27*$S29</f>
+        <f t="shared" ref="K32:O32" si="17">K$25*$Q29+K$26*$R29+K$27*$S29</f>
         <v>1.3966434723906051E-2</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5561736139716516E-2</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0500874878368323E-2</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1174073777162739E-2</v>
       </c>
       <c r="O32" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.522142295303665E-2</v>
       </c>
       <c r="T32" s="42">
@@ -18065,8 +18065,8 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="2:28">
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="190"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="2:28" ht="13.5" thickBot="1">
@@ -18075,19 +18075,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="165" t="s">
+      <c r="J36" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="166"/>
-      <c r="T36" s="165" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="191"/>
+      <c r="T36" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="173"/>
-      <c r="V36" s="166"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -18157,14 +18157,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="166"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -18284,27 +18284,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="J24:O24"/>
     <mergeCell ref="Z27:AA27"/>
@@ -18321,24 +18318,27 @@
     <mergeCell ref="T31:V31"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18446,8 +18446,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18468,122 +18468,122 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="R1" s="174" t="s">
+      <c r="I1" s="202"/>
+      <c r="R1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="Y1" s="174" t="s">
+      <c r="S1" s="202"/>
+      <c r="Y1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="174"/>
+      <c r="Z1" s="202"/>
     </row>
     <row r="2" spans="1:75" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="201"/>
+      <c r="H2" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="R2" s="164" t="s">
+      <c r="I2" s="201"/>
+      <c r="R2" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="201"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="164"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:75" ht="14.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="161" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="161" t="s">
+      <c r="R3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="161" t="s">
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="161" t="s">
+      <c r="X3" s="159"/>
+      <c r="Y3" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="175" t="s">
+      <c r="Z3" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AB3" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:75" ht="13.5" thickBot="1">
-      <c r="B4" s="162">
+      <c r="B4" s="148">
         <v>0</v>
       </c>
       <c r="C4" s="31">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="150">
         <v>9.9817742965043324E-2</v>
       </c>
-      <c r="E4" s="168">
+      <c r="E4" s="151">
         <v>0.19981997170120466</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="154">
         <v>9.9332314808717459E-2</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="148">
         <f>D4*$B$4+E4*$B$5+F4</f>
         <v>0.29915228650992209</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="157">
         <f>1/(1+EXP(-H4))</f>
         <v>0.57423527313718392</v>
       </c>
@@ -18605,14 +18605,14 @@
       <c r="O4" s="41">
         <v>0.39847911245943196</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="148">
         <v>9.8049641176403732E-2</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="148">
         <f>J4*$I$4+K4*$I$5+L4*$I$6+M4*$I$7+N4*$I$8+O4*$I$9+P4</f>
         <v>1.3867302861797781</v>
       </c>
-      <c r="S4" s="176">
+      <c r="S4" s="157">
         <f>1/(1+EXP(-R4))</f>
         <v>0.80006973888819899</v>
       </c>
@@ -18625,22 +18625,22 @@
       <c r="V4" s="44">
         <v>0.10320872524433958</v>
       </c>
-      <c r="W4" s="163">
+      <c r="W4" s="149">
         <v>-9.7241553283484109E-3</v>
       </c>
-      <c r="Y4" s="163">
+      <c r="Y4" s="149">
         <f>T4*$S$4+U4*$S$5+V4*$S$6+W4</f>
         <v>0.19257207967492743</v>
       </c>
-      <c r="Z4" s="177">
+      <c r="Z4" s="158">
         <f>1/(1+EXP(-Y4))</f>
         <v>0.54799479158175268</v>
       </c>
       <c r="AA4" s="95"/>
-      <c r="AB4" s="163">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="162">
+      <c r="AB4" s="149">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="148">
         <f>Z4-AB4</f>
         <v>0.54799479158175268</v>
       </c>
@@ -18688,27 +18688,27 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="13.5" thickBot="1">
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <v>1</v>
       </c>
       <c r="C5" s="42">
         <f>B5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="150">
         <v>0.29985014565731266</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="151">
         <v>0.29987322964700802</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="154">
         <v>0.19939593487346047</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="148">
         <f t="shared" ref="H5:H9" si="0">D5*$B$4+E5*$B$5+F5</f>
         <v>0.49926916452046849</v>
       </c>
-      <c r="I5" s="176">
+      <c r="I5" s="157">
         <f t="shared" ref="I5:I9" si="1">1/(1+EXP(-H5))</f>
         <v>0.62228756678629427</v>
       </c>
@@ -18730,14 +18730,14 @@
       <c r="O5" s="41">
         <v>0.19813669921970023</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="148">
         <v>0.19722314538783536</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="148">
         <f t="shared" ref="R5:R6" si="2">J5*$I$4+K5*$I$5+L5*$I$6+M5*$I$7+N5*$I$8+O5*$I$9+P5</f>
         <v>1.9658333354216331</v>
       </c>
-      <c r="S5" s="176">
+      <c r="S5" s="157">
         <f t="shared" ref="S5:S6" si="3">1/(1+EXP(-R5))</f>
         <v>0.87716286775987684</v>
       </c>
@@ -18794,20 +18794,20 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="13.5" thickBot="1">
-      <c r="D6" s="167">
+      <c r="D6" s="150">
         <v>0.19989574156955242</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="151">
         <v>0.49985280387101805</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="154">
         <v>0.29926026587098059</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="148">
         <f t="shared" si="0"/>
         <v>0.79911306974199858</v>
       </c>
-      <c r="I6" s="176">
+      <c r="I6" s="157">
         <f t="shared" si="1"/>
         <v>0.68978472618513664</v>
       </c>
@@ -18829,14 +18829,14 @@
       <c r="O6" s="44">
         <v>0.59856341866563223</v>
       </c>
-      <c r="P6" s="163">
+      <c r="P6" s="149">
         <v>0.29787055170684806</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="149">
         <f t="shared" si="2"/>
         <v>2.3077760998924859</v>
       </c>
-      <c r="S6" s="177">
+      <c r="S6" s="158">
         <f t="shared" si="3"/>
         <v>0.90951900785632134</v>
       </c>
@@ -18876,20 +18876,20 @@
       </c>
     </row>
     <row r="7" spans="1:75">
-      <c r="D7" s="167">
+      <c r="D7" s="150">
         <v>0.69994202551086959</v>
       </c>
-      <c r="E7" s="168">
+      <c r="E7" s="151">
         <v>0.79999185684576746</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="154">
         <v>0.39958471316816291</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="148">
         <f t="shared" si="0"/>
         <v>1.1995765700139303</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="157">
         <f t="shared" si="1"/>
         <v>0.76844944909398749</v>
       </c>
@@ -18906,20 +18906,20 @@
       </c>
     </row>
     <row r="8" spans="1:75">
-      <c r="D8" s="167">
+      <c r="D8" s="150">
         <v>0.19978766439225265</v>
       </c>
-      <c r="E8" s="168">
+      <c r="E8" s="151">
         <v>0.29982482623131768</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="154">
         <v>0.49922779599130307</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="148">
         <f t="shared" si="0"/>
         <v>0.79905262222262075</v>
       </c>
-      <c r="I8" s="176">
+      <c r="I8" s="157">
         <f t="shared" si="1"/>
         <v>0.68977179137030664</v>
       </c>
@@ -18934,20 +18934,20 @@
       </c>
     </row>
     <row r="9" spans="1:75" ht="13.5" thickBot="1">
-      <c r="D9" s="169">
+      <c r="D9" s="152">
         <v>0.49995684167625543</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="153">
         <v>0.69997475739067216</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="155">
         <v>0.59951532601274649</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="149">
         <f t="shared" si="0"/>
         <v>1.2994900834034186</v>
       </c>
-      <c r="I9" s="176">
+      <c r="I9" s="157">
         <f t="shared" si="1"/>
         <v>0.78574915240623089</v>
       </c>
@@ -18969,44 +18969,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:75" ht="15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="165" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="173" t="s">
+      <c r="I12" s="191"/>
+      <c r="J12" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="166"/>
-      <c r="R12" s="185" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="R12" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="165" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="166"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="185" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="191"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="186"/>
-      <c r="AB12" s="165" t="s">
+      <c r="Z12" s="196"/>
+      <c r="AB12" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="166"/>
+      <c r="AC12" s="191"/>
     </row>
     <row r="13" spans="1:75" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -19017,11 +19017,11 @@
         <f>C5</f>
         <v>1</v>
       </c>
-      <c r="H13" s="192">
+      <c r="H13" s="197">
         <f>I4*(1-I4)</f>
         <v>0.24448912422224769</v>
       </c>
-      <c r="I13" s="184"/>
+      <c r="I13" s="198"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.57423527313718392</v>
@@ -19046,11 +19046,11 @@
         <f>I9</f>
         <v>0.78574915240623089</v>
       </c>
-      <c r="R13" s="192">
+      <c r="R13" s="197">
         <f>S4*(1-S4)</f>
         <v>0.15995815180356807</v>
       </c>
-      <c r="S13" s="184"/>
+      <c r="S13" s="198"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.80006973888819899</v>
@@ -19063,129 +19063,129 @@
         <f>S6</f>
         <v>0.90951900785632134</v>
       </c>
-      <c r="Y13" s="193">
+      <c r="Y13" s="199">
         <f>Z4*(1-Z4)</f>
         <v>0.24769649998102411</v>
       </c>
-      <c r="Z13" s="194"/>
-      <c r="AB13" s="181">
+      <c r="Z13" s="200"/>
+      <c r="AB13" s="187">
         <f>AC4</f>
         <v>0.54799479158175268</v>
       </c>
-      <c r="AC13" s="182"/>
+      <c r="AC13" s="188"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="H14" s="192">
+      <c r="H14" s="197">
         <f t="shared" ref="H14:H18" si="4">I5*(1-I5)</f>
         <v>0.23504575100948763</v>
       </c>
-      <c r="I14" s="184"/>
-      <c r="R14" s="192">
+      <c r="I14" s="198"/>
+      <c r="R14" s="197">
         <f>S5*(1-S5)</f>
         <v>0.10774817118314566</v>
       </c>
-      <c r="S14" s="184"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
+      <c r="S14" s="198"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
       <c r="AB14" s="124"/>
       <c r="AC14" s="124"/>
     </row>
     <row r="15" spans="1:75" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="192">
+      <c r="H15" s="197">
         <f t="shared" si="4"/>
         <v>0.2139817577068327</v>
       </c>
-      <c r="I15" s="184"/>
-      <c r="R15" s="193">
+      <c r="I15" s="198"/>
+      <c r="R15" s="199">
         <f>S6*(1-S6)</f>
         <v>8.2294182204374219E-2</v>
       </c>
-      <c r="S15" s="194"/>
+      <c r="S15" s="200"/>
     </row>
     <row r="16" spans="1:75" ht="13.5" thickBot="1">
-      <c r="H16" s="192">
+      <c r="H16" s="197">
         <f t="shared" si="4"/>
         <v>0.17793489328113463</v>
       </c>
-      <c r="I16" s="184"/>
+      <c r="I16" s="198"/>
     </row>
     <row r="17" spans="2:28" ht="14.25">
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="191" t="s">
+      <c r="E17" s="193"/>
+      <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="192">
+      <c r="H17" s="197">
         <f t="shared" si="4"/>
         <v>0.21398666720010481</v>
       </c>
-      <c r="I17" s="184"/>
-      <c r="J17" s="188" t="s">
+      <c r="I17" s="198"/>
+      <c r="J17" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="191" t="s">
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="191" t="s">
+      <c r="U17" s="194"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.5" thickBot="1">
       <c r="D18" s="31">
-        <f>$H22*B$13*$A$2</f>
+        <f t="shared" ref="D18:E23" si="5">$H22*B$13*$A$2</f>
         <v>0</v>
       </c>
       <c r="E18" s="41">
-        <f>$H22*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>3.4938550353743132E-5</v>
       </c>
-      <c r="F18" s="176">
-        <f>H22*$A$2</f>
+      <c r="F18" s="157">
+        <f t="shared" ref="F18:F23" si="6">H22*$A$2</f>
         <v>3.4938550353743132E-5</v>
       </c>
-      <c r="H18" s="192">
+      <c r="H18" s="197">
         <f t="shared" si="4"/>
         <v>0.16834742189912064</v>
       </c>
-      <c r="I18" s="184"/>
+      <c r="I18" s="198"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>2.1432968927612979E-5</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:O18" si="5">K$13*$R20*$A$2</f>
+        <f t="shared" ref="K18:O18" si="7">K$13*$R20*$A$2</f>
         <v>2.3226490441983406E-5</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5745779290601245E-5</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8681890394667643E-5</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5745296506806336E-5</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.932759089565316E-5</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P18" s="148">
         <f>R20*$A$2</f>
         <v>3.7324368477957772E-5</v>
       </c>
@@ -19201,235 +19201,235 @@
         <f>V$13*$Z20*$A$2</f>
         <v>1.2345482847508731E-2</v>
       </c>
-      <c r="W18" s="163">
+      <c r="W18" s="149">
         <f>Z20*$A$2</f>
         <v>1.3573639188263093E-2</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="14.25">
       <c r="D19" s="31">
-        <f>$H23*B$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E19" s="41">
-        <f>$H23*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>3.1040323609868707E-5</v>
       </c>
-      <c r="F19" s="176">
-        <f>H23*$A$2</f>
+      <c r="F19" s="157">
+        <f t="shared" si="6"/>
         <v>3.1040323609868707E-5</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" ref="J19:O20" si="6">J$13*$R21*$A$2</f>
+        <f t="shared" ref="J19:O20" si="8">J$13*$R21*$A$2</f>
         <v>9.0643935989620045E-5</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.8229065697672357E-5</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0888359787679925E-4</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2130094742245771E-4</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0888155609604781E-4</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2403173264766241E-4</v>
       </c>
-      <c r="P19" s="162">
+      <c r="P19" s="148">
         <f>R21*$A$2</f>
         <v>1.5785156403648048E-4</v>
       </c>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="166"/>
+      <c r="S19" s="191"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="124"/>
-      <c r="Z19" s="185" t="s">
+      <c r="Z19" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="186"/>
+      <c r="AA19" s="196"/>
     </row>
     <row r="20" spans="2:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
-        <f>$H24*B$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E20" s="41">
-        <f>$H24*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>3.6831202091246298E-5</v>
       </c>
-      <c r="F20" s="176">
-        <f>H24*$A$2</f>
+      <c r="F20" s="157">
+        <f t="shared" si="6"/>
         <v>3.6831202091246298E-5</v>
       </c>
       <c r="J20" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6202092170089812E-5</v>
       </c>
       <c r="K20" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.1741916214271528E-5</v>
       </c>
       <c r="L20" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9523488292435908E-5</v>
       </c>
       <c r="M20" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.8592539742541075E-5</v>
       </c>
       <c r="N20" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9521997071252466E-5</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.0586977574503961E-5</v>
       </c>
-      <c r="P20" s="163">
+      <c r="P20" s="149">
         <f>R22*$A$2</f>
         <v>1.1528740094354014E-4</v>
       </c>
-      <c r="R20" s="179">
+      <c r="R20" s="185">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>3.732436847795777E-4</v>
       </c>
-      <c r="S20" s="180"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="Z20" s="193">
+      <c r="S20" s="186"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="Z20" s="199">
         <f>AB13*$Y$13</f>
         <v>0.13573639188263092</v>
       </c>
-      <c r="AA20" s="194"/>
+      <c r="AA20" s="200"/>
     </row>
     <row r="21" spans="2:28" ht="14.25">
       <c r="D21" s="31">
-        <f>$H25*B$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E21" s="41">
-        <f>$H25*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>1.652096306578819E-5</v>
       </c>
-      <c r="F21" s="176">
-        <f>H25*$A$2</f>
+      <c r="F21" s="157">
+        <f t="shared" si="6"/>
         <v>1.652096306578819E-5</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="R21" s="179">
+      <c r="I21" s="191"/>
+      <c r="R21" s="185">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>1.5785156403648048E-3</v>
       </c>
-      <c r="S21" s="180"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
+      <c r="S21" s="186"/>
+      <c r="Z21" s="203"/>
+      <c r="AA21" s="203"/>
     </row>
     <row r="22" spans="2:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
-        <f>$H26*B$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E22" s="41">
-        <f>$H26*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>3.5425739236799501E-5</v>
       </c>
-      <c r="F22" s="176">
-        <f>H26*$A$2</f>
+      <c r="F22" s="157">
+        <f t="shared" si="6"/>
         <v>3.5425739236799501E-5</v>
       </c>
-      <c r="H22" s="179">
+      <c r="H22" s="185">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>3.4938550353743133E-4</v>
       </c>
-      <c r="I22" s="180"/>
-      <c r="R22" s="181">
+      <c r="I22" s="186"/>
+      <c r="R22" s="187">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>1.1528740094354014E-3</v>
       </c>
-      <c r="S22" s="182"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="2:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
-        <f>$H27*B$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="44">
-        <f>$H27*C$13*$A$2</f>
+        <f t="shared" si="5"/>
         <v>1.9386214020434994E-5</v>
       </c>
-      <c r="F23" s="177">
-        <f>H27*$A$2</f>
+      <c r="F23" s="158">
+        <f t="shared" si="6"/>
         <v>1.9386214020434994E-5</v>
       </c>
-      <c r="H23" s="179">
-        <f t="shared" ref="H23:H27" si="7">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
+      <c r="H23" s="185">
+        <f t="shared" ref="H23:H27" si="9">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>3.1040323609868704E-4</v>
       </c>
-      <c r="I23" s="180"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="2:28" ht="14.25">
-      <c r="H24" s="179">
-        <f t="shared" si="7"/>
+      <c r="H24" s="185">
+        <f t="shared" si="9"/>
         <v>3.6831202091246293E-4</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="186"/>
+      <c r="J24" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="166"/>
-      <c r="T24" s="165" t="s">
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="191"/>
+      <c r="T24" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
     </row>
     <row r="25" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H25" s="179">
-        <f t="shared" si="7"/>
+      <c r="H25" s="185">
+        <f t="shared" si="9"/>
         <v>1.6520963065788191E-4</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>9.889275074123785E-2</v>
       </c>
       <c r="K25" s="124">
-        <f t="shared" ref="K25:O25" si="8">K4</f>
+        <f t="shared" ref="K25:O25" si="10">K4</f>
         <v>0.19875067603935512</v>
       </c>
       <c r="L25" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19870640323828229</v>
       </c>
       <c r="M25" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49848614085463672</v>
       </c>
       <c r="N25" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39865677458044152</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39847911245943196</v>
       </c>
       <c r="T25" s="42">
@@ -19437,42 +19437,42 @@
         <v>1.7190550719547872E-2</v>
       </c>
       <c r="U25" s="43">
-        <f t="shared" ref="U25:V26" si="9">U4</f>
+        <f t="shared" ref="U25:V25" si="11">U4</f>
         <v>0.10793012526074229</v>
       </c>
       <c r="V25" s="44">
+        <f t="shared" si="11"/>
+        <v>0.10320872524433958</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="13.5" thickBot="1">
+      <c r="H26" s="185">
         <f t="shared" si="9"/>
-        <v>0.10320872524433958</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H26" s="179">
-        <f t="shared" si="7"/>
         <v>3.5425739236799499E-4</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="124">
-        <f t="shared" ref="J26:O27" si="10">J5</f>
+        <f t="shared" ref="J26:O27" si="12">J5</f>
         <v>0.29848904713611996</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.49838459343886965</v>
       </c>
       <c r="L26" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89830612619397887</v>
       </c>
       <c r="M26" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.39827287619772639</v>
       </c>
       <c r="N26" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29820377704463091</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19813669921970023</v>
       </c>
       <c r="T26" s="124"/>
@@ -19480,63 +19480,63 @@
       <c r="V26" s="124"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1">
-      <c r="H27" s="181">
-        <f t="shared" si="7"/>
+      <c r="H27" s="187">
+        <f t="shared" si="9"/>
         <v>1.9386214020434992E-4</v>
       </c>
-      <c r="I27" s="182"/>
+      <c r="I27" s="188"/>
       <c r="J27" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.79884046239780848</v>
       </c>
       <c r="K27" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.39875772864382791</v>
       </c>
       <c r="L27" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19869886306773199</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.8663716036166957E-2</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89862037004338424</v>
       </c>
       <c r="O27" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.59856341866563223</v>
       </c>
-      <c r="Z27" s="165" t="s">
+      <c r="Z27" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="166"/>
+      <c r="AA27" s="191"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B28" s="199" t="s">
+      <c r="B28" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="200" t="s">
+      <c r="C28" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="173"/>
-      <c r="S28" s="166"/>
-      <c r="Z28" s="181">
+      <c r="R28" s="190"/>
+      <c r="S28" s="191"/>
+      <c r="Z28" s="187">
         <f>Z20</f>
         <v>0.13573639188263092</v>
       </c>
-      <c r="AA28" s="182"/>
+      <c r="AA28" s="188"/>
     </row>
     <row r="29" spans="2:28" ht="13.5" thickBot="1">
       <c r="B29" s="31">
@@ -19548,7 +19548,7 @@
       <c r="D29" s="41">
         <v>0</v>
       </c>
-      <c r="E29" s="163">
+      <c r="E29" s="149">
         <v>100</v>
       </c>
       <c r="Q29" s="42">
@@ -19585,19 +19585,19 @@
       <c r="D31" s="41">
         <v>1</v>
       </c>
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="166"/>
-      <c r="T31" s="165" t="s">
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="T31" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="173"/>
-      <c r="V31" s="166"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
     </row>
     <row r="32" spans="2:28" ht="13.5" thickBot="1">
       <c r="B32" s="42">
@@ -19614,23 +19614,23 @@
         <v>1.4290431308503922E-3</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" ref="K32:O32" si="11">K$25*$Q29+K$26*$R29+K$27*$S29</f>
+        <f t="shared" ref="K32:O32" si="13">K$25*$Q29+K$26*$R29+K$27*$S29</f>
         <v>1.3206077317524348E-3</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7212309351018209E-3</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.2848360212773452E-4</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6555115185597951E-3</v>
       </c>
       <c r="O32" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1515598992690162E-3</v>
       </c>
       <c r="T32" s="42">
@@ -19638,11 +19638,11 @@
         <v>2.3333833291467928E-3</v>
       </c>
       <c r="U32" s="43">
-        <f t="shared" ref="U32:V32" si="12">$Z$28*U25</f>
+        <f t="shared" ref="U32:V32" si="14">$Z$28*U25</f>
         <v>1.4650045778333559E-2</v>
       </c>
       <c r="V32" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.400917997547246E-2</v>
       </c>
       <c r="Z32" s="24"/>
@@ -19658,8 +19658,8 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="2:28">
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="190"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="2:28" ht="13.5" thickBot="1">
@@ -19668,19 +19668,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="165" t="s">
+      <c r="J36" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="166"/>
-      <c r="T36" s="165" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="191"/>
+      <c r="T36" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="173"/>
-      <c r="V36" s="166"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -19750,14 +19750,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="166"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -19877,6 +19877,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="Z21:AA21"/>
@@ -19893,47 +19934,6 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20085,118 +20085,118 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="R1" s="174" t="s">
+      <c r="I1" s="202"/>
+      <c r="R1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="Y1" s="174" t="s">
+      <c r="S1" s="202"/>
+      <c r="Y1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="174"/>
+      <c r="Z1" s="202"/>
     </row>
     <row r="2" spans="1:75" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="201"/>
+      <c r="H2" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="R2" s="164" t="s">
+      <c r="I2" s="201"/>
+      <c r="R2" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="201"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="164"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:75" ht="14.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="161" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="161" t="s">
+      <c r="R3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="161" t="s">
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="161" t="s">
+      <c r="X3" s="159"/>
+      <c r="Y3" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="175" t="s">
+      <c r="Z3" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AB3" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:75" ht="13.5" thickBot="1">
-      <c r="B4" s="162">
+      <c r="B4" s="148">
         <v>0</v>
       </c>
       <c r="C4" s="31">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="150">
         <v>2.8252223659820993E-2</v>
       </c>
-      <c r="E4" s="168">
+      <c r="E4" s="151">
         <v>9.0822246314849642E-2</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="154">
         <v>0.10419344287251209</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="148">
         <f>D4*$B$4+E4*$B$5+F4</f>
         <v>0.10419344287251209</v>
       </c>
@@ -20222,10 +20222,10 @@
       <c r="O4" s="41">
         <v>0.33474378233720753</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="148">
         <v>5.4530043155441854E-2</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="148">
         <f>J4*$I$4+K4*$I$5+L4*$I$6+M4*$I$7+N4*$I$8+O4*$I$9+P4</f>
         <v>0.67849283842440267</v>
       </c>
@@ -20242,10 +20242,10 @@
       <c r="V4" s="44">
         <v>0.26124572059594997</v>
       </c>
-      <c r="W4" s="163">
+      <c r="W4" s="149">
         <v>0.56167058246060253</v>
       </c>
-      <c r="Y4" s="163">
+      <c r="Y4" s="149">
         <f>T4*$S$4+U4*$S$5+V4*$S$6+W4</f>
         <v>0.93703694088861789</v>
       </c>
@@ -20254,10 +20254,10 @@
         <v>0.93703694088861789</v>
       </c>
       <c r="AA4" s="95"/>
-      <c r="AB4" s="163">
+      <c r="AB4" s="149">
         <v>1</v>
       </c>
-      <c r="AC4" s="162">
+      <c r="AC4" s="148">
         <f>Z4-AB4</f>
         <v>-6.2963059111382114E-2</v>
       </c>
@@ -20305,23 +20305,23 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="13.5" thickBot="1">
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="150">
         <v>0.2409258669617784</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="151">
         <v>0.21919977276036023</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="154">
         <v>0.1894916570072698</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="148">
         <f t="shared" ref="H5:H9" si="0">D5*$B$4+E5*$B$5+F5</f>
         <v>0.1894916570072698</v>
       </c>
@@ -20347,10 +20347,10 @@
       <c r="O5" s="41">
         <v>0.11739303972376121</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="148">
         <v>0.18578742255357655</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="148">
         <f t="shared" ref="R5:R6" si="2">J5*$I$4+K5*$I$5+L5*$I$6+M5*$I$7+N5*$I$8+O5*$I$9+P5</f>
         <v>0.85246252471355444</v>
       </c>
@@ -20358,16 +20358,16 @@
         <f t="shared" ref="S5:S6" si="3">MAX(0,R5)</f>
         <v>0.85246252471355444</v>
       </c>
-      <c r="T5" s="202">
+      <c r="T5" s="169">
         <v>0.3</v>
       </c>
-      <c r="U5" s="202">
+      <c r="U5" s="169">
         <v>0.5</v>
       </c>
-      <c r="V5" s="202">
+      <c r="V5" s="169">
         <v>0.9</v>
       </c>
-      <c r="W5" s="202">
+      <c r="W5" s="169">
         <v>0.2</v>
       </c>
       <c r="Y5" s="124"/>
@@ -20419,16 +20419,16 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="13.5" thickBot="1">
-      <c r="D6" s="167">
+      <c r="D6" s="150">
         <v>0.13209188725377499</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="151">
         <v>0.41360163636498715</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="154">
         <v>0.28000519313092448</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="148">
         <f t="shared" si="0"/>
         <v>0.28000519313092448</v>
       </c>
@@ -20454,10 +20454,10 @@
       <c r="O6" s="44">
         <v>0.50608799462211163</v>
       </c>
-      <c r="P6" s="163">
+      <c r="P6" s="149">
         <v>0.31689576902260552</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="149">
         <f t="shared" si="2"/>
         <v>1.2216066612300076</v>
       </c>
@@ -20513,16 +20513,16 @@
       </c>
     </row>
     <row r="7" spans="1:75">
-      <c r="D7" s="167">
+      <c r="D7" s="150">
         <v>0.65896952176973</v>
       </c>
-      <c r="E7" s="168">
+      <c r="E7" s="151">
         <v>0.75602856831118204</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="154">
         <v>0.37034499559233164</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="148">
         <f t="shared" si="0"/>
         <v>0.37034499559233164</v>
       </c>
@@ -20571,16 +20571,16 @@
       </c>
     </row>
     <row r="8" spans="1:75">
-      <c r="D8" s="167">
+      <c r="D8" s="150">
         <v>0.11211488520201551</v>
       </c>
-      <c r="E8" s="168">
+      <c r="E8" s="151">
         <v>0.17195535095074815</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="154">
         <v>0.49172642670792277</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="148">
         <f t="shared" si="0"/>
         <v>0.49172642670792277</v>
       </c>
@@ -20627,16 +20627,16 @@
       </c>
     </row>
     <row r="9" spans="1:75" ht="13.5" thickBot="1">
-      <c r="D9" s="169">
+      <c r="D9" s="152">
         <v>0.43981009001494425</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="153">
         <v>0.61712467500534507</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="155">
         <v>0.58661251182869223</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="149">
         <f t="shared" si="0"/>
         <v>0.58661251182869223</v>
       </c>
@@ -20687,41 +20687,41 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:75" ht="15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="165" t="s">
+      <c r="C12" s="191"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="173" t="s">
+      <c r="I12" s="191"/>
+      <c r="J12" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="166"/>
-      <c r="R12" s="185" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="R12" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="165" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="166"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="185" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="191"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="186"/>
-      <c r="AB12" s="165" t="s">
+      <c r="Z12" s="196"/>
+      <c r="AB12" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="166"/>
+      <c r="AC12" s="191"/>
     </row>
     <row r="13" spans="1:75" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -20732,11 +20732,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="179">
+      <c r="H13" s="185">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="180"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.10419344287251209</v>
@@ -20761,11 +20761,11 @@
         <f>I9</f>
         <v>0.58661251182869223</v>
       </c>
-      <c r="R13" s="179">
+      <c r="R13" s="185">
         <f>IF(R4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="180"/>
+      <c r="S13" s="186"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.67849283842440267</v>
@@ -20778,128 +20778,128 @@
         <f>S6</f>
         <v>1.2216066612300076</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="185">
         <f>IF(Y4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="180"/>
-      <c r="AB13" s="181">
+      <c r="Z13" s="186"/>
+      <c r="AB13" s="187">
         <f>AC4</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AC13" s="182"/>
+      <c r="AC13" s="188"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="H14" s="179">
+      <c r="H14" s="185">
         <f t="shared" ref="H14:H18" si="13">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="180"/>
-      <c r="R14" s="179">
+      <c r="I14" s="186"/>
+      <c r="R14" s="185">
         <f t="shared" ref="R14:R15" si="14">IF(R5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="180"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
+      <c r="S14" s="186"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
       <c r="AB14" s="124"/>
       <c r="AC14" s="124"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="H15" s="179">
+      <c r="H15" s="185">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I15" s="180"/>
-      <c r="R15" s="179">
+      <c r="I15" s="186"/>
+      <c r="R15" s="185">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S15" s="180"/>
+      <c r="S15" s="186"/>
     </row>
     <row r="16" spans="1:75" ht="13.5" thickBot="1">
-      <c r="H16" s="179">
+      <c r="H16" s="185">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I16" s="180"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="2:28" ht="14.25">
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="191" t="s">
+      <c r="E17" s="193"/>
+      <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="179">
+      <c r="H17" s="185">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="188" t="s">
+      <c r="I17" s="186"/>
+      <c r="J17" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="191" t="s">
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="191" t="s">
+      <c r="U17" s="194"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.5" thickBot="1">
       <c r="D18" s="31">
-        <f>$H22*B$13*$A$2</f>
+        <f t="shared" ref="D18:E23" si="15">$H22*B$13*$A$2</f>
         <v>0</v>
       </c>
       <c r="E18" s="41">
-        <f>$H22*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="176">
-        <f>H22*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="157">
+        <f t="shared" ref="F18:F23" si="16">H22*$A$2</f>
         <v>-1.4105211867637612E-3</v>
       </c>
-      <c r="H18" s="179">
+      <c r="H18" s="185">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I18" s="180"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>8.2903206866197511E-6</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:O18" si="15">K$13*$R20*$A$2</f>
+        <f t="shared" ref="K18:O18" si="17">K$13*$R20*$A$2</f>
         <v>1.507721177762967E-5</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.2279068442095478E-5</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.9467101705257085E-5</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.912501262178532E-5</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6674778256380782E-5</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P18" s="148">
         <f>R20*$A$2</f>
         <v>7.9566625864964784E-5</v>
       </c>
@@ -20915,235 +20915,235 @@
         <f>V$13*$Z20*$A$2</f>
         <v>-7.6916092421883122E-3</v>
       </c>
-      <c r="W18" s="163">
+      <c r="W18" s="149">
         <f>Z20*$A$2</f>
         <v>-6.2963059111382121E-3</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="14.25">
       <c r="D19" s="31">
-        <f>$H23*B$13*$A$2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E19" s="41">
-        <f>$H23*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="176">
-        <f>H23*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="157">
+        <f t="shared" si="16"/>
         <v>-7.9288668593236128E-4</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" ref="J19:O20" si="16">J$13*$R21*$A$2</f>
+        <f t="shared" ref="J19:O20" si="18">J$13*$R21*$A$2</f>
         <v>-4.9869211644622597E-5</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.0694762430955036E-5</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.340164779363801E-4</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.7725504079290941E-4</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.3535079145772905E-4</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.8076530249185555E-4</v>
       </c>
-      <c r="P19" s="162">
+      <c r="P19" s="148">
         <f>R21*$A$2</f>
         <v>-4.7862140140278345E-4</v>
       </c>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="166"/>
+      <c r="S19" s="191"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="124"/>
-      <c r="Z19" s="185" t="s">
+      <c r="Z19" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="186"/>
+      <c r="AA19" s="196"/>
     </row>
     <row r="20" spans="2:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
-        <f>$H24*B$13*$A$2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E20" s="41">
-        <f>$H24*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="176">
-        <f>H24*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="157">
+        <f t="shared" si="16"/>
         <v>-6.3019301876539107E-4</v>
       </c>
       <c r="J20" s="79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.713860202717763E-4</v>
       </c>
       <c r="K20" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-3.1169160048696479E-4</v>
       </c>
       <c r="L20" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-4.6057577505003941E-4</v>
       </c>
       <c r="M20" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-6.0917417806992521E-4</v>
       </c>
       <c r="N20" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-8.0883242757462707E-4</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.6490893353974377E-4</v>
       </c>
-      <c r="P20" s="163">
+      <c r="P20" s="149">
         <f>R22*$A$2</f>
         <v>-1.6448829748478414E-3</v>
       </c>
-      <c r="R20" s="179">
+      <c r="R20" s="185">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>7.9566625864964781E-4</v>
       </c>
-      <c r="S20" s="180"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="Z20" s="193">
+      <c r="S20" s="186"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="Z20" s="199">
         <f>AB13*$Y$13</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AA20" s="194"/>
+      <c r="AA20" s="200"/>
     </row>
     <row r="21" spans="2:28" ht="14.25">
       <c r="D21" s="31">
-        <f>$H25*B$13*$A$2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E21" s="41">
-        <f>$H25*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="176">
-        <f>H25*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="157">
+        <f t="shared" si="16"/>
         <v>-7.1415500629146096E-5</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="R21" s="179">
+      <c r="I21" s="191"/>
+      <c r="R21" s="185">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>-4.786214014027834E-3</v>
       </c>
-      <c r="S21" s="180"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
+      <c r="S21" s="186"/>
+      <c r="Z21" s="203"/>
+      <c r="AA21" s="203"/>
     </row>
     <row r="22" spans="2:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
-        <f>$H26*B$13*$A$2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E22" s="41">
-        <f>$H26*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="176">
-        <f>H26*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="157">
+        <f t="shared" si="16"/>
         <v>-1.5288971078652454E-3</v>
       </c>
-      <c r="H22" s="179">
+      <c r="H22" s="185">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>-1.4105211867637612E-2</v>
       </c>
-      <c r="I22" s="180"/>
-      <c r="R22" s="181">
+      <c r="I22" s="186"/>
+      <c r="R22" s="187">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>-1.6448829748478413E-2</v>
       </c>
-      <c r="S22" s="182"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="2:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
-        <f>$H27*B$13*$A$2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E23" s="44">
-        <f>$H27*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="177">
-        <f>H27*$A$2</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="158">
+        <f t="shared" si="16"/>
         <v>-8.6200791402646869E-4</v>
       </c>
-      <c r="H23" s="179">
-        <f t="shared" ref="H23:H27" si="17">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
+      <c r="H23" s="185">
+        <f t="shared" ref="H23:H27" si="19">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>-7.928866859323612E-3</v>
       </c>
-      <c r="I23" s="180"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="2:28" ht="14.25">
-      <c r="H24" s="179">
-        <f t="shared" si="17"/>
+      <c r="H24" s="185">
+        <f t="shared" si="19"/>
         <v>-6.3019301876539105E-3</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="186"/>
+      <c r="J24" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="166"/>
-      <c r="T24" s="165" t="s">
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="191"/>
+      <c r="T24" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
     </row>
     <row r="25" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H25" s="179">
-        <f t="shared" si="17"/>
+      <c r="H25" s="185">
+        <f t="shared" si="19"/>
         <v>-7.1415500629146091E-4</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>8.7981863334530924E-2</v>
       </c>
       <c r="K25" s="124">
-        <f t="shared" ref="K25:O25" si="18">K4</f>
+        <f t="shared" ref="K25:O25" si="20">K4</f>
         <v>0.17292367030626837</v>
       </c>
       <c r="L25" s="124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.1656007091916176</v>
       </c>
       <c r="M25" s="124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.43309791033555689</v>
       </c>
       <c r="N25" s="124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.36381708659313766</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.33474378233720753</v>
       </c>
       <c r="T25" s="42">
@@ -21151,42 +21151,42 @@
         <v>-1.2637033045711905E-2</v>
       </c>
       <c r="U25" s="43">
-        <f t="shared" ref="U25:V25" si="19">U4</f>
+        <f t="shared" ref="U25:V25" si="21">U4</f>
         <v>7.6016224141222014E-2</v>
       </c>
       <c r="V25" s="44">
+        <f t="shared" si="21"/>
+        <v>0.26124572059594997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="13.5" thickBot="1">
+      <c r="H26" s="185">
         <f t="shared" si="19"/>
-        <v>0.26124572059594997</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H26" s="179">
-        <f t="shared" si="17"/>
         <v>-1.5288971078652453E-2</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="124">
-        <f t="shared" ref="J26:O27" si="20">J5</f>
+        <f t="shared" ref="J26:O27" si="22">J5</f>
         <v>0.2827492824853573</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.46240360138784364</v>
       </c>
       <c r="L26" s="124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.85291179078485257</v>
       </c>
       <c r="M26" s="124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.30095748280756229</v>
       </c>
       <c r="N26" s="124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2652914201471378</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.11739303972376121</v>
       </c>
       <c r="T26" s="124"/>
@@ -21194,66 +21194,66 @@
       <c r="V26" s="124"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1">
-      <c r="H27" s="181">
-        <f t="shared" si="17"/>
+      <c r="H27" s="187">
+        <f t="shared" si="19"/>
         <v>-8.6200791402646863E-3</v>
       </c>
-      <c r="I27" s="182"/>
+      <c r="I27" s="188"/>
       <c r="J27" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.77950332549124801</v>
       </c>
       <c r="K27" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35584864586188475</v>
       </c>
       <c r="L27" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14295696134854927</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-2.3204722003902407E-2</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.86989206920260509</v>
       </c>
       <c r="O27" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.50608799462211163</v>
       </c>
-      <c r="Z27" s="165" t="s">
+      <c r="Z27" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="166"/>
+      <c r="AA27" s="191"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B28" s="199" t="s">
+      <c r="B28" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="200" t="s">
+      <c r="C28" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="203" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="165" t="s">
+      <c r="F28" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="173"/>
-      <c r="S28" s="166"/>
-      <c r="Z28" s="181">
+      <c r="R28" s="190"/>
+      <c r="S28" s="191"/>
+      <c r="Z28" s="187">
         <f>Z20</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AA28" s="182"/>
+      <c r="AA28" s="188"/>
     </row>
     <row r="29" spans="2:28" ht="13.5" thickBot="1">
       <c r="B29" s="31">
@@ -21265,10 +21265,10 @@
       <c r="D29" s="41">
         <v>1</v>
       </c>
-      <c r="E29" s="163">
+      <c r="E29" s="149">
         <v>100</v>
       </c>
-      <c r="F29" s="163">
+      <c r="F29" s="149">
         <v>2</v>
       </c>
       <c r="Q29" s="42">
@@ -21305,19 +21305,19 @@
       <c r="D31" s="41">
         <v>1</v>
       </c>
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="166"/>
-      <c r="T31" s="165" t="s">
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="T31" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="173"/>
-      <c r="V31" s="166"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
     </row>
     <row r="32" spans="2:28" ht="13.5" thickBot="1">
       <c r="B32" s="42">
@@ -21334,23 +21334,23 @@
         <v>-1.4105211867637612E-2</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" ref="K32:O32" si="21">K$25*$Q29+K$26*$R29+K$27*$S29</f>
+        <f t="shared" ref="K32:O32" si="23">K$25*$Q29+K$26*$R29+K$27*$S29</f>
         <v>-7.928866859323612E-3</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-6.3019301876539105E-3</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-7.1415500629146091E-4</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-1.5288971078652453E-2</v>
       </c>
       <c r="O32" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-8.6200791402646863E-3</v>
       </c>
       <c r="T32" s="42">
@@ -21358,11 +21358,11 @@
         <v>7.9566625864964781E-4</v>
       </c>
       <c r="U32" s="43">
-        <f t="shared" ref="U32:V32" si="22">$Z$28*U25</f>
+        <f t="shared" ref="U32:V32" si="24">$Z$28*U25</f>
         <v>-4.786214014027834E-3</v>
       </c>
       <c r="V32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.6448829748478413E-2</v>
       </c>
       <c r="Z32" s="24"/>
@@ -21387,8 +21387,8 @@
       <c r="D34" s="41">
         <v>0</v>
       </c>
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="190"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="2:28" ht="13.5" thickBot="1">
@@ -21415,19 +21415,19 @@
       <c r="D36" s="41">
         <v>1</v>
       </c>
-      <c r="J36" s="165" t="s">
+      <c r="J36" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="166"/>
-      <c r="T36" s="165" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="191"/>
+      <c r="T36" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="173"/>
-      <c r="V36" s="166"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -21506,14 +21506,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="166"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -21633,27 +21633,33 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="Z21:AA21"/>
@@ -21663,33 +21669,27 @@
     <mergeCell ref="T17:V17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="R19:S19"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21841,120 +21841,120 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="R1" s="174" t="s">
+      <c r="I1" s="202"/>
+      <c r="R1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="Y1" s="174" t="s">
+      <c r="S1" s="202"/>
+      <c r="Y1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="174"/>
+      <c r="Z1" s="202"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="201"/>
+      <c r="H2" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="R2" s="164" t="s">
+      <c r="I2" s="201"/>
+      <c r="R2" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="201"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="164"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="161" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="161" t="s">
+      <c r="R3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="161" t="s">
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="161" t="s">
+      <c r="X3" s="159"/>
+      <c r="Y3" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="175" t="s">
+      <c r="Z3" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AB3" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="162"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="31">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="150">
         <v>9.785893288485456E-2</v>
       </c>
-      <c r="E4" s="168">
+      <c r="E4" s="151">
         <v>0.19709395012572287</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="154">
         <v>0.11614338678723476</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="148">
         <f>D4*$B$4+E4*$B$5+F4</f>
         <v>0.11614338678723476</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="157">
         <f>1/(1+EXP(-H4))</f>
         <v>0.52900325126094483</v>
       </c>
@@ -21976,14 +21976,14 @@
       <c r="O4" s="41">
         <v>0.50649284942577644</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="148">
         <v>0.25594688125614312</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="148">
         <f>J4*$I$4+K4*$I$5+L4*$I$6+M4*$I$7+N4*$I$8+O4*$I$9+P4</f>
         <v>1.6928831300951528</v>
       </c>
-      <c r="S4" s="176">
+      <c r="S4" s="157">
         <f>1/(1+EXP(-R4))</f>
         <v>0.84460294334675412</v>
       </c>
@@ -21996,20 +21996,20 @@
       <c r="V4" s="41">
         <v>-0.90665082460694657</v>
       </c>
-      <c r="W4" s="162">
+      <c r="W4" s="148">
         <v>-1.1633119397328007</v>
       </c>
-      <c r="Y4" s="162">
+      <c r="Y4" s="148">
         <f>T4*$S$4+U4*$S$5+V4*$S$6+W4</f>
         <v>-3.5136023227807649</v>
       </c>
-      <c r="Z4" s="176">
+      <c r="Z4" s="157">
         <f>1/(1+EXP(-Y4))</f>
         <v>2.892767158546555E-2</v>
       </c>
       <c r="AA4" s="95"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162">
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148">
         <f>Z4-AB4</f>
         <v>2.892767158546555E-2</v>
       </c>
@@ -22019,25 +22019,25 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" thickBot="1">
-      <c r="B5" s="163"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="42">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="150">
         <v>0.30094811842367986</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="151">
         <v>0.30027374003701757</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="154">
         <v>0.22230208735744189</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="148">
         <f t="shared" ref="H5:H9" si="0">D5*$B$4+E5*$B$5+F5</f>
         <v>0.22230208735744189</v>
       </c>
-      <c r="I5" s="176">
+      <c r="I5" s="157">
         <f t="shared" ref="I5:I9" si="1">1/(1+EXP(-H5))</f>
         <v>0.55534777697636872</v>
       </c>
@@ -22059,14 +22059,14 @@
       <c r="O5" s="41">
         <v>0.25658834613378445</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="148">
         <v>0.28385426455270607</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="148">
         <f t="shared" ref="R5:R6" si="2">J5*$I$4+K5*$I$5+L5*$I$6+M5*$I$7+N5*$I$8+O5*$I$9+P5</f>
         <v>1.9862298974665473</v>
       </c>
-      <c r="S5" s="176">
+      <c r="S5" s="157">
         <f t="shared" ref="S5:S6" si="3">1/(1+EXP(-R5))</f>
         <v>0.87934370759212865</v>
       </c>
@@ -22079,41 +22079,41 @@
       <c r="V5" s="44">
         <v>-0.59701369778775937</v>
       </c>
-      <c r="W5" s="163">
+      <c r="W5" s="149">
         <v>-1.4702591774836333</v>
       </c>
-      <c r="Y5" s="163">
+      <c r="Y5" s="149">
         <f>T5*$S$4+U5*$S$5+V5*$S$6+W5</f>
         <v>-3.7319618688491154</v>
       </c>
-      <c r="Z5" s="177">
+      <c r="Z5" s="158">
         <f>1/(1+EXP(-Y5))</f>
         <v>2.3385818781763917E-2</v>
       </c>
       <c r="AA5" s="95"/>
-      <c r="AB5" s="163">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="162">
+      <c r="AB5" s="149">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="148">
         <f>Z5-AB5</f>
         <v>2.3385818781763917E-2</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D6" s="167">
+      <c r="D6" s="150">
         <v>0.20303537942776004</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="151">
         <v>0.50159574771138271</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="154">
         <v>0.32914184576684191</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="148">
         <f t="shared" si="0"/>
         <v>0.32914184576684191</v>
       </c>
-      <c r="I6" s="176">
+      <c r="I6" s="157">
         <f t="shared" si="1"/>
         <v>0.58155056005942429</v>
       </c>
@@ -22135,33 +22135,33 @@
       <c r="O6" s="44">
         <v>0.60813669078246457</v>
       </c>
-      <c r="P6" s="163">
+      <c r="P6" s="149">
         <v>0.31858183339121005</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="149">
         <f t="shared" si="2"/>
         <v>2.1257876882046389</v>
       </c>
-      <c r="S6" s="177">
+      <c r="S6" s="158">
         <f t="shared" si="3"/>
         <v>0.89338445555959478</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="D7" s="167">
+      <c r="D7" s="150">
         <v>0.70278557649419626</v>
       </c>
-      <c r="E7" s="168">
+      <c r="E7" s="151">
         <v>0.80231539951596909</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="154">
         <v>0.4280457868063135</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="148">
         <f t="shared" si="0"/>
         <v>0.4280457868063135</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="157">
         <f t="shared" si="1"/>
         <v>0.60540692394489848</v>
       </c>
@@ -22169,39 +22169,39 @@
       <c r="Y7" s="124"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="D8" s="167">
+      <c r="D8" s="150">
         <v>0.19976645236230389</v>
       </c>
-      <c r="E8" s="168">
+      <c r="E8" s="151">
         <v>0.29893738807867437</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="154">
         <v>0.52710733356664718</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="148">
         <f t="shared" si="0"/>
         <v>0.52710733356664718</v>
       </c>
-      <c r="I8" s="176">
+      <c r="I8" s="157">
         <f t="shared" si="1"/>
         <v>0.62880819112464759</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D9" s="169">
+      <c r="D9" s="152">
         <v>0.50100316894414065</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="153">
         <v>0.70039775392601245</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="155">
         <v>0.6231584657099668</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="149">
         <f t="shared" si="0"/>
         <v>0.6231584657099668</v>
       </c>
-      <c r="I9" s="177">
+      <c r="I9" s="158">
         <f t="shared" si="1"/>
         <v>0.65093655102809744</v>
       </c>
@@ -22214,44 +22214,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="165" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="173" t="s">
+      <c r="I12" s="191"/>
+      <c r="J12" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="166"/>
-      <c r="R12" s="185" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="R12" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="165" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="166"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="165" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="191"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="166"/>
-      <c r="AB12" s="165" t="s">
+      <c r="Z12" s="191"/>
+      <c r="AB12" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="166"/>
+      <c r="AC12" s="191"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -22262,11 +22262,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="192">
+      <c r="H13" s="197">
         <f>I4*(1-I4)</f>
         <v>0.24915881141629451</v>
       </c>
-      <c r="I13" s="184"/>
+      <c r="I13" s="198"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.52900325126094483</v>
@@ -22291,11 +22291,11 @@
         <f>I9</f>
         <v>0.65093655102809744</v>
       </c>
-      <c r="R13" s="192">
+      <c r="R13" s="197">
         <f>S4*(1-S4)</f>
         <v>0.13124881143675377</v>
       </c>
-      <c r="S13" s="184"/>
+      <c r="S13" s="198"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.84460294334675412</v>
@@ -22308,11 +22308,11 @@
         <f>S6</f>
         <v>0.89338445555959478</v>
       </c>
-      <c r="Y13" s="192">
+      <c r="Y13" s="197">
         <f>Z4*(1-Z4)</f>
         <v>2.8090861402109001E-2</v>
       </c>
-      <c r="Z13" s="184"/>
+      <c r="Z13" s="198"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>2.892767158546555E-2</v>
@@ -22322,21 +22322,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="192">
+      <c r="H14" s="197">
         <f t="shared" ref="H14:H18" si="4">I5*(1-I5)</f>
         <v>0.24693662358377416</v>
       </c>
-      <c r="I14" s="184"/>
-      <c r="R14" s="192">
+      <c r="I14" s="198"/>
+      <c r="R14" s="197">
         <f t="shared" ref="R14:R15" si="5">S5*(1-S5)</f>
         <v>0.10609835151025759</v>
       </c>
-      <c r="S14" s="184"/>
-      <c r="Y14" s="193">
+      <c r="S14" s="198"/>
+      <c r="Y14" s="199">
         <f>Z5*(1-Z5)</f>
         <v>2.2838922261670416E-2</v>
       </c>
-      <c r="Z14" s="194"/>
+      <c r="Z14" s="200"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -22347,100 +22347,100 @@
     </row>
     <row r="15" spans="1:30" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="192">
+      <c r="H15" s="197">
         <f t="shared" si="4"/>
         <v>0.24334950615399423</v>
       </c>
-      <c r="I15" s="184"/>
-      <c r="R15" s="193">
+      <c r="I15" s="198"/>
+      <c r="R15" s="199">
         <f t="shared" si="5"/>
         <v>9.5248670124081197E-2</v>
       </c>
-      <c r="S15" s="194"/>
+      <c r="S15" s="200"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="192">
+      <c r="H16" s="197">
         <f t="shared" si="4"/>
         <v>0.23888938038447438</v>
       </c>
-      <c r="I16" s="184"/>
+      <c r="I16" s="198"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="191" t="s">
+      <c r="E17" s="193"/>
+      <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="192">
+      <c r="H17" s="197">
         <f t="shared" si="4"/>
         <v>0.23340844989919626</v>
       </c>
-      <c r="I17" s="184"/>
-      <c r="J17" s="188" t="s">
+      <c r="I17" s="198"/>
+      <c r="J17" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="191" t="s">
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="191" t="s">
+      <c r="U17" s="194"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="4:28" ht="13.5" thickBot="1">
       <c r="D18" s="31">
-        <f>$H22*B$13*$A$2</f>
+        <f t="shared" ref="D18:E23" si="6">$H22*B$13*$A$2</f>
         <v>0</v>
       </c>
       <c r="E18" s="41">
-        <f>$H22*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="176">
-        <f>H22*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="157">
+        <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>-3.9217980156595003E-6</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="199">
         <f t="shared" si="4"/>
         <v>0.22721815756374253</v>
       </c>
-      <c r="I18" s="194"/>
+      <c r="I18" s="200"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>-9.027885434334832E-6</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:O18" si="6">K$13*$R20*$A$2</f>
+        <f t="shared" ref="K18:O18" si="8">K$13*$R20*$A$2</f>
         <v>-9.4774769243943464E-6</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-9.9246494572109078E-6</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.0331778372816808E-5</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.0731140680351706E-5</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.1108779754557568E-5</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P18" s="148">
         <f>R20*$A$2</f>
         <v>-1.7065841113104219E-5</v>
       </c>
@@ -22449,257 +22449,257 @@
         <v>6.8632706563587115E-5</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" ref="U18:V19" si="7">U$13*$Z20*$A$2</f>
+        <f t="shared" ref="U18:V19" si="9">U$13*$Z20*$A$2</f>
         <v>7.1455752229044434E-5</v>
       </c>
       <c r="V18" s="78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2596707920444088E-5</v>
       </c>
-      <c r="W18" s="162">
+      <c r="W18" s="148">
         <f>Z20*$A$2</f>
         <v>8.1260321319303946E-5</v>
       </c>
     </row>
     <row r="19" spans="4:28" ht="15" thickBot="1">
       <c r="D19" s="31">
-        <f>$H23*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E19" s="41">
-        <f>$H23*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="176">
-        <f>H23*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="157">
+        <f t="shared" si="7"/>
         <v>-3.9886017964729345E-6</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" ref="J19:O20" si="8">J$13*$R21*$A$2</f>
+        <f t="shared" ref="J19:O20" si="10">J$13*$R21*$A$2</f>
         <v>-6.8714488807910892E-6</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-7.2136491627567029E-6</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-7.55400828920914E-6</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-7.8638887758221131E-6</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-8.1678578171996312E-6</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-8.4552925229974947E-6</v>
       </c>
-      <c r="P19" s="162">
+      <c r="P19" s="148">
         <f>R21*$A$2</f>
         <v>-1.2989426557232191E-5</v>
       </c>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="166"/>
+      <c r="S19" s="191"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>4.5110825742190357E-5</v>
       </c>
       <c r="U19" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6966353921873949E-5</v>
       </c>
       <c r="V19" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7716279954976039E-5</v>
       </c>
-      <c r="W19" s="163">
+      <c r="W19" s="149">
         <f>Z21*$A$2</f>
         <v>5.3410689718221811E-5</v>
       </c>
-      <c r="Z19" s="185" t="s">
+      <c r="Z19" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="186"/>
+      <c r="AA19" s="196"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
-        <f>$H24*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E20" s="41">
-        <f>$H24*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="176">
-        <f>H24*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="157">
+        <f t="shared" si="7"/>
         <v>-4.7312192554681024E-6</v>
       </c>
       <c r="J20" s="79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.3189197114054214E-6</v>
       </c>
       <c r="K20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.5838035600044444E-6</v>
       </c>
       <c r="L20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.8472622421617621E-6</v>
       </c>
       <c r="M20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.0871286017927293E-6</v>
       </c>
       <c r="N20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.3224191429709632E-6</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.5449111019352651E-6</v>
       </c>
-      <c r="P20" s="163">
+      <c r="P20" s="149">
         <f>R22*$A$2</f>
         <v>-1.0054606845472342E-5</v>
       </c>
-      <c r="R20" s="179">
+      <c r="R20" s="185">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>-1.7065841113104218E-4</v>
       </c>
-      <c r="S20" s="180"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="Z20" s="192">
+      <c r="S20" s="186"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="Z20" s="197">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>8.1260321319303946E-4</v>
       </c>
-      <c r="AA20" s="184"/>
+      <c r="AA20" s="198"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
-        <f>$H25*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E21" s="41">
-        <f>$H25*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="176">
-        <f>H25*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="157">
+        <f t="shared" si="7"/>
         <v>-4.1133148555290918E-6</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="R21" s="179">
+      <c r="I21" s="191"/>
+      <c r="R21" s="185">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>-1.2989426557232189E-4</v>
       </c>
-      <c r="S21" s="180"/>
-      <c r="Z21" s="193">
+      <c r="S21" s="186"/>
+      <c r="Z21" s="199">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>5.3410689718221807E-4</v>
       </c>
-      <c r="AA21" s="194"/>
+      <c r="AA21" s="200"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
-        <f>$H26*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E22" s="41">
-        <f>$H26*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="176">
-        <f>H26*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="157">
+        <f t="shared" si="7"/>
         <v>-5.1975795672635807E-6</v>
       </c>
-      <c r="H22" s="179">
+      <c r="H22" s="185">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>-3.9217980156595001E-5</v>
       </c>
-      <c r="I22" s="180"/>
-      <c r="R22" s="181">
+      <c r="I22" s="186"/>
+      <c r="R22" s="187">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>-1.0054606845472341E-4</v>
       </c>
-      <c r="S22" s="182"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
-        <f>$H27*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E23" s="44">
-        <f>$H27*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="177">
-        <f>H27*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="158">
+        <f t="shared" si="7"/>
         <v>-4.1106576084665634E-6</v>
       </c>
-      <c r="H23" s="179">
-        <f t="shared" ref="H23:H27" si="9">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
+      <c r="H23" s="185">
+        <f t="shared" ref="H23:H27" si="11">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>-3.9886017964729345E-5</v>
       </c>
-      <c r="I23" s="180"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="179">
-        <f t="shared" si="9"/>
+      <c r="H24" s="185">
+        <f t="shared" si="11"/>
         <v>-4.7312192554681019E-5</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="186"/>
+      <c r="J24" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="166"/>
-      <c r="T24" s="165" t="s">
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="191"/>
+      <c r="T24" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="179">
-        <f t="shared" si="9"/>
+      <c r="H25" s="185">
+        <f t="shared" si="11"/>
         <v>-4.113314855529092E-5</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.18373328495841096</v>
       </c>
       <c r="K25" s="124">
-        <f t="shared" ref="K25:O25" si="10">K4</f>
+        <f t="shared" ref="K25:O25" si="12">K4</f>
         <v>0.2895829276321758</v>
       </c>
       <c r="L25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29398723378629299</v>
       </c>
       <c r="M25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.60096410484009088</v>
       </c>
       <c r="N25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50004203819460624</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50649284942577644</v>
       </c>
       <c r="T25" s="31">
@@ -22707,42 +22707,42 @@
         <v>-0.90986190735561168</v>
       </c>
       <c r="U25" s="124">
-        <f t="shared" ref="U25:V26" si="11">U4</f>
+        <f t="shared" ref="U25:V26" si="13">U4</f>
         <v>-0.87773481298417499</v>
       </c>
       <c r="V25" s="41">
+        <f t="shared" si="13"/>
+        <v>-0.90665082460694657</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" ht="13.5" thickBot="1">
+      <c r="H26" s="185">
         <f t="shared" si="11"/>
-        <v>-0.90665082460694657</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="179">
-        <f t="shared" si="9"/>
         <v>-5.19757956726358E-5</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="124">
-        <f t="shared" ref="J26:O27" si="12">J5</f>
+        <f t="shared" ref="J26:O27" si="14">J5</f>
         <v>0.34457570224018663</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54744465863304559</v>
       </c>
       <c r="L26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94963626420564473</v>
       </c>
       <c r="M26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.45370290228381294</v>
       </c>
       <c r="N26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.3532280308120288</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.25658834613378445</v>
       </c>
       <c r="T26" s="42">
@@ -22750,55 +22750,55 @@
         <v>-1.0501823311518896</v>
       </c>
       <c r="U26" s="43">
+        <f t="shared" si="13"/>
+        <v>-0.95679634572918626</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" si="13"/>
+        <v>-0.59701369778775937</v>
+      </c>
+    </row>
+    <row r="27" spans="4:28" ht="15.75" thickBot="1">
+      <c r="H27" s="187">
         <f t="shared" si="11"/>
-        <v>-0.95679634572918626</v>
-      </c>
-      <c r="V26" s="44">
-        <f t="shared" si="11"/>
-        <v>-0.59701369778775937</v>
-      </c>
-    </row>
-    <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="181">
-        <f t="shared" si="9"/>
         <v>-4.110657608466563E-5</v>
       </c>
-      <c r="I27" s="182"/>
+      <c r="I27" s="188"/>
       <c r="J27" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.80846025233978436</v>
       </c>
       <c r="K27" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.40770976873847825</v>
       </c>
       <c r="L27" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.20783554376349014</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10633866018042422</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90966308817189845</v>
       </c>
       <c r="O27" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.60813669078246457</v>
       </c>
-      <c r="Z27" s="165" t="s">
+      <c r="Z27" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="166"/>
+      <c r="AA27" s="191"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="173"/>
-      <c r="S28" s="166"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="191"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>8.1260321319303946E-4</v>
@@ -22824,19 +22824,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="166"/>
-      <c r="T31" s="165" t="s">
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="T31" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="173"/>
-      <c r="V31" s="166"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -22844,23 +22844,23 @@
         <v>-1.5740153813412444E-4</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" ref="K32:O32" si="13">K$25*$Q29+K$26*$R29+K$27*$S29</f>
+        <f t="shared" ref="K32:O32" si="15">K$25*$Q29+K$26*$R29+K$27*$S29</f>
         <v>-1.6152329851225111E-4</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.944207461211832E-4</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7218491876487029E-4</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.2268172251297221E-4</v>
       </c>
       <c r="O32" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.8091237304894447E-4</v>
       </c>
       <c r="T32" s="42">
@@ -22888,8 +22888,8 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="2:28">
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="190"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="2:28" ht="13.5" thickBot="1">
@@ -22898,19 +22898,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="165" t="s">
+      <c r="J36" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="166"/>
-      <c r="T36" s="165" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="191"/>
+      <c r="T36" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="173"/>
-      <c r="V36" s="166"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -22980,14 +22980,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="166"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -23107,24 +23107,35 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="T17:V17"/>
     <mergeCell ref="H18:I18"/>
@@ -23133,35 +23144,24 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23291,122 +23291,122 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="R1" s="174" t="s">
+      <c r="I1" s="202"/>
+      <c r="R1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="Y1" s="174" t="s">
+      <c r="S1" s="202"/>
+      <c r="Y1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="174"/>
+      <c r="Z1" s="202"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="201"/>
+      <c r="H2" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="R2" s="164" t="s">
+      <c r="I2" s="201"/>
+      <c r="R2" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="201"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="164"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="J3" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="161" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="161" t="s">
+      <c r="R3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="161" t="s">
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="161" t="s">
+      <c r="X3" s="159"/>
+      <c r="Y3" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="175" t="s">
+      <c r="Z3" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AB3" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="162">
+      <c r="B4" s="148">
         <v>1</v>
       </c>
       <c r="C4" s="31">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="150">
         <v>0.1</v>
       </c>
-      <c r="E4" s="168">
+      <c r="E4" s="151">
         <v>0.2</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="154">
         <v>0.1</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="148">
         <f>D4*$B$4+E4*$B$5+F4</f>
         <v>0.2</v>
       </c>
-      <c r="I4" s="162">
+      <c r="I4" s="148">
         <f>MAX(0,H4)</f>
         <v>0.2</v>
       </c>
@@ -23428,10 +23428,10 @@
       <c r="O4" s="41">
         <v>0.4</v>
       </c>
-      <c r="P4" s="162">
+      <c r="P4" s="148">
         <v>0.1</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="148">
         <f>J4*$I$4+K4*$I$5+L4*$I$6+M4*$I$7+N4*$I$8+O4*$I$9+P4</f>
         <v>1.5900000000000003</v>
       </c>
@@ -23448,10 +23448,10 @@
       <c r="V4" s="41">
         <v>0.2</v>
       </c>
-      <c r="W4" s="162">
+      <c r="W4" s="148">
         <v>0.1</v>
       </c>
-      <c r="Y4" s="162">
+      <c r="Y4" s="148">
         <f>T4*$S$4+U4*$S$5+V4*$S$6+W4</f>
         <v>1.0570000000000002</v>
       </c>
@@ -23460,10 +23460,10 @@
         <v>1.0570000000000002</v>
       </c>
       <c r="AA4" s="95"/>
-      <c r="AB4" s="162">
+      <c r="AB4" s="148">
         <v>7</v>
       </c>
-      <c r="AC4" s="162">
+      <c r="AC4" s="148">
         <f>Z4-AB4</f>
         <v>-5.9429999999999996</v>
       </c>
@@ -23473,27 +23473,27 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" thickBot="1">
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="150">
         <v>0.3</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="151">
         <v>0.3</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="154">
         <v>0.2</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="148">
         <f t="shared" ref="H5:H9" si="0">D5*$B$4+E5*$B$5+F5</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="162">
+      <c r="I5" s="148">
         <f t="shared" ref="I5:I9" si="1">MAX(0,H5)</f>
         <v>0.5</v>
       </c>
@@ -23515,10 +23515,10 @@
       <c r="O5" s="41">
         <v>0.2</v>
       </c>
-      <c r="P5" s="162">
+      <c r="P5" s="148">
         <v>0.2</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="148">
         <f t="shared" ref="R5:R6" si="2">J5*$I$4+K5*$I$5+L5*$I$6+M5*$I$7+N5*$I$8+O5*$I$9+P5</f>
         <v>1.83</v>
       </c>
@@ -23535,10 +23535,10 @@
       <c r="V5" s="44">
         <v>0.9</v>
       </c>
-      <c r="W5" s="163">
+      <c r="W5" s="149">
         <v>0.2</v>
       </c>
-      <c r="Y5" s="163">
+      <c r="Y5" s="149">
         <f>T5*$S$4+U5*$S$5+V5*$S$6+W5</f>
         <v>3.5360000000000005</v>
       </c>
@@ -23547,29 +23547,29 @@
         <v>3.5360000000000005</v>
       </c>
       <c r="AA5" s="95"/>
-      <c r="AB5" s="163">
+      <c r="AB5" s="149">
         <v>-3</v>
       </c>
-      <c r="AC5" s="162">
+      <c r="AC5" s="148">
         <f>Z5-AB5</f>
         <v>6.5360000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D6" s="167">
+      <c r="D6" s="150">
         <v>0.2</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="151">
         <v>0.5</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="154">
         <v>0.3</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="148">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="162">
+      <c r="I6" s="148">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -23591,10 +23591,10 @@
       <c r="O6" s="44">
         <v>0.6</v>
       </c>
-      <c r="P6" s="163">
+      <c r="P6" s="149">
         <v>0.3</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="149">
         <f t="shared" si="2"/>
         <v>2.16</v>
       </c>
@@ -23604,71 +23604,71 @@
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="D7" s="167">
+      <c r="D7" s="150">
         <v>0.7</v>
       </c>
-      <c r="E7" s="168">
+      <c r="E7" s="151">
         <v>0.8</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="154">
         <v>0.4</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="148">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="162">
+      <c r="I7" s="148">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="X7" s="124"/>
       <c r="Y7" s="124"/>
-      <c r="AA7" s="196" t="s">
+      <c r="AA7" s="163" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="D8" s="167">
+      <c r="D8" s="150">
         <v>0.2</v>
       </c>
-      <c r="E8" s="168">
+      <c r="E8" s="151">
         <v>0.3</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="154">
         <v>0.5</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="148">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I8" s="162">
+      <c r="I8" s="148">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AA8" s="197" t="e">
+      <c r="AA8" s="164" t="e">
         <f>AB4*LOG10(Z4)+(1-AB4)*LOG10(1-Z4)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D9" s="169">
+      <c r="D9" s="152">
         <v>0.5</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="153">
         <v>0.7</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="155">
         <v>0.6</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="149">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="163">
+      <c r="I9" s="149">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA9" s="198" t="e">
+      <c r="AA9" s="165" t="e">
         <f>AB5*LOG10(Z5)+(1-AB5)*LOG10(1-Z5)</f>
         <v>#NUM!</v>
       </c>
@@ -23681,44 +23681,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="165" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="173" t="s">
+      <c r="I12" s="191"/>
+      <c r="J12" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="166"/>
-      <c r="R12" s="185" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="R12" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="165" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="166"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="165" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="191"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="166"/>
-      <c r="AB12" s="165" t="s">
+      <c r="Z12" s="191"/>
+      <c r="AB12" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="166"/>
+      <c r="AC12" s="191"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -23729,11 +23729,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="179">
+      <c r="H13" s="185">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="180"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.2</v>
@@ -23758,11 +23758,11 @@
         <f>I9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R13" s="179">
+      <c r="R13" s="185">
         <f>IF(R4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="180"/>
+      <c r="S13" s="186"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>1.5900000000000003</v>
@@ -23775,11 +23775,11 @@
         <f>S6</f>
         <v>2.16</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="185">
         <f>IF(Y4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="180"/>
+      <c r="Z13" s="186"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>-5.9429999999999996</v>
@@ -23789,21 +23789,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="179">
+      <c r="H14" s="185">
         <f t="shared" ref="H14:H18" si="4">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="180"/>
-      <c r="R14" s="179">
+      <c r="I14" s="186"/>
+      <c r="R14" s="185">
         <f t="shared" ref="R14:R15" si="5">IF(R5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="180"/>
-      <c r="Y14" s="179">
+      <c r="S14" s="186"/>
+      <c r="Y14" s="185">
         <f>IF(Y5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z14" s="180"/>
+      <c r="Z14" s="186"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -23814,100 +23814,100 @@
     </row>
     <row r="15" spans="1:30">
       <c r="F15" s="28"/>
-      <c r="H15" s="179">
+      <c r="H15" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I15" s="180"/>
-      <c r="R15" s="179">
+      <c r="I15" s="186"/>
+      <c r="R15" s="185">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S15" s="180"/>
+      <c r="S15" s="186"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="179">
+      <c r="H16" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I16" s="180"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="191" t="s">
+      <c r="E17" s="193"/>
+      <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="179">
+      <c r="H17" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="188" t="s">
+      <c r="I17" s="186"/>
+      <c r="J17" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="191" t="s">
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="187" t="s">
+      <c r="T17" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="188"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="191" t="s">
+      <c r="U17" s="194"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="4:28" ht="13.5" thickBot="1">
       <c r="D18" s="31">
-        <f>$H22*B$13*$A$2</f>
+        <f t="shared" ref="D18:E23" si="6">$H22*B$13*$A$2</f>
         <v>0.45155100000000009</v>
       </c>
       <c r="E18" s="41">
-        <f>$H22*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="176">
-        <f>H22*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="157">
+        <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>0.45155100000000009</v>
       </c>
-      <c r="H18" s="179">
+      <c r="H18" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="180"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>2.7330000000000007E-2</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18:O18" si="6">K$13*$R20*$A$2</f>
+        <f t="shared" ref="K18:O18" si="8">K$13*$R20*$A$2</f>
         <v>6.8325000000000011E-2</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8325000000000011E-2</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15031500000000006</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5655000000000018E-2</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15031500000000006</v>
       </c>
-      <c r="P18" s="162">
+      <c r="P18" s="148">
         <f>R20*$A$2</f>
         <v>0.13665000000000002</v>
       </c>
@@ -23916,257 +23916,257 @@
         <v>-0.94493700000000025</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" ref="U18:V19" si="7">U$13*$Z20*$A$2</f>
+        <f t="shared" ref="U18:V19" si="9">U$13*$Z20*$A$2</f>
         <v>-1.087569</v>
       </c>
       <c r="V18" s="78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2836880000000002</v>
       </c>
-      <c r="W18" s="162">
+      <c r="W18" s="148">
         <f>Z20*$A$2</f>
         <v>-0.59429999999999994</v>
       </c>
     </row>
     <row r="19" spans="4:28" ht="15" thickBot="1">
       <c r="D19" s="31">
-        <f>$H23*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0.31905200000000011</v>
       </c>
       <c r="E19" s="41">
-        <f>$H23*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="176">
-        <f>H23*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="157">
+        <f t="shared" si="7"/>
         <v>0.31905200000000011</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" ref="J19:O20" si="8">J$13*$R21*$A$2</f>
+        <f t="shared" ref="J19:O20" si="10">J$13*$R21*$A$2</f>
         <v>4.1588000000000014E-2</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10397000000000003</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10397000000000003</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.2287340000000001</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14555800000000005</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.2287340000000001</v>
       </c>
-      <c r="P19" s="162">
+      <c r="P19" s="148">
         <f>R21*$A$2</f>
         <v>0.20794000000000007</v>
       </c>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="166"/>
+      <c r="S19" s="191"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>1.0392240000000004</v>
       </c>
       <c r="U19" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1960880000000003</v>
       </c>
       <c r="V19" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4117760000000004</v>
       </c>
-      <c r="W19" s="163">
+      <c r="W19" s="149">
         <f>Z21*$A$2</f>
         <v>0.65360000000000007</v>
       </c>
-      <c r="Z19" s="185" t="s">
+      <c r="Z19" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="186"/>
+      <c r="AA19" s="196"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
-        <f>$H24*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0.30835200000000013</v>
       </c>
       <c r="E20" s="41">
-        <f>$H24*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="176">
-        <f>H24*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="157">
+        <f t="shared" si="7"/>
         <v>0.30835200000000013</v>
       </c>
       <c r="J20" s="79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.3876000000000015E-2</v>
       </c>
       <c r="K20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23469000000000004</v>
       </c>
       <c r="L20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23469000000000004</v>
       </c>
       <c r="M20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51631800000000005</v>
       </c>
       <c r="N20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.32856600000000002</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51631800000000005</v>
       </c>
-      <c r="P20" s="163">
+      <c r="P20" s="149">
         <f>R22*$A$2</f>
         <v>0.46938000000000007</v>
       </c>
-      <c r="R20" s="179">
+      <c r="R20" s="185">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>1.3665000000000003</v>
       </c>
-      <c r="S20" s="180"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="Z20" s="192">
+      <c r="S20" s="186"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="Z20" s="197">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>-5.9429999999999996</v>
       </c>
-      <c r="AA20" s="184"/>
+      <c r="AA20" s="198"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
-        <f>$H25*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0.19843900000000006</v>
       </c>
       <c r="E21" s="41">
-        <f>$H25*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="176">
-        <f>H25*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="157">
+        <f t="shared" si="7"/>
         <v>0.19843900000000006</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="R21" s="179">
+      <c r="I21" s="191"/>
+      <c r="R21" s="185">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>2.0794000000000006</v>
       </c>
-      <c r="S21" s="180"/>
-      <c r="Z21" s="193">
+      <c r="S21" s="186"/>
+      <c r="Z21" s="199">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>6.5360000000000005</v>
       </c>
-      <c r="AA21" s="194"/>
+      <c r="AA21" s="200"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
-        <f>$H26*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0.53948400000000007</v>
       </c>
       <c r="E22" s="41">
-        <f>$H26*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="176">
-        <f>H26*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="157">
+        <f t="shared" si="7"/>
         <v>0.53948400000000007</v>
       </c>
-      <c r="H22" s="179">
+      <c r="H22" s="185">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>4.5155100000000008</v>
       </c>
-      <c r="I22" s="180"/>
-      <c r="R22" s="181">
+      <c r="I22" s="186"/>
+      <c r="R22" s="187">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>4.6938000000000004</v>
       </c>
-      <c r="S22" s="182"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
-        <f>$H27*B$13*$A$2</f>
+        <f t="shared" si="6"/>
         <v>0.3778760000000001</v>
       </c>
       <c r="E23" s="44">
-        <f>$H27*C$13*$A$2</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="177">
-        <f>H27*$A$2</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="158">
+        <f t="shared" si="7"/>
         <v>0.3778760000000001</v>
       </c>
-      <c r="H23" s="179">
-        <f t="shared" ref="H23:H27" si="9">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
+      <c r="H23" s="185">
+        <f t="shared" ref="H23:H27" si="11">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>3.1905200000000007</v>
       </c>
-      <c r="I23" s="180"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="179">
-        <f t="shared" si="9"/>
+      <c r="H24" s="185">
+        <f t="shared" si="11"/>
         <v>3.0835200000000009</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="186"/>
+      <c r="J24" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="166"/>
-      <c r="T24" s="165" t="s">
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="191"/>
+      <c r="T24" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="191"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="179">
-        <f t="shared" si="9"/>
+      <c r="H25" s="185">
+        <f t="shared" si="11"/>
         <v>1.9843900000000005</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.1</v>
       </c>
       <c r="K25" s="124">
-        <f t="shared" ref="K25:O25" si="10">K4</f>
+        <f t="shared" ref="K25:O25" si="12">K4</f>
         <v>0.2</v>
       </c>
       <c r="L25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="M25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="N25" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="T25" s="31">
@@ -24174,42 +24174,42 @@
         <v>0.1</v>
       </c>
       <c r="U25" s="124">
-        <f t="shared" ref="U25:V26" si="11">U4</f>
+        <f t="shared" ref="U25:V26" si="13">U4</f>
         <v>0.2</v>
       </c>
       <c r="V25" s="41">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" ht="13.5" thickBot="1">
+      <c r="H26" s="185">
         <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="179">
-        <f t="shared" si="9"/>
         <v>5.3948400000000003</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="124">
-        <f t="shared" ref="J26:O27" si="12">J5</f>
+        <f t="shared" ref="J26:O27" si="14">J5</f>
         <v>0.3</v>
       </c>
       <c r="K26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="L26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.9</v>
       </c>
       <c r="M26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="N26" s="124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="T26" s="42">
@@ -24217,55 +24217,55 @@
         <v>0.3</v>
       </c>
       <c r="U26" s="43">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" si="13"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:28" ht="15.75" thickBot="1">
+      <c r="H27" s="187">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="V26" s="44">
-        <f t="shared" si="11"/>
+        <v>3.7787600000000006</v>
+      </c>
+      <c r="I27" s="188"/>
+      <c r="J27" s="43">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="43">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="43">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="43">
+        <f t="shared" si="14"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="181">
-        <f t="shared" si="9"/>
-        <v>3.7787600000000006</v>
-      </c>
-      <c r="I27" s="182"/>
-      <c r="J27" s="43">
-        <f t="shared" si="12"/>
-        <v>0.8</v>
-      </c>
-      <c r="K27" s="43">
-        <f t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="L27" s="43">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="43">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="N27" s="43">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
       <c r="O27" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="Z27" s="165" t="s">
+      <c r="Z27" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="166"/>
+      <c r="AA27" s="191"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="165" t="s">
+      <c r="Q28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="173"/>
-      <c r="S28" s="166"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="191"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>-5.9429999999999996</v>
@@ -24291,19 +24291,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="166"/>
-      <c r="T31" s="165" t="s">
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="T31" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="173"/>
-      <c r="V31" s="166"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -24311,23 +24311,23 @@
         <v>4.5155100000000008</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" ref="K32:O32" si="13">K$25*$Q29+K$26*$R29+K$27*$S29</f>
+        <f t="shared" ref="K32:O32" si="15">K$25*$Q29+K$26*$R29+K$27*$S29</f>
         <v>3.1905200000000007</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.0835200000000009</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9843900000000005</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3948400000000003</v>
       </c>
       <c r="O32" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.7787600000000006</v>
       </c>
       <c r="T32" s="42">
@@ -24355,8 +24355,8 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="2:28">
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="190"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="28"/>
     </row>
     <row r="35" spans="2:28" ht="13.5" thickBot="1">
@@ -24365,19 +24365,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="165" t="s">
+      <c r="J36" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="166"/>
-      <c r="T36" s="165" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="191"/>
+      <c r="T36" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="173"/>
-      <c r="V36" s="166"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -24447,14 +24447,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="166"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -24574,24 +24574,35 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="T17:V17"/>
     <mergeCell ref="H18:I18"/>
@@ -24600,35 +24611,24 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24736,8 +24736,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/NeuralNetwork/ExternalFiles/Nn.xlsx
+++ b/NeuralNetwork/ExternalFiles/Nn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Who made it complicated" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="2 x 6 x 3 x 1 Relu" sheetId="9" r:id="rId4"/>
     <sheet name="2 x 6 x 3 x 2 Sigmoid" sheetId="8" r:id="rId5"/>
     <sheet name="2 x 6 x 3 x 2 Relu" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="E" sheetId="11" r:id="rId7"/>
+    <sheet name="Deltas" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -244,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="136">
   <si>
     <t>Input</t>
   </si>
@@ -1811,6 +1813,54 @@
   <si>
     <t>ApplyDeltas</t>
   </si>
+  <si>
+    <t>Old: Prev E (1):</t>
+  </si>
+  <si>
+    <t>NEW: Prev E (1):</t>
+  </si>
+  <si>
+    <t>DenseMatrix 1x1-Double</t>
+  </si>
+  <si>
+    <t>Old: W (2):</t>
+  </si>
+  <si>
+    <t>NEW: W (2):</t>
+  </si>
+  <si>
+    <t>DenseMatrix 1x2-Double</t>
+  </si>
+  <si>
+    <t>0.1  0.2</t>
+  </si>
+  <si>
+    <t>Old: E (3):</t>
+  </si>
+  <si>
+    <t>NEW: E (3):</t>
+  </si>
+  <si>
+    <t>DenseMatrix 2x1-Double</t>
+  </si>
+  <si>
+    <t>Layer old E:</t>
+  </si>
+  <si>
+    <t>NEW: error (1):</t>
+  </si>
+  <si>
+    <t>gradients:</t>
+  </si>
+  <si>
+    <t>NEW: oOnI (2):</t>
+  </si>
+  <si>
+    <t>LayerOld dB:</t>
+  </si>
+  <si>
+    <t>Synapsen dB:</t>
+  </si>
 </sst>
 </file>
 
@@ -2683,30 +2733,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2725,6 +2751,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2735,24 +2809,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,12 +2827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2908,7 +2958,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://cdn-images-1.medium.com/max/1600/1*fdDRKoUj5ck2k4Aa2BSaAA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3D66-EA89-49A8-8B2C-2AFE732D2B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://cdn-images-1.medium.com/max/1600/1*XWyzdij1A-RpkqPNbm9Lrw.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECD454-2D91-450B-B800-19D2DCFB63D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3080,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://cdn-images-1.medium.com/max/1600/1*NWb_tAHWvBwJc0hNm0LiUQ.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA436DA-C610-48C6-BC7B-27EB73C67899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3146,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49483D2-8491-468E-8051-E561E393549D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49483D2-8491-468E-8051-E561E393549D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +3199,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD2C7AE4-19E6-4D7E-BD49-9D131661BFA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2C7AE4-19E6-4D7E-BD49-9D131661BFA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3252,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{066B8A49-E5C9-4154-86B7-DEDD1EF442AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066B8A49-E5C9-4154-86B7-DEDD1EF442AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3305,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E369F2F7-A185-4CA9-B9C8-F4AD78BD8A9B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E369F2F7-A185-4CA9-B9C8-F4AD78BD8A9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3363,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A883792F-E26C-47DF-A750-322CABFA4DDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A883792F-E26C-47DF-A750-322CABFA4DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3416,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A344596-05AB-4782-9CCE-1B2D2DC2A716}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A344596-05AB-4782-9CCE-1B2D2DC2A716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3474,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BD5781-818F-4BE6-8BB6-A227E3931492}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BD5781-818F-4BE6-8BB6-A227E3931492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3527,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F33090-AA06-42D6-B343-BE538C5BC4E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F33090-AA06-42D6-B343-BE538C5BC4E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3580,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C22F34-DA05-48A4-9CE5-211A137233AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C22F34-DA05-48A4-9CE5-211A137233AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3633,7 @@
         <xdr:cNvPr id="38" name="Freeform: Shape 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{115C3E6B-EC26-46A9-839A-5A775C57B274}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115C3E6B-EC26-46A9-839A-5A775C57B274}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3739,7 @@
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0AF4F7E-6FFE-4BC8-B15F-526CF2D86D35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AF4F7E-6FFE-4BC8-B15F-526CF2D86D35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3792,7 @@
         <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{374EF5ED-A10B-4954-99D1-D2EEB6CD8264}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374EF5ED-A10B-4954-99D1-D2EEB6CD8264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3800,7 +3850,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26283505-B7AC-45CB-965E-D904EF3A0BFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26283505-B7AC-45CB-965E-D904EF3A0BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3858,7 +3908,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1C844-EE5B-4E8E-8E89-4DFB56506CDA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1C844-EE5B-4E8E-8E89-4DFB56506CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3966,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A695AE2F-25C7-418F-B2D6-296740E3B299}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A695AE2F-25C7-418F-B2D6-296740E3B299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +4019,7 @@
         <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB205AAB-C679-4BAE-AC68-E8DB1B63B71F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB205AAB-C679-4BAE-AC68-E8DB1B63B71F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,7 +4072,7 @@
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7240DF4D-7680-4B0A-ABFB-FFD9C947C50C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7240DF4D-7680-4B0A-ABFB-FFD9C947C50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,7 +4125,7 @@
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C3587DD-81FA-41A1-8EB6-275F0B4E6646}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3587DD-81FA-41A1-8EB6-275F0B4E6646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4183,7 @@
         <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24C54B22-F951-481D-99B6-4B2BB7207A3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C54B22-F951-481D-99B6-4B2BB7207A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4236,7 @@
         <xdr:cNvPr id="63" name="Freeform: Shape 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3091220D-4E53-4EDE-8759-51BD75256F03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3091220D-4E53-4EDE-8759-51BD75256F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4342,7 @@
         <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2407920C-3CAC-486C-9D42-5AC6763FB00B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2407920C-3CAC-486C-9D42-5AC6763FB00B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4395,7 @@
         <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52B23C62-0294-407C-884F-7B3415C22154}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B23C62-0294-407C-884F-7B3415C22154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4453,7 @@
         <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E5425C7-4411-4946-B8B0-0623DD88FA7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5425C7-4411-4946-B8B0-0623DD88FA7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,7 +4511,7 @@
         <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28AE5B9C-CA03-493F-897F-9975AB58F5E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AE5B9C-CA03-493F-897F-9975AB58F5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4564,7 @@
         <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87A964F3-2225-47D5-850D-8EAD1C4B5AAC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A964F3-2225-47D5-850D-8EAD1C4B5AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4572,7 +4622,7 @@
         <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D14CC56-8074-4D81-9328-892B2B33BC3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D14CC56-8074-4D81-9328-892B2B33BC3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,7 +4675,7 @@
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D44E2220-B943-409F-8DE6-9F1199DE19B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44E2220-B943-409F-8DE6-9F1199DE19B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4678,7 +4728,7 @@
         <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A151640-66A2-4F92-849D-40380C29B531}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A151640-66A2-4F92-849D-40380C29B531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4781,7 @@
         <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F945EB0F-8B15-4C69-8F4E-FD0988FCBAF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F945EB0F-8B15-4C69-8F4E-FD0988FCBAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4839,7 @@
         <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0BD3BCF-7FB2-48EF-8650-F976B7905607}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BD3BCF-7FB2-48EF-8650-F976B7905607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4842,7 +4892,7 @@
         <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E910DEA3-EE12-4CA7-AF7D-BA15BFC92143}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E910DEA3-EE12-4CA7-AF7D-BA15BFC92143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +4945,7 @@
         <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F20CD4D-654F-4554-BB34-DA6C324D28A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F20CD4D-654F-4554-BB34-DA6C324D28A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4953,7 +5003,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77369B73-2D84-4ED4-BE43-F24F67CBA5F8}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77369B73-2D84-4ED4-BE43-F24F67CBA5F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5021,7 +5071,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C17B964-16D1-4A48-B268-85FE00F3C09B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C17B964-16D1-4A48-B268-85FE00F3C09B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5089,7 +5139,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61A5D407-AF70-4291-9CC3-401357B8060D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A5D407-AF70-4291-9CC3-401357B8060D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5157,7 +5207,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4692AF0-4F9E-4A25-9B6A-9A379BAEBAB3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4692AF0-4F9E-4A25-9B6A-9A379BAEBAB3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5225,7 +5275,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54D0F94B-0533-4F15-AF29-244B1DCAE923}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D0F94B-0533-4F15-AF29-244B1DCAE923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5328,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC8F940-2DD3-446E-A1AB-7ABE97C44A9A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC8F940-2DD3-446E-A1AB-7ABE97C44A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5381,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1901C3FB-912E-4289-A061-846C2EBA79E3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1901C3FB-912E-4289-A061-846C2EBA79E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5384,7 +5434,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4EC2E0B-A468-4675-BCE5-0965ADE125AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EC2E0B-A468-4675-BCE5-0965ADE125AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +5492,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D930AB89-D5AC-4158-BC33-0FD2355E58D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D930AB89-D5AC-4158-BC33-0FD2355E58D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +5545,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A5A1783-725A-4CAE-AFBE-6A88BFF5C38C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A1783-725A-4CAE-AFBE-6A88BFF5C38C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5553,7 +5603,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE3CE67-7AA3-41D2-83EE-4EDFF44DF681}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE3CE67-7AA3-41D2-83EE-4EDFF44DF681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5656,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{374AFBEC-AFC1-472D-B158-6795EA447A08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374AFBEC-AFC1-472D-B158-6795EA447A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5659,7 +5709,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{513EDD78-93F0-4520-8589-56905824BC74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513EDD78-93F0-4520-8589-56905824BC74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5712,7 +5762,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2BE3D7-7381-4567-BD5C-297BD884B62B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2BE3D7-7381-4567-BD5C-297BD884B62B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5818,7 +5868,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D2D41B5-97C7-49DA-86D0-F6333F261B5A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D41B5-97C7-49DA-86D0-F6333F261B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,7 +5921,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0C8E9A1-CBE5-4B7B-AF53-F7AC2C9B7A78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C8E9A1-CBE5-4B7B-AF53-F7AC2C9B7A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5929,7 +5979,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E1E088B-9B3D-4850-AADC-2B908D241A67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1E088B-9B3D-4850-AADC-2B908D241A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,7 +6037,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4D953B-8A6A-4D3C-A145-BD5015D84EE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4D953B-8A6A-4D3C-A145-BD5015D84EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6045,7 +6095,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84CD902-2CE3-4BE3-9595-47CAED1D45F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84CD902-2CE3-4BE3-9595-47CAED1D45F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,7 +6148,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91924667-D0CB-4890-9CB1-5662570585C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91924667-D0CB-4890-9CB1-5662570585C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6151,7 +6201,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF8DF0EF-D6CF-484F-8C73-B826C4AE4882}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8DF0EF-D6CF-484F-8C73-B826C4AE4882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6254,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6198A9E-454E-4CF3-B526-4A6C371F0E68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6198A9E-454E-4CF3-B526-4A6C371F0E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6312,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03AE2418-1BCF-490C-9A00-D166E72148AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AE2418-1BCF-490C-9A00-D166E72148AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6315,7 +6365,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA780348-ED73-4F12-928A-E641525FFC7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA780348-ED73-4F12-928A-E641525FFC7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6421,7 +6471,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A03826-19D6-4EE3-AABD-AE418780D0DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A03826-19D6-4EE3-AABD-AE418780D0DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6474,7 +6524,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7E60961-B898-4CA0-BA4C-E5E32A49CF9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E60961-B898-4CA0-BA4C-E5E32A49CF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6532,7 +6582,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5D0B42E-6D56-48FB-B6F2-E72D0C7619E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D0B42E-6D56-48FB-B6F2-E72D0C7619E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6590,7 +6640,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E12F0D2B-CAFB-4CDA-BB4F-66858ABD4A02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12F0D2B-CAFB-4CDA-BB4F-66858ABD4A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6643,7 +6693,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C636886B-1EBF-4140-AB2F-A4304CC380BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C636886B-1EBF-4140-AB2F-A4304CC380BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6701,7 +6751,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FE91539-BAB2-403E-8EBB-4026F4811773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE91539-BAB2-403E-8EBB-4026F4811773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6754,7 +6804,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20139760-213B-461B-823E-748594DFC24E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20139760-213B-461B-823E-748594DFC24E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6807,7 +6857,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20C3771B-A6C5-4867-A1C4-26B80C1FF971}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C3771B-A6C5-4867-A1C4-26B80C1FF971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6860,7 +6910,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB48AF83-EEEC-49EC-B527-36A20F27B4DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB48AF83-EEEC-49EC-B527-36A20F27B4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6918,7 +6968,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CB872F5-858F-4A30-83FC-BDA0790DF2B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB872F5-858F-4A30-83FC-BDA0790DF2B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6971,7 +7021,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEFDF4EE-BE46-44D9-BE91-48479EFFE5CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFDF4EE-BE46-44D9-BE91-48479EFFE5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7024,7 +7074,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91C7C395-D4A8-4B34-9706-2354BDB0166F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C7C395-D4A8-4B34-9706-2354BDB0166F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7132,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5515553E-BF3B-468B-A26C-D9027FBBA180}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5515553E-BF3B-468B-A26C-D9027FBBA180}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7150,7 +7200,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DAC3027-5276-4369-94BB-6DE9B8AD00AE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAC3027-5276-4369-94BB-6DE9B8AD00AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7218,7 +7268,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644EE44A-837D-4A38-AE17-9EBB67B5F47F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644EE44A-837D-4A38-AE17-9EBB67B5F47F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7286,7 +7336,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45F2C1F-10A2-4C55-9982-F175D9773AA1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45F2C1F-10A2-4C55-9982-F175D9773AA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7354,7 +7404,7 @@
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB854A77-656D-4E8B-91D6-594F5F1BE64F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB854A77-656D-4E8B-91D6-594F5F1BE64F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7422,7 +7472,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BD4461A-6FAB-40D7-8EAD-CC577EE236DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD4461A-6FAB-40D7-8EAD-CC577EE236DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,7 +7525,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{384522E4-9D2C-4FC6-A0E0-BC2F309C3019}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384522E4-9D2C-4FC6-A0E0-BC2F309C3019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7528,7 +7578,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EFA38FC-5BD4-43A5-9106-94D1BD9BAA8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFA38FC-5BD4-43A5-9106-94D1BD9BAA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7581,7 +7631,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D90C4DA-8E44-4F77-B3AA-AEEAFBCE273F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D90C4DA-8E44-4F77-B3AA-AEEAFBCE273F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7639,7 +7689,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{879F8228-8AF2-4D6E-A52A-D33758F2E8B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F8228-8AF2-4D6E-A52A-D33758F2E8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7742,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3ACCFB-D9C8-4EBB-A537-1279CCFECD3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3ACCFB-D9C8-4EBB-A537-1279CCFECD3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7750,7 +7800,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3DE4E0-79C9-4653-8EE3-73A5DF158181}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3DE4E0-79C9-4653-8EE3-73A5DF158181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7803,7 +7853,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{284BC98F-7550-4DF4-AB16-EE980AEC6253}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284BC98F-7550-4DF4-AB16-EE980AEC6253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +7906,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{605D35A5-9B6D-423A-B53B-D99DA37E2750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605D35A5-9B6D-423A-B53B-D99DA37E2750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7909,7 +7959,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FBA5BE-E7EC-4B29-A68A-2E3BB8C76ABD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FBA5BE-E7EC-4B29-A68A-2E3BB8C76ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8015,7 +8065,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8DA-FBF5-4F0F-BFC8-191B07CEB431}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576BA8DA-FBF5-4F0F-BFC8-191B07CEB431}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8068,7 +8118,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696B246F-2E6C-488E-BB83-9D65161772E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696B246F-2E6C-488E-BB83-9D65161772E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8126,7 +8176,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3471F7E6-52CF-43E6-8C0B-2ABF68449331}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471F7E6-52CF-43E6-8C0B-2ABF68449331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8184,7 +8234,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86FDF974-697F-41C5-A990-0A73283112F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDF974-697F-41C5-A990-0A73283112F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8242,7 +8292,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A7B2DE-1E02-4826-8658-4ECA70112E86}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A7B2DE-1E02-4826-8658-4ECA70112E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8295,7 +8345,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9036A644-7ABF-4C92-AAEE-6198DC0BC480}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9036A644-7ABF-4C92-AAEE-6198DC0BC480}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8348,7 +8398,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CD03C09-39DD-4F67-9950-279DE69593A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD03C09-39DD-4F67-9950-279DE69593A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8401,7 +8451,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D621F8D3-3730-4F71-A8C6-2797795D514B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D621F8D3-3730-4F71-A8C6-2797795D514B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8459,7 +8509,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA454BA0-DECA-40DE-912D-8A2CF872D3B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA454BA0-DECA-40DE-912D-8A2CF872D3B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8512,7 +8562,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE226952-6438-4380-BBE8-A9125A069C84}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE226952-6438-4380-BBE8-A9125A069C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8618,7 +8668,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70FC9A40-078D-4D24-A1E7-C513BF2F65ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FC9A40-078D-4D24-A1E7-C513BF2F65ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8671,7 +8721,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A2B67A-A625-450A-9119-E3AE4F231700}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A2B67A-A625-450A-9119-E3AE4F231700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8729,7 +8779,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7001814-6484-4C7F-93E8-67F44034DB30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7001814-6484-4C7F-93E8-67F44034DB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8787,7 +8837,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE11241E-77FC-4BCF-918F-1BDF44ABE379}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE11241E-77FC-4BCF-918F-1BDF44ABE379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8840,7 +8890,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE31FB3-5BEF-4673-AAC6-FE75C46CE890}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE31FB3-5BEF-4673-AAC6-FE75C46CE890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8898,7 +8948,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1375B1D8-A078-44D7-8014-45CBACDB9FB9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1375B1D8-A078-44D7-8014-45CBACDB9FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8951,7 +9001,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78FD90FC-980E-4067-96A6-6DF7F660A277}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FD90FC-980E-4067-96A6-6DF7F660A277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9004,7 +9054,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0C01CF0-1A2A-4615-AF6F-13642F56439C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C01CF0-1A2A-4615-AF6F-13642F56439C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9057,7 +9107,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A854694-0810-4840-888D-43D1978337D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A854694-0810-4840-888D-43D1978337D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,7 +9165,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEABF853-0B6A-4C69-B802-66338B03EAAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEABF853-0B6A-4C69-B802-66338B03EAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9168,7 +9218,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F72CFE-69DB-4733-9DB5-7AE8AFA1AB95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F72CFE-69DB-4733-9DB5-7AE8AFA1AB95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9221,7 +9271,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9917D65A-B6E3-4473-8C1D-48D63EFF3344}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9917D65A-B6E3-4473-8C1D-48D63EFF3344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9279,7 +9329,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C380E87E-1965-45D2-81A4-31C8B5B3CBA5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C380E87E-1965-45D2-81A4-31C8B5B3CBA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9347,7 +9397,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A29283DC-D9C5-4271-B1FB-F64E2D85E073}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29283DC-D9C5-4271-B1FB-F64E2D85E073}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9415,7 +9465,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A429EB4-D3C6-46FC-873C-68F1C5D893E0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A429EB4-D3C6-46FC-873C-68F1C5D893E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9483,7 +9533,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CB2BEE-F122-42DD-9CFC-18EBCA59E9C9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CB2BEE-F122-42DD-9CFC-18EBCA59E9C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9551,7 +9601,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92105CA6-8498-40DD-9C0F-0EE4D0D50DAC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92105CA6-8498-40DD-9C0F-0EE4D0D50DAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9614,7 +9664,7 @@
         <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B5CA20-7E6A-4450-9418-3D3E1E48DCE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B5CA20-7E6A-4450-9418-3D3E1E48DCE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9672,7 +9722,7 @@
         <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53BC43C8-E6E8-49C1-A912-B9ECA9DF4D4A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BC43C8-E6E8-49C1-A912-B9ECA9DF4D4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9735,7 +9785,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C008221F-C1E6-4792-904E-E691FE1856B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C008221F-C1E6-4792-904E-E691FE1856B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9788,7 +9838,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D59915-A4D5-43FC-BA5D-88E07CCCD951}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D59915-A4D5-43FC-BA5D-88E07CCCD951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,7 +9891,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B519CE-04D7-4923-AA54-0FEEC6CBAE8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B519CE-04D7-4923-AA54-0FEEC6CBAE8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9894,7 +9944,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBF4D00-72D8-425E-9723-700BF69784AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBF4D00-72D8-425E-9723-700BF69784AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,7 +10002,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08D44EF9-B356-4625-A86E-24387F2DFDBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D44EF9-B356-4625-A86E-24387F2DFDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10005,7 +10055,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A3BDE20-B2BF-4308-870B-9E885993664D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3BDE20-B2BF-4308-870B-9E885993664D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10063,7 +10113,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41B73538-480F-47CD-A2AE-09196CE27A87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B73538-480F-47CD-A2AE-09196CE27A87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10116,7 +10166,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EC137CD-B588-4F1A-BAC8-7506086F4BF7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC137CD-B588-4F1A-BAC8-7506086F4BF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10169,7 +10219,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9305038C-0BEC-4391-A659-7CFC34072841}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9305038C-0BEC-4391-A659-7CFC34072841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10222,7 +10272,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82BAB3F1-A965-47E3-8619-F4695DD86C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BAB3F1-A965-47E3-8619-F4695DD86C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10328,7 +10378,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB1CCD03-461B-4F73-9F04-B869313FB994}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1CCD03-461B-4F73-9F04-B869313FB994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10381,7 +10431,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8525B888-037A-437B-883C-EEFCAC8FB069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8525B888-037A-437B-883C-EEFCAC8FB069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10439,7 +10489,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8AFBB69-68BD-4C46-A9A6-67CAABF18951}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AFBB69-68BD-4C46-A9A6-67CAABF18951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10497,7 +10547,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{194EA784-6AEC-4FBE-A861-50C0B4CCD48D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194EA784-6AEC-4FBE-A861-50C0B4CCD48D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10555,7 +10605,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B0FE70B-3BEB-4394-8956-D071C31AE069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0FE70B-3BEB-4394-8956-D071C31AE069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10608,7 +10658,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E16C663-B48D-4C97-AB24-DF46EA5720CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E16C663-B48D-4C97-AB24-DF46EA5720CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10661,7 +10711,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA4F888A-FC60-4378-85EC-1AB4BF6DA3DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4F888A-FC60-4378-85EC-1AB4BF6DA3DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10714,7 +10764,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48E35282-7FB3-4760-B529-C37711BF5882}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E35282-7FB3-4760-B529-C37711BF5882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10772,7 +10822,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFFF5A99-27E4-4F54-99F2-38405EAB2052}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF5A99-27E4-4F54-99F2-38405EAB2052}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10825,7 +10875,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08B76120-AE3E-43A5-9CC0-EFF146C09914}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B76120-AE3E-43A5-9CC0-EFF146C09914}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10931,7 +10981,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B58EB11-B38E-4C8B-A07B-41FEC855B6BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58EB11-B38E-4C8B-A07B-41FEC855B6BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10984,7 +11034,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41D84A4D-3401-4427-B8C6-10DD88F2CCD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D84A4D-3401-4427-B8C6-10DD88F2CCD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11042,7 +11092,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E08E1328-1AA5-46B6-8212-5927FDD01405}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08E1328-1AA5-46B6-8212-5927FDD01405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11100,7 +11150,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67D28A26-C201-4351-9DF5-50C39DE35D50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D28A26-C201-4351-9DF5-50C39DE35D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11153,7 +11203,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD428719-D533-4618-B56A-C7E994B564B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD428719-D533-4618-B56A-C7E994B564B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11211,7 +11261,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BCD6ACB-5855-46EA-A1A5-417A5E2F1FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCD6ACB-5855-46EA-A1A5-417A5E2F1FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11264,7 +11314,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B18938DA-13B9-4FF4-8137-C5D9BE53672E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18938DA-13B9-4FF4-8137-C5D9BE53672E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11317,7 +11367,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985979E6-0003-4719-B387-2A6FC4A2D1EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985979E6-0003-4719-B387-2A6FC4A2D1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11370,7 +11420,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B781993C-472C-4810-AA9D-A912BC3710FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B781993C-472C-4810-AA9D-A912BC3710FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11428,7 +11478,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992BC8F8-7F27-4177-AC63-3EE7FE6A1ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992BC8F8-7F27-4177-AC63-3EE7FE6A1ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,7 +11531,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5F580C-E1E1-4152-BAD9-A31C6D4DEAA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5F580C-E1E1-4152-BAD9-A31C6D4DEAA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11534,7 +11584,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AD0FB9A-8F8E-4D34-AAF7-75820DFE5C39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD0FB9A-8F8E-4D34-AAF7-75820DFE5C39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11592,7 +11642,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20915AED-13CC-43CF-9AD5-831F857F1403}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20915AED-13CC-43CF-9AD5-831F857F1403}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11660,7 +11710,7 @@
                   <a14:compatExt spid="_x0000_s7170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5E15DD4-777F-47E8-90E7-D90B4C690F73}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E15DD4-777F-47E8-90E7-D90B4C690F73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11728,7 +11778,7 @@
                   <a14:compatExt spid="_x0000_s7171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E5F32E9-BD5E-447C-9AA8-B5F1028E17B5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F32E9-BD5E-447C-9AA8-B5F1028E17B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11796,7 +11846,7 @@
                   <a14:compatExt spid="_x0000_s7172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B3F79F-8725-4E28-ADE0-6562D5F6E366}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B3F79F-8725-4E28-ADE0-6562D5F6E366}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11864,7 +11914,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{394301D6-74B3-4702-9EF7-3549894FAADD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394301D6-74B3-4702-9EF7-3549894FAADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11917,7 +11967,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BC1CDF8-BCD4-4562-8A1F-F915B7BE1FDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC1CDF8-BCD4-4562-8A1F-F915B7BE1FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11970,7 +12020,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF40A95D-9E3E-4253-8921-77850CB196A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF40A95D-9E3E-4253-8921-77850CB196A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12023,7 +12073,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2AAEF9D-146C-4F63-A2AF-7B3BDED512C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AAEF9D-146C-4F63-A2AF-7B3BDED512C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12081,7 +12131,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F35225AF-BC8D-49C6-929C-A0AED6AF73EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35225AF-BC8D-49C6-929C-A0AED6AF73EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12134,7 +12184,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3974A77F-FCE5-43B9-86C8-E4BEE360B773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3974A77F-FCE5-43B9-86C8-E4BEE360B773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12242,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59906F24-322A-41BA-BE2B-A262AC52E612}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59906F24-322A-41BA-BE2B-A262AC52E612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12245,7 +12295,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4749EB99-D5B7-47DB-8427-3D749B5447D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4749EB99-D5B7-47DB-8427-3D749B5447D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12298,7 +12348,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F13A76F-972D-4EC3-9960-E38DF8D342B8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F13A76F-972D-4EC3-9960-E38DF8D342B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12351,7 +12401,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB58EF0-DB36-4782-807F-611903A27B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB58EF0-DB36-4782-807F-611903A27B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12457,7 +12507,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E611CF10-8D43-4810-90EC-8FD961CC6D3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E611CF10-8D43-4810-90EC-8FD961CC6D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12510,7 +12560,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A42B53AE-604B-46AF-AF97-84D2C29CE34F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42B53AE-604B-46AF-AF97-84D2C29CE34F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12568,7 +12618,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71736C38-9D07-4451-A701-DEAF12158EA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71736C38-9D07-4451-A701-DEAF12158EA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12626,7 +12676,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5BD16F6-4528-4A5E-98BA-D15433C44FFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BD16F6-4528-4A5E-98BA-D15433C44FFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12684,7 +12734,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4DC609A-6BA7-493F-9461-99318800FBC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC609A-6BA7-493F-9461-99318800FBC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12737,7 +12787,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB73839A-F26E-4904-B1CA-53FA06248D70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB73839A-F26E-4904-B1CA-53FA06248D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12790,7 +12840,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37EE7BBD-B6B2-4C9D-9C55-198ADE8B4EAD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE7BBD-B6B2-4C9D-9C55-198ADE8B4EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12843,7 +12893,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB24216D-6543-41CD-84AF-B77BAE02FA08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB24216D-6543-41CD-84AF-B77BAE02FA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12901,7 +12951,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A9D053-4CC5-431F-A34F-B7F03F8052A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A9D053-4CC5-431F-A34F-B7F03F8052A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12954,7 +13004,7 @@
         <xdr:cNvPr id="21" name="Freeform: Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0611F1DD-0487-455F-9905-30409E53FC2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0611F1DD-0487-455F-9905-30409E53FC2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13060,7 +13110,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59D2095E-16DF-4AC7-8312-64CFA5041A0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D2095E-16DF-4AC7-8312-64CFA5041A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13113,7 +13163,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDC8661B-05A2-4515-B218-0B4507301463}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC8661B-05A2-4515-B218-0B4507301463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13171,7 +13221,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFC6F592-AADE-4A9E-BC68-DC7DDD87D8EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC6F592-AADE-4A9E-BC68-DC7DDD87D8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13229,7 +13279,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85E83AAE-118E-49A4-96F7-6C665C954E8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E83AAE-118E-49A4-96F7-6C665C954E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13282,7 +13332,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11D28F6C-F31F-4DE3-8537-84DB0791234D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D28F6C-F31F-4DE3-8537-84DB0791234D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13340,7 +13390,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FEEA7E1-8C31-4358-8053-2B28C3C4EE1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEEA7E1-8C31-4358-8053-2B28C3C4EE1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13393,7 +13443,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5BB328-A68E-4EA6-B84E-703073762AD4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5BB328-A68E-4EA6-B84E-703073762AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13446,7 +13496,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E43F4D3-9FE1-41B2-B257-EC65FE7A26E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E43F4D3-9FE1-41B2-B257-EC65FE7A26E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13499,7 +13549,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A9DE3D9-EC7F-49FD-8D06-D138CD353960}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9DE3D9-EC7F-49FD-8D06-D138CD353960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13557,7 +13607,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6971ACA-7972-483A-BFAA-9A431EF98D9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6971ACA-7972-483A-BFAA-9A431EF98D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13610,7 +13660,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75A137E-4DC3-46E6-8B24-8469C9C323BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75A137E-4DC3-46E6-8B24-8469C9C323BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13663,7 +13713,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C147E0FA-2A61-497A-A454-93526FFAFB28}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C147E0FA-2A61-497A-A454-93526FFAFB28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13721,7 +13771,7 @@
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE902920-230C-445D-A2ED-6E3BA6117F2E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE902920-230C-445D-A2ED-6E3BA6117F2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13789,7 +13839,7 @@
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3765A18-82FE-4483-9D32-10F0CE3AABCC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3765A18-82FE-4483-9D32-10F0CE3AABCC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13857,7 +13907,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14CC42FE-B4A9-473E-A8E4-70EDF8303177}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CC42FE-B4A9-473E-A8E4-70EDF8303177}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13925,7 +13975,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE0C41AF-2C0A-4CED-90EE-62A9C8BAAFC5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0C41AF-2C0A-4CED-90EE-62A9C8BAAFC5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14295,50 +14345,50 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="177" t="s">
+      <c r="L1" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="S1" s="177" t="s">
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="S1" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="X1" s="177" t="s">
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="X1" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" thickBot="1">
       <c r="A2" s="117">
         <v>0.01</v>
       </c>
-      <c r="E2" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="E2" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="176" t="s">
+      <c r="L2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="S2" s="176" t="s">
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="S2" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="X2" s="176" t="s">
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="X2" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -14432,11 +14482,11 @@
       <c r="R4" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="179" t="s">
+      <c r="S4" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="180"/>
-      <c r="U4" s="181"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="173"/>
       <c r="V4" s="139" t="s">
         <v>17</v>
       </c>
@@ -14453,7 +14503,7 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:32" s="2" customFormat="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="176" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -14535,7 +14585,7 @@
       <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:32" s="2" customFormat="1">
-      <c r="A6" s="184"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -14616,7 +14666,7 @@
       <c r="AC6" s="16"/>
     </row>
     <row r="7" spans="1:32" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="184"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -14946,7 +14996,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="22" customFormat="1" ht="15.75">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="174" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="123"/>
@@ -14959,10 +15009,10 @@
       <c r="M17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="171" t="s">
+      <c r="W17" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="171"/>
+      <c r="X17" s="177"/>
       <c r="Y17" s="25" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +15029,7 @@
       <c r="AC17" s="95"/>
     </row>
     <row r="18" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A18" s="183"/>
+      <c r="A18" s="175"/>
       <c r="C18" s="123"/>
       <c r="D18" s="123"/>
       <c r="H18" s="123"/>
@@ -15063,7 +15113,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" s="22" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="174" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="123"/>
@@ -15075,10 +15125,10 @@
       <c r="M23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="172" t="s">
+      <c r="N23" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="171"/>
+      <c r="O23" s="177"/>
       <c r="P23" s="25" t="s">
         <v>25</v>
       </c>
@@ -15099,10 +15149,10 @@
       <c r="V23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W23" s="171" t="s">
+      <c r="W23" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="X23" s="171"/>
+      <c r="X23" s="177"/>
       <c r="Y23" s="25" t="s">
         <v>25</v>
       </c>
@@ -15128,7 +15178,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A24" s="183"/>
+      <c r="A24" s="175"/>
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="H24" s="123"/>
@@ -15177,10 +15227,10 @@
       <c r="I25" s="123"/>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
-      <c r="W25" s="171" t="s">
+      <c r="W25" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="X25" s="171"/>
+      <c r="X25" s="177"/>
       <c r="Y25" s="34" t="s">
         <v>25</v>
       </c>
@@ -15265,10 +15315,10 @@
       <c r="I28" s="123"/>
       <c r="J28" s="123"/>
       <c r="K28" s="123"/>
-      <c r="N28" s="171" t="s">
+      <c r="N28" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="171"/>
+      <c r="O28" s="177"/>
       <c r="P28" s="25" t="s">
         <v>25</v>
       </c>
@@ -15293,10 +15343,10 @@
       <c r="V28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="171" t="s">
+      <c r="W28" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="X28" s="171"/>
+      <c r="X28" s="177"/>
       <c r="Y28" s="25" t="s">
         <v>25</v>
       </c>
@@ -15423,10 +15473,10 @@
       <c r="J33" s="123"/>
       <c r="K33" s="123"/>
       <c r="M33"/>
-      <c r="N33" s="173" t="s">
+      <c r="N33" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="173"/>
+      <c r="O33" s="179"/>
       <c r="P33" s="25" t="s">
         <v>25</v>
       </c>
@@ -15445,10 +15495,10 @@
       <c r="V33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W33" s="174" t="s">
+      <c r="W33" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="X33" s="174"/>
+      <c r="X33" s="180"/>
       <c r="Y33" s="25" t="s">
         <v>25</v>
       </c>
@@ -15605,10 +15655,10 @@
       <c r="J40" s="123"/>
       <c r="K40" s="123"/>
       <c r="M40"/>
-      <c r="N40" s="171" t="s">
+      <c r="N40" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="171"/>
+      <c r="O40" s="177"/>
       <c r="P40" s="25" t="s">
         <v>25</v>
       </c>
@@ -15633,10 +15683,10 @@
       <c r="V40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W40" s="171" t="s">
+      <c r="W40" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="171"/>
+      <c r="X40" s="177"/>
       <c r="Y40" s="25" t="s">
         <v>25</v>
       </c>
@@ -15776,10 +15826,10 @@
       <c r="J46" s="123"/>
       <c r="K46" s="123"/>
       <c r="M46"/>
-      <c r="N46" s="171" t="s">
+      <c r="N46" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="171"/>
+      <c r="O46" s="177"/>
       <c r="P46" s="25" t="s">
         <v>25</v>
       </c>
@@ -15796,10 +15846,10 @@
       <c r="V46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W46" s="171" t="s">
+      <c r="W46" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="X46" s="171"/>
+      <c r="X46" s="177"/>
       <c r="Y46" s="25" t="s">
         <v>25</v>
       </c>
@@ -15876,10 +15926,10 @@
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
       <c r="M48"/>
-      <c r="W48" s="171" t="s">
+      <c r="W48" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="X48" s="171"/>
+      <c r="X48" s="177"/>
       <c r="Y48" s="34" t="s">
         <v>25</v>
       </c>
@@ -15969,10 +16019,10 @@
       <c r="J51" s="123"/>
       <c r="K51" s="123"/>
       <c r="M51"/>
-      <c r="N51" s="171" t="s">
+      <c r="N51" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="O51" s="171"/>
+      <c r="O51" s="177"/>
       <c r="P51" s="25" t="s">
         <v>25</v>
       </c>
@@ -15997,10 +16047,10 @@
       <c r="V51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W51" s="171" t="s">
+      <c r="W51" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="X51" s="171"/>
+      <c r="X51" s="177"/>
       <c r="Y51" s="25" t="s">
         <v>25</v>
       </c>
@@ -16121,10 +16171,10 @@
       <c r="J56" s="123"/>
       <c r="K56" s="123"/>
       <c r="M56"/>
-      <c r="N56" s="173" t="s">
+      <c r="N56" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="173"/>
+      <c r="O56" s="179"/>
       <c r="P56" s="25" t="s">
         <v>25</v>
       </c>
@@ -16143,10 +16193,10 @@
       <c r="V56" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W56" s="174" t="s">
+      <c r="W56" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="X56" s="174"/>
+      <c r="X56" s="180"/>
       <c r="Y56" s="34" t="s">
         <v>25</v>
       </c>
@@ -16303,10 +16353,10 @@
       <c r="J63" s="123"/>
       <c r="K63" s="123"/>
       <c r="M63"/>
-      <c r="N63" s="171" t="s">
+      <c r="N63" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="O63" s="171"/>
+      <c r="O63" s="177"/>
       <c r="P63" s="34" t="s">
         <v>25</v>
       </c>
@@ -16331,10 +16381,10 @@
       <c r="V63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W63" s="171" t="s">
+      <c r="W63" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="X63" s="171"/>
+      <c r="X63" s="177"/>
       <c r="Y63" s="34" t="s">
         <v>25</v>
       </c>
@@ -16484,10 +16534,10 @@
       <c r="AG68" s="32"/>
     </row>
     <row r="69" spans="3:33" ht="16.5" thickBot="1">
-      <c r="N69" s="171" t="s">
+      <c r="N69" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="O69" s="171"/>
+      <c r="O69" s="177"/>
       <c r="P69" s="34" t="s">
         <v>25</v>
       </c>
@@ -16504,10 +16554,10 @@
       <c r="V69" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W69" s="171" t="s">
+      <c r="W69" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="X69" s="171"/>
+      <c r="X69" s="177"/>
       <c r="Y69" s="34" t="s">
         <v>25</v>
       </c>
@@ -16580,10 +16630,10 @@
       <c r="AG70" s="28"/>
     </row>
     <row r="71" spans="3:33" ht="16.5" thickBot="1">
-      <c r="W71" s="171" t="s">
+      <c r="W71" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="X71" s="171"/>
+      <c r="X71" s="177"/>
       <c r="Y71" s="34" t="s">
         <v>25</v>
       </c>
@@ -16659,10 +16709,10 @@
       <c r="AG73" s="28"/>
     </row>
     <row r="74" spans="3:33" ht="15.75">
-      <c r="N74" s="171" t="s">
+      <c r="N74" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="171"/>
+      <c r="O74" s="177"/>
       <c r="P74" s="34" t="s">
         <v>25</v>
       </c>
@@ -16687,10 +16737,10 @@
       <c r="V74" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W74" s="171" t="s">
+      <c r="W74" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="X74" s="171"/>
+      <c r="X74" s="177"/>
       <c r="Y74" s="34" t="s">
         <v>25</v>
       </c>
@@ -16781,10 +16831,10 @@
       </c>
     </row>
     <row r="79" spans="3:33" ht="15.75">
-      <c r="N79" s="173" t="s">
+      <c r="N79" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="O79" s="173"/>
+      <c r="O79" s="179"/>
       <c r="P79" s="34" t="s">
         <v>25</v>
       </c>
@@ -16803,10 +16853,10 @@
       <c r="V79" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W79" s="174" t="s">
+      <c r="W79" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="X79" s="174"/>
+      <c r="X79" s="180"/>
       <c r="Y79" s="34" t="s">
         <v>25</v>
       </c>
@@ -16878,10 +16928,10 @@
       <c r="U83" s="32"/>
     </row>
     <row r="84" spans="14:21" ht="15.75">
-      <c r="N84" s="171" t="s">
+      <c r="N84" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="O84" s="171"/>
+      <c r="O84" s="177"/>
       <c r="P84" s="34" t="s">
         <v>25</v>
       </c>
@@ -16925,31 +16975,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="W63:X63"/>
     <mergeCell ref="N23:O23"/>
@@ -16966,6 +16991,31 @@
     <mergeCell ref="W74:X74"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="W56:X56"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17001,40 +17051,40 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="R1" s="202" t="s">
+      <c r="I1" s="188"/>
+      <c r="R1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="Y1" s="202" t="s">
+      <c r="S1" s="188"/>
+      <c r="Y1" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="202"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="C2" s="185"/>
+      <c r="H2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="I2" s="185"/>
+      <c r="R2" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="201"/>
+      <c r="S2" s="185"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="201"/>
+      <c r="Z2" s="185"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
       <c r="B3" s="147" t="s">
@@ -17043,10 +17093,10 @@
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="191"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
@@ -17056,14 +17106,14 @@
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
@@ -17073,11 +17123,11 @@
       <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="187"/>
       <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
@@ -17391,44 +17441,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="159"/>
       <c r="E12" s="159"/>
       <c r="F12" s="159"/>
       <c r="G12" s="160"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="191"/>
-      <c r="J12" s="190" t="s">
+      <c r="I12" s="187"/>
+      <c r="J12" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="R12" s="195" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="187"/>
+      <c r="R12" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="196"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="198"/>
+      <c r="T12" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="191"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="187"/>
       <c r="X12" s="160"/>
-      <c r="Y12" s="189" t="s">
+      <c r="Y12" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="191"/>
-      <c r="AB12" s="189" t="s">
+      <c r="Z12" s="187"/>
+      <c r="AB12" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="191"/>
+      <c r="AC12" s="187"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -17439,11 +17489,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="185">
+      <c r="H13" s="193">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="186"/>
+      <c r="I13" s="194"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.2</v>
@@ -17468,11 +17518,11 @@
         <f>I9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R13" s="197">
+      <c r="R13" s="199">
         <f>S4*(1-S4)</f>
         <v>0.14069299239346442</v>
       </c>
-      <c r="S13" s="198"/>
+      <c r="S13" s="200"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.83061610306598133</v>
@@ -17485,11 +17535,11 @@
         <f>S6</f>
         <v>0.89659954854175039</v>
       </c>
-      <c r="Y13" s="185">
+      <c r="Y13" s="193">
         <f>EXP(Z4)*EXP(Z5)/(EXP(Z4)+EXP(Z5))^2</f>
         <v>0.23384229765803455</v>
       </c>
-      <c r="Z13" s="186"/>
+      <c r="Z13" s="194"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>0.24007444302067488</v>
@@ -17499,21 +17549,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="185">
+      <c r="H14" s="193">
         <f t="shared" ref="H14:H18" si="4">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="186"/>
-      <c r="R14" s="197">
+      <c r="I14" s="194"/>
+      <c r="R14" s="199">
         <f t="shared" ref="R14:R15" si="5">S5*(1-S5)</f>
         <v>0.11912845300278095</v>
       </c>
-      <c r="S14" s="198"/>
-      <c r="Y14" s="187">
+      <c r="S14" s="200"/>
+      <c r="Y14" s="195">
         <f>EXP(Z4)*EXP(Z5)/(EXP(Z4)+EXP(Z5))^2</f>
         <v>0.23384229765803455</v>
       </c>
-      <c r="Z14" s="188"/>
+      <c r="Z14" s="196"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -17524,53 +17574,53 @@
     </row>
     <row r="15" spans="1:30" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="185">
+      <c r="H15" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I15" s="186"/>
-      <c r="R15" s="199">
+      <c r="I15" s="194"/>
+      <c r="R15" s="201">
         <f t="shared" si="5"/>
         <v>9.2708798096479778E-2</v>
       </c>
-      <c r="S15" s="200"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="185">
+      <c r="H16" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I16" s="186"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="185">
+      <c r="H17" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="194"/>
+      <c r="J17" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
       <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="192" t="s">
+      <c r="T17" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="194"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="192"/>
       <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
@@ -17588,11 +17638,11 @@
         <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>1.7100175521381961E-3</v>
       </c>
-      <c r="H18" s="187">
+      <c r="H18" s="195">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="188"/>
+      <c r="I18" s="196"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>1.6580606523922386E-4</v>
@@ -17679,10 +17729,10 @@
         <f>R21*$A$2</f>
         <v>1.1922289925488264E-3</v>
       </c>
-      <c r="R19" s="189" t="s">
+      <c r="R19" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="191"/>
+      <c r="S19" s="187"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>1.4760275598517451E-2</v>
@@ -17699,10 +17749,10 @@
         <f>Z21*$A$2</f>
         <v>1.7770273829310703E-2</v>
       </c>
-      <c r="Z19" s="195" t="s">
+      <c r="Z19" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="196"/>
+      <c r="AA19" s="198"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
@@ -17745,18 +17795,18 @@
         <f>R22*$A$2</f>
         <v>1.5868072771924203E-3</v>
       </c>
-      <c r="R20" s="185">
+      <c r="R20" s="193">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>8.2903032619611912E-3</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="Z20" s="197">
+      <c r="S20" s="194"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="Z20" s="199">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>5.613955936492751E-2</v>
       </c>
-      <c r="AA20" s="198"/>
+      <c r="AA20" s="200"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
@@ -17771,20 +17821,20 @@
         <f t="shared" si="7"/>
         <v>1.0500874878368322E-3</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="R21" s="185">
+      <c r="I21" s="187"/>
+      <c r="R21" s="193">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>1.1922289925488263E-2</v>
       </c>
-      <c r="S21" s="186"/>
-      <c r="Z21" s="199">
+      <c r="S21" s="194"/>
+      <c r="Z21" s="201">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>0.17770273829310704</v>
       </c>
-      <c r="AA21" s="200"/>
+      <c r="AA21" s="202"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
@@ -17799,16 +17849,16 @@
         <f t="shared" si="7"/>
         <v>2.117407377716274E-3</v>
       </c>
-      <c r="H22" s="185">
+      <c r="H22" s="193">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>1.7100175521381961E-2</v>
       </c>
-      <c r="I22" s="186"/>
-      <c r="R22" s="187">
+      <c r="I22" s="194"/>
+      <c r="R22" s="195">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>1.5868072771924202E-2</v>
       </c>
-      <c r="S22" s="188"/>
+      <c r="S22" s="196"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
@@ -17823,38 +17873,38 @@
         <f t="shared" si="7"/>
         <v>1.522142295303665E-3</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="193">
         <f t="shared" ref="H23:H27" si="12">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>1.3966434723906051E-2</v>
       </c>
-      <c r="I23" s="186"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="185">
+      <c r="H24" s="193">
         <f t="shared" si="12"/>
         <v>1.5561736139716516E-2</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="190" t="s">
+      <c r="I24" s="194"/>
+      <c r="J24" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="191"/>
-      <c r="T24" s="189" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="187"/>
+      <c r="T24" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="187"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="185">
+      <c r="H25" s="193">
         <f t="shared" si="12"/>
         <v>1.0500874878368323E-2</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.1</v>
@@ -17893,11 +17943,11 @@
       </c>
     </row>
     <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="185">
+      <c r="H26" s="193">
         <f t="shared" si="12"/>
         <v>2.1174073777162739E-2</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="124">
         <f t="shared" ref="J26:O26" si="15">J5</f>
         <v>0.3</v>
@@ -17936,11 +17986,11 @@
       </c>
     </row>
     <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="187">
+      <c r="H27" s="195">
         <f t="shared" si="12"/>
         <v>1.522142295303665E-2</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="43">
         <f t="shared" ref="J27:O27" si="16">J6</f>
         <v>0.8</v>
@@ -17965,17 +18015,17 @@
         <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
-      <c r="Z27" s="189" t="s">
+      <c r="Z27" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="191"/>
+      <c r="AA27" s="187"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="189" t="s">
+      <c r="Q28" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>5.613955936492751E-2</v>
@@ -18001,19 +18051,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="T31" s="189" t="s">
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="187"/>
+      <c r="T31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="190"/>
-      <c r="V31" s="191"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -18075,19 +18125,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="T36" s="189" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="187"/>
+      <c r="T36" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="190"/>
-      <c r="V36" s="191"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="187"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -18157,14 +18207,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="187"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -18284,24 +18334,27 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="J24:O24"/>
     <mergeCell ref="Z27:AA27"/>
@@ -18318,27 +18371,24 @@
     <mergeCell ref="T31:V31"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="T12:V12"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18468,40 +18518,40 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="R1" s="202" t="s">
+      <c r="I1" s="188"/>
+      <c r="R1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="Y1" s="202" t="s">
+      <c r="S1" s="188"/>
+      <c r="Y1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="202"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:75" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="C2" s="185"/>
+      <c r="H2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="I2" s="185"/>
+      <c r="R2" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="201"/>
+      <c r="S2" s="185"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="201"/>
+      <c r="Z2" s="185"/>
     </row>
     <row r="3" spans="1:75" ht="14.25">
       <c r="B3" s="147" t="s">
@@ -18510,10 +18560,10 @@
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="191"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
@@ -18523,14 +18573,14 @@
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
@@ -18540,11 +18590,11 @@
       <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="187"/>
       <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
@@ -18969,44 +19019,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:75" ht="15">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="159"/>
       <c r="E12" s="159"/>
       <c r="F12" s="159"/>
       <c r="G12" s="160"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="191"/>
-      <c r="J12" s="190" t="s">
+      <c r="I12" s="187"/>
+      <c r="J12" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="R12" s="195" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="187"/>
+      <c r="R12" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="196"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="198"/>
+      <c r="T12" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="191"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="187"/>
       <c r="X12" s="159"/>
-      <c r="Y12" s="195" t="s">
+      <c r="Y12" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AB12" s="189" t="s">
+      <c r="Z12" s="198"/>
+      <c r="AB12" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="191"/>
+      <c r="AC12" s="187"/>
     </row>
     <row r="13" spans="1:75" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -19017,11 +19067,11 @@
         <f>C5</f>
         <v>1</v>
       </c>
-      <c r="H13" s="197">
+      <c r="H13" s="199">
         <f>I4*(1-I4)</f>
         <v>0.24448912422224769</v>
       </c>
-      <c r="I13" s="198"/>
+      <c r="I13" s="200"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.57423527313718392</v>
@@ -19046,11 +19096,11 @@
         <f>I9</f>
         <v>0.78574915240623089</v>
       </c>
-      <c r="R13" s="197">
+      <c r="R13" s="199">
         <f>S4*(1-S4)</f>
         <v>0.15995815180356807</v>
       </c>
-      <c r="S13" s="198"/>
+      <c r="S13" s="200"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.80006973888819899</v>
@@ -19063,28 +19113,28 @@
         <f>S6</f>
         <v>0.90951900785632134</v>
       </c>
-      <c r="Y13" s="199">
+      <c r="Y13" s="201">
         <f>Z4*(1-Z4)</f>
         <v>0.24769649998102411</v>
       </c>
-      <c r="Z13" s="200"/>
-      <c r="AB13" s="187">
+      <c r="Z13" s="202"/>
+      <c r="AB13" s="195">
         <f>AC4</f>
         <v>0.54799479158175268</v>
       </c>
-      <c r="AC13" s="188"/>
+      <c r="AC13" s="196"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="H14" s="197">
+      <c r="H14" s="199">
         <f t="shared" ref="H14:H18" si="4">I5*(1-I5)</f>
         <v>0.23504575100948763</v>
       </c>
-      <c r="I14" s="198"/>
-      <c r="R14" s="197">
+      <c r="I14" s="200"/>
+      <c r="R14" s="199">
         <f>S5*(1-S5)</f>
         <v>0.10774817118314566</v>
       </c>
-      <c r="S14" s="198"/>
+      <c r="S14" s="200"/>
       <c r="Y14" s="203"/>
       <c r="Z14" s="203"/>
       <c r="AB14" s="124"/>
@@ -19092,53 +19142,53 @@
     </row>
     <row r="15" spans="1:75" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="197">
+      <c r="H15" s="199">
         <f t="shared" si="4"/>
         <v>0.2139817577068327</v>
       </c>
-      <c r="I15" s="198"/>
-      <c r="R15" s="199">
+      <c r="I15" s="200"/>
+      <c r="R15" s="201">
         <f>S6*(1-S6)</f>
         <v>8.2294182204374219E-2</v>
       </c>
-      <c r="S15" s="200"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:75" ht="13.5" thickBot="1">
-      <c r="H16" s="197">
+      <c r="H16" s="199">
         <f t="shared" si="4"/>
         <v>0.17793489328113463</v>
       </c>
-      <c r="I16" s="198"/>
+      <c r="I16" s="200"/>
     </row>
     <row r="17" spans="2:28" ht="14.25">
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="197">
+      <c r="H17" s="199">
         <f t="shared" si="4"/>
         <v>0.21398666720010481</v>
       </c>
-      <c r="I17" s="198"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="200"/>
+      <c r="J17" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
       <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="192" t="s">
+      <c r="T17" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="194"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="192"/>
       <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
@@ -19156,11 +19206,11 @@
         <f t="shared" ref="F18:F23" si="6">H22*$A$2</f>
         <v>3.4938550353743132E-5</v>
       </c>
-      <c r="H18" s="197">
+      <c r="H18" s="199">
         <f t="shared" si="4"/>
         <v>0.16834742189912064</v>
       </c>
-      <c r="I18" s="198"/>
+      <c r="I18" s="200"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>2.1432968927612979E-5</v>
@@ -19247,18 +19297,18 @@
         <f>R21*$A$2</f>
         <v>1.5785156403648048E-4</v>
       </c>
-      <c r="R19" s="189" t="s">
+      <c r="R19" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="191"/>
+      <c r="S19" s="187"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="124"/>
-      <c r="Z19" s="195" t="s">
+      <c r="Z19" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="196"/>
+      <c r="AA19" s="198"/>
     </row>
     <row r="20" spans="2:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
@@ -19301,18 +19351,18 @@
         <f>R22*$A$2</f>
         <v>1.1528740094354014E-4</v>
       </c>
-      <c r="R20" s="185">
+      <c r="R20" s="193">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>3.732436847795777E-4</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="Z20" s="199">
+      <c r="S20" s="194"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="Z20" s="201">
         <f>AB13*$Y$13</f>
         <v>0.13573639188263092</v>
       </c>
-      <c r="AA20" s="200"/>
+      <c r="AA20" s="202"/>
     </row>
     <row r="21" spans="2:28" ht="14.25">
       <c r="D21" s="31">
@@ -19327,15 +19377,15 @@
         <f t="shared" si="6"/>
         <v>1.652096306578819E-5</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="R21" s="185">
+      <c r="I21" s="187"/>
+      <c r="R21" s="193">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>1.5785156403648048E-3</v>
       </c>
-      <c r="S21" s="186"/>
+      <c r="S21" s="194"/>
       <c r="Z21" s="203"/>
       <c r="AA21" s="203"/>
     </row>
@@ -19352,16 +19402,16 @@
         <f t="shared" si="6"/>
         <v>3.5425739236799501E-5</v>
       </c>
-      <c r="H22" s="185">
+      <c r="H22" s="193">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>3.4938550353743133E-4</v>
       </c>
-      <c r="I22" s="186"/>
-      <c r="R22" s="187">
+      <c r="I22" s="194"/>
+      <c r="R22" s="195">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>1.1528740094354014E-3</v>
       </c>
-      <c r="S22" s="188"/>
+      <c r="S22" s="196"/>
     </row>
     <row r="23" spans="2:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
@@ -19376,38 +19426,38 @@
         <f t="shared" si="6"/>
         <v>1.9386214020434994E-5</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="193">
         <f t="shared" ref="H23:H27" si="9">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>3.1040323609868704E-4</v>
       </c>
-      <c r="I23" s="186"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="2:28" ht="14.25">
-      <c r="H24" s="185">
+      <c r="H24" s="193">
         <f t="shared" si="9"/>
         <v>3.6831202091246293E-4</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="190" t="s">
+      <c r="I24" s="194"/>
+      <c r="J24" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="191"/>
-      <c r="T24" s="189" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="187"/>
+      <c r="T24" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="187"/>
     </row>
     <row r="25" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H25" s="185">
+      <c r="H25" s="193">
         <f t="shared" si="9"/>
         <v>1.6520963065788191E-4</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>9.889275074123785E-2</v>
@@ -19446,11 +19496,11 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H26" s="185">
+      <c r="H26" s="193">
         <f t="shared" si="9"/>
         <v>3.5425739236799499E-4</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="124">
         <f t="shared" ref="J26:O27" si="12">J5</f>
         <v>0.29848904713611996</v>
@@ -19480,11 +19530,11 @@
       <c r="V26" s="124"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1">
-      <c r="H27" s="187">
+      <c r="H27" s="195">
         <f t="shared" si="9"/>
         <v>1.9386214020434992E-4</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="43">
         <f t="shared" si="12"/>
         <v>0.79884046239780848</v>
@@ -19509,10 +19559,10 @@
         <f t="shared" si="12"/>
         <v>0.59856341866563223</v>
       </c>
-      <c r="Z27" s="189" t="s">
+      <c r="Z27" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="191"/>
+      <c r="AA27" s="187"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" thickBot="1">
       <c r="B28" s="166" t="s">
@@ -19527,16 +19577,16 @@
       <c r="E28" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="Q28" s="189" t="s">
+      <c r="Q28" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
-      <c r="Z28" s="187">
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
+      <c r="Z28" s="195">
         <f>Z20</f>
         <v>0.13573639188263092</v>
       </c>
-      <c r="AA28" s="188"/>
+      <c r="AA28" s="196"/>
     </row>
     <row r="29" spans="2:28" ht="13.5" thickBot="1">
       <c r="B29" s="31">
@@ -19585,19 +19635,19 @@
       <c r="D31" s="41">
         <v>1</v>
       </c>
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="T31" s="189" t="s">
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="187"/>
+      <c r="T31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="190"/>
-      <c r="V31" s="191"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="2:28" ht="13.5" thickBot="1">
       <c r="B32" s="42">
@@ -19668,19 +19718,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="T36" s="189" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="187"/>
+      <c r="T36" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="190"/>
-      <c r="V36" s="191"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="187"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -19750,14 +19800,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="187"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -19877,47 +19927,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="Z21:AA21"/>
@@ -19934,6 +19943,47 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20085,40 +20135,40 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="R1" s="202" t="s">
+      <c r="I1" s="188"/>
+      <c r="R1" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="Y1" s="202" t="s">
+      <c r="S1" s="188"/>
+      <c r="Y1" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="202"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:75" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="C2" s="185"/>
+      <c r="H2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="I2" s="185"/>
+      <c r="R2" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="201"/>
+      <c r="S2" s="185"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="201"/>
+      <c r="Z2" s="185"/>
     </row>
     <row r="3" spans="1:75" ht="14.25">
       <c r="B3" s="147" t="s">
@@ -20127,10 +20177,10 @@
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="191"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
@@ -20140,14 +20190,14 @@
       <c r="I3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
@@ -20157,11 +20207,11 @@
       <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="187"/>
       <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
@@ -20687,41 +20737,41 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:75" ht="15">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="187"/>
       <c r="G12" s="160"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="191"/>
-      <c r="J12" s="190" t="s">
+      <c r="I12" s="187"/>
+      <c r="J12" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="R12" s="195" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="187"/>
+      <c r="R12" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="196"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="198"/>
+      <c r="T12" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="191"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="187"/>
       <c r="X12" s="159"/>
-      <c r="Y12" s="195" t="s">
+      <c r="Y12" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AB12" s="189" t="s">
+      <c r="Z12" s="198"/>
+      <c r="AB12" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="191"/>
+      <c r="AC12" s="187"/>
     </row>
     <row r="13" spans="1:75" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -20732,11 +20782,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="185">
+      <c r="H13" s="193">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="186"/>
+      <c r="I13" s="194"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.10419344287251209</v>
@@ -20761,11 +20811,11 @@
         <f>I9</f>
         <v>0.58661251182869223</v>
       </c>
-      <c r="R13" s="185">
+      <c r="R13" s="193">
         <f>IF(R4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="186"/>
+      <c r="S13" s="194"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.67849283842440267</v>
@@ -20778,81 +20828,81 @@
         <f>S6</f>
         <v>1.2216066612300076</v>
       </c>
-      <c r="Y13" s="185">
+      <c r="Y13" s="193">
         <f>IF(Y4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AB13" s="187">
+      <c r="Z13" s="194"/>
+      <c r="AB13" s="195">
         <f>AC4</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AC13" s="188"/>
+      <c r="AC13" s="196"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="H14" s="185">
+      <c r="H14" s="193">
         <f t="shared" ref="H14:H18" si="13">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="186"/>
-      <c r="R14" s="185">
+      <c r="I14" s="194"/>
+      <c r="R14" s="193">
         <f t="shared" ref="R14:R15" si="14">IF(R5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="186"/>
+      <c r="S14" s="194"/>
       <c r="Y14" s="203"/>
       <c r="Z14" s="203"/>
       <c r="AB14" s="124"/>
       <c r="AC14" s="124"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="H15" s="185">
+      <c r="H15" s="193">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I15" s="186"/>
-      <c r="R15" s="185">
+      <c r="I15" s="194"/>
+      <c r="R15" s="193">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S15" s="186"/>
+      <c r="S15" s="194"/>
     </row>
     <row r="16" spans="1:75" ht="13.5" thickBot="1">
-      <c r="H16" s="185">
+      <c r="H16" s="193">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I16" s="186"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:28" ht="14.25">
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="185">
+      <c r="H17" s="193">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="194"/>
+      <c r="J17" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
       <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="192" t="s">
+      <c r="T17" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="194"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="192"/>
       <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
@@ -20870,11 +20920,11 @@
         <f t="shared" ref="F18:F23" si="16">H22*$A$2</f>
         <v>-1.4105211867637612E-3</v>
       </c>
-      <c r="H18" s="185">
+      <c r="H18" s="193">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I18" s="186"/>
+      <c r="I18" s="194"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>8.2903206866197511E-6</v>
@@ -20961,18 +21011,18 @@
         <f>R21*$A$2</f>
         <v>-4.7862140140278345E-4</v>
       </c>
-      <c r="R19" s="189" t="s">
+      <c r="R19" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="191"/>
+      <c r="S19" s="187"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="124"/>
-      <c r="Z19" s="195" t="s">
+      <c r="Z19" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="196"/>
+      <c r="AA19" s="198"/>
     </row>
     <row r="20" spans="2:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
@@ -21015,18 +21065,18 @@
         <f>R22*$A$2</f>
         <v>-1.6448829748478414E-3</v>
       </c>
-      <c r="R20" s="185">
+      <c r="R20" s="193">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>7.9566625864964781E-4</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="Z20" s="199">
+      <c r="S20" s="194"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="Z20" s="201">
         <f>AB13*$Y$13</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AA20" s="200"/>
+      <c r="AA20" s="202"/>
     </row>
     <row r="21" spans="2:28" ht="14.25">
       <c r="D21" s="31">
@@ -21041,15 +21091,15 @@
         <f t="shared" si="16"/>
         <v>-7.1415500629146096E-5</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="R21" s="185">
+      <c r="I21" s="187"/>
+      <c r="R21" s="193">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>-4.786214014027834E-3</v>
       </c>
-      <c r="S21" s="186"/>
+      <c r="S21" s="194"/>
       <c r="Z21" s="203"/>
       <c r="AA21" s="203"/>
     </row>
@@ -21066,16 +21116,16 @@
         <f t="shared" si="16"/>
         <v>-1.5288971078652454E-3</v>
       </c>
-      <c r="H22" s="185">
+      <c r="H22" s="193">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>-1.4105211867637612E-2</v>
       </c>
-      <c r="I22" s="186"/>
-      <c r="R22" s="187">
+      <c r="I22" s="194"/>
+      <c r="R22" s="195">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>-1.6448829748478413E-2</v>
       </c>
-      <c r="S22" s="188"/>
+      <c r="S22" s="196"/>
     </row>
     <row r="23" spans="2:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
@@ -21090,38 +21140,38 @@
         <f t="shared" si="16"/>
         <v>-8.6200791402646869E-4</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="193">
         <f t="shared" ref="H23:H27" si="19">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>-7.928866859323612E-3</v>
       </c>
-      <c r="I23" s="186"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="2:28" ht="14.25">
-      <c r="H24" s="185">
+      <c r="H24" s="193">
         <f t="shared" si="19"/>
         <v>-6.3019301876539105E-3</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="190" t="s">
+      <c r="I24" s="194"/>
+      <c r="J24" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="191"/>
-      <c r="T24" s="189" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="187"/>
+      <c r="T24" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="187"/>
     </row>
     <row r="25" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H25" s="185">
+      <c r="H25" s="193">
         <f t="shared" si="19"/>
         <v>-7.1415500629146091E-4</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>8.7981863334530924E-2</v>
@@ -21160,11 +21210,11 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="13.5" thickBot="1">
-      <c r="H26" s="185">
+      <c r="H26" s="193">
         <f t="shared" si="19"/>
         <v>-1.5288971078652453E-2</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="124">
         <f t="shared" ref="J26:O27" si="22">J5</f>
         <v>0.2827492824853573</v>
@@ -21194,11 +21244,11 @@
       <c r="V26" s="124"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1">
-      <c r="H27" s="187">
+      <c r="H27" s="195">
         <f t="shared" si="19"/>
         <v>-8.6200791402646863E-3</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="43">
         <f t="shared" si="22"/>
         <v>0.77950332549124801</v>
@@ -21223,10 +21273,10 @@
         <f t="shared" si="22"/>
         <v>0.50608799462211163</v>
       </c>
-      <c r="Z27" s="189" t="s">
+      <c r="Z27" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="191"/>
+      <c r="AA27" s="187"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" thickBot="1">
       <c r="B28" s="166" t="s">
@@ -21244,16 +21294,16 @@
       <c r="F28" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="Q28" s="189" t="s">
+      <c r="Q28" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
-      <c r="Z28" s="187">
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
+      <c r="Z28" s="195">
         <f>Z20</f>
         <v>-6.2963059111382114E-2</v>
       </c>
-      <c r="AA28" s="188"/>
+      <c r="AA28" s="196"/>
     </row>
     <row r="29" spans="2:28" ht="13.5" thickBot="1">
       <c r="B29" s="31">
@@ -21305,19 +21355,19 @@
       <c r="D31" s="41">
         <v>1</v>
       </c>
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="T31" s="189" t="s">
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="187"/>
+      <c r="T31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="190"/>
-      <c r="V31" s="191"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="2:28" ht="13.5" thickBot="1">
       <c r="B32" s="42">
@@ -21415,19 +21465,19 @@
       <c r="D36" s="41">
         <v>1</v>
       </c>
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="T36" s="189" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="187"/>
+      <c r="T36" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="190"/>
-      <c r="V36" s="191"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="187"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -21506,14 +21556,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="187"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -21633,21 +21683,36 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R19:S19"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="AB12:AC12"/>
@@ -21660,36 +21725,21 @@
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21841,40 +21891,40 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="R1" s="202" t="s">
+      <c r="I1" s="188"/>
+      <c r="R1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="Y1" s="202" t="s">
+      <c r="S1" s="188"/>
+      <c r="Y1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="202"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="C2" s="185"/>
+      <c r="H2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="I2" s="185"/>
+      <c r="R2" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="201"/>
+      <c r="S2" s="185"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="201"/>
+      <c r="Z2" s="185"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
       <c r="B3" s="147" t="s">
@@ -21883,10 +21933,10 @@
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="191"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
@@ -21896,14 +21946,14 @@
       <c r="I3" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
@@ -21913,11 +21963,11 @@
       <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="187"/>
       <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
@@ -22214,44 +22264,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="159"/>
       <c r="E12" s="159"/>
       <c r="F12" s="159"/>
       <c r="G12" s="160"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="191"/>
-      <c r="J12" s="190" t="s">
+      <c r="I12" s="187"/>
+      <c r="J12" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="R12" s="195" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="187"/>
+      <c r="R12" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="196"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="198"/>
+      <c r="T12" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="191"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="187"/>
       <c r="X12" s="160"/>
-      <c r="Y12" s="189" t="s">
+      <c r="Y12" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="191"/>
-      <c r="AB12" s="189" t="s">
+      <c r="Z12" s="187"/>
+      <c r="AB12" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="191"/>
+      <c r="AC12" s="187"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -22262,11 +22312,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="197">
+      <c r="H13" s="199">
         <f>I4*(1-I4)</f>
         <v>0.24915881141629451</v>
       </c>
-      <c r="I13" s="198"/>
+      <c r="I13" s="200"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.52900325126094483</v>
@@ -22291,11 +22341,11 @@
         <f>I9</f>
         <v>0.65093655102809744</v>
       </c>
-      <c r="R13" s="197">
+      <c r="R13" s="199">
         <f>S4*(1-S4)</f>
         <v>0.13124881143675377</v>
       </c>
-      <c r="S13" s="198"/>
+      <c r="S13" s="200"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>0.84460294334675412</v>
@@ -22308,11 +22358,11 @@
         <f>S6</f>
         <v>0.89338445555959478</v>
       </c>
-      <c r="Y13" s="197">
+      <c r="Y13" s="199">
         <f>Z4*(1-Z4)</f>
         <v>2.8090861402109001E-2</v>
       </c>
-      <c r="Z13" s="198"/>
+      <c r="Z13" s="200"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>2.892767158546555E-2</v>
@@ -22322,21 +22372,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="197">
+      <c r="H14" s="199">
         <f t="shared" ref="H14:H18" si="4">I5*(1-I5)</f>
         <v>0.24693662358377416</v>
       </c>
-      <c r="I14" s="198"/>
-      <c r="R14" s="197">
+      <c r="I14" s="200"/>
+      <c r="R14" s="199">
         <f t="shared" ref="R14:R15" si="5">S5*(1-S5)</f>
         <v>0.10609835151025759</v>
       </c>
-      <c r="S14" s="198"/>
-      <c r="Y14" s="199">
+      <c r="S14" s="200"/>
+      <c r="Y14" s="201">
         <f>Z5*(1-Z5)</f>
         <v>2.2838922261670416E-2</v>
       </c>
-      <c r="Z14" s="200"/>
+      <c r="Z14" s="202"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -22347,53 +22397,53 @@
     </row>
     <row r="15" spans="1:30" ht="13.5" thickBot="1">
       <c r="F15" s="28"/>
-      <c r="H15" s="197">
+      <c r="H15" s="199">
         <f t="shared" si="4"/>
         <v>0.24334950615399423</v>
       </c>
-      <c r="I15" s="198"/>
-      <c r="R15" s="199">
+      <c r="I15" s="200"/>
+      <c r="R15" s="201">
         <f t="shared" si="5"/>
         <v>9.5248670124081197E-2</v>
       </c>
-      <c r="S15" s="200"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="197">
+      <c r="H16" s="199">
         <f t="shared" si="4"/>
         <v>0.23888938038447438</v>
       </c>
-      <c r="I16" s="198"/>
+      <c r="I16" s="200"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="197">
+      <c r="H17" s="199">
         <f t="shared" si="4"/>
         <v>0.23340844989919626</v>
       </c>
-      <c r="I17" s="198"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="200"/>
+      <c r="J17" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
       <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="192" t="s">
+      <c r="T17" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="194"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="192"/>
       <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
@@ -22411,11 +22461,11 @@
         <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>-3.9217980156595003E-6</v>
       </c>
-      <c r="H18" s="199">
+      <c r="H18" s="201">
         <f t="shared" si="4"/>
         <v>0.22721815756374253</v>
       </c>
-      <c r="I18" s="200"/>
+      <c r="I18" s="202"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>-9.027885434334832E-6</v>
@@ -22502,10 +22552,10 @@
         <f>R21*$A$2</f>
         <v>-1.2989426557232191E-5</v>
       </c>
-      <c r="R19" s="189" t="s">
+      <c r="R19" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="191"/>
+      <c r="S19" s="187"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>4.5110825742190357E-5</v>
@@ -22522,10 +22572,10 @@
         <f>Z21*$A$2</f>
         <v>5.3410689718221811E-5</v>
       </c>
-      <c r="Z19" s="195" t="s">
+      <c r="Z19" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="196"/>
+      <c r="AA19" s="198"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
@@ -22568,18 +22618,18 @@
         <f>R22*$A$2</f>
         <v>-1.0054606845472342E-5</v>
       </c>
-      <c r="R20" s="185">
+      <c r="R20" s="193">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>-1.7065841113104218E-4</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="Z20" s="197">
+      <c r="S20" s="194"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="Z20" s="199">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>8.1260321319303946E-4</v>
       </c>
-      <c r="AA20" s="198"/>
+      <c r="AA20" s="200"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
@@ -22594,20 +22644,20 @@
         <f t="shared" si="7"/>
         <v>-4.1133148555290918E-6</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="R21" s="185">
+      <c r="I21" s="187"/>
+      <c r="R21" s="193">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>-1.2989426557232189E-4</v>
       </c>
-      <c r="S21" s="186"/>
-      <c r="Z21" s="199">
+      <c r="S21" s="194"/>
+      <c r="Z21" s="201">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>5.3410689718221807E-4</v>
       </c>
-      <c r="AA21" s="200"/>
+      <c r="AA21" s="202"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
@@ -22622,16 +22672,16 @@
         <f t="shared" si="7"/>
         <v>-5.1975795672635807E-6</v>
       </c>
-      <c r="H22" s="185">
+      <c r="H22" s="193">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>-3.9217980156595001E-5</v>
       </c>
-      <c r="I22" s="186"/>
-      <c r="R22" s="187">
+      <c r="I22" s="194"/>
+      <c r="R22" s="195">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>-1.0054606845472341E-4</v>
       </c>
-      <c r="S22" s="188"/>
+      <c r="S22" s="196"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
@@ -22646,38 +22696,38 @@
         <f t="shared" si="7"/>
         <v>-4.1106576084665634E-6</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="193">
         <f t="shared" ref="H23:H27" si="11">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>-3.9886017964729345E-5</v>
       </c>
-      <c r="I23" s="186"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="185">
+      <c r="H24" s="193">
         <f t="shared" si="11"/>
         <v>-4.7312192554681019E-5</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="190" t="s">
+      <c r="I24" s="194"/>
+      <c r="J24" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="191"/>
-      <c r="T24" s="189" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="187"/>
+      <c r="T24" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="187"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="185">
+      <c r="H25" s="193">
         <f t="shared" si="11"/>
         <v>-4.113314855529092E-5</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.18373328495841096</v>
@@ -22716,11 +22766,11 @@
       </c>
     </row>
     <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="185">
+      <c r="H26" s="193">
         <f t="shared" si="11"/>
         <v>-5.19757956726358E-5</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="124">
         <f t="shared" ref="J26:O27" si="14">J5</f>
         <v>0.34457570224018663</v>
@@ -22759,11 +22809,11 @@
       </c>
     </row>
     <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="187">
+      <c r="H27" s="195">
         <f t="shared" si="11"/>
         <v>-4.110657608466563E-5</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="43">
         <f t="shared" si="14"/>
         <v>0.80846025233978436</v>
@@ -22788,17 +22838,17 @@
         <f t="shared" si="14"/>
         <v>0.60813669078246457</v>
       </c>
-      <c r="Z27" s="189" t="s">
+      <c r="Z27" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="191"/>
+      <c r="AA27" s="187"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="189" t="s">
+      <c r="Q28" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>8.1260321319303946E-4</v>
@@ -22824,19 +22874,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="T31" s="189" t="s">
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="187"/>
+      <c r="T31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="190"/>
-      <c r="V31" s="191"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -22898,19 +22948,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="T36" s="189" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="187"/>
+      <c r="T36" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="190"/>
-      <c r="V36" s="191"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="187"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -22980,14 +23030,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="187"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -23107,51 +23157,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="T24:V24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B39:G39"/>
@@ -23162,6 +23167,51 @@
     <mergeCell ref="J36:O36"/>
     <mergeCell ref="T36:V36"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23291,40 +23341,40 @@
       <c r="A1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="R1" s="202" t="s">
+      <c r="I1" s="188"/>
+      <c r="R1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="Y1" s="202" t="s">
+      <c r="S1" s="188"/>
+      <c r="Y1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="202"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="A2" s="117">
         <v>0.1</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="C2" s="185"/>
+      <c r="H2" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="I2" s="185"/>
+      <c r="R2" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="201"/>
+      <c r="S2" s="185"/>
       <c r="X2" s="124"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="201"/>
+      <c r="Z2" s="185"/>
     </row>
     <row r="3" spans="1:30" ht="14.25">
       <c r="B3" s="147" t="s">
@@ -23333,10 +23383,10 @@
       <c r="C3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="191"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="147" t="s">
         <v>83</v>
       </c>
@@ -23346,14 +23396,14 @@
       <c r="I3" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="190" t="s">
+      <c r="J3" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="147" t="s">
         <v>84</v>
       </c>
@@ -23363,11 +23413,11 @@
       <c r="S3" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="187"/>
       <c r="W3" s="147" t="s">
         <v>89</v>
       </c>
@@ -23681,44 +23731,44 @@
       <c r="X11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="159"/>
       <c r="E12" s="159"/>
       <c r="F12" s="159"/>
       <c r="G12" s="160"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="191"/>
-      <c r="J12" s="190" t="s">
+      <c r="I12" s="187"/>
+      <c r="J12" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="191"/>
-      <c r="R12" s="195" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="187"/>
+      <c r="R12" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="196"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="198"/>
+      <c r="T12" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="191"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="187"/>
       <c r="X12" s="160"/>
-      <c r="Y12" s="189" t="s">
+      <c r="Y12" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="191"/>
-      <c r="AB12" s="189" t="s">
+      <c r="Z12" s="187"/>
+      <c r="AB12" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="191"/>
+      <c r="AC12" s="187"/>
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1">
       <c r="B13" s="42">
@@ -23729,11 +23779,11 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="185">
+      <c r="H13" s="193">
         <f>IF(H4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="186"/>
+      <c r="I13" s="194"/>
       <c r="J13" s="43">
         <f>I4</f>
         <v>0.2</v>
@@ -23758,11 +23808,11 @@
         <f>I9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R13" s="185">
+      <c r="R13" s="193">
         <f>IF(R4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="186"/>
+      <c r="S13" s="194"/>
       <c r="T13" s="42">
         <f>S4</f>
         <v>1.5900000000000003</v>
@@ -23775,11 +23825,11 @@
         <f>S6</f>
         <v>2.16</v>
       </c>
-      <c r="Y13" s="185">
+      <c r="Y13" s="193">
         <f>IF(Y4&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="186"/>
+      <c r="Z13" s="194"/>
       <c r="AB13" s="31">
         <f>AC4</f>
         <v>-5.9429999999999996</v>
@@ -23789,21 +23839,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H14" s="185">
+      <c r="H14" s="193">
         <f t="shared" ref="H14:H18" si="4">IF(H5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="186"/>
-      <c r="R14" s="185">
+      <c r="I14" s="194"/>
+      <c r="R14" s="193">
         <f t="shared" ref="R14:R15" si="5">IF(R5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="186"/>
-      <c r="Y14" s="185">
+      <c r="S14" s="194"/>
+      <c r="Y14" s="193">
         <f>IF(Y5&lt;=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Z14" s="186"/>
+      <c r="Z14" s="194"/>
       <c r="AB14" s="42">
         <v>0</v>
       </c>
@@ -23814,53 +23864,53 @@
     </row>
     <row r="15" spans="1:30">
       <c r="F15" s="28"/>
-      <c r="H15" s="185">
+      <c r="H15" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I15" s="186"/>
-      <c r="R15" s="185">
+      <c r="I15" s="194"/>
+      <c r="R15" s="193">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S15" s="186"/>
+      <c r="S15" s="194"/>
     </row>
     <row r="16" spans="1:30" ht="13.5" thickBot="1">
-      <c r="H16" s="185">
+      <c r="H16" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I16" s="186"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="4:28" ht="14.25">
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="185">
+      <c r="H17" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="194"/>
+      <c r="J17" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
       <c r="P17" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="192" t="s">
+      <c r="T17" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="194"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="192"/>
       <c r="W17" s="162" t="s">
         <v>114</v>
       </c>
@@ -23878,11 +23928,11 @@
         <f t="shared" ref="F18:F23" si="7">H22*$A$2</f>
         <v>0.45155100000000009</v>
       </c>
-      <c r="H18" s="185">
+      <c r="H18" s="193">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="186"/>
+      <c r="I18" s="194"/>
       <c r="J18" s="28">
         <f>J$13*$R20*$A$2</f>
         <v>2.7330000000000007E-2</v>
@@ -23969,10 +24019,10 @@
         <f>R21*$A$2</f>
         <v>0.20794000000000007</v>
       </c>
-      <c r="R19" s="189" t="s">
+      <c r="R19" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="191"/>
+      <c r="S19" s="187"/>
       <c r="T19" s="80">
         <f>T$13*$Z21*$A$2</f>
         <v>1.0392240000000004</v>
@@ -23989,10 +24039,10 @@
         <f>Z21*$A$2</f>
         <v>0.65360000000000007</v>
       </c>
-      <c r="Z19" s="195" t="s">
+      <c r="Z19" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="AA19" s="196"/>
+      <c r="AA19" s="198"/>
     </row>
     <row r="20" spans="4:28" ht="13.5" thickBot="1">
       <c r="D20" s="31">
@@ -24035,18 +24085,18 @@
         <f>R22*$A$2</f>
         <v>0.46938000000000007</v>
       </c>
-      <c r="R20" s="185">
+      <c r="R20" s="193">
         <f>T37*$R$13+U37*$R$14+V37*$R$15</f>
         <v>1.3665000000000003</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="Z20" s="197">
+      <c r="S20" s="194"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="Z20" s="199">
         <f>AB13*$Y$13+AC13*$Y$14</f>
         <v>-5.9429999999999996</v>
       </c>
-      <c r="AA20" s="198"/>
+      <c r="AA20" s="200"/>
     </row>
     <row r="21" spans="4:28" ht="15" thickBot="1">
       <c r="D21" s="31">
@@ -24061,20 +24111,20 @@
         <f t="shared" si="7"/>
         <v>0.19843900000000006</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="R21" s="185">
+      <c r="I21" s="187"/>
+      <c r="R21" s="193">
         <f>T38*$R$13+U38*$R$14+V38*$R$15</f>
         <v>2.0794000000000006</v>
       </c>
-      <c r="S21" s="186"/>
-      <c r="Z21" s="199">
+      <c r="S21" s="194"/>
+      <c r="Z21" s="201">
         <f>AB14*$Y$13+AC14*$Y$14</f>
         <v>6.5360000000000005</v>
       </c>
-      <c r="AA21" s="200"/>
+      <c r="AA21" s="202"/>
     </row>
     <row r="22" spans="4:28" ht="13.5" thickBot="1">
       <c r="D22" s="31">
@@ -24089,16 +24139,16 @@
         <f t="shared" si="7"/>
         <v>0.53948400000000007</v>
       </c>
-      <c r="H22" s="185">
+      <c r="H22" s="193">
         <f>J37*$H$13+K37*$H$14+L37*$H$15+M37*$H$16+N37*$H$17+O37*$H$18</f>
         <v>4.5155100000000008</v>
       </c>
-      <c r="I22" s="186"/>
-      <c r="R22" s="187">
+      <c r="I22" s="194"/>
+      <c r="R22" s="195">
         <f>T39*$R$13+U39*$R$14+V39*$R$15</f>
         <v>4.6938000000000004</v>
       </c>
-      <c r="S22" s="188"/>
+      <c r="S22" s="196"/>
     </row>
     <row r="23" spans="4:28" ht="13.5" thickBot="1">
       <c r="D23" s="42">
@@ -24113,38 +24163,38 @@
         <f t="shared" si="7"/>
         <v>0.3778760000000001</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="193">
         <f t="shared" ref="H23:H27" si="11">J38*$H$13+K38*$H$14+L38*$H$15+M38*$H$16+N38*$H$17+O38*$H$18</f>
         <v>3.1905200000000007</v>
       </c>
-      <c r="I23" s="186"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="4:28" ht="14.25">
-      <c r="H24" s="185">
+      <c r="H24" s="193">
         <f t="shared" si="11"/>
         <v>3.0835200000000009</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="190" t="s">
+      <c r="I24" s="194"/>
+      <c r="J24" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="191"/>
-      <c r="T24" s="189" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="187"/>
+      <c r="T24" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="191"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="187"/>
     </row>
     <row r="25" spans="4:28">
-      <c r="H25" s="185">
+      <c r="H25" s="193">
         <f t="shared" si="11"/>
         <v>1.9843900000000005</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="124">
         <f>J4</f>
         <v>0.1</v>
@@ -24183,11 +24233,11 @@
       </c>
     </row>
     <row r="26" spans="4:28" ht="13.5" thickBot="1">
-      <c r="H26" s="185">
+      <c r="H26" s="193">
         <f t="shared" si="11"/>
         <v>5.3948400000000003</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="124">
         <f t="shared" ref="J26:O27" si="14">J5</f>
         <v>0.3</v>
@@ -24226,11 +24276,11 @@
       </c>
     </row>
     <row r="27" spans="4:28" ht="15.75" thickBot="1">
-      <c r="H27" s="187">
+      <c r="H27" s="195">
         <f t="shared" si="11"/>
         <v>3.7787600000000006</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="43">
         <f t="shared" si="14"/>
         <v>0.8</v>
@@ -24255,17 +24305,17 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="Z27" s="189" t="s">
+      <c r="Z27" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AA27" s="191"/>
+      <c r="AA27" s="187"/>
     </row>
     <row r="28" spans="4:28" ht="15.75" thickBot="1">
-      <c r="Q28" s="189" t="s">
+      <c r="Q28" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
       <c r="Z28" s="42">
         <f>Z20</f>
         <v>-5.9429999999999996</v>
@@ -24291,19 +24341,19 @@
     </row>
     <row r="30" spans="4:28" ht="13.5" thickBot="1"/>
     <row r="31" spans="4:28" ht="14.25">
-      <c r="J31" s="189" t="s">
+      <c r="J31" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="T31" s="189" t="s">
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="187"/>
+      <c r="T31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="U31" s="190"/>
-      <c r="V31" s="191"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="4:28" ht="13.5" thickBot="1">
       <c r="J32" s="42">
@@ -24365,19 +24415,19 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="2:28" ht="15">
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="T36" s="189" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="187"/>
+      <c r="T36" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="190"/>
-      <c r="V36" s="191"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="187"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
@@ -24447,14 +24497,14 @@
       </c>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="187"/>
       <c r="J39" s="31">
         <v>0</v>
       </c>
@@ -24574,51 +24624,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="T24:V24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B39:G39"/>
@@ -24629,6 +24634,51 @@
     <mergeCell ref="J36:O36"/>
     <mergeCell ref="T36:V36"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24733,10 +24783,297 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.429979</v>
+      </c>
+      <c r="D3">
+        <v>-0.10538699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>4.2997899999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.05387E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>8.5995799999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>-2.10773E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.429979</v>
+      </c>
+      <c r="D3">
+        <v>-0.429979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0.24509700000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.24509700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1.05387E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.05387E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4.2997899999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>-0.10538699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>8.5995799999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>0.24445800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0.24445800000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.23500399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0.23500399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>-2.57626E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1.05112E-3</v>
+      </c>
+      <c r="D25">
+        <v>-4.9532500000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2.0209300000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
